--- a/table.xlsx
+++ b/table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="464">
   <si>
     <t>name</t>
   </si>
@@ -1165,50 +1165,251 @@
     <t>дикий посох (старейшина)</t>
   </si>
   <si>
-    <t>плащ Еретиков (мастер)</t>
+    <t>авалонский плащ (знаток)</t>
+  </si>
+  <si>
+    <t>авалонский плащ (эксперт)</t>
+  </si>
+  <si>
+    <t>авалонский плащ (мастер)</t>
+  </si>
+  <si>
+    <t>авалонский плащ (магистр)</t>
+  </si>
+  <si>
+    <t>авалонский плащ (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ морганы (знаток)</t>
+  </si>
+  <si>
+    <t>плащ морганы (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ морганы (мастер)</t>
+  </si>
+  <si>
+    <t>плащ морганы (магистр)</t>
+  </si>
+  <si>
+    <t>плащ морганы (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ контрабандиста (знаток)</t>
+  </si>
+  <si>
+    <t>плащ контрабандиста (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ контрабандиста (мастер)</t>
+  </si>
+  <si>
+    <t>плащ контрабандиста (магистр)</t>
+  </si>
+  <si>
+    <t>плащ контрабандиста (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ хранителей (знаток)</t>
+  </si>
+  <si>
+    <t>плащ хранителей (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ хранителей (мастер)</t>
+  </si>
+  <si>
+    <t>плащ хранителей (магистр)</t>
+  </si>
+  <si>
+    <t>плащ хранителей (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ еретиков (знаток)</t>
+  </si>
+  <si>
+    <t>плащ еретиков (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ еретиков (мастер)</t>
+  </si>
+  <si>
+    <t>плащ еретиков (магистр)</t>
+  </si>
+  <si>
+    <t>плащ еретиков (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ демонов (знаток)</t>
+  </si>
+  <si>
+    <t>плащ демонов (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ демонов (мастер)</t>
+  </si>
+  <si>
+    <t>плащ демонов (магистр)</t>
+  </si>
+  <si>
+    <t>плащ демонов (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ нежити (знаток)</t>
+  </si>
+  <si>
+    <t>плащ нежити (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ нежити (мастер)</t>
+  </si>
+  <si>
+    <t>плащ нежити (магистр)</t>
+  </si>
+  <si>
+    <t>плащ нежити (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ города brecilien (знаток)</t>
+  </si>
+  <si>
+    <t>плащ города brecilien (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ города brecilien (мастер)</t>
+  </si>
+  <si>
+    <t>плащ города brecilien (магистр)</t>
+  </si>
+  <si>
+    <t>плащ города brecilien (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ города caerleon (знаток)</t>
+  </si>
+  <si>
+    <t>плащ города caerleon (эксперт)</t>
+  </si>
+  <si>
+    <t>плащ города caerleon (мастер)</t>
+  </si>
+  <si>
+    <t>плащ города caerleon (магистр)</t>
+  </si>
+  <si>
+    <t>плащ города caerleon (старейшина)</t>
+  </si>
+  <si>
+    <t>накидка города bridgewatch (знаток)</t>
+  </si>
+  <si>
+    <t>накидка города bridgewatch (эксперт)</t>
+  </si>
+  <si>
+    <t>накидка города bridgewatch (мастер)</t>
+  </si>
+  <si>
+    <t>накидка города bridgewatch (магистр)</t>
+  </si>
+  <si>
+    <t>накидка города bridgewatch (старейшина)</t>
+  </si>
+  <si>
+    <t>накидка города lymhurst (знаток)</t>
+  </si>
+  <si>
+    <t>накидка города lymhurst (эксперт)</t>
+  </si>
+  <si>
+    <t>накидка города lymhurst (мастер)</t>
+  </si>
+  <si>
+    <t>накидка города lymhurst (магистр)</t>
+  </si>
+  <si>
+    <t>накидка города lymhurst (старейшина)</t>
+  </si>
+  <si>
+    <t>накидка города fort Sterling (знаток)</t>
+  </si>
+  <si>
+    <t>накидка города fort Sterling (эксперт)</t>
+  </si>
+  <si>
+    <t>накидка города fort Sterling (мастер)</t>
+  </si>
+  <si>
+    <t>накидка города fort Sterling (магистр)</t>
+  </si>
+  <si>
+    <t>накидка города fort Sterling (старейшина)</t>
+  </si>
+  <si>
+    <t>накидка города martlock (знаток)</t>
+  </si>
+  <si>
+    <t>накидка города martlock (эксперт)</t>
   </si>
   <si>
     <t>накидка города martlock (мастер)</t>
   </si>
   <si>
-    <t>авалонский плащ (мастер)</t>
-  </si>
-  <si>
-    <t>плащ морганы (мастер)</t>
-  </si>
-  <si>
-    <t>плащ хранителей (мастер)</t>
-  </si>
-  <si>
-    <t>накидка города bridgewatch (мастер)</t>
-  </si>
-  <si>
-    <t>накидка города fort sterling (мастер)</t>
+    <t>накидка города martlock (магистр)</t>
+  </si>
+  <si>
+    <t>накидка города martlock (старейшина)</t>
+  </si>
+  <si>
+    <t>накидка города thetford (знаток)</t>
+  </si>
+  <si>
+    <t>накидка города thetford (эксперт)</t>
+  </si>
+  <si>
+    <t>накидка города thetford (мастер)</t>
+  </si>
+  <si>
+    <t>накидка города thetford (магистр)</t>
+  </si>
+  <si>
+    <t>накидка города thetford (старейшина)</t>
+  </si>
+  <si>
+    <t>сумка (знаток)</t>
+  </si>
+  <si>
+    <t>сумка (эксперт)</t>
+  </si>
+  <si>
+    <t>сумка (мастер)</t>
+  </si>
+  <si>
+    <t>сумка (магистр)</t>
+  </si>
+  <si>
+    <t>сумка (старейшина)</t>
+  </si>
+  <si>
+    <t>плащ (знаток)</t>
+  </si>
+  <si>
+    <t>плащ (эксперт)</t>
   </si>
   <si>
     <t>плащ (мастер)</t>
   </si>
   <si>
-    <t>плащ (знаток)</t>
-  </si>
-  <si>
-    <t>плащ (эксперт)</t>
-  </si>
-  <si>
-    <t>сумка (эксперт)</t>
-  </si>
-  <si>
-    <t>сумка (знаток)</t>
-  </si>
-  <si>
-    <t>сумка (мастер)</t>
+    <t>плащ (магистр)</t>
+  </si>
+  <si>
+    <t>плащ (старейшина)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1231,8 +1432,12 @@
       <color theme="1"/>
       <name val="Inter"/>
     </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,98 +1536,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="19" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>2387.0</v>
+        <v>2201.0</v>
       </c>
       <c r="C2" s="5">
         <v>0.0</v>
@@ -1682,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>6867.0</v>
+        <v>6314.0</v>
       </c>
       <c r="C3" s="5">
         <v>0.0</v>
@@ -1699,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>20800.0</v>
+        <v>18725.0</v>
       </c>
       <c r="C4" s="5">
         <v>0.0</v>
@@ -1715,13 +1979,13 @@
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10">
-        <v>48892.0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="4">
+        <v>47585.0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="10">
         <v>10.0</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1729,16 +1993,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10">
-        <v>143119.0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="4">
+        <v>135536.0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="10">
         <v>5.0</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1746,11 +2010,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13">
-        <v>2395.0</v>
+        <v>1970.0</v>
       </c>
       <c r="C7" s="5">
         <v>0.0</v>
@@ -1763,11 +2027,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>7398.0</v>
+        <v>5700.0</v>
       </c>
       <c r="C8" s="5">
         <v>0.0</v>
@@ -1780,11 +2044,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="13">
-        <v>22677.0</v>
+        <v>20180.0</v>
       </c>
       <c r="C9" s="5">
         <v>0.0</v>
@@ -1797,16 +2061,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14">
-        <v>53996.0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="13">
+        <v>46877.0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="10">
         <v>10.0</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1814,16 +2078,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
-        <v>131995.0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="B11" s="13">
+        <v>124972.0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="10">
         <v>5.0</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1834,8 +2098,8 @@
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15">
-        <v>2592.0</v>
+      <c r="B12" s="18">
+        <v>2225.0</v>
       </c>
       <c r="C12" s="5">
         <v>0.0</v>
@@ -1851,8 +2115,8 @@
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="15">
-        <v>6981.0</v>
+      <c r="B13" s="18">
+        <v>5996.0</v>
       </c>
       <c r="C13" s="5">
         <v>0.0</v>
@@ -1868,8 +2132,8 @@
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="15">
-        <v>21967.0</v>
+      <c r="B14" s="18">
+        <v>21340.0</v>
       </c>
       <c r="C14" s="5">
         <v>0.0</v>
@@ -1885,13 +2149,13 @@
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16">
-        <v>48992.0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B15" s="18">
+        <v>48770.0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="10">
         <v>10.0</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1899,16 +2163,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16">
-        <v>132993.0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="B16" s="18">
+        <v>148969.0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="10">
         <v>5.0</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1919,8 +2183,8 @@
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="17">
-        <v>3478.0</v>
+      <c r="B17" s="19">
+        <v>3477.0</v>
       </c>
       <c r="C17" s="5">
         <v>0.0</v>
@@ -1936,8 +2200,8 @@
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="17">
-        <v>9000.0</v>
+      <c r="B18" s="19">
+        <v>10123.0</v>
       </c>
       <c r="C18" s="5">
         <v>0.0</v>
@@ -1953,8 +2217,8 @@
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="17">
-        <v>31970.0</v>
+      <c r="B19" s="19">
+        <v>40958.0</v>
       </c>
       <c r="C19" s="5">
         <v>0.0</v>
@@ -1970,13 +2234,13 @@
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="17">
-        <v>88444.0</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="B20" s="19">
+        <v>87983.0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="10">
         <v>10.0</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1984,16 +2248,16 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17">
-        <v>186119.0</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="B21" s="19">
+        <v>179998.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="10">
         <v>5.0</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2004,8 +2268,8 @@
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="10">
-        <v>3446.0</v>
+      <c r="B22" s="4">
+        <v>4556.0</v>
       </c>
       <c r="C22" s="5">
         <v>0.0</v>
@@ -2021,8 +2285,8 @@
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="10">
-        <v>8676.0</v>
+      <c r="B23" s="4">
+        <v>11160.0</v>
       </c>
       <c r="C23" s="5">
         <v>0.0</v>
@@ -2038,8 +2302,8 @@
       <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="10">
-        <v>34874.0</v>
+      <c r="B24" s="4">
+        <v>30994.0</v>
       </c>
       <c r="C24" s="5">
         <v>0.0</v>
@@ -2055,13 +2319,13 @@
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="10">
-        <v>88849.0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="B25" s="4">
+        <v>89657.0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="10">
         <v>10.0</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2069,16 +2333,16 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="10">
-        <v>186981.0</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="B26" s="4">
+        <v>198812.0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="10">
         <v>5.0</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -2089,8 +2353,8 @@
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="18">
-        <v>3498.0</v>
+      <c r="B27" s="20">
+        <v>4800.0</v>
       </c>
       <c r="C27" s="5">
         <v>0.0</v>
@@ -2106,8 +2370,8 @@
       <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="18">
-        <v>8999.0</v>
+      <c r="B28" s="20">
+        <v>9978.0</v>
       </c>
       <c r="C28" s="5">
         <v>0.0</v>
@@ -2123,8 +2387,8 @@
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="18">
-        <v>32993.0</v>
+      <c r="B29" s="20">
+        <v>36853.0</v>
       </c>
       <c r="C29" s="5">
         <v>0.0</v>
@@ -2140,13 +2404,13 @@
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="18">
-        <v>92285.0</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="B30" s="20">
+        <v>87870.0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="10">
         <v>10.0</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -2154,16 +2418,16 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="18">
-        <v>174109.0</v>
-      </c>
-      <c r="C31" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="B31" s="20">
+        <v>197868.0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="10">
         <v>5.0</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -2174,8 +2438,8 @@
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="19">
-        <v>2357.0</v>
+      <c r="B32" s="21">
+        <v>2635.0</v>
       </c>
       <c r="C32" s="5">
         <v>0.0</v>
@@ -2191,8 +2455,8 @@
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="19">
-        <v>7199.0</v>
+      <c r="B33" s="21">
+        <v>8372.0</v>
       </c>
       <c r="C33" s="5">
         <v>0.0</v>
@@ -2208,8 +2472,8 @@
       <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="19">
-        <v>19999.0</v>
+      <c r="B34" s="21">
+        <v>28674.0</v>
       </c>
       <c r="C34" s="5">
         <v>0.0</v>
@@ -2225,13 +2489,13 @@
       <c r="A35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="19">
-        <v>60987.0</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="B35" s="21">
+        <v>75000.0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="10">
         <v>10.0</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -2239,16 +2503,16 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="19">
-        <v>159997.0</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="B36" s="21">
+        <v>156680.0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="10">
         <v>5.0</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2259,8 +2523,8 @@
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="20">
-        <v>2628.0</v>
+      <c r="B37" s="22">
+        <v>2638.0</v>
       </c>
       <c r="C37" s="5">
         <v>0.0</v>
@@ -2276,8 +2540,8 @@
       <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="20">
-        <v>7727.0</v>
+      <c r="B38" s="22">
+        <v>7887.0</v>
       </c>
       <c r="C38" s="5">
         <v>0.0</v>
@@ -2293,8 +2557,8 @@
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="20">
-        <v>26653.0</v>
+      <c r="B39" s="22">
+        <v>29847.0</v>
       </c>
       <c r="C39" s="5">
         <v>0.0</v>
@@ -2310,13 +2574,13 @@
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="20">
-        <v>65583.0</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="B40" s="22">
+        <v>65729.0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="10">
         <v>10.0</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -2324,16 +2588,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="20">
-        <v>178972.0</v>
-      </c>
-      <c r="C41" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="B41" s="22">
+        <v>165000.0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="10">
         <v>5.0</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -2344,8 +2608,8 @@
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="16">
-        <v>2325.0</v>
+      <c r="B42" s="18">
+        <v>2924.0</v>
       </c>
       <c r="C42" s="5">
         <v>0.0</v>
@@ -2361,8 +2625,8 @@
       <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="16">
-        <v>7480.0</v>
+      <c r="B43" s="18">
+        <v>7915.0</v>
       </c>
       <c r="C43" s="5">
         <v>0.0</v>
@@ -2378,8 +2642,8 @@
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="16">
-        <v>26477.0</v>
+      <c r="B44" s="18">
+        <v>23751.0</v>
       </c>
       <c r="C44" s="5">
         <v>0.0</v>
@@ -2395,13 +2659,13 @@
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="16">
-        <v>58988.0</v>
-      </c>
-      <c r="C45" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="11">
+      <c r="B45" s="18">
+        <v>63173.0</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="10">
         <v>10.0</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -2409,16 +2673,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="16">
-        <v>158987.0</v>
-      </c>
-      <c r="C46" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="11">
+      <c r="B46" s="18">
+        <v>145464.0</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="10">
         <v>5.0</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -2429,8 +2693,8 @@
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="10">
-        <v>5093.0</v>
+      <c r="B47" s="4">
+        <v>5707.0</v>
       </c>
       <c r="C47" s="5">
         <v>0.0</v>
@@ -2446,8 +2710,8 @@
       <c r="A48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="10">
-        <v>14300.0</v>
+      <c r="B48" s="4">
+        <v>14959.0</v>
       </c>
       <c r="C48" s="5">
         <v>0.0</v>
@@ -2463,8 +2727,8 @@
       <c r="A49" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="10">
-        <v>64671.0</v>
+      <c r="B49" s="4">
+        <v>46000.0</v>
       </c>
       <c r="C49" s="5">
         <v>0.0</v>
@@ -2480,13 +2744,13 @@
       <c r="A50" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="10">
-        <v>98998.0</v>
-      </c>
-      <c r="C50" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="B50" s="4">
+        <v>95199.0</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="10">
         <v>10.0</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -2494,16 +2758,16 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="10">
-        <v>284994.0</v>
-      </c>
-      <c r="C51" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="11">
+      <c r="B51" s="4">
+        <v>323871.0</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="10">
         <v>5.0</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -2514,8 +2778,8 @@
       <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="18">
-        <v>4990.0</v>
+      <c r="B52" s="20">
+        <v>5996.0</v>
       </c>
       <c r="C52" s="5">
         <v>0.0</v>
@@ -2531,8 +2795,8 @@
       <c r="A53" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="18">
-        <v>13770.0</v>
+      <c r="B53" s="20">
+        <v>13882.0</v>
       </c>
       <c r="C53" s="5">
         <v>0.0</v>
@@ -2548,8 +2812,8 @@
       <c r="A54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="18">
-        <v>62966.0</v>
+      <c r="B54" s="20">
+        <v>42980.0</v>
       </c>
       <c r="C54" s="5">
         <v>0.0</v>
@@ -2565,13 +2829,13 @@
       <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="18">
-        <v>97799.0</v>
-      </c>
-      <c r="C55" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D55" s="11">
+      <c r="B55" s="20">
+        <v>97691.0</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="10">
         <v>10.0</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -2579,16 +2843,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="18">
-        <v>279490.0</v>
-      </c>
-      <c r="C56" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="11">
+      <c r="B56" s="20">
+        <v>326995.0</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="10">
         <v>5.0</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -2599,8 +2863,8 @@
       <c r="A57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="19">
-        <v>5318.0</v>
+      <c r="B57" s="21">
+        <v>5399.0</v>
       </c>
       <c r="C57" s="5">
         <v>0.0</v>
@@ -2616,8 +2880,8 @@
       <c r="A58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="19">
-        <v>13618.0</v>
+      <c r="B58" s="21">
+        <v>14546.0</v>
       </c>
       <c r="C58" s="5">
         <v>0.0</v>
@@ -2633,8 +2897,8 @@
       <c r="A59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="19">
-        <v>45967.0</v>
+      <c r="B59" s="21">
+        <v>46496.0</v>
       </c>
       <c r="C59" s="5">
         <v>0.0</v>
@@ -2650,13 +2914,13 @@
       <c r="A60" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="19">
-        <v>96991.0</v>
-      </c>
-      <c r="C60" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="B60" s="21">
+        <v>93878.0</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="10">
         <v>10.0</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -2664,16 +2928,16 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="19">
-        <v>325991.0</v>
-      </c>
-      <c r="C61" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D61" s="11">
+      <c r="B61" s="21">
+        <v>324125.0</v>
+      </c>
+      <c r="C61" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="10">
         <v>5.0</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -2684,8 +2948,8 @@
       <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="20">
-        <v>3739.0</v>
+      <c r="B62" s="22">
+        <v>5049.0</v>
       </c>
       <c r="C62" s="5">
         <v>0.0</v>
@@ -2701,8 +2965,8 @@
       <c r="A63" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="20">
-        <v>15579.0</v>
+      <c r="B63" s="22">
+        <v>15601.0</v>
       </c>
       <c r="C63" s="5">
         <v>0.0</v>
@@ -2718,8 +2982,8 @@
       <c r="A64" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="20">
-        <v>54997.0</v>
+      <c r="B64" s="22">
+        <v>67997.0</v>
       </c>
       <c r="C64" s="5">
         <v>0.0</v>
@@ -2735,13 +2999,13 @@
       <c r="A65" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="20">
-        <v>161596.0</v>
-      </c>
-      <c r="C65" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D65" s="11">
+      <c r="B65" s="22">
+        <v>149999.0</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="10">
         <v>10.0</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -2749,16 +3013,16 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="20">
-        <v>358962.0</v>
-      </c>
-      <c r="C66" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D66" s="11">
+      <c r="B66" s="22">
+        <v>368887.0</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="10">
         <v>5.0</v>
       </c>
       <c r="E66" s="6" t="s">
@@ -2769,8 +3033,8 @@
       <c r="A67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="16">
-        <v>5284.0</v>
+      <c r="B67" s="18">
+        <v>6666.0</v>
       </c>
       <c r="C67" s="5">
         <v>0.0</v>
@@ -2786,8 +3050,8 @@
       <c r="A68" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="16">
-        <v>16697.0</v>
+      <c r="B68" s="18">
+        <v>14999.0</v>
       </c>
       <c r="C68" s="5">
         <v>0.0</v>
@@ -2803,8 +3067,8 @@
       <c r="A69" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="16">
-        <v>51568.0</v>
+      <c r="B69" s="18">
+        <v>75926.0</v>
       </c>
       <c r="C69" s="5">
         <v>0.0</v>
@@ -2820,13 +3084,13 @@
       <c r="A70" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="16">
-        <v>162927.0</v>
-      </c>
-      <c r="C70" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D70" s="11">
+      <c r="B70" s="18">
+        <v>159997.0</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="10">
         <v>10.0</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -2834,16 +3098,16 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="16">
-        <v>358685.0</v>
-      </c>
-      <c r="C71" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D71" s="11">
+      <c r="B71" s="18">
+        <v>378885.0</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="10">
         <v>5.0</v>
       </c>
       <c r="E71" s="6" t="s">
@@ -2854,8 +3118,8 @@
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="10">
-        <v>5499.0</v>
+      <c r="B72" s="4">
+        <v>5541.0</v>
       </c>
       <c r="C72" s="5">
         <v>0.0</v>
@@ -2871,8 +3135,8 @@
       <c r="A73" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="10">
-        <v>15082.0</v>
+      <c r="B73" s="4">
+        <v>16428.0</v>
       </c>
       <c r="C73" s="5">
         <v>0.0</v>
@@ -2888,8 +3152,8 @@
       <c r="A74" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="10">
-        <v>52548.0</v>
+      <c r="B74" s="4">
+        <v>69999.0</v>
       </c>
       <c r="C74" s="5">
         <v>0.0</v>
@@ -2905,13 +3169,13 @@
       <c r="A75" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="10">
-        <v>152997.0</v>
-      </c>
-      <c r="C75" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D75" s="11">
+      <c r="B75" s="4">
+        <v>148872.0</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="10">
         <v>10.0</v>
       </c>
       <c r="E75" s="6" t="s">
@@ -2919,16 +3183,16 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="10">
-        <v>436994.0</v>
-      </c>
-      <c r="C76" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D76" s="11">
+      <c r="B76" s="4">
+        <v>438870.0</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="10">
         <v>5.0</v>
       </c>
       <c r="E76" s="6" t="s">
@@ -2939,8 +3203,8 @@
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="18">
-        <v>6319.0</v>
+      <c r="B77" s="20">
+        <v>4984.0</v>
       </c>
       <c r="C77" s="5">
         <v>0.0</v>
@@ -2956,8 +3220,8 @@
       <c r="A78" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="18">
-        <v>15688.0</v>
+      <c r="B78" s="20">
+        <v>14936.0</v>
       </c>
       <c r="C78" s="5">
         <v>0.0</v>
@@ -2973,8 +3237,8 @@
       <c r="A79" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="18">
-        <v>44500.0</v>
+      <c r="B79" s="20">
+        <v>46990.0</v>
       </c>
       <c r="C79" s="5">
         <v>0.0</v>
@@ -2990,13 +3254,13 @@
       <c r="A80" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="18">
-        <v>122968.0</v>
-      </c>
-      <c r="C80" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D80" s="11">
+      <c r="B80" s="20">
+        <v>119996.0</v>
+      </c>
+      <c r="C80" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="10">
         <v>10.0</v>
       </c>
       <c r="E80" s="6" t="s">
@@ -3004,16 +3268,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="18">
-        <v>298997.0</v>
-      </c>
-      <c r="C81" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="11">
+      <c r="B81" s="20">
+        <v>332222.0</v>
+      </c>
+      <c r="C81" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="10">
         <v>5.0</v>
       </c>
       <c r="E81" s="6" t="s">
@@ -3024,8 +3288,8 @@
       <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="19">
-        <v>4470.0</v>
+      <c r="B82" s="21">
+        <v>5247.0</v>
       </c>
       <c r="C82" s="5">
         <v>0.0</v>
@@ -3041,8 +3305,8 @@
       <c r="A83" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="19">
-        <v>16298.0</v>
+      <c r="B83" s="21">
+        <v>14524.0</v>
       </c>
       <c r="C83" s="5">
         <v>0.0</v>
@@ -3058,8 +3322,8 @@
       <c r="A84" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="19">
-        <v>48867.0</v>
+      <c r="B84" s="21">
+        <v>49804.0</v>
       </c>
       <c r="C84" s="5">
         <v>0.0</v>
@@ -3075,13 +3339,13 @@
       <c r="A85" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="19">
-        <v>114984.0</v>
-      </c>
-      <c r="C85" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="11">
+      <c r="B85" s="21">
+        <v>114331.0</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="10">
         <v>10.0</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -3089,16 +3353,16 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="19">
-        <v>318682.0</v>
-      </c>
-      <c r="C86" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="11">
+      <c r="B86" s="21">
+        <v>333990.0</v>
+      </c>
+      <c r="C86" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="10">
         <v>5.0</v>
       </c>
       <c r="E86" s="6" t="s">
@@ -3109,8 +3373,8 @@
       <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="20">
-        <v>5071.0</v>
+      <c r="B87" s="22">
+        <v>5016.0</v>
       </c>
       <c r="C87" s="5">
         <v>0.0</v>
@@ -3126,8 +3390,8 @@
       <c r="A88" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="20">
-        <v>16395.0</v>
+      <c r="B88" s="22">
+        <v>15896.0</v>
       </c>
       <c r="C88" s="5">
         <v>0.0</v>
@@ -3143,8 +3407,8 @@
       <c r="A89" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="20">
-        <v>47286.0</v>
+      <c r="B89" s="22">
+        <v>51818.0</v>
       </c>
       <c r="C89" s="5">
         <v>0.0</v>
@@ -3160,13 +3424,13 @@
       <c r="A90" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="20">
-        <v>123746.0</v>
-      </c>
-      <c r="C90" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="11">
+      <c r="B90" s="22">
+        <v>124974.0</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="10">
         <v>10.0</v>
       </c>
       <c r="E90" s="6" t="s">
@@ -3174,16 +3438,16 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="20">
-        <v>319983.0</v>
-      </c>
-      <c r="C91" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D91" s="11">
+      <c r="B91" s="22">
+        <v>318885.0</v>
+      </c>
+      <c r="C91" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="10">
         <v>5.0</v>
       </c>
       <c r="E91" s="6" t="s">
@@ -3194,8 +3458,8 @@
       <c r="A92" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="19">
-        <v>2726.0</v>
+      <c r="B92" s="21">
+        <v>2776.0</v>
       </c>
       <c r="C92" s="5">
         <v>0.0</v>
@@ -3211,8 +3475,8 @@
       <c r="A93" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="19">
-        <v>8342.0</v>
+      <c r="B93" s="21">
+        <v>8346.0</v>
       </c>
       <c r="C93" s="5">
         <v>0.0</v>
@@ -3228,8 +3492,8 @@
       <c r="A94" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="19">
-        <v>25687.0</v>
+      <c r="B94" s="21">
+        <v>24606.0</v>
       </c>
       <c r="C94" s="5">
         <v>0.0</v>
@@ -3245,13 +3509,13 @@
       <c r="A95" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="19">
-        <v>52688.0</v>
-      </c>
-      <c r="C95" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="11">
+      <c r="B95" s="21">
+        <v>59788.0</v>
+      </c>
+      <c r="C95" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="10">
         <v>10.0</v>
       </c>
       <c r="E95" s="6" t="s">
@@ -3259,16 +3523,16 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="19">
-        <v>165105.0</v>
-      </c>
-      <c r="C96" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D96" s="11">
+      <c r="B96" s="21">
+        <v>165045.0</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D96" s="10">
         <v>5.0</v>
       </c>
       <c r="E96" s="6" t="s">
@@ -3279,8 +3543,8 @@
       <c r="A97" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="20">
-        <v>2829.0</v>
+      <c r="B97" s="22">
+        <v>2828.0</v>
       </c>
       <c r="C97" s="5">
         <v>0.0</v>
@@ -3296,8 +3560,8 @@
       <c r="A98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="20">
-        <v>9194.0</v>
+      <c r="B98" s="22">
+        <v>7365.0</v>
       </c>
       <c r="C98" s="5">
         <v>0.0</v>
@@ -3313,8 +3577,8 @@
       <c r="A99" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="20">
-        <v>23398.0</v>
+      <c r="B99" s="22">
+        <v>22221.0</v>
       </c>
       <c r="C99" s="5">
         <v>0.0</v>
@@ -3330,13 +3594,13 @@
       <c r="A100" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="20">
-        <v>52879.0</v>
-      </c>
-      <c r="C100" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D100" s="11">
+      <c r="B100" s="22">
+        <v>59949.0</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="10">
         <v>10.0</v>
       </c>
       <c r="E100" s="6" t="s">
@@ -3344,16 +3608,16 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="20">
-        <v>131072.0</v>
-      </c>
-      <c r="C101" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="11">
+      <c r="B101" s="22">
+        <v>195651.0</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="10">
         <v>5.0</v>
       </c>
       <c r="E101" s="6" t="s">
@@ -3364,8 +3628,8 @@
       <c r="A102" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="16">
-        <v>4509.0</v>
+      <c r="B102" s="18">
+        <v>2896.0</v>
       </c>
       <c r="C102" s="5">
         <v>0.0</v>
@@ -3381,8 +3645,8 @@
       <c r="A103" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="16">
-        <v>9210.0</v>
+      <c r="B103" s="18">
+        <v>7756.0</v>
       </c>
       <c r="C103" s="5">
         <v>0.0</v>
@@ -3398,8 +3662,8 @@
       <c r="A104" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="16">
-        <v>25901.0</v>
+      <c r="B104" s="18">
+        <v>24672.0</v>
       </c>
       <c r="C104" s="5">
         <v>0.0</v>
@@ -3415,13 +3679,13 @@
       <c r="A105" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="16">
-        <v>48998.0</v>
-      </c>
-      <c r="C105" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D105" s="11">
+      <c r="B105" s="18">
+        <v>59693.0</v>
+      </c>
+      <c r="C105" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D105" s="10">
         <v>10.0</v>
       </c>
       <c r="E105" s="6" t="s">
@@ -3429,16 +3693,16 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="16">
-        <v>128773.0</v>
-      </c>
-      <c r="C106" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D106" s="11">
+      <c r="B106" s="18">
+        <v>150914.0</v>
+      </c>
+      <c r="C106" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D106" s="10">
         <v>5.0</v>
       </c>
       <c r="E106" s="6" t="s">
@@ -3449,8 +3713,8 @@
       <c r="A107" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="10">
-        <v>3340.0</v>
+      <c r="B107" s="4">
+        <v>4685.0</v>
       </c>
       <c r="C107" s="5">
         <v>0.0</v>
@@ -3466,8 +3730,8 @@
       <c r="A108" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="10">
-        <v>8746.0</v>
+      <c r="B108" s="4">
+        <v>9710.0</v>
       </c>
       <c r="C108" s="5">
         <v>0.0</v>
@@ -3483,8 +3747,8 @@
       <c r="A109" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="10">
-        <v>32609.0</v>
+      <c r="B109" s="4">
+        <v>38399.0</v>
       </c>
       <c r="C109" s="5">
         <v>0.0</v>
@@ -3500,13 +3764,13 @@
       <c r="A110" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="10">
-        <v>84784.0</v>
-      </c>
-      <c r="C110" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D110" s="11">
+      <c r="B110" s="4">
+        <v>83358.0</v>
+      </c>
+      <c r="C110" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D110" s="10">
         <v>10.0</v>
       </c>
       <c r="E110" s="6" t="s">
@@ -3514,16 +3778,16 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="10">
-        <v>209118.0</v>
-      </c>
-      <c r="C111" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D111" s="11">
+      <c r="B111" s="4">
+        <v>228715.0</v>
+      </c>
+      <c r="C111" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D111" s="10">
         <v>5.0</v>
       </c>
       <c r="E111" s="6" t="s">
@@ -3534,8 +3798,8 @@
       <c r="A112" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="18">
-        <v>3793.0</v>
+      <c r="B112" s="20">
+        <v>3842.0</v>
       </c>
       <c r="C112" s="5">
         <v>0.0</v>
@@ -3551,8 +3815,8 @@
       <c r="A113" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="18">
-        <v>8789.0</v>
+      <c r="B113" s="20">
+        <v>8633.0</v>
       </c>
       <c r="C113" s="5">
         <v>0.0</v>
@@ -3568,8 +3832,8 @@
       <c r="A114" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="18">
-        <v>29995.0</v>
+      <c r="B114" s="20">
+        <v>45171.0</v>
       </c>
       <c r="C114" s="5">
         <v>0.0</v>
@@ -3585,13 +3849,13 @@
       <c r="A115" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="18">
-        <v>83983.0</v>
-      </c>
-      <c r="C115" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D115" s="11">
+      <c r="B115" s="20">
+        <v>79996.0</v>
+      </c>
+      <c r="C115" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D115" s="10">
         <v>10.0</v>
       </c>
       <c r="E115" s="6" t="s">
@@ -3599,16 +3863,16 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="18">
-        <v>214057.0</v>
-      </c>
-      <c r="C116" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D116" s="11">
+      <c r="B116" s="20">
+        <v>211052.0</v>
+      </c>
+      <c r="C116" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="10">
         <v>5.0</v>
       </c>
       <c r="E116" s="6" t="s">
@@ -3619,8 +3883,8 @@
       <c r="A117" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="19">
-        <v>3392.0</v>
+      <c r="B117" s="21">
+        <v>3617.0</v>
       </c>
       <c r="C117" s="5">
         <v>0.0</v>
@@ -3636,8 +3900,8 @@
       <c r="A118" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="19">
-        <v>9094.0</v>
+      <c r="B118" s="21">
+        <v>8705.0</v>
       </c>
       <c r="C118" s="5">
         <v>0.0</v>
@@ -3653,8 +3917,8 @@
       <c r="A119" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="19">
-        <v>34137.0</v>
+      <c r="B119" s="21">
+        <v>37993.0</v>
       </c>
       <c r="C119" s="5">
         <v>0.0</v>
@@ -3670,13 +3934,13 @@
       <c r="A120" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="19">
-        <v>79982.0</v>
-      </c>
-      <c r="C120" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="11">
+      <c r="B120" s="21">
+        <v>82222.0</v>
+      </c>
+      <c r="C120" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="10">
         <v>10.0</v>
       </c>
       <c r="E120" s="6" t="s">
@@ -3684,16 +3948,16 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="19">
-        <v>209105.0</v>
-      </c>
-      <c r="C121" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D121" s="11">
+      <c r="B121" s="21">
+        <v>189834.0</v>
+      </c>
+      <c r="C121" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D121" s="10">
         <v>5.0</v>
       </c>
       <c r="E121" s="6" t="s">
@@ -3704,8 +3968,8 @@
       <c r="A122" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="20">
-        <v>2264.0</v>
+      <c r="B122" s="22">
+        <v>1499.0</v>
       </c>
       <c r="C122" s="5">
         <v>0.0</v>
@@ -3721,8 +3985,8 @@
       <c r="A123" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="20">
-        <v>7006.0</v>
+      <c r="B123" s="22">
+        <v>5176.0</v>
       </c>
       <c r="C123" s="5">
         <v>0.0</v>
@@ -3738,8 +4002,8 @@
       <c r="A124" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="20">
-        <v>25199.0</v>
+      <c r="B124" s="22">
+        <v>18192.0</v>
       </c>
       <c r="C124" s="5">
         <v>0.0</v>
@@ -3755,13 +4019,13 @@
       <c r="A125" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="20">
-        <v>62648.0</v>
-      </c>
-      <c r="C125" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D125" s="11">
+      <c r="B125" s="22">
+        <v>47983.0</v>
+      </c>
+      <c r="C125" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D125" s="10">
         <v>10.0</v>
       </c>
       <c r="E125" s="6" t="s">
@@ -3769,16 +4033,16 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B126" s="20">
-        <v>179966.0</v>
-      </c>
-      <c r="C126" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D126" s="11">
+      <c r="B126" s="22">
+        <v>146665.0</v>
+      </c>
+      <c r="C126" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="10">
         <v>5.0</v>
       </c>
       <c r="E126" s="6" t="s">
@@ -3789,8 +4053,8 @@
       <c r="A127" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="16">
-        <v>2784.0</v>
+      <c r="B127" s="18">
+        <v>1975.0</v>
       </c>
       <c r="C127" s="5">
         <v>0.0</v>
@@ -3806,8 +4070,8 @@
       <c r="A128" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B128" s="16">
-        <v>7619.0</v>
+      <c r="B128" s="18">
+        <v>4885.0</v>
       </c>
       <c r="C128" s="5">
         <v>0.0</v>
@@ -3823,8 +4087,8 @@
       <c r="A129" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B129" s="16">
-        <v>24218.0</v>
+      <c r="B129" s="18">
+        <v>18000.0</v>
       </c>
       <c r="C129" s="5">
         <v>0.0</v>
@@ -3840,13 +4104,13 @@
       <c r="A130" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B130" s="16">
-        <v>61889.0</v>
-      </c>
-      <c r="C130" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D130" s="11">
+      <c r="B130" s="18">
+        <v>52322.0</v>
+      </c>
+      <c r="C130" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D130" s="10">
         <v>10.0</v>
       </c>
       <c r="E130" s="6" t="s">
@@ -3854,16 +4118,16 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="16">
-        <v>238331.0</v>
-      </c>
-      <c r="C131" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D131" s="11">
+      <c r="B131" s="18">
+        <v>188946.0</v>
+      </c>
+      <c r="C131" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D131" s="10">
         <v>5.0</v>
       </c>
       <c r="E131" s="6" t="s">
@@ -3874,8 +4138,8 @@
       <c r="A132" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B132" s="10">
-        <v>2820.0</v>
+      <c r="B132" s="4">
+        <v>2065.0</v>
       </c>
       <c r="C132" s="5">
         <v>0.0</v>
@@ -3891,8 +4155,8 @@
       <c r="A133" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B133" s="10">
-        <v>7653.0</v>
+      <c r="B133" s="4">
+        <v>5274.0</v>
       </c>
       <c r="C133" s="5">
         <v>0.0</v>
@@ -3908,8 +4172,8 @@
       <c r="A134" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B134" s="10">
-        <v>22891.0</v>
+      <c r="B134" s="4">
+        <v>20553.0</v>
       </c>
       <c r="C134" s="5">
         <v>0.0</v>
@@ -3925,13 +4189,13 @@
       <c r="A135" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="10">
-        <v>60895.0</v>
-      </c>
-      <c r="C135" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D135" s="11">
+      <c r="B135" s="4">
+        <v>50989.0</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="10">
         <v>10.0</v>
       </c>
       <c r="E135" s="6" t="s">
@@ -3939,16 +4203,16 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B136" s="10">
-        <v>161000.0</v>
-      </c>
-      <c r="C136" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D136" s="11">
+      <c r="B136" s="4">
+        <v>138993.0</v>
+      </c>
+      <c r="C136" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="10">
         <v>5.0</v>
       </c>
       <c r="E136" s="6" t="s">
@@ -3959,8 +4223,8 @@
       <c r="A137" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B137" s="18">
-        <v>8196.0</v>
+      <c r="B137" s="20">
+        <v>9770.0</v>
       </c>
       <c r="C137" s="5">
         <v>0.0</v>
@@ -3976,8 +4240,8 @@
       <c r="A138" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B138" s="18">
-        <v>23408.0</v>
+      <c r="B138" s="20">
+        <v>22000.0</v>
       </c>
       <c r="C138" s="5">
         <v>0.0</v>
@@ -3993,8 +4257,8 @@
       <c r="A139" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B139" s="18">
-        <v>85993.0</v>
+      <c r="B139" s="20">
+        <v>73331.0</v>
       </c>
       <c r="C139" s="5">
         <v>0.0</v>
@@ -4010,13 +4274,13 @@
       <c r="A140" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B140" s="18">
-        <v>262956.0</v>
-      </c>
-      <c r="C140" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D140" s="11">
+      <c r="B140" s="20">
+        <v>197997.0</v>
+      </c>
+      <c r="C140" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D140" s="10">
         <v>6.0</v>
       </c>
       <c r="E140" s="6" t="s">
@@ -4024,16 +4288,16 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B141" s="18">
-        <v>648888.0</v>
-      </c>
-      <c r="C141" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D141" s="11">
+      <c r="B141" s="20">
+        <v>596807.0</v>
+      </c>
+      <c r="C141" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D141" s="10">
         <v>3.0</v>
       </c>
       <c r="E141" s="6" t="s">
@@ -4044,8 +4308,8 @@
       <c r="A142" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B142" s="19">
-        <v>9883.0</v>
+      <c r="B142" s="21">
+        <v>8000.0</v>
       </c>
       <c r="C142" s="5">
         <v>0.0</v>
@@ -4061,8 +4325,8 @@
       <c r="A143" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B143" s="19">
-        <v>30249.0</v>
+      <c r="B143" s="21">
+        <v>21995.0</v>
       </c>
       <c r="C143" s="5">
         <v>0.0</v>
@@ -4078,8 +4342,8 @@
       <c r="A144" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B144" s="19">
-        <v>94952.0</v>
+      <c r="B144" s="21">
+        <v>79892.0</v>
       </c>
       <c r="C144" s="5">
         <v>0.0</v>
@@ -4095,13 +4359,13 @@
       <c r="A145" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B145" s="19">
-        <v>269835.0</v>
-      </c>
-      <c r="C145" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D145" s="11">
+      <c r="B145" s="21">
+        <v>233994.0</v>
+      </c>
+      <c r="C145" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D145" s="10">
         <v>6.0</v>
       </c>
       <c r="E145" s="6" t="s">
@@ -4109,16 +4373,16 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B146" s="19">
-        <v>718000.0</v>
-      </c>
-      <c r="C146" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D146" s="11">
+      <c r="B146" s="21">
+        <v>614439.0</v>
+      </c>
+      <c r="C146" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D146" s="10">
         <v>3.0</v>
       </c>
       <c r="E146" s="6" t="s">
@@ -4129,8 +4393,8 @@
       <c r="A147" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B147" s="20">
-        <v>7170.0</v>
+      <c r="B147" s="22">
+        <v>2000.0</v>
       </c>
       <c r="C147" s="5">
         <v>0.0</v>
@@ -4146,8 +4410,8 @@
       <c r="A148" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B148" s="20">
-        <v>214463.0</v>
+      <c r="B148" s="22">
+        <v>18394.0</v>
       </c>
       <c r="C148" s="5">
         <v>0.0</v>
@@ -4163,8 +4427,8 @@
       <c r="A149" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B149" s="20">
-        <v>70960.0</v>
+      <c r="B149" s="22">
+        <v>63514.0</v>
       </c>
       <c r="C149" s="5">
         <v>0.0</v>
@@ -4180,13 +4444,13 @@
       <c r="A150" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B150" s="20">
-        <v>205995.0</v>
-      </c>
-      <c r="C150" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D150" s="11">
+      <c r="B150" s="22">
+        <v>200974.0</v>
+      </c>
+      <c r="C150" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D150" s="10">
         <v>6.0</v>
       </c>
       <c r="E150" s="6" t="s">
@@ -4194,16 +4458,16 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B151" s="20">
-        <v>662549.0</v>
-      </c>
-      <c r="C151" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D151" s="11">
+      <c r="B151" s="22">
+        <v>611951.0</v>
+      </c>
+      <c r="C151" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D151" s="10">
         <v>3.0</v>
       </c>
       <c r="E151" s="6" t="s">
@@ -4214,8 +4478,8 @@
       <c r="A152" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B152" s="16">
-        <v>10718.0</v>
+      <c r="B152" s="18">
+        <v>12218.0</v>
       </c>
       <c r="C152" s="5">
         <v>0.0</v>
@@ -4231,8 +4495,8 @@
       <c r="A153" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B153" s="16">
-        <v>22794.0</v>
+      <c r="B153" s="18">
+        <v>27967.0</v>
       </c>
       <c r="C153" s="5">
         <v>0.0</v>
@@ -4248,8 +4512,8 @@
       <c r="A154" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B154" s="16">
-        <v>83319.0</v>
+      <c r="B154" s="18">
+        <v>83116.0</v>
       </c>
       <c r="C154" s="5">
         <v>0.0</v>
@@ -4265,13 +4529,13 @@
       <c r="A155" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B155" s="16">
-        <v>212995.0</v>
-      </c>
-      <c r="C155" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D155" s="11">
+      <c r="B155" s="18">
+        <v>253985.0</v>
+      </c>
+      <c r="C155" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D155" s="10">
         <v>6.0</v>
       </c>
       <c r="E155" s="6" t="s">
@@ -4279,16 +4543,16 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B156" s="16">
-        <v>828789.0</v>
-      </c>
-      <c r="C156" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D156" s="11">
+      <c r="B156" s="18">
+        <v>825544.0</v>
+      </c>
+      <c r="C156" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D156" s="10">
         <v>3.0</v>
       </c>
       <c r="E156" s="6" t="s">
@@ -4299,8 +4563,8 @@
       <c r="A157" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B157" s="10">
-        <v>12879.0</v>
+      <c r="B157" s="4">
+        <v>13981.0</v>
       </c>
       <c r="C157" s="5">
         <v>0.0</v>
@@ -4316,8 +4580,8 @@
       <c r="A158" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B158" s="10">
-        <v>26386.0</v>
+      <c r="B158" s="4">
+        <v>26914.0</v>
       </c>
       <c r="C158" s="5">
         <v>0.0</v>
@@ -4333,8 +4597,8 @@
       <c r="A159" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B159" s="10">
-        <v>83497.0</v>
+      <c r="B159" s="4">
+        <v>85751.0</v>
       </c>
       <c r="C159" s="5">
         <v>0.0</v>
@@ -4350,13 +4614,13 @@
       <c r="A160" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B160" s="10">
-        <v>202981.0</v>
-      </c>
-      <c r="C160" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D160" s="11">
+      <c r="B160" s="4">
+        <v>286695.0</v>
+      </c>
+      <c r="C160" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D160" s="10">
         <v>6.0</v>
       </c>
       <c r="E160" s="6" t="s">
@@ -4364,16 +4628,16 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B161" s="10">
-        <v>788887.0</v>
-      </c>
-      <c r="C161" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D161" s="11">
+      <c r="B161" s="4">
+        <v>876998.0</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D161" s="10">
         <v>3.0</v>
       </c>
       <c r="E161" s="6" t="s">
@@ -4384,8 +4648,8 @@
       <c r="A162" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B162" s="18">
-        <v>6979.0</v>
+      <c r="B162" s="20">
+        <v>6971.0</v>
       </c>
       <c r="C162" s="5">
         <v>0.0</v>
@@ -4401,8 +4665,8 @@
       <c r="A163" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B163" s="18">
-        <v>19188.0</v>
+      <c r="B163" s="20">
+        <v>30325.0</v>
       </c>
       <c r="C163" s="5">
         <v>0.0</v>
@@ -4418,8 +4682,8 @@
       <c r="A164" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B164" s="18">
-        <v>58682.0</v>
+      <c r="B164" s="20">
+        <v>61109.0</v>
       </c>
       <c r="C164" s="5">
         <v>0.0</v>
@@ -4435,13 +4699,13 @@
       <c r="A165" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B165" s="18">
-        <v>169874.0</v>
-      </c>
-      <c r="C165" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D165" s="11">
+      <c r="B165" s="20">
+        <v>177991.0</v>
+      </c>
+      <c r="C165" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D165" s="10">
         <v>6.0</v>
       </c>
       <c r="E165" s="6" t="s">
@@ -4449,16 +4713,16 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B166" s="18">
-        <v>528886.0</v>
-      </c>
-      <c r="C166" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D166" s="11">
+      <c r="B166" s="20">
+        <v>519763.0</v>
+      </c>
+      <c r="C166" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D166" s="10">
         <v>3.0</v>
       </c>
       <c r="E166" s="6" t="s">
@@ -4469,8 +4733,8 @@
       <c r="A167" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B167" s="19">
-        <v>4975.0</v>
+      <c r="B167" s="21">
+        <v>4898.0</v>
       </c>
       <c r="C167" s="5">
         <v>0.0</v>
@@ -4486,8 +4750,8 @@
       <c r="A168" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B168" s="19">
-        <v>16594.0</v>
+      <c r="B168" s="21">
+        <v>13497.0</v>
       </c>
       <c r="C168" s="5">
         <v>0.0</v>
@@ -4503,8 +4767,8 @@
       <c r="A169" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B169" s="19">
-        <v>45892.0</v>
+      <c r="B169" s="21">
+        <v>6494.0</v>
       </c>
       <c r="C169" s="5">
         <v>0.0</v>
@@ -4520,13 +4784,13 @@
       <c r="A170" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B170" s="19">
-        <v>159945.0</v>
-      </c>
-      <c r="C170" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D170" s="11">
+      <c r="B170" s="21">
+        <v>159745.0</v>
+      </c>
+      <c r="C170" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D170" s="10">
         <v>6.0</v>
       </c>
       <c r="E170" s="6" t="s">
@@ -4534,16 +4798,16 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B171" s="19">
-        <v>648441.0</v>
-      </c>
-      <c r="C171" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D171" s="11">
+      <c r="B171" s="21">
+        <v>561104.0</v>
+      </c>
+      <c r="C171" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D171" s="10">
         <v>3.0</v>
       </c>
       <c r="E171" s="6" t="s">
@@ -4554,8 +4818,8 @@
       <c r="A172" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B172" s="20">
-        <v>11241.0</v>
+      <c r="B172" s="22">
+        <v>9995.0</v>
       </c>
       <c r="C172" s="5">
         <v>0.0</v>
@@ -4571,8 +4835,8 @@
       <c r="A173" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="20">
-        <v>25986.0</v>
+      <c r="B173" s="22">
+        <v>25487.0</v>
       </c>
       <c r="C173" s="5">
         <v>0.0</v>
@@ -4588,8 +4852,8 @@
       <c r="A174" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B174" s="20">
-        <v>71548.0</v>
+      <c r="B174" s="22">
+        <v>70973.0</v>
       </c>
       <c r="C174" s="5">
         <v>0.0</v>
@@ -4605,13 +4869,13 @@
       <c r="A175" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B175" s="20">
-        <v>218909.0</v>
-      </c>
-      <c r="C175" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D175" s="11">
+      <c r="B175" s="22">
+        <v>208457.0</v>
+      </c>
+      <c r="C175" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D175" s="10">
         <v>6.0</v>
       </c>
       <c r="E175" s="6" t="s">
@@ -4619,16 +4883,16 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B176" s="20">
-        <v>656667.0</v>
-      </c>
-      <c r="C176" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D176" s="11">
+      <c r="B176" s="22">
+        <v>631751.0</v>
+      </c>
+      <c r="C176" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D176" s="10">
         <v>3.0</v>
       </c>
       <c r="E176" s="6" t="s">
@@ -4639,8 +4903,8 @@
       <c r="A177" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B177" s="16">
-        <v>9400.0</v>
+      <c r="B177" s="18">
+        <v>8999.0</v>
       </c>
       <c r="C177" s="5">
         <v>0.0</v>
@@ -4656,8 +4920,8 @@
       <c r="A178" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B178" s="16">
-        <v>26556.0</v>
+      <c r="B178" s="18">
+        <v>22996.0</v>
       </c>
       <c r="C178" s="5">
         <v>0.0</v>
@@ -4673,8 +4937,8 @@
       <c r="A179" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B179" s="16">
-        <v>68638.0</v>
+      <c r="B179" s="18">
+        <v>65440.0</v>
       </c>
       <c r="C179" s="5">
         <v>0.0</v>
@@ -4690,13 +4954,13 @@
       <c r="A180" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B180" s="16">
-        <v>229966.0</v>
-      </c>
-      <c r="C180" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D180" s="11">
+      <c r="B180" s="18">
+        <v>202574.0</v>
+      </c>
+      <c r="C180" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D180" s="10">
         <v>6.0</v>
       </c>
       <c r="E180" s="6" t="s">
@@ -4704,16 +4968,16 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B181" s="16">
-        <v>578888.0</v>
-      </c>
-      <c r="C181" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D181" s="11">
+      <c r="B181" s="18">
+        <v>588880.0</v>
+      </c>
+      <c r="C181" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D181" s="10">
         <v>3.0</v>
       </c>
       <c r="E181" s="6" t="s">
@@ -4724,8 +4988,8 @@
       <c r="A182" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B182" s="10">
-        <v>7990.0</v>
+      <c r="B182" s="23">
+        <v>8356.0</v>
       </c>
       <c r="C182" s="5">
         <v>0.0</v>
@@ -4741,8 +5005,8 @@
       <c r="A183" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B183" s="10">
-        <v>25465.0</v>
+      <c r="B183" s="23">
+        <v>23368.0</v>
       </c>
       <c r="C183" s="5">
         <v>0.0</v>
@@ -4758,8 +5022,8 @@
       <c r="A184" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B184" s="10">
-        <v>69999.0</v>
+      <c r="B184" s="23">
+        <v>97720.0</v>
       </c>
       <c r="C184" s="5">
         <v>0.0</v>
@@ -4775,13 +5039,13 @@
       <c r="A185" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B185" s="10">
-        <v>218957.0</v>
-      </c>
-      <c r="C185" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D185" s="11">
+      <c r="B185" s="23">
+        <v>197987.0</v>
+      </c>
+      <c r="C185" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D185" s="10">
         <v>6.0</v>
       </c>
       <c r="E185" s="6" t="s">
@@ -4789,16 +5053,16 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B186" s="10">
-        <v>606666.0</v>
-      </c>
-      <c r="C186" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D186" s="11">
+      <c r="B186" s="23">
+        <v>553908.0</v>
+      </c>
+      <c r="C186" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D186" s="10">
         <v>3.0</v>
       </c>
       <c r="E186" s="6" t="s">
@@ -4809,8 +5073,8 @@
       <c r="A187" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B187" s="18">
-        <v>12467.0</v>
+      <c r="B187" s="24">
+        <v>11988.0</v>
       </c>
       <c r="C187" s="5">
         <v>0.0</v>
@@ -4826,8 +5090,8 @@
       <c r="A188" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B188" s="18">
-        <v>26394.0</v>
+      <c r="B188" s="24">
+        <v>26598.0</v>
       </c>
       <c r="C188" s="5">
         <v>0.0</v>
@@ -4843,8 +5107,8 @@
       <c r="A189" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B189" s="18">
-        <v>99000.0</v>
+      <c r="B189" s="24">
+        <v>101315.0</v>
       </c>
       <c r="C189" s="5">
         <v>0.0</v>
@@ -4860,13 +5124,13 @@
       <c r="A190" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B190" s="18">
-        <v>269233.0</v>
-      </c>
-      <c r="C190" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D190" s="11">
+      <c r="B190" s="24">
+        <v>258997.0</v>
+      </c>
+      <c r="C190" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D190" s="10">
         <v>6.0</v>
       </c>
       <c r="E190" s="6" t="s">
@@ -4874,16 +5138,16 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B191" s="18">
-        <v>825555.0</v>
-      </c>
-      <c r="C191" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D191" s="11">
+      <c r="B191" s="24">
+        <v>769969.0</v>
+      </c>
+      <c r="C191" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D191" s="10">
         <v>3.0</v>
       </c>
       <c r="E191" s="6" t="s">
@@ -4894,8 +5158,8 @@
       <c r="A192" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B192" s="19">
-        <v>14747.0</v>
+      <c r="B192" s="25">
+        <v>14744.0</v>
       </c>
       <c r="C192" s="5">
         <v>0.0</v>
@@ -4911,8 +5175,8 @@
       <c r="A193" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B193" s="19">
-        <v>32600.0</v>
+      <c r="B193" s="25">
+        <v>32000.0</v>
       </c>
       <c r="C193" s="5">
         <v>0.0</v>
@@ -4928,8 +5192,8 @@
       <c r="A194" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B194" s="19">
-        <v>106594.0</v>
+      <c r="B194" s="25">
+        <v>108889.0</v>
       </c>
       <c r="C194" s="5">
         <v>0.0</v>
@@ -4945,13 +5209,13 @@
       <c r="A195" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B195" s="19">
-        <v>284999.0</v>
-      </c>
-      <c r="C195" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D195" s="11">
+      <c r="B195" s="25">
+        <v>284000.0</v>
+      </c>
+      <c r="C195" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D195" s="10">
         <v>6.0</v>
       </c>
       <c r="E195" s="6" t="s">
@@ -4959,16 +5223,16 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="12" t="s">
+      <c r="A196" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B196" s="19">
-        <v>267797.0</v>
-      </c>
-      <c r="C196" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D196" s="11">
+      <c r="B196" s="25">
+        <v>732906.0</v>
+      </c>
+      <c r="C196" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D196" s="10">
         <v>3.0</v>
       </c>
       <c r="E196" s="6" t="s">
@@ -4979,8 +5243,8 @@
       <c r="A197" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B197" s="21">
-        <v>6994.0</v>
+      <c r="B197" s="26">
+        <v>7729.0</v>
       </c>
       <c r="C197" s="5">
         <v>0.0</v>
@@ -4996,8 +5260,8 @@
       <c r="A198" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B198" s="21">
-        <v>12000.0</v>
+      <c r="B198" s="26">
+        <v>19974.0</v>
       </c>
       <c r="C198" s="5">
         <v>0.0</v>
@@ -5013,8 +5277,8 @@
       <c r="A199" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B199" s="21">
-        <v>20156.0</v>
+      <c r="B199" s="26">
+        <v>62491.0</v>
       </c>
       <c r="C199" s="5">
         <v>0.0</v>
@@ -5030,13 +5294,13 @@
       <c r="A200" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B200" s="21">
-        <v>59880.0</v>
-      </c>
-      <c r="C200" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D200" s="11">
+      <c r="B200" s="26">
+        <v>155499.0</v>
+      </c>
+      <c r="C200" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D200" s="10">
         <v>0.0</v>
       </c>
       <c r="E200" s="6" t="s">
@@ -5047,13 +5311,13 @@
       <c r="A201" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B201" s="21">
-        <v>141735.0</v>
-      </c>
-      <c r="C201" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D201" s="11">
+      <c r="B201" s="26">
+        <v>537999.0</v>
+      </c>
+      <c r="C201" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D201" s="10">
         <v>3.0</v>
       </c>
       <c r="E201" s="6" t="s">
@@ -5064,8 +5328,8 @@
       <c r="A202" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B202" s="16">
-        <v>15477.0</v>
+      <c r="B202" s="28">
+        <v>15591.0</v>
       </c>
       <c r="C202" s="5">
         <v>0.0</v>
@@ -5081,8 +5345,8 @@
       <c r="A203" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B203" s="16">
-        <v>26073.0</v>
+      <c r="B203" s="28">
+        <v>31073.0</v>
       </c>
       <c r="C203" s="5">
         <v>0.0</v>
@@ -5098,8 +5362,8 @@
       <c r="A204" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B204" s="16">
-        <v>95999.0</v>
+      <c r="B204" s="28">
+        <v>101980.0</v>
       </c>
       <c r="C204" s="5">
         <v>0.0</v>
@@ -5115,13 +5379,13 @@
       <c r="A205" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B205" s="16">
-        <v>249999.0</v>
-      </c>
-      <c r="C205" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D205" s="11">
+      <c r="B205" s="28">
+        <v>251680.0</v>
+      </c>
+      <c r="C205" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D205" s="10">
         <v>6.0</v>
       </c>
       <c r="E205" s="6" t="s">
@@ -5129,16 +5393,16 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B206" s="16">
-        <v>616666.0</v>
-      </c>
-      <c r="C206" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D206" s="11">
+      <c r="B206" s="28">
+        <v>596990.0</v>
+      </c>
+      <c r="C206" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D206" s="10">
         <v>3.0</v>
       </c>
       <c r="E206" s="6" t="s">
@@ -5149,8 +5413,8 @@
       <c r="A207" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B207" s="10">
-        <v>14323.0</v>
+      <c r="B207" s="23">
+        <v>14968.0</v>
       </c>
       <c r="C207" s="5">
         <v>0.0</v>
@@ -5166,8 +5430,8 @@
       <c r="A208" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="10">
-        <v>27380.0</v>
+      <c r="B208" s="23">
+        <v>26998.0</v>
       </c>
       <c r="C208" s="5">
         <v>0.0</v>
@@ -5183,8 +5447,8 @@
       <c r="A209" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B209" s="10">
-        <v>91985.0</v>
+      <c r="B209" s="23">
+        <v>132309.0</v>
       </c>
       <c r="C209" s="5">
         <v>0.0</v>
@@ -5200,13 +5464,13 @@
       <c r="A210" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B210" s="10">
-        <v>245988.0</v>
-      </c>
-      <c r="C210" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D210" s="11">
+      <c r="B210" s="23">
+        <v>258870.0</v>
+      </c>
+      <c r="C210" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D210" s="10">
         <v>6.0</v>
       </c>
       <c r="E210" s="6" t="s">
@@ -5214,16 +5478,16 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B211" s="10">
-        <v>779999.0</v>
-      </c>
-      <c r="C211" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D211" s="11">
+      <c r="B211" s="23">
+        <v>768289.0</v>
+      </c>
+      <c r="C211" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D211" s="10">
         <v>3.0</v>
       </c>
       <c r="E211" s="6" t="s">
@@ -5234,8 +5498,8 @@
       <c r="A212" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B212" s="18">
-        <v>15787.0</v>
+      <c r="B212" s="24">
+        <v>13987.0</v>
       </c>
       <c r="C212" s="5">
         <v>0.0</v>
@@ -5251,8 +5515,8 @@
       <c r="A213" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B213" s="18">
-        <v>64966.0</v>
+      <c r="B213" s="24">
+        <v>44503.0</v>
       </c>
       <c r="C213" s="5">
         <v>0.0</v>
@@ -5268,8 +5532,8 @@
       <c r="A214" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B214" s="18">
-        <v>139962.0</v>
+      <c r="B214" s="24">
+        <v>143747.0</v>
       </c>
       <c r="C214" s="5">
         <v>0.0</v>
@@ -5285,13 +5549,13 @@
       <c r="A215" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B215" s="18">
-        <v>331894.0</v>
-      </c>
-      <c r="C215" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D215" s="11">
+      <c r="B215" s="24">
+        <v>358616.0</v>
+      </c>
+      <c r="C215" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D215" s="10">
         <v>6.0</v>
       </c>
       <c r="E215" s="6" t="s">
@@ -5299,16 +5563,16 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B216" s="18">
-        <v>871999.0</v>
-      </c>
-      <c r="C216" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D216" s="11">
+      <c r="B216" s="24">
+        <v>869885.0</v>
+      </c>
+      <c r="C216" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D216" s="10">
         <v>3.0</v>
       </c>
       <c r="E216" s="6" t="s">
@@ -5319,8 +5583,8 @@
       <c r="A217" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B217" s="19">
-        <v>15335.0</v>
+      <c r="B217" s="25">
+        <v>15914.0</v>
       </c>
       <c r="C217" s="5">
         <v>0.0</v>
@@ -5336,8 +5600,8 @@
       <c r="A218" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B218" s="19">
-        <v>66852.0</v>
+      <c r="B218" s="25">
+        <v>44120.0</v>
       </c>
       <c r="C218" s="5">
         <v>0.0</v>
@@ -5353,8 +5617,8 @@
       <c r="A219" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B219" s="19">
-        <v>146199.0</v>
+      <c r="B219" s="25">
+        <v>145538.0</v>
       </c>
       <c r="C219" s="5">
         <v>0.0</v>
@@ -5370,13 +5634,13 @@
       <c r="A220" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B220" s="19">
-        <v>387988.0</v>
-      </c>
-      <c r="C220" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D220" s="11">
+      <c r="B220" s="25">
+        <v>456000.0</v>
+      </c>
+      <c r="C220" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D220" s="10">
         <v>6.0</v>
       </c>
       <c r="E220" s="6" t="s">
@@ -5384,16 +5648,16 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="19">
-        <v>1033332.0</v>
-      </c>
-      <c r="C221" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D221" s="11">
+      <c r="B221" s="25">
+        <v>1009995.0</v>
+      </c>
+      <c r="C221" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D221" s="10">
         <v>3.0</v>
       </c>
       <c r="E221" s="6" t="s">
@@ -5404,8 +5668,8 @@
       <c r="A222" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B222" s="20">
-        <v>15907.0</v>
+      <c r="B222" s="29">
+        <v>15824.0</v>
       </c>
       <c r="C222" s="5">
         <v>0.0</v>
@@ -5421,8 +5685,8 @@
       <c r="A223" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B223" s="20">
-        <v>39961.0</v>
+      <c r="B223" s="29">
+        <v>38798.0</v>
       </c>
       <c r="C223" s="5">
         <v>0.0</v>
@@ -5438,8 +5702,8 @@
       <c r="A224" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B224" s="20">
-        <v>137891.0</v>
+      <c r="B224" s="29">
+        <v>130316.0</v>
       </c>
       <c r="C224" s="5">
         <v>0.0</v>
@@ -5455,13 +5719,13 @@
       <c r="A225" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B225" s="20">
-        <v>362879.0</v>
-      </c>
-      <c r="C225" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D225" s="11">
+      <c r="B225" s="29">
+        <v>400000.0</v>
+      </c>
+      <c r="C225" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D225" s="10">
         <v>6.0</v>
       </c>
       <c r="E225" s="6" t="s">
@@ -5469,16 +5733,16 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="12" t="s">
+      <c r="A226" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B226" s="20">
-        <v>945555.0</v>
-      </c>
-      <c r="C226" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D226" s="11">
+      <c r="B226" s="29">
+        <v>927776.0</v>
+      </c>
+      <c r="C226" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D226" s="10">
         <v>3.0</v>
       </c>
       <c r="E226" s="6" t="s">
@@ -5489,8 +5753,8 @@
       <c r="A227" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B227" s="16">
-        <v>8481.0</v>
+      <c r="B227" s="28">
+        <v>9992.0</v>
       </c>
       <c r="C227" s="5">
         <v>0.0</v>
@@ -5506,8 +5770,8 @@
       <c r="A228" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B228" s="16">
-        <v>8481.0</v>
+      <c r="B228" s="28">
+        <v>23479.0</v>
       </c>
       <c r="C228" s="5">
         <v>0.0</v>
@@ -5523,8 +5787,8 @@
       <c r="A229" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B229" s="16">
-        <v>28435.0</v>
+      <c r="B229" s="28">
+        <v>68244.0</v>
       </c>
       <c r="C229" s="5">
         <v>0.0</v>
@@ -5540,13 +5804,13 @@
       <c r="A230" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B230" s="16">
-        <v>61560.0</v>
-      </c>
-      <c r="C230" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D230" s="11">
+      <c r="B230" s="28">
+        <v>179579.0</v>
+      </c>
+      <c r="C230" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D230" s="10">
         <v>6.0</v>
       </c>
       <c r="E230" s="6" t="s">
@@ -5554,16 +5818,16 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="12" t="s">
+      <c r="A231" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B231" s="16">
-        <v>168969.0</v>
-      </c>
-      <c r="C231" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D231" s="11">
+      <c r="B231" s="28">
+        <v>678885.0</v>
+      </c>
+      <c r="C231" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D231" s="10">
         <v>3.0</v>
       </c>
       <c r="E231" s="6" t="s">
@@ -5574,8 +5838,8 @@
       <c r="A232" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B232" s="10">
-        <v>12776.0</v>
+      <c r="B232" s="23">
+        <v>15091.0</v>
       </c>
       <c r="C232" s="5">
         <v>0.0</v>
@@ -5591,8 +5855,8 @@
       <c r="A233" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B233" s="10">
-        <v>43093.0</v>
+      <c r="B233" s="23">
+        <v>37999.0</v>
       </c>
       <c r="C233" s="5">
         <v>0.0</v>
@@ -5608,8 +5872,8 @@
       <c r="A234" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="10">
-        <v>90973.0</v>
+      <c r="B234" s="23">
+        <v>104795.0</v>
       </c>
       <c r="C234" s="5">
         <v>0.0</v>
@@ -5625,13 +5889,13 @@
       <c r="A235" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="10">
-        <v>235537.0</v>
-      </c>
-      <c r="C235" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D235" s="11">
+      <c r="B235" s="23">
+        <v>235982.0</v>
+      </c>
+      <c r="C235" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D235" s="10">
         <v>6.0</v>
       </c>
       <c r="E235" s="6" t="s">
@@ -5639,16 +5903,16 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="12" t="s">
+      <c r="A236" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B236" s="10">
-        <v>596799.0</v>
-      </c>
-      <c r="C236" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D236" s="11">
+      <c r="B236" s="23">
+        <v>729959.0</v>
+      </c>
+      <c r="C236" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D236" s="10">
         <v>3.0</v>
       </c>
       <c r="E236" s="6" t="s">
@@ -5659,8 +5923,8 @@
       <c r="A237" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B237" s="20">
-        <v>15817.0</v>
+      <c r="B237" s="29">
+        <v>16183.0</v>
       </c>
       <c r="C237" s="5">
         <v>0.0</v>
@@ -5676,8 +5940,8 @@
       <c r="A238" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B238" s="20">
-        <v>73990.0</v>
+      <c r="B238" s="29">
+        <v>36999.0</v>
       </c>
       <c r="C238" s="5">
         <v>0.0</v>
@@ -5693,8 +5957,8 @@
       <c r="A239" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B239" s="20">
-        <v>94460.0</v>
+      <c r="B239" s="29">
+        <v>106791.0</v>
       </c>
       <c r="C239" s="5">
         <v>0.0</v>
@@ -5710,13 +5974,13 @@
       <c r="A240" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="20">
-        <v>211106.0</v>
-      </c>
-      <c r="C240" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D240" s="11">
+      <c r="B240" s="29">
+        <v>209500.0</v>
+      </c>
+      <c r="C240" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D240" s="10">
         <v>6.0</v>
       </c>
       <c r="E240" s="6" t="s">
@@ -5724,16 +5988,16 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="12" t="s">
+      <c r="A241" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B241" s="20">
-        <v>564462.0</v>
-      </c>
-      <c r="C241" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D241" s="11">
+      <c r="B241" s="29">
+        <v>525554.0</v>
+      </c>
+      <c r="C241" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D241" s="10">
         <v>3.0</v>
       </c>
       <c r="E241" s="6" t="s">
@@ -5744,8 +6008,8 @@
       <c r="A242" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B242" s="20">
-        <v>14788.0</v>
+      <c r="B242" s="29">
+        <v>11935.0</v>
       </c>
       <c r="C242" s="5">
         <v>0.0</v>
@@ -5761,8 +6025,8 @@
       <c r="A243" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B243" s="20">
-        <v>34879.0</v>
+      <c r="B243" s="29">
+        <v>35549.0</v>
       </c>
       <c r="C243" s="5">
         <v>0.0</v>
@@ -5778,8 +6042,8 @@
       <c r="A244" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B244" s="20">
-        <v>118870.0</v>
+      <c r="B244" s="29">
+        <v>111021.0</v>
       </c>
       <c r="C244" s="5">
         <v>0.0</v>
@@ -5795,13 +6059,13 @@
       <c r="A245" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B245" s="20">
-        <v>290000.0</v>
-      </c>
-      <c r="C245" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D245" s="11">
+      <c r="B245" s="29">
+        <v>290741.0</v>
+      </c>
+      <c r="C245" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D245" s="10">
         <v>6.0</v>
       </c>
       <c r="E245" s="6" t="s">
@@ -5809,16 +6073,16 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B246" s="20">
-        <v>725049.0</v>
-      </c>
-      <c r="C246" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D246" s="11">
+      <c r="B246" s="29">
+        <v>788888.0</v>
+      </c>
+      <c r="C246" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D246" s="10">
         <v>3.0</v>
       </c>
       <c r="E246" s="6" t="s">
@@ -5829,8 +6093,8 @@
       <c r="A247" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B247" s="20">
-        <v>15462.0</v>
+      <c r="B247" s="29">
+        <v>14670.0</v>
       </c>
       <c r="C247" s="5">
         <v>0.0</v>
@@ -5846,8 +6110,8 @@
       <c r="A248" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B248" s="20">
-        <v>33130.0</v>
+      <c r="B248" s="29">
+        <v>26974.0</v>
       </c>
       <c r="C248" s="5">
         <v>0.0</v>
@@ -5863,8 +6127,8 @@
       <c r="A249" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B249" s="20">
-        <v>114430.0</v>
+      <c r="B249" s="29">
+        <v>106339.0</v>
       </c>
       <c r="C249" s="5">
         <v>0.0</v>
@@ -5880,13 +6144,13 @@
       <c r="A250" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B250" s="20">
-        <v>259175.0</v>
-      </c>
-      <c r="C250" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D250" s="11">
+      <c r="B250" s="29">
+        <v>281998.0</v>
+      </c>
+      <c r="C250" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D250" s="10">
         <v>6.0</v>
       </c>
       <c r="E250" s="6" t="s">
@@ -5894,16 +6158,16 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B251" s="20">
-        <v>677754.0</v>
-      </c>
-      <c r="C251" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D251" s="11">
+      <c r="B251" s="29">
+        <v>666666.0</v>
+      </c>
+      <c r="C251" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D251" s="10">
         <v>3.0</v>
       </c>
       <c r="E251" s="6" t="s">
@@ -5914,8 +6178,8 @@
       <c r="A252" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B252" s="20">
-        <v>14961.0</v>
+      <c r="B252" s="29">
+        <v>12305.0</v>
       </c>
       <c r="C252" s="5">
         <v>0.0</v>
@@ -5931,8 +6195,8 @@
       <c r="A253" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B253" s="20">
-        <v>35900.0</v>
+      <c r="B253" s="29">
+        <v>32834.0</v>
       </c>
       <c r="C253" s="5">
         <v>0.0</v>
@@ -5948,8 +6212,8 @@
       <c r="A254" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="20">
-        <v>104963.0</v>
+      <c r="B254" s="29">
+        <v>107355.0</v>
       </c>
       <c r="C254" s="5">
         <v>0.0</v>
@@ -5965,13 +6229,13 @@
       <c r="A255" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B255" s="20">
-        <v>294980.0</v>
-      </c>
-      <c r="C255" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D255" s="11">
+      <c r="B255" s="29">
+        <v>286800.0</v>
+      </c>
+      <c r="C255" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D255" s="10">
         <v>6.0</v>
       </c>
       <c r="E255" s="6" t="s">
@@ -5979,16 +6243,16 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="12" t="s">
+      <c r="A256" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B256" s="20">
-        <v>725554.0</v>
-      </c>
-      <c r="C256" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D256" s="11">
+      <c r="B256" s="29">
+        <v>849999.0</v>
+      </c>
+      <c r="C256" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D256" s="10">
         <v>3.0</v>
       </c>
       <c r="E256" s="6" t="s">
@@ -5999,8 +6263,8 @@
       <c r="A257" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B257" s="10">
-        <v>8969.0</v>
+      <c r="B257" s="23">
+        <v>6765.0</v>
       </c>
       <c r="C257" s="5">
         <v>0.0</v>
@@ -6016,8 +6280,8 @@
       <c r="A258" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B258" s="10">
-        <v>21979.0</v>
+      <c r="B258" s="23">
+        <v>19994.0</v>
       </c>
       <c r="C258" s="5">
         <v>0.0</v>
@@ -6033,8 +6297,8 @@
       <c r="A259" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B259" s="10">
-        <v>71944.0</v>
+      <c r="B259" s="23">
+        <v>57897.0</v>
       </c>
       <c r="C259" s="5">
         <v>0.0</v>
@@ -6050,13 +6314,13 @@
       <c r="A260" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B260" s="10">
-        <v>191899.0</v>
-      </c>
-      <c r="C260" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D260" s="11">
+      <c r="B260" s="23">
+        <v>173000.0</v>
+      </c>
+      <c r="C260" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D260" s="10">
         <v>6.0</v>
       </c>
       <c r="E260" s="6" t="s">
@@ -6064,16 +6328,16 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="12" t="s">
+      <c r="A261" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B261" s="10">
-        <v>608000.0</v>
-      </c>
-      <c r="C261" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D261" s="11">
+      <c r="B261" s="23">
+        <v>609845.0</v>
+      </c>
+      <c r="C261" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D261" s="10">
         <v>3.0</v>
       </c>
       <c r="E261" s="6" t="s">
@@ -6084,8 +6348,8 @@
       <c r="A262" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B262" s="18">
-        <v>12982.0</v>
+      <c r="B262" s="24">
+        <v>11000.0</v>
       </c>
       <c r="C262" s="5">
         <v>0.0</v>
@@ -6101,8 +6365,8 @@
       <c r="A263" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B263" s="18">
-        <v>36693.0</v>
+      <c r="B263" s="24">
+        <v>32145.0</v>
       </c>
       <c r="C263" s="5">
         <v>0.0</v>
@@ -6118,8 +6382,8 @@
       <c r="A264" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B264" s="18">
-        <v>120000.0</v>
+      <c r="B264" s="24">
+        <v>84419.0</v>
       </c>
       <c r="C264" s="5">
         <v>0.0</v>
@@ -6135,13 +6399,13 @@
       <c r="A265" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B265" s="18">
-        <v>239999.0</v>
-      </c>
-      <c r="C265" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D265" s="11">
+      <c r="B265" s="24">
+        <v>231999.0</v>
+      </c>
+      <c r="C265" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D265" s="10">
         <v>6.0</v>
       </c>
       <c r="E265" s="6" t="s">
@@ -6149,16 +6413,16 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="12" t="s">
+      <c r="A266" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B266" s="18">
-        <v>665550.0</v>
-      </c>
-      <c r="C266" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D266" s="11">
+      <c r="B266" s="24">
+        <v>631110.0</v>
+      </c>
+      <c r="C266" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D266" s="10">
         <v>3.0</v>
       </c>
       <c r="E266" s="6" t="s">
@@ -6169,8 +6433,8 @@
       <c r="A267" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B267" s="19">
-        <v>13415.0</v>
+      <c r="B267" s="25">
+        <v>11948.0</v>
       </c>
       <c r="C267" s="5">
         <v>0.0</v>
@@ -6186,8 +6450,8 @@
       <c r="A268" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B268" s="19">
-        <v>32628.0</v>
+      <c r="B268" s="25">
+        <v>28988.0</v>
       </c>
       <c r="C268" s="5">
         <v>0.0</v>
@@ -6203,8 +6467,8 @@
       <c r="A269" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B269" s="19">
-        <v>88000.0</v>
+      <c r="B269" s="25">
+        <v>85942.0</v>
       </c>
       <c r="C269" s="5">
         <v>0.0</v>
@@ -6220,13 +6484,13 @@
       <c r="A270" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B270" s="19">
-        <v>239797.0</v>
-      </c>
-      <c r="C270" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D270" s="11">
+      <c r="B270" s="25">
+        <v>238390.0</v>
+      </c>
+      <c r="C270" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D270" s="10">
         <v>6.0</v>
       </c>
       <c r="E270" s="6" t="s">
@@ -6234,16 +6498,16 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="12" t="s">
+      <c r="A271" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B271" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C271" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D271" s="11">
+      <c r="B271" s="25">
+        <v>736666.0</v>
+      </c>
+      <c r="C271" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D271" s="10">
         <v>3.0</v>
       </c>
       <c r="E271" s="6" t="s">
@@ -6254,8 +6518,8 @@
       <c r="A272" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B272" s="20">
-        <v>199985.0</v>
+      <c r="B272" s="29">
+        <v>10189.0</v>
       </c>
       <c r="C272" s="5">
         <v>0.0</v>
@@ -6271,8 +6535,8 @@
       <c r="A273" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B273" s="20">
-        <v>19915.0</v>
+      <c r="B273" s="29">
+        <v>18928.0</v>
       </c>
       <c r="C273" s="5">
         <v>0.0</v>
@@ -6288,8 +6552,8 @@
       <c r="A274" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B274" s="20">
-        <v>79876.0</v>
+      <c r="B274" s="29">
+        <v>72984.0</v>
       </c>
       <c r="C274" s="5">
         <v>0.0</v>
@@ -6305,13 +6569,13 @@
       <c r="A275" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B275" s="20">
-        <v>199985.0</v>
-      </c>
-      <c r="C275" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D275" s="11">
+      <c r="B275" s="29">
+        <v>223995.0</v>
+      </c>
+      <c r="C275" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D275" s="10">
         <v>6.0</v>
       </c>
       <c r="E275" s="6" t="s">
@@ -6319,16 +6583,16 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="12" t="s">
+      <c r="A276" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B276" s="20">
-        <v>553916.0</v>
-      </c>
-      <c r="C276" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D276" s="11">
+      <c r="B276" s="29">
+        <v>546464.0</v>
+      </c>
+      <c r="C276" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D276" s="10">
         <v>3.0</v>
       </c>
       <c r="E276" s="6" t="s">
@@ -6339,8 +6603,8 @@
       <c r="A277" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B277" s="16">
-        <v>15807.0</v>
+      <c r="B277" s="28">
+        <v>15650.0</v>
       </c>
       <c r="C277" s="5">
         <v>0.0</v>
@@ -6356,8 +6620,8 @@
       <c r="A278" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B278" s="16">
-        <v>58853.0</v>
+      <c r="B278" s="28">
+        <v>29990.0</v>
       </c>
       <c r="C278" s="5">
         <v>0.0</v>
@@ -6373,8 +6637,8 @@
       <c r="A279" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B279" s="16">
-        <v>116000.0</v>
+      <c r="B279" s="28">
+        <v>111844.0</v>
       </c>
       <c r="C279" s="5">
         <v>0.0</v>
@@ -6390,13 +6654,13 @@
       <c r="A280" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B280" s="16">
-        <v>299949.0</v>
-      </c>
-      <c r="C280" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D280" s="11">
+      <c r="B280" s="28">
+        <v>285985.0</v>
+      </c>
+      <c r="C280" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D280" s="10">
         <v>6.0</v>
       </c>
       <c r="E280" s="6" t="s">
@@ -6404,16 +6668,16 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="12" t="s">
+      <c r="A281" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B281" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="C281" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D281" s="11">
+      <c r="B281" s="28">
+        <v>736990.0</v>
+      </c>
+      <c r="C281" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D281" s="10">
         <v>3.0</v>
       </c>
       <c r="E281" s="6" t="s">
@@ -6424,8 +6688,8 @@
       <c r="A282" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B282" s="10">
-        <v>10984.0</v>
+      <c r="B282" s="23">
+        <v>12261.0</v>
       </c>
       <c r="C282" s="5">
         <v>0.0</v>
@@ -6441,8 +6705,8 @@
       <c r="A283" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B283" s="10">
-        <v>32030.0</v>
+      <c r="B283" s="23">
+        <v>27754.0</v>
       </c>
       <c r="C283" s="5">
         <v>0.0</v>
@@ -6458,8 +6722,8 @@
       <c r="A284" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B284" s="10">
-        <v>118000.0</v>
+      <c r="B284" s="23">
+        <v>95947.0</v>
       </c>
       <c r="C284" s="5">
         <v>0.0</v>
@@ -6475,13 +6739,13 @@
       <c r="A285" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B285" s="10">
-        <v>277996.0</v>
-      </c>
-      <c r="C285" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D285" s="11">
+      <c r="B285" s="23">
+        <v>313998.0</v>
+      </c>
+      <c r="C285" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D285" s="10">
         <v>6.0</v>
       </c>
       <c r="E285" s="6" t="s">
@@ -6489,16 +6753,16 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="12" t="s">
+      <c r="A286" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B286" s="10">
-        <v>905555.0</v>
-      </c>
-      <c r="C286" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D286" s="11">
+      <c r="B286" s="23">
+        <v>838799.0</v>
+      </c>
+      <c r="C286" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D286" s="10">
         <v>3.0</v>
       </c>
       <c r="E286" s="6" t="s">
@@ -6509,8 +6773,8 @@
       <c r="A287" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B287" s="18">
-        <v>33599.0</v>
+      <c r="B287" s="24">
+        <v>9944.0</v>
       </c>
       <c r="C287" s="5">
         <v>0.0</v>
@@ -6526,8 +6790,8 @@
       <c r="A288" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B288" s="18">
-        <v>33599.0</v>
+      <c r="B288" s="24">
+        <v>22467.0</v>
       </c>
       <c r="C288" s="5">
         <v>0.0</v>
@@ -6543,8 +6807,8 @@
       <c r="A289" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B289" s="18">
-        <v>33599.0</v>
+      <c r="B289" s="24">
+        <v>74413.0</v>
       </c>
       <c r="C289" s="5">
         <v>0.0</v>
@@ -6560,13 +6824,13 @@
       <c r="A290" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B290" s="18">
-        <v>167535.0</v>
-      </c>
-      <c r="C290" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D290" s="11">
+      <c r="B290" s="24">
+        <v>181948.0</v>
+      </c>
+      <c r="C290" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D290" s="10">
         <v>6.0</v>
       </c>
       <c r="E290" s="6" t="s">
@@ -6574,16 +6838,16 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="12" t="s">
+      <c r="A291" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B291" s="18">
-        <v>544999.0</v>
-      </c>
-      <c r="C291" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D291" s="11">
+      <c r="B291" s="24">
+        <v>599984.0</v>
+      </c>
+      <c r="C291" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D291" s="10">
         <v>3.0</v>
       </c>
       <c r="E291" s="6" t="s">
@@ -6594,8 +6858,8 @@
       <c r="A292" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B292" s="19">
-        <v>16358.0</v>
+      <c r="B292" s="25">
+        <v>14887.0</v>
       </c>
       <c r="C292" s="5">
         <v>0.0</v>
@@ -6611,8 +6875,8 @@
       <c r="A293" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B293" s="19">
-        <v>35552.0</v>
+      <c r="B293" s="25">
+        <v>34967.0</v>
       </c>
       <c r="C293" s="5">
         <v>0.0</v>
@@ -6628,8 +6892,8 @@
       <c r="A294" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B294" s="19">
-        <v>88000.0</v>
+      <c r="B294" s="25">
+        <v>106866.0</v>
       </c>
       <c r="C294" s="5">
         <v>0.0</v>
@@ -6645,13 +6909,13 @@
       <c r="A295" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B295" s="19">
-        <v>267398.0</v>
-      </c>
-      <c r="C295" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D295" s="11">
+      <c r="B295" s="25">
+        <v>274442.0</v>
+      </c>
+      <c r="C295" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D295" s="10">
         <v>6.0</v>
       </c>
       <c r="E295" s="6" t="s">
@@ -6659,16 +6923,16 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="12" t="s">
+      <c r="A296" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B296" s="19">
-        <v>869966.0</v>
-      </c>
-      <c r="C296" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D296" s="11">
+      <c r="B296" s="25">
+        <v>894993.0</v>
+      </c>
+      <c r="C296" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D296" s="10">
         <v>3.0</v>
       </c>
       <c r="E296" s="6" t="s">
@@ -6679,8 +6943,8 @@
       <c r="A297" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B297" s="20">
-        <v>16488.0</v>
+      <c r="B297" s="29">
+        <v>1.0</v>
       </c>
       <c r="C297" s="5">
         <v>0.0</v>
@@ -6696,8 +6960,8 @@
       <c r="A298" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B298" s="20">
-        <v>33605.0</v>
+      <c r="B298" s="29">
+        <v>32221.0</v>
       </c>
       <c r="C298" s="5">
         <v>0.0</v>
@@ -6713,8 +6977,8 @@
       <c r="A299" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B299" s="20">
-        <v>103000.0</v>
+      <c r="B299" s="29">
+        <v>98984.0</v>
       </c>
       <c r="C299" s="5">
         <v>0.0</v>
@@ -6730,13 +6994,13 @@
       <c r="A300" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B300" s="20">
-        <v>250500.0</v>
-      </c>
-      <c r="C300" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D300" s="11">
+      <c r="B300" s="29">
+        <v>270624.0</v>
+      </c>
+      <c r="C300" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D300" s="10">
         <v>6.0</v>
       </c>
       <c r="E300" s="6" t="s">
@@ -6744,16 +7008,16 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B301" s="20">
-        <v>919997.0</v>
-      </c>
-      <c r="C301" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D301" s="11">
+      <c r="B301" s="29">
+        <v>733330.0</v>
+      </c>
+      <c r="C301" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D301" s="10">
         <v>3.0</v>
       </c>
       <c r="E301" s="6" t="s">
@@ -6764,8 +7028,8 @@
       <c r="A302" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B302" s="16">
-        <v>27922.0</v>
+      <c r="B302" s="28">
+        <v>11159.0</v>
       </c>
       <c r="C302" s="5">
         <v>0.0</v>
@@ -6781,8 +7045,8 @@
       <c r="A303" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B303" s="16">
-        <v>27922.0</v>
+      <c r="B303" s="28">
+        <v>24919.0</v>
       </c>
       <c r="C303" s="5">
         <v>0.0</v>
@@ -6798,8 +7062,8 @@
       <c r="A304" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B304" s="16">
-        <v>69965.0</v>
+      <c r="B304" s="28">
+        <v>72919.0</v>
       </c>
       <c r="C304" s="5">
         <v>0.0</v>
@@ -6815,13 +7079,13 @@
       <c r="A305" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B305" s="16">
-        <v>211111.0</v>
-      </c>
-      <c r="C305" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D305" s="11">
+      <c r="B305" s="28">
+        <v>199982.0</v>
+      </c>
+      <c r="C305" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D305" s="10">
         <v>6.0</v>
       </c>
       <c r="E305" s="6" t="s">
@@ -6829,16 +7093,16 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="12" t="s">
+      <c r="A306" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B306" s="16">
-        <v>769672.0</v>
-      </c>
-      <c r="C306" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D306" s="11">
+      <c r="B306" s="28">
+        <v>728888.0</v>
+      </c>
+      <c r="C306" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D306" s="10">
         <v>3.0</v>
       </c>
       <c r="E306" s="6" t="s">
@@ -6849,8 +7113,8 @@
       <c r="A307" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B307" s="10">
-        <v>17539.0</v>
+      <c r="B307" s="23">
+        <v>17521.0</v>
       </c>
       <c r="C307" s="5">
         <v>0.0</v>
@@ -6866,8 +7130,8 @@
       <c r="A308" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B308" s="10">
-        <v>32366.0</v>
+      <c r="B308" s="23">
+        <v>34509.0</v>
       </c>
       <c r="C308" s="5">
         <v>0.0</v>
@@ -6883,8 +7147,8 @@
       <c r="A309" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B309" s="10">
-        <v>99884.0</v>
+      <c r="B309" s="23">
+        <v>93220.0</v>
       </c>
       <c r="C309" s="5">
         <v>0.0</v>
@@ -6900,13 +7164,13 @@
       <c r="A310" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B310" s="10">
-        <v>262995.0</v>
-      </c>
-      <c r="C310" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D310" s="11">
+      <c r="B310" s="23">
+        <v>231969.0</v>
+      </c>
+      <c r="C310" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D310" s="10">
         <v>6.0</v>
       </c>
       <c r="E310" s="6" t="s">
@@ -6914,16 +7178,16 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="12" t="s">
+      <c r="A311" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="B311" s="10">
-        <v>789991.0</v>
-      </c>
-      <c r="C311" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D311" s="11">
+      <c r="B311" s="23">
+        <v>866656.0</v>
+      </c>
+      <c r="C311" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D311" s="10">
         <v>3.0</v>
       </c>
       <c r="E311" s="6" t="s">
@@ -6934,8 +7198,8 @@
       <c r="A312" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B312" s="18">
-        <v>16936.0</v>
+      <c r="B312" s="24">
+        <v>16000.0</v>
       </c>
       <c r="C312" s="5">
         <v>0.0</v>
@@ -6951,8 +7215,8 @@
       <c r="A313" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B313" s="18">
-        <v>37346.0</v>
+      <c r="B313" s="24">
+        <v>37598.0</v>
       </c>
       <c r="C313" s="5">
         <v>0.0</v>
@@ -6968,8 +7232,8 @@
       <c r="A314" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B314" s="18">
-        <v>102997.0</v>
+      <c r="B314" s="24">
+        <v>88850.0</v>
       </c>
       <c r="C314" s="5">
         <v>0.0</v>
@@ -6985,13 +7249,13 @@
       <c r="A315" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B315" s="18">
-        <v>277368.0</v>
-      </c>
-      <c r="C315" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D315" s="11">
+      <c r="B315" s="24">
+        <v>248867.0</v>
+      </c>
+      <c r="C315" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D315" s="10">
         <v>6.0</v>
       </c>
       <c r="E315" s="6" t="s">
@@ -6999,16 +7263,16 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="12" t="s">
+      <c r="A316" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B316" s="18">
-        <v>840000.0</v>
-      </c>
-      <c r="C316" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D316" s="11">
+      <c r="B316" s="24">
+        <v>845000.0</v>
+      </c>
+      <c r="C316" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D316" s="10">
         <v>3.0</v>
       </c>
       <c r="E316" s="6" t="s">
@@ -7019,8 +7283,8 @@
       <c r="A317" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B317" s="19">
-        <v>7351.0</v>
+      <c r="B317" s="25">
+        <v>7313.0</v>
       </c>
       <c r="C317" s="5">
         <v>0.0</v>
@@ -7036,8 +7300,8 @@
       <c r="A318" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B318" s="19">
-        <v>21857.0</v>
+      <c r="B318" s="25">
+        <v>16989.0</v>
       </c>
       <c r="C318" s="5">
         <v>0.0</v>
@@ -7053,8 +7317,8 @@
       <c r="A319" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B319" s="19">
-        <v>59598.0</v>
+      <c r="B319" s="25">
+        <v>56331.0</v>
       </c>
       <c r="C319" s="5">
         <v>0.0</v>
@@ -7070,13 +7334,13 @@
       <c r="A320" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B320" s="19">
-        <v>182205.0</v>
-      </c>
-      <c r="C320" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D320" s="11">
+      <c r="B320" s="25">
+        <v>183812.0</v>
+      </c>
+      <c r="C320" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D320" s="10">
         <v>6.0</v>
       </c>
       <c r="E320" s="6" t="s">
@@ -7084,16 +7348,16 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="12" t="s">
+      <c r="A321" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B321" s="19">
-        <v>545987.0</v>
-      </c>
-      <c r="C321" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D321" s="11">
+      <c r="B321" s="25">
+        <v>569998.0</v>
+      </c>
+      <c r="C321" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D321" s="10">
         <v>3.0</v>
       </c>
       <c r="E321" s="6" t="s">
@@ -7104,8 +7368,8 @@
       <c r="A322" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B322" s="20">
-        <v>13881.0</v>
+      <c r="B322" s="29">
+        <v>10741.0</v>
       </c>
       <c r="C322" s="5">
         <v>0.0</v>
@@ -7121,8 +7385,8 @@
       <c r="A323" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B323" s="20">
-        <v>51988.0</v>
+      <c r="B323" s="29">
+        <v>31685.0</v>
       </c>
       <c r="C323" s="5">
         <v>0.0</v>
@@ -7138,8 +7402,8 @@
       <c r="A324" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B324" s="20">
-        <v>99506.0</v>
+      <c r="B324" s="29">
+        <v>88498.0</v>
       </c>
       <c r="C324" s="5">
         <v>0.0</v>
@@ -7155,13 +7419,13 @@
       <c r="A325" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B325" s="20">
-        <v>199999.0</v>
-      </c>
-      <c r="C325" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D325" s="11">
+      <c r="B325" s="29">
+        <v>230892.0</v>
+      </c>
+      <c r="C325" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D325" s="10">
         <v>6.0</v>
       </c>
       <c r="E325" s="6" t="s">
@@ -7169,16 +7433,16 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="12" t="s">
+      <c r="A326" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B326" s="20">
-        <v>628883.0</v>
-      </c>
-      <c r="C326" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D326" s="11">
+      <c r="B326" s="29">
+        <v>705555.0</v>
+      </c>
+      <c r="C326" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D326" s="10">
         <v>3.0</v>
       </c>
       <c r="E326" s="6" t="s">
@@ -7189,8 +7453,8 @@
       <c r="A327" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B327" s="16">
-        <v>13932.0</v>
+      <c r="B327" s="28">
+        <v>11980.0</v>
       </c>
       <c r="C327" s="5">
         <v>0.0</v>
@@ -7206,8 +7470,8 @@
       <c r="A328" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B328" s="16">
-        <v>39997.0</v>
+      <c r="B328" s="28">
+        <v>38546.0</v>
       </c>
       <c r="C328" s="5">
         <v>0.0</v>
@@ -7223,8 +7487,8 @@
       <c r="A329" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B329" s="16">
-        <v>89638.0</v>
+      <c r="B329" s="28">
+        <v>98994.0</v>
       </c>
       <c r="C329" s="5">
         <v>0.0</v>
@@ -7240,13 +7504,13 @@
       <c r="A330" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B330" s="16">
-        <v>216768.0</v>
-      </c>
-      <c r="C330" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D330" s="11">
+      <c r="B330" s="28">
+        <v>212976.0</v>
+      </c>
+      <c r="C330" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D330" s="10">
         <v>6.0</v>
       </c>
       <c r="E330" s="6" t="s">
@@ -7254,16 +7518,16 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B331" s="16">
-        <v>576300.0</v>
-      </c>
-      <c r="C331" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D331" s="11">
+      <c r="B331" s="28">
+        <v>617987.0</v>
+      </c>
+      <c r="C331" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D331" s="10">
         <v>3.0</v>
       </c>
       <c r="E331" s="6" t="s">
@@ -7274,8 +7538,8 @@
       <c r="A332" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B332" s="10">
-        <v>10497.0</v>
+      <c r="B332" s="23">
+        <v>9200.0</v>
       </c>
       <c r="C332" s="5">
         <v>0.0</v>
@@ -7291,8 +7555,8 @@
       <c r="A333" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B333" s="10">
-        <v>10497.0</v>
+      <c r="B333" s="23">
+        <v>25101.0</v>
       </c>
       <c r="C333" s="5">
         <v>0.0</v>
@@ -7308,8 +7572,8 @@
       <c r="A334" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B334" s="10">
-        <v>22157.0</v>
+      <c r="B334" s="23">
+        <v>66288.0</v>
       </c>
       <c r="C334" s="5">
         <v>0.0</v>
@@ -7325,13 +7589,13 @@
       <c r="A335" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B335" s="10">
-        <v>49453.0</v>
-      </c>
-      <c r="C335" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D335" s="11">
+      <c r="B335" s="23">
+        <v>149968.0</v>
+      </c>
+      <c r="C335" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D335" s="10">
         <v>6.0</v>
       </c>
       <c r="E335" s="6" t="s">
@@ -7339,16 +7603,16 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="12" t="s">
+      <c r="A336" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B336" s="10">
-        <v>149913.0</v>
-      </c>
-      <c r="C336" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D336" s="11">
+      <c r="B336" s="23">
+        <v>548888.0</v>
+      </c>
+      <c r="C336" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D336" s="10">
         <v>3.0</v>
       </c>
       <c r="E336" s="6" t="s">
@@ -7359,8 +7623,8 @@
       <c r="A337" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B337" s="18">
-        <v>12935.0</v>
+      <c r="B337" s="24">
+        <v>13492.0</v>
       </c>
       <c r="C337" s="5">
         <v>0.0</v>
@@ -7376,8 +7640,8 @@
       <c r="A338" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B338" s="18">
-        <v>29870.0</v>
+      <c r="B338" s="24">
+        <v>32180.0</v>
       </c>
       <c r="C338" s="5">
         <v>0.0</v>
@@ -7393,8 +7657,8 @@
       <c r="A339" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B339" s="18">
-        <v>70842.0</v>
+      <c r="B339" s="24">
+        <v>74989.0</v>
       </c>
       <c r="C339" s="5">
         <v>0.0</v>
@@ -7410,13 +7674,13 @@
       <c r="A340" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B340" s="18">
-        <v>210977.0</v>
-      </c>
-      <c r="C340" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D340" s="11">
+      <c r="B340" s="24">
+        <v>298997.0</v>
+      </c>
+      <c r="C340" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D340" s="10">
         <v>6.0</v>
       </c>
       <c r="E340" s="6" t="s">
@@ -7424,16 +7688,16 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="12" t="s">
+      <c r="A341" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B341" s="18">
-        <v>635000.0</v>
-      </c>
-      <c r="C341" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D341" s="11">
+      <c r="B341" s="24">
+        <v>797773.0</v>
+      </c>
+      <c r="C341" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D341" s="10">
         <v>3.0</v>
       </c>
       <c r="E341" s="6" t="s">
@@ -7444,8 +7708,8 @@
       <c r="A342" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B342" s="19">
-        <v>15882.0</v>
+      <c r="B342" s="25">
+        <v>14897.0</v>
       </c>
       <c r="C342" s="5">
         <v>0.0</v>
@@ -7461,8 +7725,8 @@
       <c r="A343" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B343" s="19">
-        <v>30984.0</v>
+      <c r="B343" s="25">
+        <v>31309.0</v>
       </c>
       <c r="C343" s="5">
         <v>0.0</v>
@@ -7478,8 +7742,8 @@
       <c r="A344" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B344" s="19">
-        <v>71993.0</v>
+      <c r="B344" s="25">
+        <v>71105.0</v>
       </c>
       <c r="C344" s="5">
         <v>0.0</v>
@@ -7495,13 +7759,13 @@
       <c r="A345" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B345" s="19">
-        <v>224979.0</v>
-      </c>
-      <c r="C345" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D345" s="11">
+      <c r="B345" s="25">
+        <v>220000.0</v>
+      </c>
+      <c r="C345" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D345" s="10">
         <v>6.0</v>
       </c>
       <c r="E345" s="6" t="s">
@@ -7509,16 +7773,16 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="12" t="s">
+      <c r="A346" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B346" s="19">
-        <v>672498.0</v>
-      </c>
-      <c r="C346" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D346" s="11">
+      <c r="B346" s="25">
+        <v>848884.0</v>
+      </c>
+      <c r="C346" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D346" s="10">
         <v>3.0</v>
       </c>
       <c r="E346" s="6" t="s">
@@ -7529,8 +7793,8 @@
       <c r="A347" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B347" s="20">
-        <v>4759.0</v>
+      <c r="B347" s="29">
+        <v>4921.0</v>
       </c>
       <c r="C347" s="5">
         <v>0.0</v>
@@ -7546,8 +7810,8 @@
       <c r="A348" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B348" s="20">
-        <v>15884.0</v>
+      <c r="B348" s="29">
+        <v>16967.0</v>
       </c>
       <c r="C348" s="5">
         <v>0.0</v>
@@ -7563,8 +7827,8 @@
       <c r="A349" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B349" s="20">
-        <v>49971.0</v>
+      <c r="B349" s="29">
+        <v>63181.0</v>
       </c>
       <c r="C349" s="5">
         <v>0.0</v>
@@ -7580,13 +7844,13 @@
       <c r="A350" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B350" s="20">
-        <v>202322.0</v>
-      </c>
-      <c r="C350" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D350" s="11">
+      <c r="B350" s="29">
+        <v>185957.0</v>
+      </c>
+      <c r="C350" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D350" s="10">
         <v>6.0</v>
       </c>
       <c r="E350" s="6" t="s">
@@ -7594,16 +7858,16 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="12" t="s">
+      <c r="A351" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B351" s="20">
-        <v>572489.0</v>
-      </c>
-      <c r="C351" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D351" s="11">
+      <c r="B351" s="29">
+        <v>598887.0</v>
+      </c>
+      <c r="C351" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D351" s="10">
         <v>3.0</v>
       </c>
       <c r="E351" s="6" t="s">
@@ -7614,8 +7878,8 @@
       <c r="A352" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B352" s="16">
-        <v>10555.0</v>
+      <c r="B352" s="28">
+        <v>10788.0</v>
       </c>
       <c r="C352" s="5">
         <v>0.0</v>
@@ -7631,8 +7895,8 @@
       <c r="A353" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B353" s="16">
-        <v>25936.0</v>
+      <c r="B353" s="28">
+        <v>26002.0</v>
       </c>
       <c r="C353" s="5">
         <v>0.0</v>
@@ -7648,8 +7912,8 @@
       <c r="A354" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B354" s="16">
-        <v>79627.0</v>
+      <c r="B354" s="28">
+        <v>86538.0</v>
       </c>
       <c r="C354" s="5">
         <v>0.0</v>
@@ -7665,13 +7929,13 @@
       <c r="A355" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B355" s="16">
-        <v>255000.0</v>
-      </c>
-      <c r="C355" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D355" s="11">
+      <c r="B355" s="28">
+        <v>253965.0</v>
+      </c>
+      <c r="C355" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D355" s="10">
         <v>6.0</v>
       </c>
       <c r="E355" s="6" t="s">
@@ -7679,16 +7943,16 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="12" t="s">
+      <c r="A356" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B356" s="16">
-        <v>21111.0</v>
-      </c>
-      <c r="C356" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D356" s="11">
+      <c r="B356" s="28">
+        <v>697994.0</v>
+      </c>
+      <c r="C356" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D356" s="10">
         <v>3.0</v>
       </c>
       <c r="E356" s="6" t="s">
@@ -7699,8 +7963,8 @@
       <c r="A357" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B357" s="10">
-        <v>11495.0</v>
+      <c r="B357" s="23">
+        <v>11450.0</v>
       </c>
       <c r="C357" s="5">
         <v>0.0</v>
@@ -7716,8 +7980,8 @@
       <c r="A358" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B358" s="10">
-        <v>25982.0</v>
+      <c r="B358" s="23">
+        <v>27270.0</v>
       </c>
       <c r="C358" s="5">
         <v>0.0</v>
@@ -7733,8 +7997,8 @@
       <c r="A359" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B359" s="10">
-        <v>84970.0</v>
+      <c r="B359" s="23">
+        <v>88155.0</v>
       </c>
       <c r="C359" s="5">
         <v>0.0</v>
@@ -7750,13 +8014,13 @@
       <c r="A360" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B360" s="10">
-        <v>279993.0</v>
-      </c>
-      <c r="C360" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D360" s="11">
+      <c r="B360" s="23">
+        <v>272105.0</v>
+      </c>
+      <c r="C360" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D360" s="10">
         <v>6.0</v>
       </c>
       <c r="E360" s="6" t="s">
@@ -7764,16 +8028,16 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="12" t="s">
+      <c r="A361" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B361" s="10">
-        <v>692997.0</v>
-      </c>
-      <c r="C361" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D361" s="11">
+      <c r="B361" s="23">
+        <v>599000.0</v>
+      </c>
+      <c r="C361" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D361" s="10">
         <v>3.0</v>
       </c>
       <c r="E361" s="6" t="s">
@@ -7784,8 +8048,8 @@
       <c r="A362" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B362" s="18">
-        <v>7020.0</v>
+      <c r="B362" s="24">
+        <v>7088.0</v>
       </c>
       <c r="C362" s="5">
         <v>0.0</v>
@@ -7801,8 +8065,8 @@
       <c r="A363" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B363" s="18">
-        <v>15275.0</v>
+      <c r="B363" s="24">
+        <v>17800.0</v>
       </c>
       <c r="C363" s="5">
         <v>0.0</v>
@@ -7818,8 +8082,8 @@
       <c r="A364" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B364" s="18">
-        <v>48980.0</v>
+      <c r="B364" s="24">
+        <v>51320.0</v>
       </c>
       <c r="C364" s="5">
         <v>0.0</v>
@@ -7835,13 +8099,13 @@
       <c r="A365" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B365" s="18">
-        <v>160000.0</v>
-      </c>
-      <c r="C365" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D365" s="11">
+      <c r="B365" s="24">
+        <v>160385.0</v>
+      </c>
+      <c r="C365" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D365" s="10">
         <v>6.0</v>
       </c>
       <c r="E365" s="6" t="s">
@@ -7849,16 +8113,16 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="12" t="s">
+      <c r="A366" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B366" s="18">
-        <v>670011.0</v>
-      </c>
-      <c r="C366" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D366" s="11">
+      <c r="B366" s="24">
+        <v>575554.0</v>
+      </c>
+      <c r="C366" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D366" s="10">
         <v>3.0</v>
       </c>
       <c r="E366" s="6" t="s">
@@ -7866,11 +8130,11 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B367" s="19">
-        <v>9819.0</v>
+      <c r="B367" s="25">
+        <v>14929.0</v>
       </c>
       <c r="C367" s="5">
         <v>0.0</v>
@@ -7886,8 +8150,8 @@
       <c r="A368" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B368" s="19">
-        <v>23497.0</v>
+      <c r="B368" s="25">
+        <v>27769.0</v>
       </c>
       <c r="C368" s="5">
         <v>0.0</v>
@@ -7903,8 +8167,8 @@
       <c r="A369" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B369" s="19">
-        <v>76086.0</v>
+      <c r="B369" s="25">
+        <v>87991.0</v>
       </c>
       <c r="C369" s="5">
         <v>0.0</v>
@@ -7920,13 +8184,13 @@
       <c r="A370" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B370" s="19">
-        <v>199973.0</v>
-      </c>
-      <c r="C370" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D370" s="11">
+      <c r="B370" s="25">
+        <v>320988.0</v>
+      </c>
+      <c r="C370" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D370" s="10">
         <v>6.0</v>
       </c>
       <c r="E370" s="6" t="s">
@@ -7934,16 +8198,16 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="12" t="s">
+      <c r="A371" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B371" s="19">
-        <v>914443.0</v>
-      </c>
-      <c r="C371" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D371" s="11">
+      <c r="B371" s="25">
+        <v>949995.0</v>
+      </c>
+      <c r="C371" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D371" s="10">
         <v>3.0</v>
       </c>
       <c r="E371" s="6" t="s">
@@ -7951,11 +8215,11 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B372" s="20">
-        <v>12929.0</v>
+      <c r="B372" s="29">
+        <v>12947.0</v>
       </c>
       <c r="C372" s="5">
         <v>0.0</v>
@@ -7971,8 +8235,8 @@
       <c r="A373" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B373" s="20">
-        <v>25957.0</v>
+      <c r="B373" s="29">
+        <v>27775.0</v>
       </c>
       <c r="C373" s="5">
         <v>0.0</v>
@@ -7988,8 +8252,8 @@
       <c r="A374" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B374" s="20">
-        <v>79866.0</v>
+      <c r="B374" s="29">
+        <v>79769.0</v>
       </c>
       <c r="C374" s="5">
         <v>0.0</v>
@@ -8005,13 +8269,13 @@
       <c r="A375" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B375" s="20">
-        <v>226880.0</v>
-      </c>
-      <c r="C375" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D375" s="11">
+      <c r="B375" s="29">
+        <v>226863.0</v>
+      </c>
+      <c r="C375" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D375" s="10">
         <v>6.0</v>
       </c>
       <c r="E375" s="6" t="s">
@@ -8019,16 +8283,16 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="12" t="s">
+      <c r="A376" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B376" s="20">
-        <v>672222.0</v>
-      </c>
-      <c r="C376" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D376" s="11">
+      <c r="B376" s="29">
+        <v>674464.0</v>
+      </c>
+      <c r="C376" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D376" s="10">
         <v>3.0</v>
       </c>
       <c r="E376" s="6" t="s">
@@ -8036,275 +8300,1363 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="8" t="s">
+      <c r="A377" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="B377" s="11">
-        <v>280000.0</v>
-      </c>
-      <c r="C377" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D377" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E377" s="6" t="s">
-        <v>6</v>
+      <c r="B377" s="28">
+        <v>69000.0</v>
+      </c>
+      <c r="C377" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D377" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E377" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="8" t="s">
+      <c r="A378" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B378" s="11">
-        <v>290000.0</v>
-      </c>
-      <c r="C378" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D378" s="11">
-        <v>40.0</v>
-      </c>
-      <c r="E378" s="6" t="s">
-        <v>8</v>
+      <c r="B378" s="28">
+        <v>134923.0</v>
+      </c>
+      <c r="C378" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D378" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E378" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="8" t="s">
+      <c r="A379" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="B379" s="11">
-        <v>210000.0</v>
-      </c>
-      <c r="C379" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D379" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E379" s="6" t="s">
+      <c r="B379" s="28">
+        <v>236025.0</v>
+      </c>
+      <c r="C379" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D379" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E379" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="8" t="s">
+      <c r="A380" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B380" s="11">
-        <v>250000.0</v>
-      </c>
-      <c r="C380" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D380" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E380" s="6" t="s">
+      <c r="B380" s="28">
+        <v>469907.0</v>
+      </c>
+      <c r="C380" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D380" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E380" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B381" s="11">
-        <v>240000.0</v>
-      </c>
-      <c r="C381" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D381" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E381" s="6" t="s">
+      <c r="B381" s="28">
+        <v>104887.0</v>
+      </c>
+      <c r="C381" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D381" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E381" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="8" t="s">
+      <c r="A382" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="B382" s="11">
-        <v>290000.0</v>
-      </c>
-      <c r="C382" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D382" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E382" s="6" t="s">
-        <v>6</v>
+      <c r="B382" s="23">
+        <v>175000.0</v>
+      </c>
+      <c r="C382" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D382" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E382" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="8" t="s">
+      <c r="A383" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B383" s="11">
-        <v>240000.0</v>
-      </c>
-      <c r="C383" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D383" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E383" s="6" t="s">
-        <v>8</v>
+      <c r="B383" s="23">
+        <v>217999.0</v>
+      </c>
+      <c r="C383" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D383" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E383" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="8" t="s">
+      <c r="A384" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B384" s="11">
-        <v>30000.0</v>
-      </c>
-      <c r="C384" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D384" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="E384" s="6" t="s">
+      <c r="B384" s="23">
+        <v>245710.0</v>
+      </c>
+      <c r="C384" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D384" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E384" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B385" s="11">
-        <v>59000.0</v>
-      </c>
-      <c r="C385" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D385" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="E385" s="6" t="s">
+      <c r="A385" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B385" s="23">
+        <v>767669.0</v>
+      </c>
+      <c r="C385" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D385" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E385" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B386" s="11">
-        <v>5000.0</v>
-      </c>
-      <c r="C386" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D386" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="E386" s="6" t="s">
+      <c r="A386" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B386" s="23">
+        <v>118786.0</v>
+      </c>
+      <c r="C386" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D386" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E386" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B387" s="11">
-        <v>18000.0</v>
-      </c>
-      <c r="C387" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D387" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="E387" s="6" t="s">
+      <c r="A387" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B387" s="34">
+        <v>91386.0</v>
+      </c>
+      <c r="C387" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D387" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E387" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B388" s="11">
-        <v>14000.0</v>
-      </c>
-      <c r="C388" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D388" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="E388" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B388" s="34">
+        <v>154996.0</v>
+      </c>
+      <c r="C388" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D388" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E388" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B389" s="34">
+        <v>350953.0</v>
+      </c>
+      <c r="C389" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D389" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E389" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B390" s="34">
+        <v>724993.0</v>
+      </c>
+      <c r="C390" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D390" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E390" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B391" s="34">
+        <v>158997.0</v>
+      </c>
+      <c r="C391" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D391" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E391" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="B392" s="25">
+        <v>88494.0</v>
+      </c>
+      <c r="C392" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D392" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E392" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B393" s="25">
+        <v>122986.0</v>
+      </c>
+      <c r="C393" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D393" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E393" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B394" s="25">
+        <v>265461.0</v>
+      </c>
+      <c r="C394" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D394" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E394" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B395" s="25">
+        <v>532995.0</v>
+      </c>
+      <c r="C395" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D395" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E395" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B396" s="25">
+        <v>117298.0</v>
+      </c>
+      <c r="C396" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D396" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E396" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B397" s="28">
+        <v>79992.0</v>
+      </c>
+      <c r="C397" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D397" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E397" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B398" s="28">
+        <v>88888.0</v>
+      </c>
+      <c r="C398" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D398" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E398" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B399" s="28">
+        <v>253998.0</v>
+      </c>
+      <c r="C399" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D399" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E399" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B400" s="28">
+        <v>699067.0</v>
+      </c>
+      <c r="C400" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D400" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E400" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B401" s="28">
+        <v>114898.0</v>
+      </c>
+      <c r="C401" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D401" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E401" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="B402" s="23">
+        <v>89960.0</v>
+      </c>
+      <c r="C402" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D402" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E402" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B403" s="23">
+        <v>127896.0</v>
+      </c>
+      <c r="C403" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D403" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E403" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B404" s="23">
+        <v>265641.0</v>
+      </c>
+      <c r="C404" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D404" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E404" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B405" s="23">
+        <v>459939.0</v>
+      </c>
+      <c r="C405" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D405" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E405" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B406" s="23">
+        <v>939985.0</v>
+      </c>
+      <c r="C406" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D406" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E406" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B407" s="24">
+        <v>180976.0</v>
+      </c>
+      <c r="C407" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D407" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E407" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B408" s="24">
+        <v>209053.0</v>
+      </c>
+      <c r="C408" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D408" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E408" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B409" s="24">
+        <v>224995.0</v>
+      </c>
+      <c r="C409" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D409" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E409" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B410" s="24">
+        <v>661988.0</v>
+      </c>
+      <c r="C410" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D410" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E410" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B411" s="24">
+        <v>1079995.0</v>
+      </c>
+      <c r="C411" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D411" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E411" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="B412" s="10">
+        <v>99950.0</v>
+      </c>
+      <c r="C412" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D412" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E412" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B413" s="10">
+        <v>172978.0</v>
+      </c>
+      <c r="C413" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D413" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E413" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B414" s="10">
+        <v>399995.0</v>
+      </c>
+      <c r="C414" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D414" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E414" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B415" s="10">
+        <v>680000.0</v>
+      </c>
+      <c r="C415" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D415" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E415" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B416" s="10">
+        <v>1549995.0</v>
+      </c>
+      <c r="C416" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D416" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E416" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B417" s="35">
+        <v>98999.0</v>
+      </c>
+      <c r="C417" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D417" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E417" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B418" s="35">
+        <v>178996.0</v>
+      </c>
+      <c r="C418" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D418" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E418" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B419" s="35">
+        <v>414887.0</v>
+      </c>
+      <c r="C419" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D419" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E419" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B420" s="35">
+        <v>749999.0</v>
+      </c>
+      <c r="C420" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D420" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E420" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B421" s="35">
+        <v>1777764.0</v>
+      </c>
+      <c r="C421" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D421" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E421" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B422" s="10">
+        <v>87985.0</v>
+      </c>
+      <c r="C422" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D422" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E422" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B423" s="10">
+        <v>157996.0</v>
+      </c>
+      <c r="C423" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D423" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E423" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B424" s="10">
+        <v>299948.0</v>
+      </c>
+      <c r="C424" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D424" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E424" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B425" s="10">
+        <v>519493.0</v>
+      </c>
+      <c r="C425" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D425" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E425" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B426" s="10">
+        <v>109500.0</v>
+      </c>
+      <c r="C426" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D426" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E426" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B427" s="10">
+        <v>93884.0</v>
+      </c>
+      <c r="C427" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D427" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E427" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B428" s="10">
+        <v>160659.0</v>
+      </c>
+      <c r="C428" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D428" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E428" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B429" s="10">
+        <v>309999.0</v>
+      </c>
+      <c r="C429" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D429" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E429" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B430" s="10">
+        <v>699938.0</v>
+      </c>
+      <c r="C430" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D430" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E430" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B431" s="10">
+        <v>160996.0</v>
+      </c>
+      <c r="C431" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D431" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E431" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B432" s="35">
+        <v>63977.0</v>
+      </c>
+      <c r="C432" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D432" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E432" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B433" s="35">
+        <v>144979.0</v>
+      </c>
+      <c r="C433" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D433" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E433" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="B434" s="35">
+        <v>275922.0</v>
+      </c>
+      <c r="C434" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D434" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E434" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B435" s="35">
+        <v>498994.0</v>
+      </c>
+      <c r="C435" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D435" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E435" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B436" s="35">
+        <v>1299998.0</v>
+      </c>
+      <c r="C436" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D436" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E436" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B437" s="10">
+        <v>87881.0</v>
+      </c>
+      <c r="C437" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D437" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E437" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B438" s="10">
+        <v>126987.0</v>
+      </c>
+      <c r="C438" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D438" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E438" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B439" s="10">
+        <v>282802.0</v>
+      </c>
+      <c r="C439" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D439" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E439" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B440" s="10">
+        <v>459087.0</v>
+      </c>
+      <c r="C440" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D440" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E440" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B441" s="10">
+        <v>136978.0</v>
+      </c>
+      <c r="C441" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D441" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E441" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B442" s="10">
+        <v>77993.0</v>
+      </c>
+      <c r="C442" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D442" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E442" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B443" s="10">
+        <v>150000.0</v>
+      </c>
+      <c r="C443" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D443" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E443" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B444" s="10">
+        <v>316324.0</v>
+      </c>
+      <c r="C444" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D444" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E444" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B445" s="10">
+        <v>649949.0</v>
+      </c>
+      <c r="C445" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D445" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E445" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B446" s="10">
+        <v>1239959.0</v>
+      </c>
+      <c r="C446" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D446" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E446" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B447" s="24">
+        <v>3584.0</v>
+      </c>
+      <c r="C447" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D447" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="E447" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B448" s="24">
+        <v>15480.0</v>
+      </c>
+      <c r="C448" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D448" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="E448" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="B389" s="11">
-        <v>5000.0</v>
-      </c>
-      <c r="C389" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D389" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="E389" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B390" s="11">
-        <v>52000.0</v>
-      </c>
-      <c r="C390" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D390" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="E390" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B391" s="11">
-        <v>96000.0</v>
-      </c>
-      <c r="C391" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D391" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="E391" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B392" s="11">
-        <v>28000.0</v>
-      </c>
-      <c r="C392" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D392" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>10</v>
+    <row r="449">
+      <c r="A449" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="B449" s="24">
+        <v>48996.0</v>
+      </c>
+      <c r="C449" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D449" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="E449" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B450" s="24">
+        <v>154880.0</v>
+      </c>
+      <c r="C450" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D450" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="E450" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="B451" s="24">
+        <v>356987.0</v>
+      </c>
+      <c r="C451" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D451" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E451" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B452" s="25">
+        <v>2902.0</v>
+      </c>
+      <c r="C452" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D452" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="E452" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B453" s="25">
+        <v>7381.0</v>
+      </c>
+      <c r="C453" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D453" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="E453" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="B454" s="25">
+        <v>30986.0</v>
+      </c>
+      <c r="C454" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D454" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="E454" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B455" s="25">
+        <v>64978.0</v>
+      </c>
+      <c r="C455" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D455" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="E455" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B456" s="25">
+        <v>181931.0</v>
+      </c>
+      <c r="C456" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D456" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E456" s="31" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>1584</v>
+        <v>994</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>216</v>
+        <v>806</v>
       </c>
       <c r="I2" s="3" t="n"/>
     </row>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>3590</v>
+        <v>4497</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2404</v>
+        <v>1497</v>
       </c>
       <c r="I3" s="3" t="n"/>
     </row>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>14996</v>
+        <v>15708</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>4479</v>
+        <v>3767</v>
       </c>
       <c r="I4" s="3" t="n"/>
     </row>
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>42918</v>
+        <v>25000</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>4577</v>
+        <v>22495</v>
       </c>
       <c r="I5" s="3" t="n"/>
     </row>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="G6" s="3" t="n">
-        <v>145960</v>
+        <v>133999</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>-10495</v>
+        <v>1466</v>
       </c>
       <c r="I6" s="3" t="n"/>
     </row>
@@ -804,10 +804,10 @@
         <v>1977</v>
       </c>
       <c r="G7" s="37" t="n">
-        <v>1249</v>
+        <v>1090</v>
       </c>
       <c r="H7" s="37" t="n">
-        <v>728</v>
+        <v>887</v>
       </c>
       <c r="I7" s="3" t="n"/>
     </row>
@@ -821,10 +821,10 @@
         <v>5973</v>
       </c>
       <c r="G8" s="37" t="n">
-        <v>4258</v>
+        <v>4856</v>
       </c>
       <c r="H8" s="37" t="n">
-        <v>1715</v>
+        <v>1117</v>
       </c>
       <c r="I8" s="3" t="n"/>
     </row>
@@ -838,10 +838,10 @@
         <v>21413</v>
       </c>
       <c r="G9" s="37" t="n">
-        <v>10982</v>
+        <v>14857</v>
       </c>
       <c r="H9" s="37" t="n">
-        <v>10431</v>
+        <v>6556</v>
       </c>
       <c r="I9" s="3" t="n"/>
     </row>
@@ -855,10 +855,10 @@
         <v>48777</v>
       </c>
       <c r="G10" s="37" t="n">
-        <v>39990</v>
+        <v>36985</v>
       </c>
       <c r="H10" s="37" t="n">
-        <v>8787</v>
+        <v>11792</v>
       </c>
       <c r="I10" s="3" t="n"/>
     </row>
@@ -872,10 +872,10 @@
         <v>123990</v>
       </c>
       <c r="G11" s="37" t="n">
-        <v>109993</v>
+        <v>100999</v>
       </c>
       <c r="H11" s="37" t="n">
-        <v>13997</v>
+        <v>22991</v>
       </c>
       <c r="I11" s="3" t="n"/>
     </row>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1198</v>
+        <v>1095</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>999</v>
+        <v>1102</v>
       </c>
       <c r="I12" s="3" t="n"/>
     </row>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>3920</v>
+        <v>4250</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1669</v>
+        <v>1339</v>
       </c>
       <c r="I13" s="3" t="n"/>
     </row>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="G14" s="3" t="n">
-        <v>11107</v>
+        <v>13992</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>9890</v>
+        <v>7005</v>
       </c>
       <c r="I14" s="3" t="n"/>
     </row>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="G15" s="3" t="n">
-        <v>30996</v>
+        <v>35895</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>17961</v>
+        <v>13062</v>
       </c>
       <c r="I15" s="3" t="n"/>
     </row>
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="G16" s="3" t="n">
-        <v>100011</v>
+        <v>130000</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>41893</v>
+        <v>11904</v>
       </c>
       <c r="I16" s="3" t="n"/>
     </row>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="G17" s="3" t="n">
-        <v>1699</v>
+        <v>1500</v>
       </c>
       <c r="H17" s="10" t="n">
-        <v>1662</v>
+        <v>1861</v>
       </c>
       <c r="I17" s="3" t="n"/>
     </row>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="G18" s="3" t="n">
-        <v>6950</v>
+        <v>7084</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>2969</v>
+        <v>2835</v>
       </c>
       <c r="I18" s="3" t="n"/>
     </row>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G19" s="3" t="n">
-        <v>28291</v>
+        <v>25544</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>11485</v>
+        <v>14232</v>
       </c>
       <c r="I19" s="3" t="n"/>
     </row>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="G20" s="3" t="n">
-        <v>55000</v>
+        <v>66660</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>32000</v>
+        <v>20340</v>
       </c>
       <c r="I20" s="3" t="n"/>
     </row>
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="G21" s="3" t="n">
-        <v>142989</v>
+        <v>119196</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>35564</v>
+        <v>59357</v>
       </c>
       <c r="I21" s="3" t="n"/>
     </row>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="G22" s="3" t="n">
-        <v>1967</v>
+        <v>1773</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>2028</v>
+        <v>2222</v>
       </c>
       <c r="I22" s="3" t="n"/>
     </row>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>5222</v>
+        <v>7778</v>
       </c>
       <c r="H23" s="10" t="n">
-        <v>5778</v>
+        <v>3222</v>
       </c>
       <c r="I23" s="3" t="n"/>
     </row>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="G24" s="3" t="n">
-        <v>18989</v>
+        <v>24972</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>13726</v>
+        <v>7743</v>
       </c>
       <c r="I24" s="3" t="n"/>
     </row>
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="G25" s="3" t="n">
-        <v>63996</v>
+        <v>59876</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>24875</v>
+        <v>28995</v>
       </c>
       <c r="I25" s="3" t="n"/>
     </row>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="G26" s="3" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="H26" s="10" t="n">
-        <v>18388</v>
+        <v>-31612</v>
       </c>
       <c r="I26" s="3" t="n"/>
     </row>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="G27" s="3" t="n">
-        <v>1680</v>
+        <v>2134</v>
       </c>
       <c r="H27" s="10" t="n">
-        <v>2806</v>
+        <v>2352</v>
       </c>
       <c r="I27" s="3" t="n"/>
     </row>
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="G28" s="3" t="n">
-        <v>6481</v>
+        <v>5500</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>3465</v>
+        <v>4446</v>
       </c>
       <c r="I28" s="3" t="n"/>
     </row>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>19087</v>
+        <v>22482</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>17768</v>
+        <v>14373</v>
       </c>
       <c r="I29" s="3" t="n"/>
     </row>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="G30" s="3" t="n">
-        <v>72989</v>
+        <v>50966</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>14977</v>
+        <v>37000</v>
       </c>
       <c r="I30" s="3" t="n"/>
     </row>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="G31" s="3" t="n">
-        <v>137996</v>
+        <v>135000</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>-50030</v>
+        <v>-47034</v>
       </c>
       <c r="I31" s="3" t="n"/>
     </row>
@@ -1460,10 +1460,10 @@
         </is>
       </c>
       <c r="G32" s="3" t="n">
-        <v>1299</v>
+        <v>1874</v>
       </c>
       <c r="H32" s="10" t="n">
-        <v>1829</v>
+        <v>1254</v>
       </c>
       <c r="I32" s="3" t="n"/>
     </row>
@@ -1488,10 +1488,10 @@
         </is>
       </c>
       <c r="G33" s="3" t="n">
-        <v>4990</v>
+        <v>6169</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>3348</v>
+        <v>2169</v>
       </c>
       <c r="I33" s="3" t="n"/>
     </row>
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>16496</v>
+        <v>24561</v>
       </c>
       <c r="H34" s="10" t="n">
-        <v>13256</v>
+        <v>5191</v>
       </c>
       <c r="I34" s="3" t="n"/>
     </row>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>59985</v>
+        <v>54000</v>
       </c>
       <c r="H35" s="10" t="n">
-        <v>28678</v>
+        <v>34663</v>
       </c>
       <c r="I35" s="3" t="n"/>
     </row>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="G36" s="3" t="n">
-        <v>129992</v>
+        <v>111097</v>
       </c>
       <c r="H36" s="10" t="n">
-        <v>31896</v>
+        <v>50791</v>
       </c>
       <c r="I36" s="3" t="n"/>
     </row>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>1290</v>
+        <v>1836</v>
       </c>
       <c r="H37" s="10" t="n">
-        <v>1385</v>
+        <v>839</v>
       </c>
       <c r="I37" s="3" t="n"/>
     </row>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="G38" s="3" t="n">
-        <v>5832</v>
+        <v>6895</v>
       </c>
       <c r="H38" s="10" t="n">
-        <v>2531</v>
+        <v>1468</v>
       </c>
       <c r="I38" s="3" t="n"/>
     </row>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="G39" s="3" t="n">
-        <v>17999</v>
+        <v>21974</v>
       </c>
       <c r="H39" s="10" t="n">
-        <v>9957</v>
+        <v>5982</v>
       </c>
       <c r="I39" s="3" t="n"/>
     </row>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="G40" s="3" t="n">
-        <v>48979</v>
+        <v>48998</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>10021</v>
+        <v>10002</v>
       </c>
       <c r="I40" s="3" t="n"/>
     </row>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="G41" s="3" t="n">
-        <v>269998</v>
+        <v>222222</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>-103888</v>
+        <v>-56112</v>
       </c>
       <c r="I41" s="3" t="n"/>
     </row>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="G42" s="3" t="n">
-        <v>1452</v>
+        <v>1476</v>
       </c>
       <c r="H42" s="10" t="n">
-        <v>1477</v>
+        <v>1453</v>
       </c>
       <c r="I42" s="3" t="n"/>
     </row>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="G43" s="3" t="n">
-        <v>5395</v>
+        <v>5964</v>
       </c>
       <c r="H43" s="10" t="n">
-        <v>2970</v>
+        <v>2401</v>
       </c>
       <c r="I43" s="3" t="n"/>
     </row>
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="G44" s="3" t="n">
-        <v>14897</v>
+        <v>20331</v>
       </c>
       <c r="H44" s="10" t="n">
-        <v>12087</v>
+        <v>6653</v>
       </c>
       <c r="I44" s="3" t="n"/>
     </row>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>44993</v>
+        <v>49997</v>
       </c>
       <c r="H45" s="10" t="n">
-        <v>18262</v>
+        <v>13258</v>
       </c>
       <c r="I45" s="3" t="n"/>
     </row>
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="G46" s="3" t="n">
-        <v>110099</v>
+        <v>110948</v>
       </c>
       <c r="H46" s="10" t="n">
-        <v>139889</v>
+        <v>139040</v>
       </c>
       <c r="I46" s="3" t="n"/>
     </row>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>3871</v>
+        <v>3578</v>
       </c>
       <c r="H47" s="10" t="n">
-        <v>1886</v>
+        <v>2179</v>
       </c>
       <c r="I47" s="3" t="n"/>
     </row>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="G48" s="3" t="n">
-        <v>8999</v>
+        <v>13657</v>
       </c>
       <c r="H48" s="10" t="n">
-        <v>5443</v>
+        <v>785</v>
       </c>
       <c r="I48" s="3" t="n"/>
     </row>
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="G49" s="3" t="n">
-        <v>31319</v>
+        <v>33133</v>
       </c>
       <c r="H49" s="10" t="n">
-        <v>13123</v>
+        <v>11309</v>
       </c>
       <c r="I49" s="3" t="n"/>
     </row>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="G50" s="3" t="n">
-        <v>72789</v>
+        <v>71995</v>
       </c>
       <c r="H50" s="10" t="n">
-        <v>28248</v>
+        <v>29042</v>
       </c>
       <c r="I50" s="3" t="n"/>
     </row>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="G51" s="3" t="n">
-        <v>249900</v>
+        <v>249997</v>
       </c>
       <c r="H51" s="10" t="n">
-        <v>70067</v>
+        <v>69970</v>
       </c>
       <c r="I51" s="3" t="n"/>
     </row>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="G52" s="3" t="n">
-        <v>3238</v>
+        <v>3197</v>
       </c>
       <c r="H52" s="10" t="n">
-        <v>2983</v>
+        <v>3024</v>
       </c>
       <c r="I52" s="3" t="n"/>
     </row>
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="G53" s="3" t="n">
-        <v>7865</v>
+        <v>9512</v>
       </c>
       <c r="H53" s="10" t="n">
-        <v>7132</v>
+        <v>5485</v>
       </c>
       <c r="I53" s="3" t="n"/>
     </row>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="G54" s="3" t="n">
-        <v>28499</v>
+        <v>32077</v>
       </c>
       <c r="H54" s="10" t="n">
-        <v>17972</v>
+        <v>14394</v>
       </c>
       <c r="I54" s="3" t="n"/>
     </row>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="G55" s="3" t="n">
-        <v>71998</v>
+        <v>68990</v>
       </c>
       <c r="H55" s="10" t="n">
-        <v>25323</v>
+        <v>28331</v>
       </c>
       <c r="I55" s="3" t="n"/>
     </row>
@@ -2132,10 +2132,10 @@
         </is>
       </c>
       <c r="G56" s="3" t="n">
-        <v>246995</v>
+        <v>209972</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>52504</v>
+        <v>89527</v>
       </c>
       <c r="I56" s="3" t="n"/>
     </row>
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="G57" s="3" t="n">
-        <v>3208</v>
+        <v>3309</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>2475</v>
+        <v>2374</v>
       </c>
       <c r="I57" s="3" t="n"/>
     </row>
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="G58" s="37" t="n">
-        <v>10920</v>
+        <v>7499</v>
       </c>
       <c r="H58" s="37" t="n">
-        <v>4068</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" s="39">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="G59" s="37" t="n">
-        <v>28993</v>
+        <v>30960</v>
       </c>
       <c r="H59" s="37" t="n">
-        <v>17495</v>
+        <v>15528</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" s="39">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="G60" s="37" t="n">
-        <v>71500</v>
+        <v>69880</v>
       </c>
       <c r="H60" s="37" t="n">
-        <v>28471</v>
+        <v>30091</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" s="39">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="G61" s="37" t="n">
-        <v>250000</v>
+        <v>268928</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>69954</v>
+        <v>51026</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" s="39">
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="G62" s="37" t="n">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" s="39">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="G63" s="37" t="n">
-        <v>7436</v>
+        <v>7900</v>
       </c>
       <c r="H63" s="37" t="n">
-        <v>8498</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" s="39">
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="G64" s="37" t="n">
-        <v>42974</v>
+        <v>54985</v>
       </c>
       <c r="H64" s="37" t="n">
-        <v>30026</v>
+        <v>18015</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" s="39">
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="G65" s="37" t="n">
-        <v>119998</v>
+        <v>124988</v>
       </c>
       <c r="H65" s="37" t="n">
-        <v>57821</v>
+        <v>52831</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" s="39">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="G67" s="37" t="n">
-        <v>3000</v>
+        <v>3727</v>
       </c>
       <c r="H67" s="37" t="n">
-        <v>3000</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" s="39">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="G68" s="37" t="n">
-        <v>10494</v>
+        <v>10495</v>
       </c>
       <c r="H68" s="37" t="n">
-        <v>6202</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" s="39">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="G69" s="37" t="n">
-        <v>59993</v>
+        <v>53987</v>
       </c>
       <c r="H69" s="37" t="n">
-        <v>15794</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" s="39">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="G70" s="37" t="n">
-        <v>125000</v>
+        <v>130870</v>
       </c>
       <c r="H70" s="37" t="n">
-        <v>54888</v>
+        <v>49018</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" s="39">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="G71" s="37" t="n">
-        <v>0</v>
+        <v>249999</v>
       </c>
       <c r="H71" s="37" t="n">
-        <v>355552</v>
+        <v>105553</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" s="39">
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="G72" s="37" t="n">
-        <v>3095</v>
+        <v>3850</v>
       </c>
       <c r="H72" s="37" t="n">
-        <v>2228</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" s="39">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="G73" s="37" t="n">
-        <v>8392</v>
+        <v>12959</v>
       </c>
       <c r="H73" s="37" t="n">
-        <v>7488</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" s="39">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="G74" s="37" t="n">
-        <v>40973</v>
+        <v>47769</v>
       </c>
       <c r="H74" s="37" t="n">
-        <v>27915</v>
+        <v>21119</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" s="39">
@@ -2647,10 +2647,10 @@
         </is>
       </c>
       <c r="G75" s="37" t="n">
-        <v>104999</v>
+        <v>114444</v>
       </c>
       <c r="H75" s="37" t="n">
-        <v>45965</v>
+        <v>36520</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" s="39">
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="G76" s="37" t="n">
-        <v>369998</v>
+        <v>369500</v>
       </c>
       <c r="H76" s="37" t="n">
-        <v>67779</v>
+        <v>68277</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" s="39">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="G77" s="37" t="n">
-        <v>2497</v>
+        <v>2577</v>
       </c>
       <c r="H77" s="37" t="n">
-        <v>2402</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" s="39">
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="G78" s="37" t="n">
-        <v>10953</v>
+        <v>9988</v>
       </c>
       <c r="H78" s="37" t="n">
-        <v>4097</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" s="39">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="G79" s="37" t="n">
-        <v>32500</v>
+        <v>34995</v>
       </c>
       <c r="H79" s="37" t="n">
-        <v>17476</v>
+        <v>14981</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1" s="39">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="G80" s="37" t="n">
-        <v>99982</v>
+        <v>91985</v>
       </c>
       <c r="H80" s="37" t="n">
-        <v>22240</v>
+        <v>30237</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1" s="39">
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="G81" s="37" t="n">
-        <v>246792</v>
+        <v>244000</v>
       </c>
       <c r="H81" s="37" t="n">
-        <v>68763</v>
+        <v>71555</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1" s="39">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="G82" s="37" t="n">
-        <v>2734</v>
+        <v>2846</v>
       </c>
       <c r="H82" s="37" t="n">
-        <v>2391</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1" s="39">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="G83" s="37" t="n">
-        <v>8803</v>
+        <v>12492</v>
       </c>
       <c r="H83" s="37" t="n">
-        <v>7588</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1" s="39">
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="G84" s="37" t="n">
-        <v>31044</v>
+        <v>39963</v>
       </c>
       <c r="H84" s="37" t="n">
-        <v>18781</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1" s="39">
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="G85" s="37" t="n">
-        <v>88775</v>
+        <v>88767</v>
       </c>
       <c r="H85" s="37" t="n">
-        <v>31193</v>
+        <v>31201</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1" s="39">
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="G86" s="37" t="n">
-        <v>264000</v>
+        <v>254995</v>
       </c>
       <c r="H86" s="37" t="n">
-        <v>64888</v>
+        <v>73893</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" s="39">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="G87" s="37" t="n">
-        <v>2249</v>
+        <v>2197</v>
       </c>
       <c r="H87" s="37" t="n">
-        <v>2648</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" s="39">
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="G88" s="37" t="n">
-        <v>11657</v>
+        <v>13999</v>
       </c>
       <c r="H88" s="37" t="n">
-        <v>4269</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1" s="39">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="G89" s="37" t="n">
-        <v>31686</v>
+        <v>40496</v>
       </c>
       <c r="H89" s="37" t="n">
-        <v>24177</v>
+        <v>15367</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1" s="39">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="G90" s="37" t="n">
-        <v>69999</v>
+        <v>89000</v>
       </c>
       <c r="H90" s="37" t="n">
-        <v>56110</v>
+        <v>37109</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1" s="39">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="G91" s="37" t="n">
-        <v>240090</v>
+        <v>220000</v>
       </c>
       <c r="H91" s="37" t="n">
-        <v>76570</v>
+        <v>96660</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1" s="39">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="G92" s="37" t="n">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H92" s="37" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1" s="39">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="G93" s="37" t="n">
-        <v>3974</v>
+        <v>5110</v>
       </c>
       <c r="H93" s="37" t="n">
-        <v>4311</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1" s="39">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="G94" s="37" t="n">
-        <v>12997</v>
+        <v>18740</v>
       </c>
       <c r="H94" s="37" t="n">
-        <v>11167</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1" s="39">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="G95" s="37" t="n">
-        <v>33089</v>
+        <v>38844</v>
       </c>
       <c r="H95" s="37" t="n">
-        <v>29886</v>
+        <v>24131</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1" s="39">
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="G96" s="37" t="n">
-        <v>147986</v>
+        <v>150993</v>
       </c>
       <c r="H96" s="37" t="n">
-        <v>32014</v>
+        <v>29007</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1" s="39">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="G97" s="37" t="n">
-        <v>1122</v>
+        <v>2212</v>
       </c>
       <c r="H97" s="37" t="n">
-        <v>1719</v>
+        <v>629</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" s="39">
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="G98" s="37" t="n">
-        <v>3744</v>
+        <v>5965</v>
       </c>
       <c r="H98" s="37" t="n">
-        <v>4165</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1" s="39">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G99" s="37" t="n">
-        <v>11069</v>
+        <v>12493</v>
       </c>
       <c r="H99" s="37" t="n">
-        <v>11946</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1" s="39">
@@ -3322,10 +3322,10 @@
         </is>
       </c>
       <c r="G100" s="37" t="n">
-        <v>30996</v>
+        <v>36000</v>
       </c>
       <c r="H100" s="37" t="n">
-        <v>24993</v>
+        <v>19989</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1" s="39">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="G101" s="37" t="n">
-        <v>94995</v>
+        <v>90000</v>
       </c>
       <c r="H101" s="37" t="n">
-        <v>37979</v>
+        <v>42974</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1" s="39">
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="G102" s="37" t="n">
-        <v>1384</v>
+        <v>1551</v>
       </c>
       <c r="H102" s="37" t="n">
-        <v>1515</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1" s="39">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="G103" s="37" t="n">
-        <v>3293</v>
+        <v>5790</v>
       </c>
       <c r="H103" s="37" t="n">
-        <v>4093</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1" s="39">
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="G104" s="37" t="n">
-        <v>11992</v>
+        <v>14487</v>
       </c>
       <c r="H104" s="37" t="n">
-        <v>12214</v>
+        <v>9719</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1" s="39">
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="G105" s="37" t="n">
-        <v>38996</v>
+        <v>29995</v>
       </c>
       <c r="H105" s="37" t="n">
-        <v>20996</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1" s="39">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="G106" s="37" t="n">
-        <v>97990</v>
+        <v>97967</v>
       </c>
       <c r="H106" s="37" t="n">
-        <v>42117</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1" s="39">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="G107" s="37" t="n">
-        <v>2105</v>
+        <v>1994</v>
       </c>
       <c r="H107" s="37" t="n">
-        <v>1037</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1" s="39">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="G108" s="37" t="n">
-        <v>4966</v>
+        <v>5997</v>
       </c>
       <c r="H108" s="37" t="n">
-        <v>5092</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1" s="39">
@@ -3565,10 +3565,10 @@
         </is>
       </c>
       <c r="G109" s="37" t="n">
-        <v>13993</v>
+        <v>22222</v>
       </c>
       <c r="H109" s="37" t="n">
-        <v>30996</v>
+        <v>22767</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1" s="39">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="G110" s="37" t="n">
-        <v>65982</v>
+        <v>64994</v>
       </c>
       <c r="H110" s="37" t="n">
-        <v>17407</v>
+        <v>18395</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1" s="39">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="G111" s="37" t="n">
-        <v>175977</v>
+        <v>155968</v>
       </c>
       <c r="H111" s="37" t="n">
-        <v>-92588</v>
+        <v>-72579</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1" s="39">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="G112" s="37" t="n">
-        <v>2131</v>
+        <v>2140</v>
       </c>
       <c r="H112" s="37" t="n">
-        <v>1868</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1" s="39">
@@ -3673,10 +3673,10 @@
         </is>
       </c>
       <c r="G113" s="37" t="n">
-        <v>4275</v>
+        <v>6636</v>
       </c>
       <c r="H113" s="37" t="n">
-        <v>3724</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1" s="39">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="G114" s="37" t="n">
-        <v>15995</v>
+        <v>25553</v>
       </c>
       <c r="H114" s="37" t="n">
-        <v>21902</v>
+        <v>12344</v>
       </c>
     </row>
     <row r="115" ht="13.5" customHeight="1" s="39">
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="G116" s="37" t="n">
-        <v>167497</v>
+        <v>159000</v>
       </c>
       <c r="H116" s="37" t="n">
-        <v>43500</v>
+        <v>51997</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1" s="39">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="G117" s="37" t="n">
-        <v>1979</v>
+        <v>1597</v>
       </c>
       <c r="H117" s="37" t="n">
-        <v>1614</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1" s="39">
@@ -3808,10 +3808,10 @@
         </is>
       </c>
       <c r="G118" s="37" t="n">
-        <v>4982</v>
+        <v>6784</v>
       </c>
       <c r="H118" s="37" t="n">
-        <v>3894</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1" s="39">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="G119" s="37" t="n">
-        <v>19991</v>
+        <v>29975</v>
       </c>
       <c r="H119" s="37" t="n">
-        <v>11008</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1" s="39">
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="G120" s="37" t="n">
-        <v>59991</v>
+        <v>59000</v>
       </c>
       <c r="H120" s="37" t="n">
-        <v>28087</v>
+        <v>29078</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1" s="39">
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="G121" s="37" t="n">
-        <v>140963</v>
+        <v>144996</v>
       </c>
       <c r="H121" s="37" t="n">
-        <v>68029</v>
+        <v>63996</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1" s="39">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="G122" s="37" t="n">
-        <v>976</v>
+        <v>884</v>
       </c>
       <c r="H122" s="37" t="n">
-        <v>819</v>
+        <v>911</v>
       </c>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="39">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="G123" s="37" t="n">
-        <v>2232</v>
+        <v>3307</v>
       </c>
       <c r="H123" s="37" t="n">
-        <v>2740</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="124" ht="13.5" customHeight="1" s="39">
@@ -3970,10 +3970,10 @@
         </is>
       </c>
       <c r="G124" s="37" t="n">
-        <v>6895</v>
+        <v>14500</v>
       </c>
       <c r="H124" s="37" t="n">
-        <v>11071</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1" s="39">
@@ -3997,10 +3997,10 @@
         </is>
       </c>
       <c r="G125" s="37" t="n">
-        <v>34902</v>
+        <v>33325</v>
       </c>
       <c r="H125" s="37" t="n">
-        <v>13872</v>
+        <v>15449</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1" s="39">
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="G126" s="37" t="n">
-        <v>98000</v>
+        <v>97996</v>
       </c>
       <c r="H126" s="37" t="n">
-        <v>40963</v>
+        <v>40967</v>
       </c>
     </row>
     <row r="127" ht="13.5" customHeight="1" s="39">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="G127" s="37" t="n">
-        <v>990</v>
+        <v>1035</v>
       </c>
       <c r="H127" s="37" t="n">
-        <v>889</v>
+        <v>844</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1" s="39">
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="G128" s="37" t="n">
-        <v>3249</v>
+        <v>1996</v>
       </c>
       <c r="H128" s="37" t="n">
-        <v>1541</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="129" ht="13.5" customHeight="1" s="39">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="G129" s="37" t="n">
-        <v>11992</v>
+        <v>13893</v>
       </c>
       <c r="H129" s="37" t="n">
-        <v>7273</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1" s="39">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="G130" s="37" t="n">
-        <v>35662</v>
+        <v>38390</v>
       </c>
       <c r="H130" s="37" t="n">
-        <v>13635</v>
+        <v>10907</v>
       </c>
     </row>
     <row r="131" ht="13.5" customHeight="1" s="39">
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="G131" s="37" t="n">
-        <v>143492</v>
+        <v>143489</v>
       </c>
       <c r="H131" s="37" t="n">
-        <v>35386</v>
+        <v>35389</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1" s="39">
@@ -4186,10 +4186,10 @@
         </is>
       </c>
       <c r="G132" s="37" t="n">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="H132" s="37" t="n">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1" s="39">
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="G133" s="37" t="n">
-        <v>3504</v>
+        <v>3144</v>
       </c>
       <c r="H133" s="37" t="n">
-        <v>1468</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1" s="39">
@@ -4240,10 +4240,10 @@
         </is>
       </c>
       <c r="G134" s="37" t="n">
-        <v>10980</v>
+        <v>15943</v>
       </c>
       <c r="H134" s="37" t="n">
-        <v>8495</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1" s="39">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="G135" s="37" t="n">
-        <v>39997</v>
+        <v>41099</v>
       </c>
       <c r="H135" s="37" t="n">
-        <v>10495</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1" s="39">
@@ -4294,10 +4294,10 @@
         </is>
       </c>
       <c r="G136" s="37" t="n">
-        <v>109992</v>
+        <v>99995</v>
       </c>
       <c r="H136" s="37" t="n">
-        <v>23771</v>
+        <v>33768</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1" s="39">
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="G137" s="37" t="n">
-        <v>4991</v>
+        <v>5000</v>
       </c>
       <c r="H137" s="37" t="n">
-        <v>4769</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1" s="39">
@@ -4348,10 +4348,10 @@
         </is>
       </c>
       <c r="G138" s="37" t="n">
-        <v>14250</v>
+        <v>17991</v>
       </c>
       <c r="H138" s="37" t="n">
-        <v>6943</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="139" ht="13.5" customHeight="1" s="39">
@@ -4375,10 +4375,10 @@
         </is>
       </c>
       <c r="G139" s="37" t="n">
-        <v>46986</v>
+        <v>58884</v>
       </c>
       <c r="H139" s="37" t="n">
-        <v>32536</v>
+        <v>20638</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1" s="39">
@@ -4402,10 +4402,10 @@
         </is>
       </c>
       <c r="G140" s="37" t="n">
-        <v>166970</v>
+        <v>167000</v>
       </c>
       <c r="H140" s="37" t="n">
-        <v>33009</v>
+        <v>32979</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1" s="39">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="G141" s="37" t="n">
-        <v>489999</v>
+        <v>499988</v>
       </c>
       <c r="H141" s="37" t="n">
-        <v>116661</v>
+        <v>106672</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1" s="39">
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="G142" s="37" t="n">
-        <v>6086</v>
+        <v>5987</v>
       </c>
       <c r="H142" s="37" t="n">
-        <v>1714</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="143" ht="13.5" customHeight="1" s="39">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="G143" s="37" t="n">
-        <v>16548</v>
+        <v>12726</v>
       </c>
       <c r="H143" s="37" t="n">
-        <v>5424</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1" s="39">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="G144" s="37" t="n">
-        <v>50987</v>
+        <v>58855</v>
       </c>
       <c r="H144" s="37" t="n">
-        <v>28011</v>
+        <v>20143</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1" s="39">
@@ -4537,10 +4537,10 @@
         </is>
       </c>
       <c r="G145" s="37" t="n">
-        <v>174999</v>
+        <v>174986</v>
       </c>
       <c r="H145" s="37" t="n">
-        <v>44980</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="146" ht="13.5" customHeight="1" s="39">
@@ -4564,10 +4564,10 @@
         </is>
       </c>
       <c r="G146" s="37" t="n">
-        <v>509999</v>
+        <v>510000</v>
       </c>
       <c r="H146" s="37" t="n">
-        <v>162946</v>
+        <v>162945</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1" s="39">
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="G147" s="37" t="n">
-        <v>5089</v>
+        <v>4484</v>
       </c>
       <c r="H147" s="37" t="n">
-        <v>2010</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="148" ht="13.5" customHeight="1" s="39">
@@ -4618,10 +4618,10 @@
         </is>
       </c>
       <c r="G148" s="37" t="n">
-        <v>13986</v>
+        <v>13985</v>
       </c>
       <c r="H148" s="37" t="n">
-        <v>4983</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="149" ht="13.5" customHeight="1" s="39">
@@ -4645,10 +4645,10 @@
         </is>
       </c>
       <c r="G149" s="37" t="n">
-        <v>41998</v>
+        <v>44999</v>
       </c>
       <c r="H149" s="37" t="n">
-        <v>20363</v>
+        <v>17362</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1" s="39">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="G150" s="37" t="n">
-        <v>165997</v>
+        <v>159996</v>
       </c>
       <c r="H150" s="37" t="n">
-        <v>35995</v>
+        <v>41996</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1" s="39">
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="G162" s="37" t="n">
-        <v>5487</v>
+        <v>5495</v>
       </c>
       <c r="H162" s="37" t="n">
-        <v>4012</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="163" ht="13.5" customHeight="1" s="39">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="G163" s="37" t="n">
-        <v>9979</v>
+        <v>27329</v>
       </c>
       <c r="H163" s="37" t="n">
-        <v>17421</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1" s="39">
@@ -5050,10 +5050,10 @@
         </is>
       </c>
       <c r="G164" s="37" t="n">
-        <v>46993</v>
+        <v>45000</v>
       </c>
       <c r="H164" s="37" t="n">
-        <v>15695</v>
+        <v>17688</v>
       </c>
     </row>
     <row r="165" ht="13.5" customHeight="1" s="39">
@@ -5077,10 +5077,10 @@
         </is>
       </c>
       <c r="G165" s="37" t="n">
-        <v>124999</v>
+        <v>124995</v>
       </c>
       <c r="H165" s="37" t="n">
-        <v>50550</v>
+        <v>50554</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1" s="39">
@@ -5104,10 +5104,10 @@
         </is>
       </c>
       <c r="G166" s="37" t="n">
-        <v>384999</v>
+        <v>410000</v>
       </c>
       <c r="H166" s="37" t="n">
-        <v>119999</v>
+        <v>94998</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1" s="39">
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="G168" s="37" t="n">
-        <v>8943</v>
+        <v>11995</v>
       </c>
       <c r="H168" s="37" t="n">
-        <v>5033</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1" s="39">
@@ -5185,10 +5185,10 @@
         </is>
       </c>
       <c r="G169" s="37" t="n">
-        <v>31975</v>
+        <v>40500</v>
       </c>
       <c r="H169" s="37" t="n">
-        <v>8025</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="170" ht="13.5" customHeight="1" s="39">
@@ -5212,10 +5212,10 @@
         </is>
       </c>
       <c r="G170" s="37" t="n">
-        <v>124980</v>
+        <v>144969</v>
       </c>
       <c r="H170" s="37" t="n">
-        <v>34769</v>
+        <v>14780</v>
       </c>
     </row>
     <row r="171" ht="13.5" customHeight="1" s="39">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="G171" s="37" t="n">
-        <v>469996</v>
+        <v>472991</v>
       </c>
       <c r="H171" s="37" t="n">
-        <v>74440</v>
+        <v>71445</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1" s="39">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="G172" s="37" t="n">
-        <v>4985</v>
+        <v>4948</v>
       </c>
       <c r="H172" s="37" t="n">
-        <v>4588</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="173" ht="13.5" customHeight="1" s="39">
@@ -5293,10 +5293,10 @@
         </is>
       </c>
       <c r="G173" s="37" t="n">
-        <v>13997</v>
+        <v>17145</v>
       </c>
       <c r="H173" s="37" t="n">
-        <v>6896</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="174" ht="13.5" customHeight="1" s="39">
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="G174" s="37" t="n">
-        <v>44991</v>
+        <v>49000</v>
       </c>
       <c r="H174" s="37" t="n">
-        <v>22339</v>
+        <v>18330</v>
       </c>
     </row>
     <row r="175" ht="13.5" customHeight="1" s="39">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="G175" s="37" t="n">
-        <v>144999</v>
+        <v>140000</v>
       </c>
       <c r="H175" s="37" t="n">
-        <v>67428</v>
+        <v>72427</v>
       </c>
     </row>
     <row r="176" ht="13.5" customHeight="1" s="39">
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="G176" s="37" t="n">
-        <v>518992</v>
+        <v>475000</v>
       </c>
       <c r="H176" s="37" t="n">
-        <v>119896</v>
+        <v>163888</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1" s="39">
@@ -5401,10 +5401,10 @@
         </is>
       </c>
       <c r="G177" s="37" t="n">
-        <v>5391</v>
+        <v>5110</v>
       </c>
       <c r="H177" s="37" t="n">
-        <v>3589</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="178" ht="13.5" customHeight="1" s="39">
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="G178" s="37" t="n">
-        <v>9877</v>
+        <v>17650</v>
       </c>
       <c r="H178" s="37" t="n">
-        <v>11217</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="179" ht="13.5" customHeight="1" s="39">
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="G179" s="37" t="n">
-        <v>33800</v>
+        <v>30000</v>
       </c>
       <c r="H179" s="37" t="n">
-        <v>27196</v>
+        <v>30996</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1" s="39">
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="G180" s="37" t="n">
-        <v>112547</v>
+        <v>139998</v>
       </c>
       <c r="H180" s="37" t="n">
-        <v>108402</v>
+        <v>80951</v>
       </c>
     </row>
     <row r="181" ht="13.5" customHeight="1" s="39">
@@ -5509,10 +5509,10 @@
         </is>
       </c>
       <c r="G181" s="37" t="n">
-        <v>448995</v>
+        <v>440000</v>
       </c>
       <c r="H181" s="37" t="n">
-        <v>132687</v>
+        <v>141682</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1" s="39">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="G182" s="37" t="n">
-        <v>5993</v>
+        <v>5094</v>
       </c>
       <c r="H182" s="37" t="n">
-        <v>2378</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1" s="39">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="G183" s="37" t="n">
-        <v>13897</v>
+        <v>13900</v>
       </c>
       <c r="H183" s="37" t="n">
-        <v>11049</v>
+        <v>11046</v>
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1" s="39">
@@ -5590,10 +5590,10 @@
         </is>
       </c>
       <c r="G184" s="37" t="n">
-        <v>48774</v>
+        <v>48772</v>
       </c>
       <c r="H184" s="37" t="n">
-        <v>-41563</v>
+        <v>-41561</v>
       </c>
     </row>
     <row r="185" ht="12.75" customHeight="1" s="39">
@@ -5671,10 +5671,10 @@
         </is>
       </c>
       <c r="G187" s="37" t="n">
-        <v>6999</v>
+        <v>7172</v>
       </c>
       <c r="H187" s="37" t="n">
-        <v>5448</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="188" ht="12.75" customHeight="1" s="39">
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="G188" s="37" t="n">
-        <v>21870</v>
+        <v>21500</v>
       </c>
       <c r="H188" s="37" t="n">
-        <v>5113</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="189" ht="12.75" customHeight="1" s="39">
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="G189" s="37" t="n">
-        <v>60994</v>
+        <v>62999</v>
       </c>
       <c r="H189" s="37" t="n">
-        <v>40993</v>
+        <v>38988</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1" s="39">
@@ -5752,10 +5752,10 @@
         </is>
       </c>
       <c r="G190" s="37" t="n">
-        <v>199992</v>
+        <v>199000</v>
       </c>
       <c r="H190" s="37" t="n">
-        <v>58990</v>
+        <v>59982</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1" s="39">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="G191" s="37" t="n">
-        <v>626997</v>
+        <v>600000</v>
       </c>
       <c r="H191" s="37" t="n">
-        <v>140898</v>
+        <v>167895</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1" s="39">
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="G192" s="37" t="n">
-        <v>7494</v>
+        <v>8418</v>
       </c>
       <c r="H192" s="37" t="n">
-        <v>7274</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="193" ht="12.75" customHeight="1" s="39">
@@ -5833,10 +5833,10 @@
         </is>
       </c>
       <c r="G193" s="37" t="n">
-        <v>16983</v>
+        <v>20992</v>
       </c>
       <c r="H193" s="37" t="n">
-        <v>15013</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1" s="39">
@@ -5860,10 +5860,10 @@
         </is>
       </c>
       <c r="G194" s="37" t="n">
-        <v>74993</v>
+        <v>70990</v>
       </c>
       <c r="H194" s="37" t="n">
-        <v>36696</v>
+        <v>40699</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1" s="39">
@@ -5887,10 +5887,10 @@
         </is>
       </c>
       <c r="G195" s="37" t="n">
-        <v>205399</v>
+        <v>203999</v>
       </c>
       <c r="H195" s="37" t="n">
-        <v>79561</v>
+        <v>80961</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1" s="39">
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="G196" s="37" t="n">
-        <v>617977</v>
+        <v>559989</v>
       </c>
       <c r="H196" s="37" t="n">
-        <v>109800</v>
+        <v>167788</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1" s="39">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="G207" s="37" t="n">
-        <v>6920</v>
+        <v>7914</v>
       </c>
       <c r="H207" s="37" t="n">
-        <v>8039</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1" s="39">
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="G208" s="37" t="n">
-        <v>16981</v>
+        <v>20961</v>
       </c>
       <c r="H208" s="37" t="n">
-        <v>10988</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="209" ht="12.75" customHeight="1" s="39">
@@ -6265,10 +6265,10 @@
         </is>
       </c>
       <c r="G209" s="37" t="n">
-        <v>57965</v>
+        <v>104995</v>
       </c>
       <c r="H209" s="37" t="n">
-        <v>85448</v>
+        <v>38418</v>
       </c>
     </row>
     <row r="210" ht="12.75" customHeight="1" s="39">
@@ -6292,10 +6292,10 @@
         </is>
       </c>
       <c r="G210" s="37" t="n">
-        <v>229921</v>
+        <v>229911</v>
       </c>
       <c r="H210" s="37" t="n">
-        <v>70078</v>
+        <v>70088</v>
       </c>
     </row>
     <row r="211" ht="12.75" customHeight="1" s="39">
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="G211" s="37" t="n">
-        <v>639995</v>
+        <v>634999</v>
       </c>
       <c r="H211" s="37" t="n">
-        <v>113993</v>
+        <v>118989</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1" s="39">
@@ -6346,10 +6346,10 @@
         </is>
       </c>
       <c r="G212" s="37" t="n">
-        <v>7097</v>
+        <v>6000</v>
       </c>
       <c r="H212" s="37" t="n">
-        <v>6212</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="213" ht="12.75" customHeight="1" s="39">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="G213" s="37" t="n">
-        <v>28999</v>
+        <v>30742</v>
       </c>
       <c r="H213" s="37" t="n">
-        <v>14980</v>
+        <v>13237</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1" s="39">
@@ -6400,10 +6400,10 @@
         </is>
       </c>
       <c r="G214" s="37" t="n">
-        <v>99777</v>
+        <v>104996</v>
       </c>
       <c r="H214" s="37" t="n">
-        <v>50182</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="215" ht="12.75" customHeight="1" s="39">
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="G217" s="37" t="n">
-        <v>8575</v>
+        <v>8557</v>
       </c>
       <c r="H217" s="37" t="n">
-        <v>7345</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1" s="39">
@@ -6508,10 +6508,10 @@
         </is>
       </c>
       <c r="G218" s="37" t="n">
-        <v>27960</v>
+        <v>29993</v>
       </c>
       <c r="H218" s="37" t="n">
-        <v>16025</v>
+        <v>13992</v>
       </c>
     </row>
     <row r="219" ht="12.75" customHeight="1" s="39">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="G219" s="37" t="n">
-        <v>94999</v>
+        <v>219991</v>
       </c>
       <c r="H219" s="37" t="n">
-        <v>49112</v>
+        <v>-75880</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1" s="39">
@@ -6562,10 +6562,10 @@
         </is>
       </c>
       <c r="G220" s="37" t="n">
-        <v>359997</v>
+        <v>699996</v>
       </c>
       <c r="H220" s="37" t="n">
-        <v>70998</v>
+        <v>-269001</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1" s="39">
@@ -6589,10 +6589,10 @@
         </is>
       </c>
       <c r="G221" s="37" t="n">
-        <v>809940</v>
+        <v>939998</v>
       </c>
       <c r="H221" s="37" t="n">
-        <v>177837</v>
+        <v>47779</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1" s="39">
@@ -6616,10 +6616,10 @@
         </is>
       </c>
       <c r="G222" s="37" t="n">
-        <v>8099</v>
+        <v>7496</v>
       </c>
       <c r="H222" s="37" t="n">
-        <v>7709</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1" s="39">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="G223" s="37" t="n">
-        <v>17998</v>
+        <v>28940</v>
       </c>
       <c r="H223" s="37" t="n">
-        <v>20850</v>
+        <v>9908</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1" s="39">
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="G224" s="37" t="n">
-        <v>63989</v>
+        <v>99988</v>
       </c>
       <c r="H224" s="37" t="n">
-        <v>76998</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1" s="39">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="G225" s="37" t="n">
-        <v>314000</v>
+        <v>300000</v>
       </c>
       <c r="H225" s="37" t="n">
-        <v>85996</v>
+        <v>99996</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1" s="39">
@@ -6724,10 +6724,10 @@
         </is>
       </c>
       <c r="G226" s="37" t="n">
-        <v>781992</v>
+        <v>0</v>
       </c>
       <c r="H226" s="37" t="n">
-        <v>203563</v>
+        <v>985555</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1" s="39">
@@ -6751,10 +6751,10 @@
         </is>
       </c>
       <c r="G227" s="37" t="n">
-        <v>6678</v>
+        <v>6088</v>
       </c>
       <c r="H227" s="37" t="n">
-        <v>3414</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="228" ht="12.75" customHeight="1" s="39">
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="G228" s="37" t="n">
-        <v>8103</v>
+        <v>12978</v>
       </c>
       <c r="H228" s="37" t="n">
-        <v>11897</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="229" ht="12.75" customHeight="1" s="39">
@@ -6805,10 +6805,10 @@
         </is>
       </c>
       <c r="G229" s="37" t="n">
-        <v>33981</v>
+        <v>33497</v>
       </c>
       <c r="H229" s="37" t="n">
-        <v>39130</v>
+        <v>39614</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1" s="39">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="G230" s="37" t="n">
-        <v>139983</v>
+        <v>125000</v>
       </c>
       <c r="H230" s="37" t="n">
-        <v>53471</v>
+        <v>68454</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1" s="39">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="G231" s="37" t="n">
-        <v>499999</v>
+        <v>515500</v>
       </c>
       <c r="H231" s="37" t="n">
-        <v>169992</v>
+        <v>154491</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1" s="39">
@@ -6886,10 +6886,10 @@
         </is>
       </c>
       <c r="G232" s="37" t="n">
-        <v>7676</v>
+        <v>7626</v>
       </c>
       <c r="H232" s="37" t="n">
-        <v>15319</v>
+        <v>15369</v>
       </c>
     </row>
     <row r="233" ht="12.75" customHeight="1" s="39">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="G233" s="37" t="n">
-        <v>17497</v>
+        <v>27999</v>
       </c>
       <c r="H233" s="37" t="n">
-        <v>24065</v>
+        <v>13563</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1" s="39">
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="G234" s="37" t="n">
-        <v>53996</v>
+        <v>74995</v>
       </c>
       <c r="H234" s="37" t="n">
-        <v>55992</v>
+        <v>34993</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1" s="39">
@@ -6967,10 +6967,10 @@
         </is>
       </c>
       <c r="G235" s="37" t="n">
-        <v>184998</v>
+        <v>194999</v>
       </c>
       <c r="H235" s="37" t="n">
-        <v>67001</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1" s="39">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="G236" s="37" t="n">
-        <v>539973</v>
+        <v>539976</v>
       </c>
       <c r="H236" s="37" t="n">
-        <v>188915</v>
+        <v>188912</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1" s="39">
@@ -7021,10 +7021,10 @@
         </is>
       </c>
       <c r="G237" s="37" t="n">
-        <v>6500</v>
+        <v>7999</v>
       </c>
       <c r="H237" s="37" t="n">
-        <v>9895</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1" s="39">
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="G238" s="37" t="n">
-        <v>19496</v>
+        <v>22993</v>
       </c>
       <c r="H238" s="37" t="n">
-        <v>17499</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1" s="39">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="G239" s="37" t="n">
-        <v>60991</v>
+        <v>75000</v>
       </c>
       <c r="H239" s="37" t="n">
-        <v>46999</v>
+        <v>32990</v>
       </c>
     </row>
     <row r="240" ht="12.75" customHeight="1" s="39">
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="G240" s="37" t="n">
-        <v>184998</v>
+        <v>180000</v>
       </c>
       <c r="H240" s="37" t="n">
-        <v>34771</v>
+        <v>39769</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1" s="39">
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="G242" s="37" t="n">
-        <v>7889</v>
+        <v>6181</v>
       </c>
       <c r="H242" s="37" t="n">
-        <v>4044</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1" s="39">
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="G243" s="37" t="n">
-        <v>21998</v>
+        <v>29982</v>
       </c>
       <c r="H243" s="37" t="n">
-        <v>16929</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="244" ht="12.75" customHeight="1" s="39">
@@ -7210,10 +7210,10 @@
         </is>
       </c>
       <c r="G244" s="37" t="n">
-        <v>81445</v>
+        <v>86980</v>
       </c>
       <c r="H244" s="37" t="n">
-        <v>28550</v>
+        <v>23015</v>
       </c>
     </row>
     <row r="245" ht="12.75" customHeight="1" s="39">
@@ -7237,10 +7237,10 @@
         </is>
       </c>
       <c r="G245" s="37" t="n">
-        <v>225000</v>
+        <v>224998</v>
       </c>
       <c r="H245" s="37" t="n">
-        <v>67098</v>
+        <v>67100</v>
       </c>
     </row>
     <row r="246" ht="12.75" customHeight="1" s="39">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="G246" s="37" t="n">
-        <v>769987</v>
+        <v>571000</v>
       </c>
       <c r="H246" s="37" t="n">
-        <v>-595523</v>
+        <v>-396536</v>
       </c>
     </row>
     <row r="247" ht="12.75" customHeight="1" s="39">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="G247" s="37" t="n">
-        <v>10499</v>
+        <v>6775</v>
       </c>
       <c r="H247" s="37" t="n">
-        <v>4175</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="248" ht="12.75" customHeight="1" s="39">
@@ -7318,10 +7318,10 @@
         </is>
       </c>
       <c r="G248" s="37" t="n">
-        <v>20089</v>
+        <v>26447</v>
       </c>
       <c r="H248" s="37" t="n">
-        <v>17709</v>
+        <v>11351</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1" s="39">
@@ -7345,10 +7345,10 @@
         </is>
       </c>
       <c r="G249" s="37" t="n">
-        <v>89986</v>
+        <v>84983</v>
       </c>
       <c r="H249" s="37" t="n">
-        <v>10012</v>
+        <v>15015</v>
       </c>
     </row>
     <row r="250" ht="12.75" customHeight="1" s="39">
@@ -7372,10 +7372,10 @@
         </is>
       </c>
       <c r="G250" s="37" t="n">
-        <v>224986</v>
+        <v>224957</v>
       </c>
       <c r="H250" s="37" t="n">
-        <v>49010</v>
+        <v>49039</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1" s="39">
@@ -7399,10 +7399,10 @@
         </is>
       </c>
       <c r="G251" s="37" t="n">
-        <v>539495</v>
+        <v>539494</v>
       </c>
       <c r="H251" s="37" t="n">
-        <v>136059</v>
+        <v>136060</v>
       </c>
     </row>
     <row r="252" ht="12.75" customHeight="1" s="39">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="G252" s="37" t="n">
-        <v>10500</v>
+        <v>10498</v>
       </c>
       <c r="H252" s="37" t="n">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1" s="39">
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="G253" s="37" t="n">
-        <v>19000</v>
+        <v>28212</v>
       </c>
       <c r="H253" s="37" t="n">
-        <v>13985</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1" s="39">
@@ -7480,10 +7480,10 @@
         </is>
       </c>
       <c r="G254" s="37" t="n">
-        <v>79955</v>
+        <v>84899</v>
       </c>
       <c r="H254" s="37" t="n">
-        <v>41045</v>
+        <v>36101</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1" s="39">
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="G256" s="37" t="n">
-        <v>610000</v>
+        <v>600000</v>
       </c>
       <c r="H256" s="37" t="n">
-        <v>165555</v>
+        <v>175555</v>
       </c>
     </row>
     <row r="257" ht="12.75" customHeight="1" s="39">
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="G257" s="37" t="n">
-        <v>2495</v>
+        <v>2748</v>
       </c>
       <c r="H257" s="37" t="n">
-        <v>4248</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="258" ht="12.75" customHeight="1" s="39">
@@ -7588,10 +7588,10 @@
         </is>
       </c>
       <c r="G258" s="37" t="n">
-        <v>13438</v>
+        <v>14880</v>
       </c>
       <c r="H258" s="37" t="n">
-        <v>7562</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="259" ht="12.75" customHeight="1" s="39">
@@ -7615,10 +7615,10 @@
         </is>
       </c>
       <c r="G259" s="37" t="n">
-        <v>38983</v>
+        <v>41979</v>
       </c>
       <c r="H259" s="37" t="n">
-        <v>18335</v>
+        <v>15339</v>
       </c>
     </row>
     <row r="260" ht="12.75" customHeight="1" s="39">
@@ -7642,10 +7642,10 @@
         </is>
       </c>
       <c r="G260" s="37" t="n">
-        <v>134995</v>
+        <v>134994</v>
       </c>
       <c r="H260" s="37" t="n">
-        <v>46501</v>
+        <v>46502</v>
       </c>
     </row>
     <row r="261" ht="12.75" customHeight="1" s="39">
@@ -7669,10 +7669,10 @@
         </is>
       </c>
       <c r="G261" s="37" t="n">
-        <v>475000</v>
+        <v>464498</v>
       </c>
       <c r="H261" s="37" t="n">
-        <v>122989</v>
+        <v>133491</v>
       </c>
     </row>
     <row r="262" ht="12.75" customHeight="1" s="39">
@@ -7696,10 +7696,10 @@
         </is>
       </c>
       <c r="G262" s="37" t="n">
-        <v>7179</v>
+        <v>6990</v>
       </c>
       <c r="H262" s="37" t="n">
-        <v>4796</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="263" ht="12.75" customHeight="1" s="39">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="G263" s="37" t="n">
-        <v>18888</v>
+        <v>22995</v>
       </c>
       <c r="H263" s="37" t="n">
-        <v>13987</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="264" ht="12.75" customHeight="1" s="39">
@@ -7750,10 +7750,10 @@
         </is>
       </c>
       <c r="G264" s="37" t="n">
-        <v>60000</v>
+        <v>58980</v>
       </c>
       <c r="H264" s="37" t="n">
-        <v>22111</v>
+        <v>23131</v>
       </c>
     </row>
     <row r="265" ht="12.75" customHeight="1" s="39">
@@ -7777,10 +7777,10 @@
         </is>
       </c>
       <c r="G265" s="37" t="n">
-        <v>184969</v>
+        <v>179999</v>
       </c>
       <c r="H265" s="37" t="n">
-        <v>53004</v>
+        <v>57974</v>
       </c>
     </row>
     <row r="266" ht="12.75" customHeight="1" s="39">
@@ -7804,10 +7804,10 @@
         </is>
       </c>
       <c r="G266" s="37" t="n">
-        <v>509997</v>
+        <v>508964</v>
       </c>
       <c r="H266" s="37" t="n">
-        <v>126594</v>
+        <v>127627</v>
       </c>
     </row>
     <row r="267" ht="12.75" customHeight="1" s="39">
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="G267" s="37" t="n">
-        <v>6000</v>
+        <v>6193</v>
       </c>
       <c r="H267" s="37" t="n">
-        <v>5000</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="268" ht="12.75" customHeight="1" s="39">
@@ -7858,10 +7858,10 @@
         </is>
       </c>
       <c r="G268" s="37" t="n">
-        <v>20957</v>
+        <v>20944</v>
       </c>
       <c r="H268" s="37" t="n">
-        <v>8407</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1" s="39">
@@ -7885,10 +7885,10 @@
         </is>
       </c>
       <c r="G269" s="37" t="n">
-        <v>59999</v>
+        <v>62966</v>
       </c>
       <c r="H269" s="37" t="n">
-        <v>25334</v>
+        <v>22367</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1" s="39">
@@ -7912,10 +7912,10 @@
         </is>
       </c>
       <c r="G270" s="37" t="n">
-        <v>165000</v>
+        <v>199961</v>
       </c>
       <c r="H270" s="37" t="n">
-        <v>79992</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="271" ht="12.75" customHeight="1" s="39">
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="G272" s="37" t="n">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="H272" s="37" t="n">
-        <v>3649</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="273" ht="12.75" customHeight="1" s="39">
@@ -7993,10 +7993,10 @@
         </is>
       </c>
       <c r="G273" s="37" t="n">
-        <v>9889</v>
+        <v>12144</v>
       </c>
       <c r="H273" s="37" t="n">
-        <v>5798</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="274" ht="12.75" customHeight="1" s="39">
@@ -8020,10 +8020,10 @@
         </is>
       </c>
       <c r="G274" s="37" t="n">
-        <v>44999</v>
+        <v>54996</v>
       </c>
       <c r="H274" s="37" t="n">
-        <v>28334</v>
+        <v>18337</v>
       </c>
     </row>
     <row r="275" ht="12.75" customHeight="1" s="39">
@@ -8047,10 +8047,10 @@
         </is>
       </c>
       <c r="G275" s="37" t="n">
-        <v>169997</v>
+        <v>159999</v>
       </c>
       <c r="H275" s="37" t="n">
-        <v>53898</v>
+        <v>63896</v>
       </c>
     </row>
     <row r="276" ht="12.75" customHeight="1" s="39">
@@ -8101,10 +8101,10 @@
         </is>
       </c>
       <c r="G277" s="37" t="n">
-        <v>7989</v>
+        <v>7400</v>
       </c>
       <c r="H277" s="37" t="n">
-        <v>6500</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="278" ht="12.75" customHeight="1" s="39">
@@ -8128,10 +8128,10 @@
         </is>
       </c>
       <c r="G278" s="37" t="n">
-        <v>20989</v>
+        <v>29838</v>
       </c>
       <c r="H278" s="37" t="n">
-        <v>8880</v>
+        <v>31</v>
       </c>
     </row>
     <row r="279" ht="12.75" customHeight="1" s="39">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="G279" s="37" t="n">
-        <v>70000</v>
+        <v>84984</v>
       </c>
       <c r="H279" s="37" t="n">
-        <v>35991</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1" s="39">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="G280" s="37" t="n">
-        <v>239992</v>
+        <v>239994</v>
       </c>
       <c r="H280" s="37" t="n">
-        <v>40001</v>
+        <v>39999</v>
       </c>
     </row>
     <row r="281" ht="12.75" customHeight="1" s="39">
@@ -8209,10 +8209,10 @@
         </is>
       </c>
       <c r="G281" s="37" t="n">
-        <v>594988</v>
+        <v>609995</v>
       </c>
       <c r="H281" s="37" t="n">
-        <v>151678</v>
+        <v>136671</v>
       </c>
     </row>
     <row r="282" ht="12.75" customHeight="1" s="39">
@@ -8236,10 +8236,10 @@
         </is>
       </c>
       <c r="G282" s="37" t="n">
-        <v>6399</v>
+        <v>6873</v>
       </c>
       <c r="H282" s="37" t="n">
-        <v>5665</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1" s="39">
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="G283" s="37" t="n">
-        <v>16744</v>
+        <v>18988</v>
       </c>
       <c r="H283" s="37" t="n">
-        <v>9237</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1" s="39">
@@ -8290,10 +8290,10 @@
         </is>
       </c>
       <c r="G284" s="37" t="n">
-        <v>80476</v>
+        <v>83474</v>
       </c>
       <c r="H284" s="37" t="n">
-        <v>23522</v>
+        <v>20524</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1" s="39">
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="G285" s="37" t="n">
-        <v>254998</v>
+        <v>243993</v>
       </c>
       <c r="H285" s="37" t="n">
-        <v>58993</v>
+        <v>69998</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1" s="39">
@@ -8344,10 +8344,10 @@
         </is>
       </c>
       <c r="G286" s="37" t="n">
-        <v>697991</v>
+        <v>657999</v>
       </c>
       <c r="H286" s="37" t="n">
-        <v>135342</v>
+        <v>175334</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1" s="39">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="G287" s="37" t="n">
-        <v>5547</v>
+        <v>5483</v>
       </c>
       <c r="H287" s="37" t="n">
-        <v>3947</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1" s="39">
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="G288" s="37" t="n">
-        <v>15899</v>
+        <v>17991</v>
       </c>
       <c r="H288" s="37" t="n">
-        <v>7401</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1" s="39">
@@ -8425,10 +8425,10 @@
         </is>
       </c>
       <c r="G289" s="37" t="n">
-        <v>44999</v>
+        <v>47999</v>
       </c>
       <c r="H289" s="37" t="n">
-        <v>29428</v>
+        <v>26428</v>
       </c>
     </row>
     <row r="290" ht="12.75" customHeight="1" s="39">
@@ -8452,10 +8452,10 @@
         </is>
       </c>
       <c r="G290" s="37" t="n">
-        <v>119955</v>
+        <v>160966</v>
       </c>
       <c r="H290" s="37" t="n">
-        <v>61986</v>
+        <v>20975</v>
       </c>
     </row>
     <row r="291" ht="12.75" customHeight="1" s="39">
@@ -8479,10 +8479,10 @@
         </is>
       </c>
       <c r="G291" s="37" t="n">
-        <v>419999</v>
+        <v>451995</v>
       </c>
       <c r="H291" s="37" t="n">
-        <v>165556</v>
+        <v>133560</v>
       </c>
     </row>
     <row r="292" ht="12.75" customHeight="1" s="39">
@@ -8506,10 +8506,10 @@
         </is>
       </c>
       <c r="G292" s="37" t="n">
-        <v>9118</v>
+        <v>9187</v>
       </c>
       <c r="H292" s="37" t="n">
-        <v>4882</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="293" ht="12.75" customHeight="1" s="39">
@@ -8533,10 +8533,10 @@
         </is>
       </c>
       <c r="G293" s="37" t="n">
-        <v>16000</v>
+        <v>25999</v>
       </c>
       <c r="H293" s="37" t="n">
-        <v>18800</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="294" ht="12.75" customHeight="1" s="39">
@@ -8560,10 +8560,10 @@
         </is>
       </c>
       <c r="G294" s="37" t="n">
-        <v>53550</v>
+        <v>62962</v>
       </c>
       <c r="H294" s="37" t="n">
-        <v>49427</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1" s="39">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="G295" s="37" t="n">
-        <v>199996</v>
+        <v>229899</v>
       </c>
       <c r="H295" s="37" t="n">
-        <v>50004</v>
+        <v>20101</v>
       </c>
     </row>
     <row r="296" ht="12.75" customHeight="1" s="39">
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="G296" s="37" t="n">
-        <v>800000</v>
+        <v>903997</v>
       </c>
       <c r="H296" s="37" t="n">
-        <v>30000</v>
+        <v>-73997</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1" s="39">
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="G297" s="37" t="n">
-        <v>6987</v>
+        <v>6586</v>
       </c>
       <c r="H297" s="37" t="n">
-        <v>8107</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="298" ht="12.75" customHeight="1" s="39">
@@ -8668,10 +8668,10 @@
         </is>
       </c>
       <c r="G298" s="37" t="n">
-        <v>12216</v>
+        <v>21974</v>
       </c>
       <c r="H298" s="37" t="n">
-        <v>20630</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1" s="39">
@@ -8695,10 +8695,10 @@
         </is>
       </c>
       <c r="G299" s="37" t="n">
-        <v>54990</v>
+        <v>65545</v>
       </c>
       <c r="H299" s="37" t="n">
-        <v>43956</v>
+        <v>33401</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1" s="39">
@@ -8722,10 +8722,10 @@
         </is>
       </c>
       <c r="G300" s="37" t="n">
-        <v>200000</v>
+        <v>248654</v>
       </c>
       <c r="H300" s="37" t="n">
-        <v>147534</v>
+        <v>98880</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1" s="39">
@@ -8749,10 +8749,10 @@
         </is>
       </c>
       <c r="G301" s="37" t="n">
-        <v>670995</v>
+        <v>999000</v>
       </c>
       <c r="H301" s="37" t="n">
-        <v>81227</v>
+        <v>-246778</v>
       </c>
     </row>
     <row r="302" ht="12.75" customHeight="1" s="39">
@@ -8776,10 +8776,10 @@
         </is>
       </c>
       <c r="G302" s="37" t="n">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="H302" s="37" t="n">
-        <v>4036</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1" s="39">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="G303" s="37" t="n">
-        <v>15878</v>
+        <v>19499</v>
       </c>
       <c r="H303" s="37" t="n">
-        <v>10024</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="304" ht="12.75" customHeight="1" s="39">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="G304" s="37" t="n">
-        <v>45987</v>
+        <v>44986</v>
       </c>
       <c r="H304" s="37" t="n">
-        <v>27109</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="305" ht="12.75" customHeight="1" s="39">
@@ -8857,10 +8857,10 @@
         </is>
       </c>
       <c r="G305" s="37" t="n">
-        <v>120000</v>
+        <v>159998</v>
       </c>
       <c r="H305" s="37" t="n">
-        <v>89798</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1" s="39">
@@ -8884,10 +8884,10 @@
         </is>
       </c>
       <c r="G306" s="37" t="n">
-        <v>652649</v>
+        <v>599993</v>
       </c>
       <c r="H306" s="37" t="n">
-        <v>56343</v>
+        <v>108999</v>
       </c>
     </row>
     <row r="307" ht="12.75" customHeight="1" s="39">
@@ -8911,10 +8911,10 @@
         </is>
       </c>
       <c r="G307" s="37" t="n">
-        <v>7808</v>
+        <v>7769</v>
       </c>
       <c r="H307" s="37" t="n">
-        <v>6168</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="308" ht="12.75" customHeight="1" s="39">
@@ -8938,10 +8938,10 @@
         </is>
       </c>
       <c r="G308" s="37" t="n">
-        <v>18499</v>
+        <v>22943</v>
       </c>
       <c r="H308" s="37" t="n">
-        <v>24278</v>
+        <v>19834</v>
       </c>
     </row>
     <row r="309" ht="12.75" customHeight="1" s="39">
@@ -8965,10 +8965,10 @@
         </is>
       </c>
       <c r="G309" s="37" t="n">
-        <v>58888</v>
+        <v>77772</v>
       </c>
       <c r="H309" s="37" t="n">
-        <v>34106</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="310" ht="12.75" customHeight="1" s="39">
@@ -8992,10 +8992,10 @@
         </is>
       </c>
       <c r="G310" s="37" t="n">
-        <v>229990</v>
+        <v>229989</v>
       </c>
       <c r="H310" s="37" t="n">
-        <v>16972</v>
+        <v>16973</v>
       </c>
     </row>
     <row r="311" ht="12.75" customHeight="1" s="39">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="G311" s="37" t="n">
-        <v>690029</v>
+        <v>690028</v>
       </c>
       <c r="H311" s="37" t="n">
-        <v>154415</v>
+        <v>154416</v>
       </c>
     </row>
     <row r="312" ht="12.75" customHeight="1" s="39">
@@ -9046,10 +9046,10 @@
         </is>
       </c>
       <c r="G312" s="37" t="n">
-        <v>9898</v>
+        <v>9799</v>
       </c>
       <c r="H312" s="37" t="n">
-        <v>8084</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="313" ht="12.75" customHeight="1" s="39">
@@ -9073,10 +9073,10 @@
         </is>
       </c>
       <c r="G313" s="37" t="n">
-        <v>24961</v>
+        <v>27992</v>
       </c>
       <c r="H313" s="37" t="n">
-        <v>12539</v>
+        <v>9508</v>
       </c>
     </row>
     <row r="314" ht="12.75" customHeight="1" s="39">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="G314" s="37" t="n">
-        <v>56989</v>
+        <v>64999</v>
       </c>
       <c r="H314" s="37" t="n">
-        <v>32408</v>
+        <v>24398</v>
       </c>
     </row>
     <row r="315" ht="12.75" customHeight="1" s="39">
@@ -9127,10 +9127,10 @@
         </is>
       </c>
       <c r="G315" s="37" t="n">
-        <v>192997</v>
+        <v>219961</v>
       </c>
       <c r="H315" s="37" t="n">
-        <v>54999</v>
+        <v>28035</v>
       </c>
     </row>
     <row r="316" ht="12.75" customHeight="1" s="39">
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="G316" s="37" t="n">
-        <v>720000</v>
+        <v>730999</v>
       </c>
       <c r="H316" s="37" t="n">
-        <v>143333</v>
+        <v>132334</v>
       </c>
     </row>
     <row r="317" ht="12.75" customHeight="1" s="39">
@@ -9181,10 +9181,10 @@
         </is>
       </c>
       <c r="G317" s="37" t="n">
-        <v>4598</v>
+        <v>4197</v>
       </c>
       <c r="H317" s="37" t="n">
-        <v>2481</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="318" ht="12.75" customHeight="1" s="39">
@@ -9208,10 +9208,10 @@
         </is>
       </c>
       <c r="G318" s="37" t="n">
-        <v>10940</v>
+        <v>10984</v>
       </c>
       <c r="H318" s="37" t="n">
-        <v>5307</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="319" ht="12.75" customHeight="1" s="39">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="G319" s="37" t="n">
-        <v>33991</v>
+        <v>33699</v>
       </c>
       <c r="H319" s="37" t="n">
-        <v>24997</v>
+        <v>25289</v>
       </c>
     </row>
     <row r="320" ht="12.75" customHeight="1" s="39">
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="G320" s="37" t="n">
-        <v>118999</v>
+        <v>119998</v>
       </c>
       <c r="H320" s="37" t="n">
-        <v>55994</v>
+        <v>54995</v>
       </c>
     </row>
     <row r="321" ht="12.75" customHeight="1" s="39">
@@ -9289,10 +9289,10 @@
         </is>
       </c>
       <c r="G321" s="37" t="n">
-        <v>447995</v>
+        <v>427995</v>
       </c>
       <c r="H321" s="37" t="n">
-        <v>101978</v>
+        <v>121978</v>
       </c>
     </row>
     <row r="322" ht="12.75" customHeight="1" s="39">
@@ -9316,10 +9316,10 @@
         </is>
       </c>
       <c r="G322" s="37" t="n">
-        <v>6287</v>
+        <v>5707</v>
       </c>
       <c r="H322" s="37" t="n">
-        <v>4115</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="323" ht="12.75" customHeight="1" s="39">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="G323" s="37" t="n">
-        <v>15121</v>
+        <v>17981</v>
       </c>
       <c r="H323" s="37" t="n">
-        <v>14979</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="324" ht="12.75" customHeight="1" s="39">
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="G324" s="37" t="n">
-        <v>54998</v>
+        <v>41110</v>
       </c>
       <c r="H324" s="37" t="n">
-        <v>33976</v>
+        <v>47864</v>
       </c>
     </row>
     <row r="325" ht="12.75" customHeight="1" s="39">
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="G325" s="37" t="n">
-        <v>174987</v>
+        <v>120000</v>
       </c>
       <c r="H325" s="37" t="n">
-        <v>54009</v>
+        <v>108996</v>
       </c>
     </row>
     <row r="326" ht="12.75" customHeight="1" s="39">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="G327" s="37" t="n">
-        <v>6552</v>
+        <v>6221</v>
       </c>
       <c r="H327" s="37" t="n">
-        <v>5420</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="328" ht="12.75" customHeight="1" s="39">
@@ -9478,10 +9478,10 @@
         </is>
       </c>
       <c r="G328" s="37" t="n">
-        <v>14987</v>
+        <v>19883</v>
       </c>
       <c r="H328" s="37" t="n">
-        <v>20911</v>
+        <v>16015</v>
       </c>
     </row>
     <row r="329" ht="12.75" customHeight="1" s="39">
@@ -9505,10 +9505,10 @@
         </is>
       </c>
       <c r="G329" s="37" t="n">
-        <v>43490</v>
+        <v>49999</v>
       </c>
       <c r="H329" s="37" t="n">
-        <v>53497</v>
+        <v>46988</v>
       </c>
     </row>
     <row r="330" ht="12.75" customHeight="1" s="39">
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="G330" s="37" t="n">
-        <v>129999</v>
+        <v>161000</v>
       </c>
       <c r="H330" s="37" t="n">
-        <v>84926</v>
+        <v>53925</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1" s="39">
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="G331" s="37" t="n">
-        <v>489990</v>
+        <v>489998</v>
       </c>
       <c r="H331" s="37" t="n">
-        <v>152189</v>
+        <v>152181</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1" s="39">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="G332" s="37" t="n">
-        <v>5286</v>
+        <v>5468</v>
       </c>
       <c r="H332" s="37" t="n">
-        <v>4695</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="333" ht="12.75" customHeight="1" s="39">
@@ -9613,10 +9613,10 @@
         </is>
       </c>
       <c r="G333" s="37" t="n">
-        <v>11513</v>
+        <v>15965</v>
       </c>
       <c r="H333" s="37" t="n">
-        <v>23434</v>
+        <v>18982</v>
       </c>
     </row>
     <row r="334" ht="12.75" customHeight="1" s="39">
@@ -9640,10 +9640,10 @@
         </is>
       </c>
       <c r="G334" s="37" t="n">
-        <v>39973</v>
+        <v>28000</v>
       </c>
       <c r="H334" s="37" t="n">
-        <v>22016</v>
+        <v>33989</v>
       </c>
     </row>
     <row r="335" ht="12.75" customHeight="1" s="39">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="G335" s="37" t="n">
-        <v>109994</v>
+        <v>109958</v>
       </c>
       <c r="H335" s="37" t="n">
-        <v>39964</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="336" ht="12.75" customHeight="1" s="39">
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="G336" s="37" t="n">
-        <v>399998</v>
+        <v>410980</v>
       </c>
       <c r="H336" s="37" t="n">
-        <v>157779</v>
+        <v>146797</v>
       </c>
     </row>
     <row r="337" ht="12.75" customHeight="1" s="39">
@@ -9721,10 +9721,10 @@
         </is>
       </c>
       <c r="G337" s="37" t="n">
-        <v>6266</v>
+        <v>4500</v>
       </c>
       <c r="H337" s="37" t="n">
-        <v>7112</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="338" ht="12.75" customHeight="1" s="39">
@@ -9748,10 +9748,10 @@
         </is>
       </c>
       <c r="G338" s="37" t="n">
-        <v>10994</v>
+        <v>23147</v>
       </c>
       <c r="H338" s="37" t="n">
-        <v>21351</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="339" ht="12.75" customHeight="1" s="39">
@@ -9775,10 +9775,10 @@
         </is>
       </c>
       <c r="G339" s="37" t="n">
-        <v>43500</v>
+        <v>55985</v>
       </c>
       <c r="H339" s="37" t="n">
-        <v>29595</v>
+        <v>17110</v>
       </c>
     </row>
     <row r="340" ht="12.75" customHeight="1" s="39">
@@ -9802,10 +9802,10 @@
         </is>
       </c>
       <c r="G340" s="37" t="n">
-        <v>184997</v>
+        <v>184999</v>
       </c>
       <c r="H340" s="37" t="n">
-        <v>94969</v>
+        <v>94967</v>
       </c>
     </row>
     <row r="341" ht="12.75" customHeight="1" s="39">
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="G341" s="37" t="n">
-        <v>530000</v>
+        <v>589999</v>
       </c>
       <c r="H341" s="37" t="n">
-        <v>214438</v>
+        <v>154439</v>
       </c>
     </row>
     <row r="342" ht="12.75" customHeight="1" s="39">
@@ -9856,10 +9856,10 @@
         </is>
       </c>
       <c r="G342" s="37" t="n">
-        <v>6998</v>
+        <v>6385</v>
       </c>
       <c r="H342" s="37" t="n">
-        <v>7897</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="343" ht="12.75" customHeight="1" s="39">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="G343" s="37" t="n">
-        <v>15993</v>
+        <v>18995</v>
       </c>
       <c r="H343" s="37" t="n">
-        <v>15309</v>
+        <v>12307</v>
       </c>
     </row>
     <row r="344" ht="12.75" customHeight="1" s="39">
@@ -9910,10 +9910,10 @@
         </is>
       </c>
       <c r="G344" s="37" t="n">
-        <v>45999</v>
+        <v>51954</v>
       </c>
       <c r="H344" s="37" t="n">
-        <v>27000</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="345" ht="12.75" customHeight="1" s="39">
@@ -9937,10 +9937,10 @@
         </is>
       </c>
       <c r="G345" s="37" t="n">
-        <v>171098</v>
+        <v>171998</v>
       </c>
       <c r="H345" s="37" t="n">
-        <v>46892</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1" s="39">
@@ -9991,10 +9991,10 @@
         </is>
       </c>
       <c r="G347" s="37" t="n">
-        <v>2999</v>
+        <v>3449</v>
       </c>
       <c r="H347" s="37" t="n">
-        <v>1990</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1" s="39">
@@ -10018,10 +10018,10 @@
         </is>
       </c>
       <c r="G348" s="37" t="n">
-        <v>9998</v>
+        <v>10999</v>
       </c>
       <c r="H348" s="37" t="n">
-        <v>5002</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="349" ht="12.75" customHeight="1" s="39">
@@ -10045,10 +10045,10 @@
         </is>
       </c>
       <c r="G349" s="37" t="n">
-        <v>36995</v>
+        <v>44945</v>
       </c>
       <c r="H349" s="37" t="n">
-        <v>55979</v>
+        <v>48029</v>
       </c>
     </row>
     <row r="350" ht="12.75" customHeight="1" s="39">
@@ -10072,10 +10072,10 @@
         </is>
       </c>
       <c r="G350" s="37" t="n">
-        <v>159995</v>
+        <v>149998</v>
       </c>
       <c r="H350" s="37" t="n">
-        <v>25980</v>
+        <v>35977</v>
       </c>
     </row>
     <row r="351" ht="12.75" customHeight="1" s="39">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="G351" s="37" t="n">
-        <v>491542</v>
+        <v>488888</v>
       </c>
       <c r="H351" s="37" t="n">
-        <v>88457</v>
+        <v>91111</v>
       </c>
     </row>
     <row r="352" ht="12.75" customHeight="1" s="39">
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="G352" s="37" t="n">
-        <v>5132</v>
+        <v>6187</v>
       </c>
       <c r="H352" s="37" t="n">
-        <v>5695</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="353" ht="12.75" customHeight="1" s="39">
@@ -10153,10 +10153,10 @@
         </is>
       </c>
       <c r="G353" s="37" t="n">
-        <v>13992</v>
+        <v>16986</v>
       </c>
       <c r="H353" s="37" t="n">
-        <v>11996</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="354" ht="12.75" customHeight="1" s="39">
@@ -10180,10 +10180,10 @@
         </is>
       </c>
       <c r="G354" s="37" t="n">
-        <v>62000</v>
+        <v>63987</v>
       </c>
       <c r="H354" s="37" t="n">
-        <v>24989</v>
+        <v>23002</v>
       </c>
     </row>
     <row r="355" ht="12.75" customHeight="1" s="39">
@@ -10207,10 +10207,10 @@
         </is>
       </c>
       <c r="G355" s="37" t="n">
-        <v>199980</v>
+        <v>259994</v>
       </c>
       <c r="H355" s="37" t="n">
-        <v>53984</v>
+        <v>-6030</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1" s="39">
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="G356" s="37" t="n">
-        <v>555554</v>
+        <v>655563</v>
       </c>
       <c r="H356" s="37" t="n">
-        <v>131106</v>
+        <v>31097</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1" s="39">
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="G357" s="37" t="n">
-        <v>3999</v>
+        <v>5919</v>
       </c>
       <c r="H357" s="37" t="n">
-        <v>7442</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1" s="39">
@@ -10288,10 +10288,10 @@
         </is>
       </c>
       <c r="G358" s="37" t="n">
-        <v>15549</v>
+        <v>21738</v>
       </c>
       <c r="H358" s="37" t="n">
-        <v>13641</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="359" ht="12.75" customHeight="1" s="39">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="G359" s="37" t="n">
-        <v>50108</v>
+        <v>64994</v>
       </c>
       <c r="H359" s="37" t="n">
-        <v>92111</v>
+        <v>77225</v>
       </c>
     </row>
     <row r="360" ht="12.75" customHeight="1" s="39">
@@ -10342,10 +10342,10 @@
         </is>
       </c>
       <c r="G360" s="37" t="n">
-        <v>189000</v>
+        <v>201987</v>
       </c>
       <c r="H360" s="37" t="n">
-        <v>81991</v>
+        <v>69004</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1" s="39">
@@ -10369,10 +10369,10 @@
         </is>
       </c>
       <c r="G361" s="37" t="n">
-        <v>523000</v>
+        <v>502994</v>
       </c>
       <c r="H361" s="37" t="n">
-        <v>115885</v>
+        <v>135891</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1" s="39">
@@ -10396,10 +10396,10 @@
         </is>
       </c>
       <c r="G362" s="37" t="n">
-        <v>3897</v>
+        <v>4464</v>
       </c>
       <c r="H362" s="37" t="n">
-        <v>3241</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1" s="39">
@@ -10423,10 +10423,10 @@
         </is>
       </c>
       <c r="G363" s="37" t="n">
-        <v>10357</v>
+        <v>14438</v>
       </c>
       <c r="H363" s="37" t="n">
-        <v>7137</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1" s="39">
@@ -10450,10 +10450,10 @@
         </is>
       </c>
       <c r="G364" s="37" t="n">
-        <v>43465</v>
+        <v>43395</v>
       </c>
       <c r="H364" s="37" t="n">
-        <v>27196</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="365" ht="12.75" customHeight="1" s="39">
@@ -10477,10 +10477,10 @@
         </is>
       </c>
       <c r="G365" s="37" t="n">
-        <v>138899</v>
+        <v>115000</v>
       </c>
       <c r="H365" s="37" t="n">
-        <v>21498</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="366" ht="12.75" customHeight="1" s="39">
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="G366" s="37" t="n">
-        <v>499999</v>
+        <v>482000</v>
       </c>
       <c r="H366" s="37" t="n">
-        <v>85556</v>
+        <v>103555</v>
       </c>
     </row>
     <row r="367" ht="12.75" customHeight="1" s="39">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="G367" s="37" t="n">
-        <v>13999</v>
+        <v>13986</v>
       </c>
       <c r="H367" s="37" t="n">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="368" ht="12.75" customHeight="1" s="39">
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="G368" s="37" t="n">
-        <v>24031</v>
+        <v>33333</v>
       </c>
       <c r="H368" s="37" t="n">
-        <v>6866</v>
+        <v>-2436</v>
       </c>
     </row>
     <row r="369" ht="12.75" customHeight="1" s="39">
@@ -10585,10 +10585,10 @@
         </is>
       </c>
       <c r="G369" s="37" t="n">
-        <v>48995</v>
+        <v>59999</v>
       </c>
       <c r="H369" s="37" t="n">
-        <v>31002</v>
+        <v>19998</v>
       </c>
     </row>
     <row r="370" ht="12.75" customHeight="1" s="39">
@@ -10612,10 +10612,10 @@
         </is>
       </c>
       <c r="G370" s="37" t="n">
-        <v>194984</v>
+        <v>0</v>
       </c>
       <c r="H370" s="37" t="n">
-        <v>52549</v>
+        <v>247533</v>
       </c>
     </row>
     <row r="371" ht="12.75" customHeight="1" s="39">
@@ -10639,10 +10639,10 @@
         </is>
       </c>
       <c r="G371" s="37" t="n">
-        <v>768999</v>
+        <v>810108</v>
       </c>
       <c r="H371" s="37" t="n">
-        <v>178778</v>
+        <v>137669</v>
       </c>
     </row>
     <row r="372" ht="12.75" customHeight="1" s="39">
@@ -10666,10 +10666,10 @@
         </is>
       </c>
       <c r="G372" s="37" t="n">
-        <v>4896</v>
+        <v>2995</v>
       </c>
       <c r="H372" s="37" t="n">
-        <v>8060</v>
+        <v>9961</v>
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1" s="39">
@@ -10693,10 +10693,10 @@
         </is>
       </c>
       <c r="G373" s="37" t="n">
-        <v>13991</v>
+        <v>49992</v>
       </c>
       <c r="H373" s="37" t="n">
-        <v>14004</v>
+        <v>-21997</v>
       </c>
     </row>
     <row r="374" ht="12.75" customHeight="1" s="39">
@@ -10720,10 +10720,10 @@
         </is>
       </c>
       <c r="G374" s="37" t="n">
-        <v>79994</v>
+        <v>0</v>
       </c>
       <c r="H374" s="37" t="n">
-        <v>54337</v>
+        <v>134331</v>
       </c>
     </row>
     <row r="375" ht="12.75" customHeight="1" s="39">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="G375" s="37" t="n">
-        <v>179971</v>
+        <v>300000</v>
       </c>
       <c r="H375" s="37" t="n">
-        <v>48034</v>
+        <v>-71995</v>
       </c>
     </row>
     <row r="376" ht="13.5" customHeight="1" s="39">
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="G376" s="37" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="H376" s="37" t="n">
-        <v>54444</v>
+        <v>654444</v>
       </c>
     </row>
     <row r="377" ht="13.5" customHeight="1" s="39">
@@ -10801,10 +10801,10 @@
         </is>
       </c>
       <c r="G377" s="37" t="n">
-        <v>78990</v>
+        <v>77777</v>
       </c>
       <c r="H377" s="37" t="n">
-        <v>2328</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="378" ht="13.5" customHeight="1" s="39">
@@ -10828,10 +10828,10 @@
         </is>
       </c>
       <c r="G378" s="37" t="n">
-        <v>108995</v>
+        <v>108900</v>
       </c>
       <c r="H378" s="37" t="n">
-        <v>25988</v>
+        <v>26083</v>
       </c>
     </row>
     <row r="379" ht="13.5" customHeight="1" s="39">
@@ -10855,10 +10855,10 @@
         </is>
       </c>
       <c r="G379" s="37" t="n">
-        <v>216872</v>
+        <v>216912</v>
       </c>
       <c r="H379" s="37" t="n">
-        <v>-3552</v>
+        <v>-3592</v>
       </c>
     </row>
     <row r="380" ht="13.5" customHeight="1" s="39">
@@ -10882,10 +10882,10 @@
         </is>
       </c>
       <c r="G380" s="37" t="n">
-        <v>419999</v>
+        <v>438287</v>
       </c>
       <c r="H380" s="37" t="n">
-        <v>49000</v>
+        <v>30712</v>
       </c>
     </row>
     <row r="381" ht="13.5" customHeight="1" s="39">
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="G381" s="37" t="n">
-        <v>848000</v>
+        <v>869996</v>
       </c>
       <c r="H381" s="37" t="n">
-        <v>142375</v>
+        <v>120379</v>
       </c>
     </row>
     <row r="382" ht="13.5" customHeight="1" s="39">
@@ -10936,10 +10936,10 @@
         </is>
       </c>
       <c r="G382" s="37" t="n">
-        <v>227000</v>
+        <v>234995</v>
       </c>
       <c r="H382" s="37" t="n">
-        <v>-46016</v>
+        <v>-54011</v>
       </c>
     </row>
     <row r="383" ht="13.5" customHeight="1" s="39">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="G383" s="37" t="n">
-        <v>229969</v>
+        <v>233329</v>
       </c>
       <c r="H383" s="37" t="n">
-        <v>-12080</v>
+        <v>-15440</v>
       </c>
     </row>
     <row r="384" ht="13.5" customHeight="1" s="39">
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="G384" s="37" t="n">
-        <v>244982</v>
+        <v>298776</v>
       </c>
       <c r="H384" s="37" t="n">
-        <v>2684</v>
+        <v>-51110</v>
       </c>
     </row>
     <row r="385" ht="13.5" customHeight="1" s="39">
@@ -11017,10 +11017,10 @@
         </is>
       </c>
       <c r="G385" s="37" t="n">
-        <v>749966</v>
+        <v>772951</v>
       </c>
       <c r="H385" s="37" t="n">
-        <v>16683</v>
+        <v>-6302</v>
       </c>
     </row>
     <row r="386" ht="13.5" customHeight="1" s="39">
@@ -11044,10 +11044,10 @@
         </is>
       </c>
       <c r="G386" s="37" t="n">
-        <v>1100000</v>
+        <v>1333318</v>
       </c>
       <c r="H386" s="37" t="n">
-        <v>87840</v>
+        <v>-145478</v>
       </c>
     </row>
     <row r="387" ht="13.5" customHeight="1" s="39">
@@ -11176,10 +11176,10 @@
         </is>
       </c>
       <c r="G392" s="37" t="n">
-        <v>93988</v>
+        <v>93985</v>
       </c>
       <c r="H392" s="37" t="n">
-        <v>-4991</v>
+        <v>-4988</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" s="39">
@@ -11203,10 +11203,10 @@
         </is>
       </c>
       <c r="G393" s="37" t="n">
-        <v>99941</v>
+        <v>85000</v>
       </c>
       <c r="H393" s="37" t="n">
-        <v>10057</v>
+        <v>24998</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1" s="39">
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="G394" s="37" t="n">
-        <v>239986</v>
+        <v>239968</v>
       </c>
       <c r="H394" s="37" t="n">
-        <v>21123</v>
+        <v>21141</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1" s="39">
@@ -11257,10 +11257,10 @@
         </is>
       </c>
       <c r="G395" s="37" t="n">
-        <v>491999</v>
+        <v>491900</v>
       </c>
       <c r="H395" s="37" t="n">
-        <v>41949</v>
+        <v>42048</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" s="39">
@@ -11311,10 +11311,10 @@
         </is>
       </c>
       <c r="G397" s="37" t="n">
-        <v>58854</v>
+        <v>58500</v>
       </c>
       <c r="H397" s="37" t="n">
-        <v>16138</v>
+        <v>16492</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" s="39">
@@ -11338,10 +11338,10 @@
         </is>
       </c>
       <c r="G398" s="37" t="n">
-        <v>71846</v>
+        <v>71849</v>
       </c>
       <c r="H398" s="37" t="n">
-        <v>14123</v>
+        <v>14120</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" s="39">
@@ -11365,10 +11365,10 @@
         </is>
       </c>
       <c r="G399" s="37" t="n">
-        <v>247984</v>
+        <v>247490</v>
       </c>
       <c r="H399" s="37" t="n">
-        <v>12013</v>
+        <v>12507</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" s="39">
@@ -11392,10 +11392,10 @@
         </is>
       </c>
       <c r="G400" s="37" t="n">
-        <v>638997</v>
+        <v>525555</v>
       </c>
       <c r="H400" s="37" t="n">
-        <v>60051</v>
+        <v>173493</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1" s="39">
@@ -11419,10 +11419,10 @@
         </is>
       </c>
       <c r="G401" s="37" t="n">
-        <v>1070949</v>
+        <v>1099982</v>
       </c>
       <c r="H401" s="37" t="n">
-        <v>78037</v>
+        <v>49004</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1" s="39">
@@ -11446,10 +11446,10 @@
         </is>
       </c>
       <c r="G402" s="37" t="n">
-        <v>105036</v>
+        <v>105047</v>
       </c>
       <c r="H402" s="37" t="n">
-        <v>-15062</v>
+        <v>-15073</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1" s="39">
@@ -11473,10 +11473,10 @@
         </is>
       </c>
       <c r="G403" s="37" t="n">
-        <v>119733</v>
+        <v>119734</v>
       </c>
       <c r="H403" s="37" t="n">
-        <v>15265</v>
+        <v>15264</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" s="39">
@@ -11554,10 +11554,10 @@
         </is>
       </c>
       <c r="G406" s="37" t="n">
-        <v>859997</v>
+        <v>887999</v>
       </c>
       <c r="H406" s="37" t="n">
-        <v>77993</v>
+        <v>49991</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1" s="39">
@@ -11581,10 +11581,10 @@
         </is>
       </c>
       <c r="G407" s="37" t="n">
-        <v>185479</v>
+        <v>204966</v>
       </c>
       <c r="H407" s="37" t="n">
-        <v>-4510</v>
+        <v>-23997</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" s="39">
@@ -11608,10 +11608,10 @@
         </is>
       </c>
       <c r="G408" s="37" t="n">
-        <v>209747</v>
+        <v>209744</v>
       </c>
       <c r="H408" s="37" t="n">
-        <v>-9836</v>
+        <v>-9833</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1" s="39">
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="G410" s="37" t="n">
-        <v>646996</v>
+        <v>619999</v>
       </c>
       <c r="H410" s="37" t="n">
-        <v>19664</v>
+        <v>46661</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1" s="39">
@@ -11689,10 +11689,10 @@
         </is>
       </c>
       <c r="G411" s="37" t="n">
-        <v>996980</v>
+        <v>996471</v>
       </c>
       <c r="H411" s="37" t="n">
-        <v>53001</v>
+        <v>53510</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1" s="39">
@@ -11716,10 +11716,10 @@
         </is>
       </c>
       <c r="G412" s="37" t="n">
-        <v>124977</v>
+        <v>124966</v>
       </c>
       <c r="H412" s="37" t="n">
-        <v>-25031</v>
+        <v>-25020</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1" s="39">
@@ -11743,10 +11743,10 @@
         </is>
       </c>
       <c r="G413" s="37" t="n">
-        <v>156000</v>
+        <v>145000</v>
       </c>
       <c r="H413" s="37" t="n">
-        <v>17402</v>
+        <v>28402</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" s="39">
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="G414" s="37" t="n">
-        <v>355985</v>
+        <v>359000</v>
       </c>
       <c r="H414" s="37" t="n">
-        <v>9611</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" s="39">
@@ -11797,10 +11797,10 @@
         </is>
       </c>
       <c r="G415" s="37" t="n">
-        <v>550000</v>
+        <v>749990</v>
       </c>
       <c r="H415" s="37" t="n">
-        <v>35432</v>
+        <v>-164558</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" s="39">
@@ -11851,10 +11851,10 @@
         </is>
       </c>
       <c r="G417" s="37" t="n">
-        <v>128200</v>
+        <v>128197</v>
       </c>
       <c r="H417" s="37" t="n">
-        <v>-29201</v>
+        <v>-29198</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" s="39">
@@ -11878,10 +11878,10 @@
         </is>
       </c>
       <c r="G418" s="37" t="n">
-        <v>236721</v>
+        <v>229996</v>
       </c>
       <c r="H418" s="37" t="n">
-        <v>-57725</v>
+        <v>-51000</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1" s="39">
@@ -11905,10 +11905,10 @@
         </is>
       </c>
       <c r="G419" s="37" t="n">
-        <v>369997</v>
+        <v>354780</v>
       </c>
       <c r="H419" s="37" t="n">
-        <v>44890</v>
+        <v>60107</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1" s="39">
@@ -11932,10 +11932,10 @@
         </is>
       </c>
       <c r="G420" s="37" t="n">
-        <v>650000</v>
+        <v>678989</v>
       </c>
       <c r="H420" s="37" t="n">
-        <v>99999</v>
+        <v>71010</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" s="39">
@@ -11959,10 +11959,10 @@
         </is>
       </c>
       <c r="G421" s="37" t="n">
-        <v>2250000</v>
+        <v>1555555</v>
       </c>
       <c r="H421" s="37" t="n">
-        <v>-472236</v>
+        <v>222209</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" s="39">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="G422" s="37" t="n">
-        <v>79987</v>
+        <v>79971</v>
       </c>
       <c r="H422" s="37" t="n">
-        <v>8708</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" s="39">
@@ -12013,10 +12013,10 @@
         </is>
       </c>
       <c r="G423" s="37" t="n">
-        <v>92495</v>
+        <v>99997</v>
       </c>
       <c r="H423" s="37" t="n">
-        <v>57486</v>
+        <v>49984</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" s="39">
@@ -12040,10 +12040,10 @@
         </is>
       </c>
       <c r="G424" s="37" t="n">
-        <v>276972</v>
+        <v>247999</v>
       </c>
       <c r="H424" s="37" t="n">
-        <v>23451</v>
+        <v>52424</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" s="39">
@@ -12121,10 +12121,10 @@
         </is>
       </c>
       <c r="G427" s="37" t="n">
-        <v>83000</v>
+        <v>84989</v>
       </c>
       <c r="H427" s="37" t="n">
-        <v>-4105</v>
+        <v>-6094</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" s="39">
@@ -12148,10 +12148,10 @@
         </is>
       </c>
       <c r="G428" s="37" t="n">
-        <v>147000</v>
+        <v>150110</v>
       </c>
       <c r="H428" s="37" t="n">
-        <v>4660</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" s="39">
@@ -12175,10 +12175,10 @@
         </is>
       </c>
       <c r="G429" s="37" t="n">
-        <v>305000</v>
+        <v>0</v>
       </c>
       <c r="H429" s="37" t="n">
-        <v>1983</v>
+        <v>306983</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" s="39">
@@ -12202,10 +12202,10 @@
         </is>
       </c>
       <c r="G430" s="37" t="n">
-        <v>664996</v>
+        <v>666666</v>
       </c>
       <c r="H430" s="37" t="n">
-        <v>8000</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" s="39">
@@ -12229,10 +12229,10 @@
         </is>
       </c>
       <c r="G431" s="37" t="n">
-        <v>1324499</v>
+        <v>1830000</v>
       </c>
       <c r="H431" s="37" t="n">
-        <v>85499</v>
+        <v>-420002</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" s="39">
@@ -12256,10 +12256,10 @@
         </is>
       </c>
       <c r="G432" s="37" t="n">
-        <v>95497</v>
+        <v>95196</v>
       </c>
       <c r="H432" s="37" t="n">
-        <v>-29562</v>
+        <v>-29261</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" s="39">
@@ -12280,10 +12280,10 @@
         </is>
       </c>
       <c r="G433" s="37" t="n">
-        <v>113977</v>
+        <v>113974</v>
       </c>
       <c r="H433" s="37" t="n">
-        <v>25976</v>
+        <v>25979</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1" s="39">
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="G434" s="37" t="n">
-        <v>263889</v>
+        <v>250000</v>
       </c>
       <c r="H434" s="37" t="n">
-        <v>8101</v>
+        <v>21990</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1" s="39">
@@ -12388,10 +12388,10 @@
         </is>
       </c>
       <c r="G437" s="37" t="n">
-        <v>74999</v>
+        <v>79499</v>
       </c>
       <c r="H437" s="37" t="n">
-        <v>12878</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1" s="39">
@@ -12415,10 +12415,10 @@
         </is>
       </c>
       <c r="G438" s="37" t="n">
-        <v>99945</v>
+        <v>107985</v>
       </c>
       <c r="H438" s="37" t="n">
-        <v>29950</v>
+        <v>21910</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1" s="39">
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="G439" s="37" t="n">
-        <v>254987</v>
+        <v>253000</v>
       </c>
       <c r="H439" s="37" t="n">
-        <v>23763</v>
+        <v>25750</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1" s="39">
@@ -12469,10 +12469,10 @@
         </is>
       </c>
       <c r="G440" s="37" t="n">
-        <v>423000</v>
+        <v>422997</v>
       </c>
       <c r="H440" s="37" t="n">
-        <v>36069</v>
+        <v>36072</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1" s="39">
@@ -12523,10 +12523,10 @@
         </is>
       </c>
       <c r="G442" s="37" t="n">
-        <v>89992</v>
+        <v>89995</v>
       </c>
       <c r="H442" s="37" t="n">
-        <v>-10001</v>
+        <v>-10004</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1" s="39">
@@ -12550,10 +12550,10 @@
         </is>
       </c>
       <c r="G443" s="37" t="n">
-        <v>135000</v>
+        <v>139988</v>
       </c>
       <c r="H443" s="37" t="n">
-        <v>14980</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1" s="39">
@@ -12577,10 +12577,10 @@
         </is>
       </c>
       <c r="G444" s="37" t="n">
-        <v>289996</v>
+        <v>279999</v>
       </c>
       <c r="H444" s="37" t="n">
-        <v>29955</v>
+        <v>39952</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1" s="39">
@@ -12658,10 +12658,10 @@
         </is>
       </c>
       <c r="G447" s="37" t="n">
-        <v>3393</v>
+        <v>3333</v>
       </c>
       <c r="H447" s="37" t="n">
-        <v>206</v>
+        <v>266</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1" s="39">
@@ -12685,10 +12685,10 @@
         </is>
       </c>
       <c r="G448" s="37" t="n">
-        <v>8288</v>
+        <v>9125</v>
       </c>
       <c r="H448" s="37" t="n">
-        <v>7694</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1" s="39">
@@ -12712,10 +12712,10 @@
         </is>
       </c>
       <c r="G449" s="37" t="n">
-        <v>39944</v>
+        <v>37984</v>
       </c>
       <c r="H449" s="37" t="n">
-        <v>12623</v>
+        <v>14583</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1" s="39">
@@ -12739,10 +12739,10 @@
         </is>
       </c>
       <c r="G450" s="37" t="n">
-        <v>127960</v>
+        <v>129973</v>
       </c>
       <c r="H450" s="37" t="n">
-        <v>17906</v>
+        <v>15893</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1" s="39">
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="G451" s="37" t="n">
-        <v>310756</v>
+        <v>299987</v>
       </c>
       <c r="H451" s="37" t="n">
-        <v>36216</v>
+        <v>46985</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" s="39">
@@ -12793,10 +12793,10 @@
         </is>
       </c>
       <c r="G452" s="37" t="n">
-        <v>1995</v>
+        <v>1737</v>
       </c>
       <c r="H452" s="37" t="n">
-        <v>992</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" s="39">
@@ -12820,10 +12820,10 @@
         </is>
       </c>
       <c r="G453" s="37" t="n">
-        <v>4959</v>
+        <v>4496</v>
       </c>
       <c r="H453" s="37" t="n">
-        <v>2624</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1" s="39">
@@ -12847,10 +12847,10 @@
         </is>
       </c>
       <c r="G454" s="37" t="n">
-        <v>21982</v>
+        <v>23892</v>
       </c>
       <c r="H454" s="37" t="n">
-        <v>9910</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" s="39">
@@ -12874,10 +12874,10 @@
         </is>
       </c>
       <c r="G455" s="37" t="n">
-        <v>64991</v>
+        <v>59690</v>
       </c>
       <c r="H455" s="37" t="n">
-        <v>11992</v>
+        <v>17293</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" s="39">
@@ -12901,10 +12901,10 @@
         </is>
       </c>
       <c r="G456" s="37" t="n">
-        <v>139984</v>
+        <v>139999</v>
       </c>
       <c r="H456" s="37" t="n">
-        <v>41942</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1" s="39">
@@ -12928,10 +12928,10 @@
         </is>
       </c>
       <c r="G457" s="37" t="n">
-        <v>33482</v>
+        <v>32547</v>
       </c>
       <c r="H457" s="37" t="n">
-        <v>7482</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1" s="39">
@@ -12955,10 +12955,10 @@
         </is>
       </c>
       <c r="G458" s="37" t="n">
-        <v>34986</v>
+        <v>35000</v>
       </c>
       <c r="H458" s="37" t="n">
-        <v>15659</v>
+        <v>15645</v>
       </c>
     </row>
     <row r="459" ht="12.75" customHeight="1" s="39">
@@ -12982,10 +12982,10 @@
         </is>
       </c>
       <c r="G459" s="37" t="n">
-        <v>69940</v>
+        <v>73956</v>
       </c>
       <c r="H459" s="37" t="n">
-        <v>16013</v>
+        <v>11997</v>
       </c>
     </row>
     <row r="460" ht="12.75" customHeight="1" s="39">
@@ -13009,10 +13009,10 @@
         </is>
       </c>
       <c r="G460" s="37" t="n">
-        <v>169985</v>
+        <v>169993</v>
       </c>
       <c r="H460" s="37" t="n">
-        <v>19999</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="461" ht="12.75" customHeight="1" s="39">
@@ -13036,10 +13036,10 @@
         </is>
       </c>
       <c r="G461" s="37" t="n">
-        <v>310936</v>
+        <v>310948</v>
       </c>
       <c r="H461" s="37" t="n">
-        <v>47945</v>
+        <v>47933</v>
       </c>
     </row>
     <row r="462" ht="12.75" customHeight="1" s="39">

--- a/table.xlsx
+++ b/table.xlsx
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -329,6 +329,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +667,7 @@
         </is>
       </c>
       <c r="B2" s="40" t="n">
-        <v>1800</v>
+        <v>2132</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -675,10 +681,10 @@
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>994</v>
+        <v>1553</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>806</v>
+        <v>579</v>
       </c>
       <c r="I2" s="3" t="n"/>
     </row>
@@ -689,7 +695,7 @@
         </is>
       </c>
       <c r="B3" s="40" t="n">
-        <v>5994</v>
+        <v>6113</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0</v>
@@ -703,10 +709,10 @@
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>4497</v>
+        <v>3242</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1497</v>
+        <v>2871</v>
       </c>
       <c r="I3" s="3" t="n"/>
     </row>
@@ -717,7 +723,7 @@
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>19475</v>
+        <v>16670</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -731,10 +737,10 @@
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>15708</v>
+        <v>13430</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>3767</v>
+        <v>3240</v>
       </c>
       <c r="I4" s="3" t="n"/>
     </row>
@@ -745,7 +751,7 @@
         </is>
       </c>
       <c r="B5" s="40" t="n">
-        <v>47495</v>
+        <v>44593</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0</v>
@@ -759,10 +765,10 @@
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>25000</v>
+        <v>34999</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>22495</v>
+        <v>9594</v>
       </c>
       <c r="I5" s="3" t="n"/>
     </row>
@@ -773,7 +779,7 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>135465</v>
+        <v>134294</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>0</v>
@@ -787,10 +793,10 @@
         </is>
       </c>
       <c r="G6" s="3" t="n">
-        <v>133999</v>
+        <v>118862</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1466</v>
+        <v>15432</v>
       </c>
       <c r="I6" s="3" t="n"/>
     </row>
@@ -801,13 +807,13 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>1977</v>
+        <v>2290</v>
       </c>
       <c r="G7" s="37" t="n">
-        <v>1090</v>
+        <v>1201</v>
       </c>
       <c r="H7" s="37" t="n">
-        <v>887</v>
+        <v>1089</v>
       </c>
       <c r="I7" s="3" t="n"/>
     </row>
@@ -818,13 +824,13 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>5973</v>
+        <v>6059</v>
       </c>
       <c r="G8" s="37" t="n">
-        <v>4856</v>
+        <v>3295</v>
       </c>
       <c r="H8" s="37" t="n">
-        <v>1117</v>
+        <v>2764</v>
       </c>
       <c r="I8" s="3" t="n"/>
     </row>
@@ -835,13 +841,13 @@
         </is>
       </c>
       <c r="B9" s="41" t="n">
-        <v>21413</v>
+        <v>19611</v>
       </c>
       <c r="G9" s="37" t="n">
-        <v>14857</v>
+        <v>12990</v>
       </c>
       <c r="H9" s="37" t="n">
-        <v>6556</v>
+        <v>6621</v>
       </c>
       <c r="I9" s="3" t="n"/>
     </row>
@@ -852,13 +858,13 @@
         </is>
       </c>
       <c r="B10" s="41" t="n">
-        <v>48777</v>
+        <v>46649</v>
       </c>
       <c r="G10" s="37" t="n">
-        <v>36985</v>
+        <v>36992</v>
       </c>
       <c r="H10" s="37" t="n">
-        <v>11792</v>
+        <v>9657</v>
       </c>
       <c r="I10" s="3" t="n"/>
     </row>
@@ -869,13 +875,13 @@
         </is>
       </c>
       <c r="B11" s="41" t="n">
-        <v>123990</v>
+        <v>123891</v>
       </c>
       <c r="G11" s="37" t="n">
-        <v>100999</v>
+        <v>100995</v>
       </c>
       <c r="H11" s="37" t="n">
-        <v>22991</v>
+        <v>22896</v>
       </c>
       <c r="I11" s="3" t="n"/>
     </row>
@@ -886,7 +892,7 @@
         </is>
       </c>
       <c r="B12" s="42" t="n">
-        <v>2197</v>
+        <v>2043</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
@@ -900,10 +906,10 @@
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1095</v>
+        <v>1160</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>1102</v>
+        <v>883</v>
       </c>
       <c r="I12" s="3" t="n"/>
     </row>
@@ -914,7 +920,7 @@
         </is>
       </c>
       <c r="B13" s="42" t="n">
-        <v>5589</v>
+        <v>5489</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
@@ -928,10 +934,10 @@
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>4250</v>
+        <v>3965</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1339</v>
+        <v>1524</v>
       </c>
       <c r="I13" s="3" t="n"/>
     </row>
@@ -942,7 +948,7 @@
         </is>
       </c>
       <c r="B14" s="42" t="n">
-        <v>20997</v>
+        <v>18953</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
@@ -956,10 +962,10 @@
         </is>
       </c>
       <c r="G14" s="3" t="n">
-        <v>13992</v>
+        <v>14230</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>7005</v>
+        <v>4723</v>
       </c>
       <c r="I14" s="3" t="n"/>
     </row>
@@ -970,7 +976,7 @@
         </is>
       </c>
       <c r="B15" s="42" t="n">
-        <v>48957</v>
+        <v>46346</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>0</v>
@@ -984,10 +990,10 @@
         </is>
       </c>
       <c r="G15" s="3" t="n">
-        <v>35895</v>
+        <v>39944</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>13062</v>
+        <v>6402</v>
       </c>
       <c r="I15" s="3" t="n"/>
     </row>
@@ -998,7 +1004,7 @@
         </is>
       </c>
       <c r="B16" s="42" t="n">
-        <v>141904</v>
+        <v>129061</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>0</v>
@@ -1012,10 +1018,10 @@
         </is>
       </c>
       <c r="G16" s="3" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>11904</v>
+        <v>19061</v>
       </c>
       <c r="I16" s="3" t="n"/>
     </row>
@@ -1026,7 +1032,7 @@
         </is>
       </c>
       <c r="B17" s="43" t="n">
-        <v>3361</v>
+        <v>3279</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
@@ -1040,10 +1046,10 @@
         </is>
       </c>
       <c r="G17" s="3" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="H17" s="10" t="n">
-        <v>1861</v>
+        <v>1079</v>
       </c>
       <c r="I17" s="3" t="n"/>
     </row>
@@ -1054,7 +1060,7 @@
         </is>
       </c>
       <c r="B18" s="43" t="n">
-        <v>9919</v>
+        <v>8444</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
@@ -1068,10 +1074,10 @@
         </is>
       </c>
       <c r="G18" s="3" t="n">
-        <v>7084</v>
+        <v>5414</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>2835</v>
+        <v>3030</v>
       </c>
       <c r="I18" s="3" t="n"/>
     </row>
@@ -1082,7 +1088,7 @@
         </is>
       </c>
       <c r="B19" s="43" t="n">
-        <v>39776</v>
+        <v>30909</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -1096,10 +1102,10 @@
         </is>
       </c>
       <c r="G19" s="3" t="n">
-        <v>25544</v>
+        <v>25983</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>14232</v>
+        <v>4926</v>
       </c>
       <c r="I19" s="3" t="n"/>
     </row>
@@ -1110,7 +1116,7 @@
         </is>
       </c>
       <c r="B20" s="43" t="n">
-        <v>87000</v>
+        <v>79916</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>0</v>
@@ -1124,10 +1130,10 @@
         </is>
       </c>
       <c r="G20" s="3" t="n">
-        <v>66660</v>
+        <v>63000</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>20340</v>
+        <v>16916</v>
       </c>
       <c r="I20" s="3" t="n"/>
     </row>
@@ -1138,7 +1144,7 @@
         </is>
       </c>
       <c r="B21" s="43" t="n">
-        <v>178553</v>
+        <v>179966</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>0</v>
@@ -1152,10 +1158,10 @@
         </is>
       </c>
       <c r="G21" s="3" t="n">
-        <v>119196</v>
+        <v>135000</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>59357</v>
+        <v>44966</v>
       </c>
       <c r="I21" s="3" t="n"/>
     </row>
@@ -1166,7 +1172,7 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>3995</v>
+        <v>3377</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
@@ -1180,10 +1186,10 @@
         </is>
       </c>
       <c r="G22" s="3" t="n">
-        <v>1773</v>
+        <v>2191</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>2222</v>
+        <v>1186</v>
       </c>
       <c r="I22" s="3" t="n"/>
     </row>
@@ -1194,7 +1200,7 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>11000</v>
+        <v>8521</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0</v>
@@ -1208,10 +1214,10 @@
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>7778</v>
+        <v>4949</v>
       </c>
       <c r="H23" s="10" t="n">
-        <v>3222</v>
+        <v>3572</v>
       </c>
       <c r="I23" s="3" t="n"/>
     </row>
@@ -1222,7 +1228,7 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>32715</v>
+        <v>26850</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>0</v>
@@ -1236,10 +1242,10 @@
         </is>
       </c>
       <c r="G24" s="3" t="n">
-        <v>24972</v>
+        <v>22946</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>7743</v>
+        <v>3904</v>
       </c>
       <c r="I24" s="3" t="n"/>
     </row>
@@ -1250,7 +1256,7 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>88871</v>
+        <v>83936</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>0</v>
@@ -1264,10 +1270,10 @@
         </is>
       </c>
       <c r="G25" s="3" t="n">
-        <v>59876</v>
+        <v>64984</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>28995</v>
+        <v>18952</v>
       </c>
       <c r="I25" s="3" t="n"/>
     </row>
@@ -1278,7 +1284,7 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>198388</v>
+        <v>186949</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>0</v>
@@ -1292,10 +1298,10 @@
         </is>
       </c>
       <c r="G26" s="3" t="n">
-        <v>230000</v>
+        <v>159970</v>
       </c>
       <c r="H26" s="10" t="n">
-        <v>-31612</v>
+        <v>26979</v>
       </c>
       <c r="I26" s="3" t="n"/>
     </row>
@@ -1306,7 +1312,7 @@
         </is>
       </c>
       <c r="B27" s="44" t="n">
-        <v>4486</v>
+        <v>3300</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0</v>
@@ -1320,10 +1326,10 @@
         </is>
       </c>
       <c r="G27" s="3" t="n">
-        <v>2134</v>
+        <v>2195</v>
       </c>
       <c r="H27" s="10" t="n">
-        <v>2352</v>
+        <v>1105</v>
       </c>
       <c r="I27" s="3" t="n"/>
     </row>
@@ -1334,7 +1340,7 @@
         </is>
       </c>
       <c r="B28" s="44" t="n">
-        <v>9946</v>
+        <v>7727</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0</v>
@@ -1348,10 +1354,10 @@
         </is>
       </c>
       <c r="G28" s="3" t="n">
-        <v>5500</v>
+        <v>5252</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>4446</v>
+        <v>2475</v>
       </c>
       <c r="I28" s="3" t="n"/>
     </row>
@@ -1362,7 +1368,7 @@
         </is>
       </c>
       <c r="B29" s="44" t="n">
-        <v>36855</v>
+        <v>29396</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0</v>
@@ -1376,10 +1382,10 @@
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>22482</v>
+        <v>24967</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>14373</v>
+        <v>4429</v>
       </c>
       <c r="I29" s="3" t="n"/>
     </row>
@@ -1390,7 +1396,7 @@
         </is>
       </c>
       <c r="B30" s="44" t="n">
-        <v>87966</v>
+        <v>82476</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>0</v>
@@ -1404,10 +1410,10 @@
         </is>
       </c>
       <c r="G30" s="3" t="n">
-        <v>50966</v>
+        <v>69998</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>37000</v>
+        <v>12478</v>
       </c>
       <c r="I30" s="3" t="n"/>
     </row>
@@ -1418,7 +1424,7 @@
         </is>
       </c>
       <c r="B31" s="44" t="n">
-        <v>87966</v>
+        <v>203344</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>0</v>
@@ -1432,10 +1438,10 @@
         </is>
       </c>
       <c r="G31" s="3" t="n">
-        <v>135000</v>
+        <v>144437</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>-47034</v>
+        <v>58907</v>
       </c>
       <c r="I31" s="3" t="n"/>
     </row>
@@ -1446,7 +1452,7 @@
         </is>
       </c>
       <c r="B32" s="45" t="n">
-        <v>3128</v>
+        <v>3428</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0</v>
@@ -1460,10 +1466,10 @@
         </is>
       </c>
       <c r="G32" s="3" t="n">
-        <v>1874</v>
+        <v>3999</v>
       </c>
       <c r="H32" s="10" t="n">
-        <v>1254</v>
+        <v>-571</v>
       </c>
       <c r="I32" s="3" t="n"/>
     </row>
@@ -1474,7 +1480,7 @@
         </is>
       </c>
       <c r="B33" s="45" t="n">
-        <v>8338</v>
+        <v>8049</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -1488,10 +1494,10 @@
         </is>
       </c>
       <c r="G33" s="3" t="n">
-        <v>6169</v>
+        <v>4434</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>2169</v>
+        <v>3615</v>
       </c>
       <c r="I33" s="3" t="n"/>
     </row>
@@ -1502,7 +1508,7 @@
         </is>
       </c>
       <c r="B34" s="45" t="n">
-        <v>29752</v>
+        <v>27177</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0</v>
@@ -1516,10 +1522,10 @@
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>24561</v>
+        <v>20958</v>
       </c>
       <c r="H34" s="10" t="n">
-        <v>5191</v>
+        <v>6219</v>
       </c>
       <c r="I34" s="3" t="n"/>
     </row>
@@ -1530,7 +1536,7 @@
         </is>
       </c>
       <c r="B35" s="45" t="n">
-        <v>88663</v>
+        <v>68979</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>0</v>
@@ -1544,10 +1550,10 @@
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>54000</v>
+        <v>59930</v>
       </c>
       <c r="H35" s="10" t="n">
-        <v>34663</v>
+        <v>9049</v>
       </c>
       <c r="I35" s="3" t="n"/>
     </row>
@@ -1558,7 +1564,7 @@
         </is>
       </c>
       <c r="B36" s="45" t="n">
-        <v>161888</v>
+        <v>188598</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>0</v>
@@ -1572,10 +1578,10 @@
         </is>
       </c>
       <c r="G36" s="3" t="n">
-        <v>111097</v>
+        <v>124980</v>
       </c>
       <c r="H36" s="10" t="n">
-        <v>50791</v>
+        <v>63618</v>
       </c>
       <c r="I36" s="3" t="n"/>
     </row>
@@ -1586,7 +1592,7 @@
         </is>
       </c>
       <c r="B37" s="46" t="n">
-        <v>2675</v>
+        <v>4439</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
@@ -1600,10 +1606,10 @@
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>1836</v>
+        <v>1980</v>
       </c>
       <c r="H37" s="10" t="n">
-        <v>839</v>
+        <v>2459</v>
       </c>
       <c r="I37" s="3" t="n"/>
     </row>
@@ -1614,7 +1620,7 @@
         </is>
       </c>
       <c r="B38" s="46" t="n">
-        <v>8363</v>
+        <v>7962</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
@@ -1628,10 +1634,10 @@
         </is>
       </c>
       <c r="G38" s="3" t="n">
-        <v>6895</v>
+        <v>4798</v>
       </c>
       <c r="H38" s="10" t="n">
-        <v>1468</v>
+        <v>3164</v>
       </c>
       <c r="I38" s="3" t="n"/>
     </row>
@@ -1642,7 +1648,7 @@
         </is>
       </c>
       <c r="B39" s="46" t="n">
-        <v>27956</v>
+        <v>26193</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>0</v>
@@ -1656,10 +1662,10 @@
         </is>
       </c>
       <c r="G39" s="3" t="n">
-        <v>21974</v>
+        <v>20942</v>
       </c>
       <c r="H39" s="10" t="n">
-        <v>5982</v>
+        <v>5251</v>
       </c>
       <c r="I39" s="3" t="n"/>
     </row>
@@ -1670,7 +1676,7 @@
         </is>
       </c>
       <c r="B40" s="46" t="n">
-        <v>59000</v>
+        <v>62938</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>0</v>
@@ -1684,10 +1690,10 @@
         </is>
       </c>
       <c r="G40" s="3" t="n">
-        <v>48998</v>
+        <v>51984</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>10002</v>
+        <v>10954</v>
       </c>
       <c r="I40" s="3" t="n"/>
     </row>
@@ -1698,7 +1704,7 @@
         </is>
       </c>
       <c r="B41" s="46" t="n">
-        <v>166110</v>
+        <v>171940</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>0</v>
@@ -1712,10 +1718,10 @@
         </is>
       </c>
       <c r="G41" s="3" t="n">
-        <v>222222</v>
+        <v>156992</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>-56112</v>
+        <v>14948</v>
       </c>
       <c r="I41" s="3" t="n"/>
     </row>
@@ -1726,7 +1732,7 @@
         </is>
       </c>
       <c r="B42" s="42" t="n">
-        <v>2929</v>
+        <v>3957</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -1740,10 +1746,10 @@
         </is>
       </c>
       <c r="G42" s="3" t="n">
-        <v>1476</v>
+        <v>1825</v>
       </c>
       <c r="H42" s="10" t="n">
-        <v>1453</v>
+        <v>2132</v>
       </c>
       <c r="I42" s="3" t="n"/>
     </row>
@@ -1754,7 +1760,7 @@
         </is>
       </c>
       <c r="B43" s="42" t="n">
-        <v>8365</v>
+        <v>7700</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>0</v>
@@ -1768,10 +1774,10 @@
         </is>
       </c>
       <c r="G43" s="3" t="n">
-        <v>5964</v>
+        <v>4495</v>
       </c>
       <c r="H43" s="10" t="n">
-        <v>2401</v>
+        <v>3205</v>
       </c>
       <c r="I43" s="3" t="n"/>
     </row>
@@ -1782,7 +1788,7 @@
         </is>
       </c>
       <c r="B44" s="42" t="n">
-        <v>26984</v>
+        <v>26274</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
@@ -1796,10 +1802,10 @@
         </is>
       </c>
       <c r="G44" s="3" t="n">
-        <v>20331</v>
+        <v>21471</v>
       </c>
       <c r="H44" s="10" t="n">
-        <v>6653</v>
+        <v>4803</v>
       </c>
       <c r="I44" s="3" t="n"/>
     </row>
@@ -1810,7 +1816,7 @@
         </is>
       </c>
       <c r="B45" s="42" t="n">
-        <v>63255</v>
+        <v>61937</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>0</v>
@@ -1824,10 +1830,10 @@
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>49997</v>
+        <v>52914</v>
       </c>
       <c r="H45" s="10" t="n">
-        <v>13258</v>
+        <v>9023</v>
       </c>
       <c r="I45" s="3" t="n"/>
     </row>
@@ -1838,7 +1844,7 @@
         </is>
       </c>
       <c r="B46" s="42" t="n">
-        <v>249988</v>
+        <v>158872</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>0</v>
@@ -1852,10 +1858,10 @@
         </is>
       </c>
       <c r="G46" s="3" t="n">
-        <v>110948</v>
+        <v>122000</v>
       </c>
       <c r="H46" s="10" t="n">
-        <v>139040</v>
+        <v>36872</v>
       </c>
       <c r="I46" s="3" t="n"/>
     </row>
@@ -1866,7 +1872,7 @@
         </is>
       </c>
       <c r="B47" s="40" t="n">
-        <v>5757</v>
+        <v>10374</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>0</v>
@@ -1880,10 +1886,10 @@
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>3578</v>
+        <v>4192</v>
       </c>
       <c r="H47" s="10" t="n">
-        <v>2179</v>
+        <v>6182</v>
       </c>
       <c r="I47" s="3" t="n"/>
     </row>
@@ -1894,7 +1900,7 @@
         </is>
       </c>
       <c r="B48" s="40" t="n">
-        <v>14442</v>
+        <v>15970</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>0</v>
@@ -1908,10 +1914,10 @@
         </is>
       </c>
       <c r="G48" s="3" t="n">
-        <v>13657</v>
+        <v>9374</v>
       </c>
       <c r="H48" s="10" t="n">
-        <v>785</v>
+        <v>6596</v>
       </c>
       <c r="I48" s="3" t="n"/>
     </row>
@@ -1922,7 +1928,7 @@
         </is>
       </c>
       <c r="B49" s="40" t="n">
-        <v>44442</v>
+        <v>42905</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>0</v>
@@ -1936,10 +1942,10 @@
         </is>
       </c>
       <c r="G49" s="3" t="n">
-        <v>33133</v>
+        <v>32992</v>
       </c>
       <c r="H49" s="10" t="n">
-        <v>11309</v>
+        <v>9913</v>
       </c>
       <c r="I49" s="3" t="n"/>
     </row>
@@ -1950,7 +1956,7 @@
         </is>
       </c>
       <c r="B50" s="40" t="n">
-        <v>101037</v>
+        <v>92909</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>0</v>
@@ -1964,10 +1970,10 @@
         </is>
       </c>
       <c r="G50" s="3" t="n">
-        <v>71995</v>
+        <v>74998</v>
       </c>
       <c r="H50" s="10" t="n">
-        <v>29042</v>
+        <v>17911</v>
       </c>
       <c r="I50" s="3" t="n"/>
     </row>
@@ -1978,7 +1984,7 @@
         </is>
       </c>
       <c r="B51" s="40" t="n">
-        <v>319967</v>
+        <v>299999</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>0</v>
@@ -1992,10 +1998,10 @@
         </is>
       </c>
       <c r="G51" s="3" t="n">
-        <v>249997</v>
+        <v>264955</v>
       </c>
       <c r="H51" s="10" t="n">
-        <v>69970</v>
+        <v>35044</v>
       </c>
       <c r="I51" s="3" t="n"/>
     </row>
@@ -2006,7 +2012,7 @@
         </is>
       </c>
       <c r="B52" s="44" t="n">
-        <v>6221</v>
+        <v>8193</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>0</v>
@@ -2020,10 +2026,10 @@
         </is>
       </c>
       <c r="G52" s="3" t="n">
-        <v>3197</v>
+        <v>4647</v>
       </c>
       <c r="H52" s="10" t="n">
-        <v>3024</v>
+        <v>3546</v>
       </c>
       <c r="I52" s="3" t="n"/>
     </row>
@@ -2034,7 +2040,7 @@
         </is>
       </c>
       <c r="B53" s="44" t="n">
-        <v>14997</v>
+        <v>14406</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0</v>
@@ -2048,10 +2054,10 @@
         </is>
       </c>
       <c r="G53" s="3" t="n">
-        <v>9512</v>
+        <v>8195</v>
       </c>
       <c r="H53" s="10" t="n">
-        <v>5485</v>
+        <v>6211</v>
       </c>
       <c r="I53" s="3" t="n"/>
     </row>
@@ -2062,7 +2068,7 @@
         </is>
       </c>
       <c r="B54" s="44" t="n">
-        <v>46471</v>
+        <v>42309</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>0</v>
@@ -2076,10 +2082,10 @@
         </is>
       </c>
       <c r="G54" s="3" t="n">
-        <v>32077</v>
+        <v>34138</v>
       </c>
       <c r="H54" s="10" t="n">
-        <v>14394</v>
+        <v>8171</v>
       </c>
       <c r="I54" s="3" t="n"/>
     </row>
@@ -2090,7 +2096,7 @@
         </is>
       </c>
       <c r="B55" s="44" t="n">
-        <v>97321</v>
+        <v>90968</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>0</v>
@@ -2104,10 +2110,10 @@
         </is>
       </c>
       <c r="G55" s="3" t="n">
-        <v>68990</v>
+        <v>76896</v>
       </c>
       <c r="H55" s="10" t="n">
-        <v>28331</v>
+        <v>14072</v>
       </c>
       <c r="I55" s="3" t="n"/>
     </row>
@@ -2118,7 +2124,7 @@
         </is>
       </c>
       <c r="B56" s="44" t="n">
-        <v>299499</v>
+        <v>288076</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>0</v>
@@ -2132,10 +2138,10 @@
         </is>
       </c>
       <c r="G56" s="3" t="n">
-        <v>209972</v>
+        <v>248971</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>89527</v>
+        <v>39105</v>
       </c>
       <c r="I56" s="3" t="n"/>
     </row>
@@ -2146,7 +2152,7 @@
         </is>
       </c>
       <c r="B57" s="45" t="n">
-        <v>5683</v>
+        <v>15502</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>0</v>
@@ -2160,10 +2166,10 @@
         </is>
       </c>
       <c r="G57" s="3" t="n">
-        <v>3309</v>
+        <v>3800</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>2374</v>
+        <v>11702</v>
       </c>
       <c r="I57" s="3" t="n"/>
     </row>
@@ -2174,7 +2180,7 @@
         </is>
       </c>
       <c r="B58" s="45" t="n">
-        <v>14988</v>
+        <v>14809</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>0</v>
@@ -2188,10 +2194,10 @@
         </is>
       </c>
       <c r="G58" s="37" t="n">
-        <v>7499</v>
+        <v>8174</v>
       </c>
       <c r="H58" s="37" t="n">
-        <v>7489</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" s="39">
@@ -2201,7 +2207,7 @@
         </is>
       </c>
       <c r="B59" s="45" t="n">
-        <v>46488</v>
+        <v>42788</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>0</v>
@@ -2215,10 +2221,10 @@
         </is>
       </c>
       <c r="G59" s="37" t="n">
-        <v>30960</v>
+        <v>34874</v>
       </c>
       <c r="H59" s="37" t="n">
-        <v>15528</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" s="39">
@@ -2228,7 +2234,7 @@
         </is>
       </c>
       <c r="B60" s="45" t="n">
-        <v>99971</v>
+        <v>92486</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>0</v>
@@ -2242,10 +2248,10 @@
         </is>
       </c>
       <c r="G60" s="37" t="n">
-        <v>69880</v>
+        <v>73994</v>
       </c>
       <c r="H60" s="37" t="n">
-        <v>30091</v>
+        <v>18492</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" s="39">
@@ -2255,7 +2261,7 @@
         </is>
       </c>
       <c r="B61" s="45" t="n">
-        <v>319954</v>
+        <v>299504</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>0</v>
@@ -2269,10 +2275,10 @@
         </is>
       </c>
       <c r="G61" s="37" t="n">
-        <v>268928</v>
+        <v>254995</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>51026</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" s="39">
@@ -2282,7 +2288,7 @@
         </is>
       </c>
       <c r="B62" s="46" t="n">
-        <v>4895</v>
+        <v>6162</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>0</v>
@@ -2296,10 +2302,10 @@
         </is>
       </c>
       <c r="G62" s="37" t="n">
-        <v>3090</v>
+        <v>4541</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>1805</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" s="39">
@@ -2309,7 +2315,7 @@
         </is>
       </c>
       <c r="B63" s="46" t="n">
-        <v>15934</v>
+        <v>15995</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>0</v>
@@ -2323,10 +2329,10 @@
         </is>
       </c>
       <c r="G63" s="37" t="n">
-        <v>7900</v>
+        <v>11104</v>
       </c>
       <c r="H63" s="37" t="n">
-        <v>8034</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" s="39">
@@ -2336,7 +2342,7 @@
         </is>
       </c>
       <c r="B64" s="46" t="n">
-        <v>73000</v>
+        <v>62905</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>0</v>
@@ -2350,10 +2356,10 @@
         </is>
       </c>
       <c r="G64" s="37" t="n">
-        <v>54985</v>
+        <v>49997</v>
       </c>
       <c r="H64" s="37" t="n">
-        <v>18015</v>
+        <v>12908</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" s="39">
@@ -2363,7 +2369,7 @@
         </is>
       </c>
       <c r="B65" s="46" t="n">
-        <v>177819</v>
+        <v>166903</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>0</v>
@@ -2377,10 +2383,10 @@
         </is>
       </c>
       <c r="G65" s="37" t="n">
-        <v>124988</v>
+        <v>126972</v>
       </c>
       <c r="H65" s="37" t="n">
-        <v>52831</v>
+        <v>39931</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" s="39">
@@ -2390,7 +2396,7 @@
         </is>
       </c>
       <c r="B66" s="46" t="n">
-        <v>177819</v>
+        <v>499997</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>0</v>
@@ -2404,10 +2410,10 @@
         </is>
       </c>
       <c r="G66" s="37" t="n">
-        <v>291986</v>
+        <v>305550</v>
       </c>
       <c r="H66" s="37" t="n">
-        <v>-114167</v>
+        <v>194447</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" s="39">
@@ -2417,7 +2423,7 @@
         </is>
       </c>
       <c r="B67" s="42" t="n">
-        <v>6000</v>
+        <v>6934</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>0</v>
@@ -2431,10 +2437,10 @@
         </is>
       </c>
       <c r="G67" s="37" t="n">
-        <v>3727</v>
+        <v>4450</v>
       </c>
       <c r="H67" s="37" t="n">
-        <v>2273</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" s="39">
@@ -2444,7 +2450,7 @@
         </is>
       </c>
       <c r="B68" s="42" t="n">
-        <v>16696</v>
+        <v>16998</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>0</v>
@@ -2458,10 +2464,10 @@
         </is>
       </c>
       <c r="G68" s="37" t="n">
-        <v>10495</v>
+        <v>8998</v>
       </c>
       <c r="H68" s="37" t="n">
-        <v>6201</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" s="39">
@@ -2471,7 +2477,7 @@
         </is>
       </c>
       <c r="B69" s="42" t="n">
-        <v>75787</v>
+        <v>59906</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>0</v>
@@ -2485,10 +2491,10 @@
         </is>
       </c>
       <c r="G69" s="37" t="n">
-        <v>53987</v>
+        <v>45743</v>
       </c>
       <c r="H69" s="37" t="n">
-        <v>21800</v>
+        <v>14163</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" s="39">
@@ -2498,7 +2504,7 @@
         </is>
       </c>
       <c r="B70" s="42" t="n">
-        <v>179888</v>
+        <v>165961</v>
       </c>
       <c r="C70" s="12" t="n">
         <v>0</v>
@@ -2512,10 +2518,10 @@
         </is>
       </c>
       <c r="G70" s="37" t="n">
-        <v>130870</v>
+        <v>95000</v>
       </c>
       <c r="H70" s="37" t="n">
-        <v>49018</v>
+        <v>70961</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" s="39">
@@ -2525,7 +2531,7 @@
         </is>
       </c>
       <c r="B71" s="42" t="n">
-        <v>355552</v>
+        <v>368888</v>
       </c>
       <c r="C71" s="12" t="n">
         <v>0</v>
@@ -2539,10 +2545,10 @@
         </is>
       </c>
       <c r="G71" s="37" t="n">
-        <v>249999</v>
+        <v>278994</v>
       </c>
       <c r="H71" s="37" t="n">
-        <v>105553</v>
+        <v>89894</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" s="39">
@@ -2552,7 +2558,7 @@
         </is>
       </c>
       <c r="B72" s="40" t="n">
-        <v>5323</v>
+        <v>8917</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>0</v>
@@ -2566,10 +2572,10 @@
         </is>
       </c>
       <c r="G72" s="37" t="n">
-        <v>3850</v>
+        <v>6992</v>
       </c>
       <c r="H72" s="37" t="n">
-        <v>1473</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" s="39">
@@ -2579,7 +2585,7 @@
         </is>
       </c>
       <c r="B73" s="40" t="n">
-        <v>15880</v>
+        <v>15965</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>0</v>
@@ -2593,10 +2599,10 @@
         </is>
       </c>
       <c r="G73" s="37" t="n">
-        <v>12959</v>
+        <v>11088</v>
       </c>
       <c r="H73" s="37" t="n">
-        <v>2921</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" s="39">
@@ -2606,7 +2612,7 @@
         </is>
       </c>
       <c r="B74" s="40" t="n">
-        <v>68888</v>
+        <v>59617</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>0</v>
@@ -2620,10 +2626,10 @@
         </is>
       </c>
       <c r="G74" s="37" t="n">
-        <v>47769</v>
+        <v>49892</v>
       </c>
       <c r="H74" s="37" t="n">
-        <v>21119</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" s="39">
@@ -2633,7 +2639,7 @@
         </is>
       </c>
       <c r="B75" s="40" t="n">
-        <v>150964</v>
+        <v>149987</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>0</v>
@@ -2647,10 +2653,10 @@
         </is>
       </c>
       <c r="G75" s="37" t="n">
-        <v>114444</v>
+        <v>121922</v>
       </c>
       <c r="H75" s="37" t="n">
-        <v>36520</v>
+        <v>28065</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" s="39">
@@ -2660,7 +2666,7 @@
         </is>
       </c>
       <c r="B76" s="40" t="n">
-        <v>437777</v>
+        <v>425554</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>0</v>
@@ -2674,10 +2680,10 @@
         </is>
       </c>
       <c r="G76" s="37" t="n">
-        <v>369500</v>
+        <v>399091</v>
       </c>
       <c r="H76" s="37" t="n">
-        <v>68277</v>
+        <v>26463</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" s="39">
@@ -2687,7 +2693,7 @@
         </is>
       </c>
       <c r="B77" s="44" t="n">
-        <v>4899</v>
+        <v>4704</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>0</v>
@@ -2701,10 +2707,10 @@
         </is>
       </c>
       <c r="G77" s="37" t="n">
-        <v>2577</v>
+        <v>2161</v>
       </c>
       <c r="H77" s="37" t="n">
-        <v>2322</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" s="39">
@@ -2714,7 +2720,7 @@
         </is>
       </c>
       <c r="B78" s="44" t="n">
-        <v>15050</v>
+        <v>15039</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>0</v>
@@ -2728,10 +2734,10 @@
         </is>
       </c>
       <c r="G78" s="37" t="n">
-        <v>9988</v>
+        <v>8869</v>
       </c>
       <c r="H78" s="37" t="n">
-        <v>5062</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" s="39">
@@ -2741,7 +2747,7 @@
         </is>
       </c>
       <c r="B79" s="44" t="n">
-        <v>49976</v>
+        <v>44798</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>0</v>
@@ -2755,10 +2761,10 @@
         </is>
       </c>
       <c r="G79" s="37" t="n">
-        <v>34995</v>
+        <v>34493</v>
       </c>
       <c r="H79" s="37" t="n">
-        <v>14981</v>
+        <v>10305</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1" s="39">
@@ -2768,7 +2774,7 @@
         </is>
       </c>
       <c r="B80" s="44" t="n">
-        <v>122222</v>
+        <v>121493</v>
       </c>
       <c r="C80" s="12" t="n">
         <v>0</v>
@@ -2782,10 +2788,10 @@
         </is>
       </c>
       <c r="G80" s="37" t="n">
-        <v>91985</v>
+        <v>99664</v>
       </c>
       <c r="H80" s="37" t="n">
-        <v>30237</v>
+        <v>21829</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1" s="39">
@@ -2795,7 +2801,7 @@
         </is>
       </c>
       <c r="B81" s="44" t="n">
-        <v>315555</v>
+        <v>313333</v>
       </c>
       <c r="C81" s="12" t="n">
         <v>0</v>
@@ -2809,10 +2815,10 @@
         </is>
       </c>
       <c r="G81" s="37" t="n">
-        <v>244000</v>
+        <v>265980</v>
       </c>
       <c r="H81" s="37" t="n">
-        <v>71555</v>
+        <v>47353</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1" s="39">
@@ -2822,7 +2828,7 @@
         </is>
       </c>
       <c r="B82" s="45" t="n">
-        <v>5125</v>
+        <v>4738</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>0</v>
@@ -2836,10 +2842,10 @@
         </is>
       </c>
       <c r="G82" s="37" t="n">
-        <v>2846</v>
+        <v>2005</v>
       </c>
       <c r="H82" s="37" t="n">
-        <v>2279</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1" s="39">
@@ -2849,7 +2855,7 @@
         </is>
       </c>
       <c r="B83" s="45" t="n">
-        <v>16391</v>
+        <v>16085</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>0</v>
@@ -2863,10 +2869,10 @@
         </is>
       </c>
       <c r="G83" s="37" t="n">
-        <v>12492</v>
+        <v>8888</v>
       </c>
       <c r="H83" s="37" t="n">
-        <v>3899</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1" s="39">
@@ -2876,7 +2882,7 @@
         </is>
       </c>
       <c r="B84" s="45" t="n">
-        <v>49825</v>
+        <v>48971</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>0</v>
@@ -2890,10 +2896,10 @@
         </is>
       </c>
       <c r="G84" s="37" t="n">
-        <v>39963</v>
+        <v>39999</v>
       </c>
       <c r="H84" s="37" t="n">
-        <v>9862</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1" s="39">
@@ -2903,7 +2909,7 @@
         </is>
       </c>
       <c r="B85" s="45" t="n">
-        <v>119968</v>
+        <v>117060</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>0</v>
@@ -2917,10 +2923,10 @@
         </is>
       </c>
       <c r="G85" s="37" t="n">
-        <v>88767</v>
+        <v>94991</v>
       </c>
       <c r="H85" s="37" t="n">
-        <v>31201</v>
+        <v>22069</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1" s="39">
@@ -2930,7 +2936,7 @@
         </is>
       </c>
       <c r="B86" s="45" t="n">
-        <v>328888</v>
+        <v>321000</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>0</v>
@@ -2944,10 +2950,10 @@
         </is>
       </c>
       <c r="G86" s="37" t="n">
-        <v>254995</v>
+        <v>259965</v>
       </c>
       <c r="H86" s="37" t="n">
-        <v>73893</v>
+        <v>61035</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" s="39">
@@ -2957,7 +2963,7 @@
         </is>
       </c>
       <c r="B87" s="46" t="n">
-        <v>4897</v>
+        <v>5049</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>0</v>
@@ -2971,10 +2977,10 @@
         </is>
       </c>
       <c r="G87" s="37" t="n">
-        <v>2197</v>
+        <v>1997</v>
       </c>
       <c r="H87" s="37" t="n">
-        <v>2700</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" s="39">
@@ -2984,7 +2990,7 @@
         </is>
       </c>
       <c r="B88" s="46" t="n">
-        <v>15926</v>
+        <v>16903</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>0</v>
@@ -2998,10 +3004,10 @@
         </is>
       </c>
       <c r="G88" s="37" t="n">
-        <v>13999</v>
+        <v>10975</v>
       </c>
       <c r="H88" s="37" t="n">
-        <v>1927</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1" s="39">
@@ -3011,7 +3017,7 @@
         </is>
       </c>
       <c r="B89" s="46" t="n">
-        <v>55863</v>
+        <v>48859</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>0</v>
@@ -3025,10 +3031,10 @@
         </is>
       </c>
       <c r="G89" s="37" t="n">
-        <v>40496</v>
+        <v>33327</v>
       </c>
       <c r="H89" s="37" t="n">
-        <v>15367</v>
+        <v>15532</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1" s="39">
@@ -3038,7 +3044,7 @@
         </is>
       </c>
       <c r="B90" s="46" t="n">
-        <v>126109</v>
+        <v>126405</v>
       </c>
       <c r="C90" s="12" t="n">
         <v>0</v>
@@ -3052,10 +3058,10 @@
         </is>
       </c>
       <c r="G90" s="37" t="n">
-        <v>89000</v>
+        <v>94986</v>
       </c>
       <c r="H90" s="37" t="n">
-        <v>37109</v>
+        <v>31419</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1" s="39">
@@ -3065,7 +3071,7 @@
         </is>
       </c>
       <c r="B91" s="46" t="n">
-        <v>316660</v>
+        <v>320875</v>
       </c>
       <c r="C91" s="12" t="n">
         <v>0</v>
@@ -3079,10 +3085,10 @@
         </is>
       </c>
       <c r="G91" s="37" t="n">
-        <v>220000</v>
+        <v>247988</v>
       </c>
       <c r="H91" s="37" t="n">
-        <v>96660</v>
+        <v>72887</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1" s="39">
@@ -3092,7 +3098,7 @@
         </is>
       </c>
       <c r="B92" s="45" t="n">
-        <v>2798</v>
+        <v>2988</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>0</v>
@@ -3106,10 +3112,10 @@
         </is>
       </c>
       <c r="G92" s="37" t="n">
-        <v>1685</v>
+        <v>2888</v>
       </c>
       <c r="H92" s="37" t="n">
-        <v>1113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1" s="39">
@@ -3119,7 +3125,7 @@
         </is>
       </c>
       <c r="B93" s="45" t="n">
-        <v>8285</v>
+        <v>7300</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>0</v>
@@ -3133,10 +3139,10 @@
         </is>
       </c>
       <c r="G93" s="37" t="n">
-        <v>5110</v>
+        <v>5492</v>
       </c>
       <c r="H93" s="37" t="n">
-        <v>3175</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1" s="39">
@@ -3146,7 +3152,7 @@
         </is>
       </c>
       <c r="B94" s="45" t="n">
-        <v>24164</v>
+        <v>21719</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>0</v>
@@ -3160,10 +3166,10 @@
         </is>
       </c>
       <c r="G94" s="37" t="n">
-        <v>18740</v>
+        <v>17858</v>
       </c>
       <c r="H94" s="37" t="n">
-        <v>5424</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1" s="39">
@@ -3173,7 +3179,7 @@
         </is>
       </c>
       <c r="B95" s="45" t="n">
-        <v>62975</v>
+        <v>48925</v>
       </c>
       <c r="C95" s="12" t="n">
         <v>0</v>
@@ -3187,10 +3193,10 @@
         </is>
       </c>
       <c r="G95" s="37" t="n">
-        <v>38844</v>
+        <v>41957</v>
       </c>
       <c r="H95" s="37" t="n">
-        <v>24131</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1" s="39">
@@ -3200,7 +3206,7 @@
         </is>
       </c>
       <c r="B96" s="45" t="n">
-        <v>180000</v>
+        <v>193000</v>
       </c>
       <c r="C96" s="12" t="n">
         <v>0</v>
@@ -3214,10 +3220,10 @@
         </is>
       </c>
       <c r="G96" s="37" t="n">
-        <v>150993</v>
+        <v>147758</v>
       </c>
       <c r="H96" s="37" t="n">
-        <v>29007</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1" s="39">
@@ -3227,7 +3233,7 @@
         </is>
       </c>
       <c r="B97" s="46" t="n">
-        <v>2841</v>
+        <v>4152</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>0</v>
@@ -3241,10 +3247,10 @@
         </is>
       </c>
       <c r="G97" s="37" t="n">
-        <v>2212</v>
+        <v>2296</v>
       </c>
       <c r="H97" s="37" t="n">
-        <v>629</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" s="39">
@@ -3254,7 +3260,7 @@
         </is>
       </c>
       <c r="B98" s="46" t="n">
-        <v>7909</v>
+        <v>7763</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>0</v>
@@ -3268,10 +3274,10 @@
         </is>
       </c>
       <c r="G98" s="37" t="n">
-        <v>5965</v>
+        <v>3775</v>
       </c>
       <c r="H98" s="37" t="n">
-        <v>1944</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1" s="39">
@@ -3281,7 +3287,7 @@
         </is>
       </c>
       <c r="B99" s="46" t="n">
-        <v>23015</v>
+        <v>20969</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>0</v>
@@ -3295,10 +3301,10 @@
         </is>
       </c>
       <c r="G99" s="37" t="n">
-        <v>12493</v>
+        <v>16472</v>
       </c>
       <c r="H99" s="37" t="n">
-        <v>10522</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1" s="39">
@@ -3308,7 +3314,7 @@
         </is>
       </c>
       <c r="B100" s="46" t="n">
-        <v>55989</v>
+        <v>49932</v>
       </c>
       <c r="C100" s="12" t="n">
         <v>0</v>
@@ -3322,10 +3328,10 @@
         </is>
       </c>
       <c r="G100" s="37" t="n">
-        <v>36000</v>
+        <v>34995</v>
       </c>
       <c r="H100" s="37" t="n">
-        <v>19989</v>
+        <v>14937</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1" s="39">
@@ -3335,7 +3341,7 @@
         </is>
       </c>
       <c r="B101" s="46" t="n">
-        <v>132974</v>
+        <v>153903</v>
       </c>
       <c r="C101" s="12" t="n">
         <v>0</v>
@@ -3349,10 +3355,10 @@
         </is>
       </c>
       <c r="G101" s="37" t="n">
-        <v>90000</v>
+        <v>98884</v>
       </c>
       <c r="H101" s="37" t="n">
-        <v>42974</v>
+        <v>55019</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1" s="39">
@@ -3362,7 +3368,7 @@
         </is>
       </c>
       <c r="B102" s="42" t="n">
-        <v>2899</v>
+        <v>3383</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>0</v>
@@ -3376,10 +3382,10 @@
         </is>
       </c>
       <c r="G102" s="37" t="n">
-        <v>1551</v>
+        <v>1389</v>
       </c>
       <c r="H102" s="37" t="n">
-        <v>1348</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1" s="39">
@@ -3389,7 +3395,7 @@
         </is>
       </c>
       <c r="B103" s="42" t="n">
-        <v>7386</v>
+        <v>7465</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>0</v>
@@ -3403,10 +3409,10 @@
         </is>
       </c>
       <c r="G103" s="37" t="n">
-        <v>5790</v>
+        <v>3798</v>
       </c>
       <c r="H103" s="37" t="n">
-        <v>1596</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1" s="39">
@@ -3416,7 +3422,7 @@
         </is>
       </c>
       <c r="B104" s="42" t="n">
-        <v>24206</v>
+        <v>20960</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>0</v>
@@ -3430,10 +3436,10 @@
         </is>
       </c>
       <c r="G104" s="37" t="n">
-        <v>14487</v>
+        <v>16956</v>
       </c>
       <c r="H104" s="37" t="n">
-        <v>9719</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1" s="39">
@@ -3443,7 +3449,7 @@
         </is>
       </c>
       <c r="B105" s="42" t="n">
-        <v>59992</v>
+        <v>51951</v>
       </c>
       <c r="C105" s="12" t="n">
         <v>0</v>
@@ -3457,10 +3463,10 @@
         </is>
       </c>
       <c r="G105" s="37" t="n">
-        <v>29995</v>
+        <v>40888</v>
       </c>
       <c r="H105" s="37" t="n">
-        <v>29997</v>
+        <v>11063</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1" s="39">
@@ -3470,7 +3476,7 @@
         </is>
       </c>
       <c r="B106" s="42" t="n">
-        <v>140107</v>
+        <v>137908</v>
       </c>
       <c r="C106" s="12" t="n">
         <v>0</v>
@@ -3484,10 +3490,10 @@
         </is>
       </c>
       <c r="G106" s="37" t="n">
-        <v>97967</v>
+        <v>102445</v>
       </c>
       <c r="H106" s="37" t="n">
-        <v>42140</v>
+        <v>35463</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1" s="39">
@@ -3497,7 +3503,7 @@
         </is>
       </c>
       <c r="B107" s="40" t="n">
-        <v>3142</v>
+        <v>4688</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>0</v>
@@ -3511,10 +3517,10 @@
         </is>
       </c>
       <c r="G107" s="37" t="n">
-        <v>1994</v>
+        <v>2469</v>
       </c>
       <c r="H107" s="37" t="n">
-        <v>1148</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1" s="39">
@@ -3524,7 +3530,7 @@
         </is>
       </c>
       <c r="B108" s="40" t="n">
-        <v>10058</v>
+        <v>7795</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>0</v>
@@ -3538,10 +3544,10 @@
         </is>
       </c>
       <c r="G108" s="37" t="n">
-        <v>5997</v>
+        <v>4776</v>
       </c>
       <c r="H108" s="37" t="n">
-        <v>4061</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1" s="39">
@@ -3551,7 +3557,7 @@
         </is>
       </c>
       <c r="B109" s="40" t="n">
-        <v>44989</v>
+        <v>29698</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>0</v>
@@ -3565,10 +3571,10 @@
         </is>
       </c>
       <c r="G109" s="37" t="n">
-        <v>22222</v>
+        <v>23986</v>
       </c>
       <c r="H109" s="37" t="n">
-        <v>22767</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1" s="39">
@@ -3578,7 +3584,7 @@
         </is>
       </c>
       <c r="B110" s="40" t="n">
-        <v>83389</v>
+        <v>76349</v>
       </c>
       <c r="C110" s="12" t="n">
         <v>0</v>
@@ -3592,10 +3598,10 @@
         </is>
       </c>
       <c r="G110" s="37" t="n">
-        <v>64994</v>
+        <v>53996</v>
       </c>
       <c r="H110" s="37" t="n">
-        <v>18395</v>
+        <v>22353</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1" s="39">
@@ -3605,7 +3611,7 @@
         </is>
       </c>
       <c r="B111" s="40" t="n">
-        <v>83389</v>
+        <v>241700</v>
       </c>
       <c r="C111" s="12" t="n">
         <v>0</v>
@@ -3619,10 +3625,10 @@
         </is>
       </c>
       <c r="G111" s="37" t="n">
-        <v>155968</v>
+        <v>159999</v>
       </c>
       <c r="H111" s="37" t="n">
-        <v>-72579</v>
+        <v>81701</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1" s="39">
@@ -3632,7 +3638,7 @@
         </is>
       </c>
       <c r="B112" s="44" t="n">
-        <v>3999</v>
+        <v>3932</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>0</v>
@@ -3646,10 +3652,10 @@
         </is>
       </c>
       <c r="G112" s="37" t="n">
-        <v>2140</v>
+        <v>2035</v>
       </c>
       <c r="H112" s="37" t="n">
-        <v>1859</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1" s="39">
@@ -3659,7 +3665,7 @@
         </is>
       </c>
       <c r="B113" s="44" t="n">
-        <v>7999</v>
+        <v>7795</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>0</v>
@@ -3673,10 +3679,10 @@
         </is>
       </c>
       <c r="G113" s="37" t="n">
-        <v>6636</v>
+        <v>4492</v>
       </c>
       <c r="H113" s="37" t="n">
-        <v>1363</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1" s="39">
@@ -3686,7 +3692,7 @@
         </is>
       </c>
       <c r="B114" s="44" t="n">
-        <v>37897</v>
+        <v>34637</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>0</v>
@@ -3700,10 +3706,10 @@
         </is>
       </c>
       <c r="G114" s="37" t="n">
-        <v>25553</v>
+        <v>23072</v>
       </c>
       <c r="H114" s="37" t="n">
-        <v>12344</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="115" ht="13.5" customHeight="1" s="39">
@@ -3713,7 +3719,7 @@
         </is>
       </c>
       <c r="B115" s="44" t="n">
-        <v>81777</v>
+        <v>77270</v>
       </c>
       <c r="C115" s="12" t="n">
         <v>0</v>
@@ -3727,10 +3733,10 @@
         </is>
       </c>
       <c r="G115" s="37" t="n">
-        <v>58800</v>
+        <v>53939</v>
       </c>
       <c r="H115" s="37" t="n">
-        <v>22977</v>
+        <v>23331</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1" s="39">
@@ -3740,7 +3746,7 @@
         </is>
       </c>
       <c r="B116" s="44" t="n">
-        <v>210997</v>
+        <v>202218</v>
       </c>
       <c r="C116" s="12" t="n">
         <v>0</v>
@@ -3754,10 +3760,10 @@
         </is>
       </c>
       <c r="G116" s="37" t="n">
-        <v>159000</v>
+        <v>164992</v>
       </c>
       <c r="H116" s="37" t="n">
-        <v>51997</v>
+        <v>37226</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1" s="39">
@@ -3781,10 +3787,10 @@
         </is>
       </c>
       <c r="G117" s="37" t="n">
-        <v>1597</v>
+        <v>2096</v>
       </c>
       <c r="H117" s="37" t="n">
-        <v>1996</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1" s="39">
@@ -3794,7 +3800,7 @@
         </is>
       </c>
       <c r="B118" s="45" t="n">
-        <v>8876</v>
+        <v>8640</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>0</v>
@@ -3808,10 +3814,10 @@
         </is>
       </c>
       <c r="G118" s="37" t="n">
-        <v>6784</v>
+        <v>5385</v>
       </c>
       <c r="H118" s="37" t="n">
-        <v>2092</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1" s="39">
@@ -3821,7 +3827,7 @@
         </is>
       </c>
       <c r="B119" s="45" t="n">
-        <v>30999</v>
+        <v>33804</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>0</v>
@@ -3835,10 +3841,10 @@
         </is>
       </c>
       <c r="G119" s="37" t="n">
-        <v>29975</v>
+        <v>26990</v>
       </c>
       <c r="H119" s="37" t="n">
-        <v>1024</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1" s="39">
@@ -3848,7 +3854,7 @@
         </is>
       </c>
       <c r="B120" s="45" t="n">
-        <v>88078</v>
+        <v>81593</v>
       </c>
       <c r="C120" s="12" t="n">
         <v>0</v>
@@ -3862,10 +3868,10 @@
         </is>
       </c>
       <c r="G120" s="37" t="n">
-        <v>59000</v>
+        <v>65000</v>
       </c>
       <c r="H120" s="37" t="n">
-        <v>29078</v>
+        <v>16593</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1" s="39">
@@ -3875,7 +3881,7 @@
         </is>
       </c>
       <c r="B121" s="45" t="n">
-        <v>208992</v>
+        <v>178947</v>
       </c>
       <c r="C121" s="12" t="n">
         <v>0</v>
@@ -3889,10 +3895,10 @@
         </is>
       </c>
       <c r="G121" s="37" t="n">
-        <v>144996</v>
+        <v>151098</v>
       </c>
       <c r="H121" s="37" t="n">
-        <v>63996</v>
+        <v>27849</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1" s="39">
@@ -3902,7 +3908,7 @@
         </is>
       </c>
       <c r="B122" s="46" t="n">
-        <v>1795</v>
+        <v>1852</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>0</v>
@@ -3916,10 +3922,10 @@
         </is>
       </c>
       <c r="G122" s="37" t="n">
-        <v>884</v>
+        <v>1134</v>
       </c>
       <c r="H122" s="37" t="n">
-        <v>911</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="39">
@@ -3929,7 +3935,7 @@
         </is>
       </c>
       <c r="B123" s="46" t="n">
-        <v>4972</v>
+        <v>5159</v>
       </c>
       <c r="C123" s="4" t="n">
         <v>0</v>
@@ -3943,10 +3949,10 @@
         </is>
       </c>
       <c r="G123" s="37" t="n">
-        <v>3307</v>
+        <v>2693</v>
       </c>
       <c r="H123" s="37" t="n">
-        <v>1665</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="124" ht="13.5" customHeight="1" s="39">
@@ -3956,7 +3962,7 @@
         </is>
       </c>
       <c r="B124" s="46" t="n">
-        <v>17966</v>
+        <v>17700</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>0</v>
@@ -3970,10 +3976,10 @@
         </is>
       </c>
       <c r="G124" s="37" t="n">
-        <v>14500</v>
+        <v>11981</v>
       </c>
       <c r="H124" s="37" t="n">
-        <v>3466</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1" s="39">
@@ -3983,7 +3989,7 @@
         </is>
       </c>
       <c r="B125" s="46" t="n">
-        <v>48774</v>
+        <v>44731</v>
       </c>
       <c r="C125" s="12" t="n">
         <v>0</v>
@@ -3997,10 +4003,10 @@
         </is>
       </c>
       <c r="G125" s="37" t="n">
-        <v>33325</v>
+        <v>37157</v>
       </c>
       <c r="H125" s="37" t="n">
-        <v>15449</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1" s="39">
@@ -4010,7 +4016,7 @@
         </is>
       </c>
       <c r="B126" s="46" t="n">
-        <v>138963</v>
+        <v>129072</v>
       </c>
       <c r="C126" s="12" t="n">
         <v>0</v>
@@ -4024,10 +4030,10 @@
         </is>
       </c>
       <c r="G126" s="37" t="n">
-        <v>97996</v>
+        <v>99000</v>
       </c>
       <c r="H126" s="37" t="n">
-        <v>40967</v>
+        <v>30072</v>
       </c>
     </row>
     <row r="127" ht="13.5" customHeight="1" s="39">
@@ -4037,7 +4043,7 @@
         </is>
       </c>
       <c r="B127" s="42" t="n">
-        <v>1879</v>
+        <v>2327</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>0</v>
@@ -4051,10 +4057,10 @@
         </is>
       </c>
       <c r="G127" s="37" t="n">
-        <v>1035</v>
+        <v>1115</v>
       </c>
       <c r="H127" s="37" t="n">
-        <v>844</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1" s="39">
@@ -4064,7 +4070,7 @@
         </is>
       </c>
       <c r="B128" s="42" t="n">
-        <v>4790</v>
+        <v>4989</v>
       </c>
       <c r="C128" s="4" t="n">
         <v>0</v>
@@ -4078,10 +4084,10 @@
         </is>
       </c>
       <c r="G128" s="37" t="n">
-        <v>1996</v>
+        <v>2917</v>
       </c>
       <c r="H128" s="37" t="n">
-        <v>2794</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="129" ht="13.5" customHeight="1" s="39">
@@ -4091,7 +4097,7 @@
         </is>
       </c>
       <c r="B129" s="42" t="n">
-        <v>19265</v>
+        <v>17370</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>0</v>
@@ -4105,10 +4111,10 @@
         </is>
       </c>
       <c r="G129" s="37" t="n">
-        <v>13893</v>
+        <v>12964</v>
       </c>
       <c r="H129" s="37" t="n">
-        <v>5372</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1" s="39">
@@ -4118,7 +4124,7 @@
         </is>
       </c>
       <c r="B130" s="42" t="n">
-        <v>49297</v>
+        <v>48426</v>
       </c>
       <c r="C130" s="12" t="n">
         <v>0</v>
@@ -4132,10 +4138,10 @@
         </is>
       </c>
       <c r="G130" s="37" t="n">
-        <v>38390</v>
+        <v>39965</v>
       </c>
       <c r="H130" s="37" t="n">
-        <v>10907</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="131" ht="13.5" customHeight="1" s="39">
@@ -4145,7 +4151,7 @@
         </is>
       </c>
       <c r="B131" s="42" t="n">
-        <v>178878</v>
+        <v>159000</v>
       </c>
       <c r="C131" s="12" t="n">
         <v>0</v>
@@ -4159,10 +4165,10 @@
         </is>
       </c>
       <c r="G131" s="37" t="n">
-        <v>143489</v>
+        <v>122999</v>
       </c>
       <c r="H131" s="37" t="n">
-        <v>35389</v>
+        <v>36001</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1" s="39">
@@ -4172,7 +4178,7 @@
         </is>
       </c>
       <c r="B132" s="40" t="n">
-        <v>2134</v>
+        <v>2297</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>0</v>
@@ -4186,10 +4192,10 @@
         </is>
       </c>
       <c r="G132" s="37" t="n">
-        <v>983</v>
+        <v>1159</v>
       </c>
       <c r="H132" s="37" t="n">
-        <v>1151</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1" s="39">
@@ -4199,7 +4205,7 @@
         </is>
       </c>
       <c r="B133" s="40" t="n">
-        <v>4972</v>
+        <v>5483</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>0</v>
@@ -4213,10 +4219,10 @@
         </is>
       </c>
       <c r="G133" s="37" t="n">
-        <v>3144</v>
+        <v>2751</v>
       </c>
       <c r="H133" s="37" t="n">
-        <v>1828</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1" s="39">
@@ -4226,7 +4232,7 @@
         </is>
       </c>
       <c r="B134" s="40" t="n">
-        <v>19475</v>
+        <v>20012</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>0</v>
@@ -4240,10 +4246,10 @@
         </is>
       </c>
       <c r="G134" s="37" t="n">
-        <v>15943</v>
+        <v>13875</v>
       </c>
       <c r="H134" s="37" t="n">
-        <v>3532</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1" s="39">
@@ -4253,7 +4259,7 @@
         </is>
       </c>
       <c r="B135" s="40" t="n">
-        <v>50492</v>
+        <v>50482</v>
       </c>
       <c r="C135" s="12" t="n">
         <v>0</v>
@@ -4267,10 +4273,10 @@
         </is>
       </c>
       <c r="G135" s="37" t="n">
-        <v>41099</v>
+        <v>36991</v>
       </c>
       <c r="H135" s="37" t="n">
-        <v>9393</v>
+        <v>13491</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1" s="39">
@@ -4280,7 +4286,7 @@
         </is>
       </c>
       <c r="B136" s="40" t="n">
-        <v>133763</v>
+        <v>132959</v>
       </c>
       <c r="C136" s="12" t="n">
         <v>0</v>
@@ -4294,10 +4300,10 @@
         </is>
       </c>
       <c r="G136" s="37" t="n">
-        <v>99995</v>
+        <v>96300</v>
       </c>
       <c r="H136" s="37" t="n">
-        <v>33768</v>
+        <v>36659</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1" s="39">
@@ -4307,7 +4313,7 @@
         </is>
       </c>
       <c r="B137" s="44" t="n">
-        <v>9760</v>
+        <v>9087</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>0</v>
@@ -4321,10 +4327,10 @@
         </is>
       </c>
       <c r="G137" s="37" t="n">
-        <v>5000</v>
+        <v>4569</v>
       </c>
       <c r="H137" s="37" t="n">
-        <v>4760</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1" s="39">
@@ -4334,7 +4340,7 @@
         </is>
       </c>
       <c r="B138" s="44" t="n">
-        <v>21193</v>
+        <v>22972</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>0</v>
@@ -4348,10 +4354,10 @@
         </is>
       </c>
       <c r="G138" s="37" t="n">
-        <v>17991</v>
+        <v>14976</v>
       </c>
       <c r="H138" s="37" t="n">
-        <v>3202</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="139" ht="13.5" customHeight="1" s="39">
@@ -4361,7 +4367,7 @@
         </is>
       </c>
       <c r="B139" s="44" t="n">
-        <v>79522</v>
+        <v>73242</v>
       </c>
       <c r="C139" s="4" t="n">
         <v>0</v>
@@ -4375,10 +4381,10 @@
         </is>
       </c>
       <c r="G139" s="37" t="n">
-        <v>58884</v>
+        <v>56999</v>
       </c>
       <c r="H139" s="37" t="n">
-        <v>20638</v>
+        <v>16243</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1" s="39">
@@ -4388,7 +4394,7 @@
         </is>
       </c>
       <c r="B140" s="44" t="n">
-        <v>199979</v>
+        <v>197975</v>
       </c>
       <c r="C140" s="12" t="n">
         <v>0</v>
@@ -4402,10 +4408,10 @@
         </is>
       </c>
       <c r="G140" s="37" t="n">
-        <v>167000</v>
+        <v>170998</v>
       </c>
       <c r="H140" s="37" t="n">
-        <v>32979</v>
+        <v>26977</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1" s="39">
@@ -4415,7 +4421,7 @@
         </is>
       </c>
       <c r="B141" s="44" t="n">
-        <v>606660</v>
+        <v>609898</v>
       </c>
       <c r="C141" s="12" t="n">
         <v>0</v>
@@ -4429,10 +4435,10 @@
         </is>
       </c>
       <c r="G141" s="37" t="n">
-        <v>499988</v>
+        <v>510000</v>
       </c>
       <c r="H141" s="37" t="n">
-        <v>106672</v>
+        <v>99898</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1" s="39">
@@ -4442,7 +4448,7 @@
         </is>
       </c>
       <c r="B142" s="45" t="n">
-        <v>7800</v>
+        <v>9388</v>
       </c>
       <c r="C142" s="4" t="n">
         <v>0</v>
@@ -4456,10 +4462,10 @@
         </is>
       </c>
       <c r="G142" s="37" t="n">
-        <v>5987</v>
+        <v>4658</v>
       </c>
       <c r="H142" s="37" t="n">
-        <v>1813</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="143" ht="13.5" customHeight="1" s="39">
@@ -4469,7 +4475,7 @@
         </is>
       </c>
       <c r="B143" s="45" t="n">
-        <v>21972</v>
+        <v>20999</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>0</v>
@@ -4483,10 +4489,10 @@
         </is>
       </c>
       <c r="G143" s="37" t="n">
-        <v>12726</v>
+        <v>14986</v>
       </c>
       <c r="H143" s="37" t="n">
-        <v>9246</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1" s="39">
@@ -4496,7 +4502,7 @@
         </is>
       </c>
       <c r="B144" s="45" t="n">
-        <v>78998</v>
+        <v>72970</v>
       </c>
       <c r="C144" s="4" t="n">
         <v>0</v>
@@ -4510,10 +4516,10 @@
         </is>
       </c>
       <c r="G144" s="37" t="n">
-        <v>58855</v>
+        <v>58209</v>
       </c>
       <c r="H144" s="37" t="n">
-        <v>20143</v>
+        <v>14761</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1" s="39">
@@ -4523,7 +4529,7 @@
         </is>
       </c>
       <c r="B145" s="45" t="n">
-        <v>219979</v>
+        <v>195178</v>
       </c>
       <c r="C145" s="12" t="n">
         <v>0</v>
@@ -4537,10 +4543,10 @@
         </is>
       </c>
       <c r="G145" s="37" t="n">
-        <v>174986</v>
+        <v>175000</v>
       </c>
       <c r="H145" s="37" t="n">
-        <v>44993</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="146" ht="13.5" customHeight="1" s="39">
@@ -4550,7 +4556,7 @@
         </is>
       </c>
       <c r="B146" s="45" t="n">
-        <v>672945</v>
+        <v>659945</v>
       </c>
       <c r="C146" s="12" t="n">
         <v>0</v>
@@ -4564,10 +4570,10 @@
         </is>
       </c>
       <c r="G146" s="37" t="n">
-        <v>510000</v>
+        <v>499997</v>
       </c>
       <c r="H146" s="37" t="n">
-        <v>162945</v>
+        <v>159948</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1" s="39">
@@ -4577,7 +4583,7 @@
         </is>
       </c>
       <c r="B147" s="46" t="n">
-        <v>7099</v>
+        <v>7152</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>0</v>
@@ -4591,10 +4597,10 @@
         </is>
       </c>
       <c r="G147" s="37" t="n">
-        <v>4484</v>
+        <v>3699</v>
       </c>
       <c r="H147" s="37" t="n">
-        <v>2615</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="148" ht="13.5" customHeight="1" s="39">
@@ -4604,7 +4610,7 @@
         </is>
       </c>
       <c r="B148" s="46" t="n">
-        <v>18969</v>
+        <v>19479</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>0</v>
@@ -4618,10 +4624,10 @@
         </is>
       </c>
       <c r="G148" s="37" t="n">
-        <v>13985</v>
+        <v>10975</v>
       </c>
       <c r="H148" s="37" t="n">
-        <v>4984</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="149" ht="13.5" customHeight="1" s="39">
@@ -4631,7 +4637,7 @@
         </is>
       </c>
       <c r="B149" s="46" t="n">
-        <v>62361</v>
+        <v>65697</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>0</v>
@@ -4645,10 +4651,10 @@
         </is>
       </c>
       <c r="G149" s="37" t="n">
-        <v>44999</v>
+        <v>44799</v>
       </c>
       <c r="H149" s="37" t="n">
-        <v>17362</v>
+        <v>20898</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1" s="39">
@@ -4658,7 +4664,7 @@
         </is>
       </c>
       <c r="B150" s="46" t="n">
-        <v>201992</v>
+        <v>195881</v>
       </c>
       <c r="C150" s="12" t="n">
         <v>0</v>
@@ -4672,10 +4678,10 @@
         </is>
       </c>
       <c r="G150" s="37" t="n">
-        <v>159996</v>
+        <v>164999</v>
       </c>
       <c r="H150" s="37" t="n">
-        <v>41996</v>
+        <v>30882</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1" s="39">
@@ -4685,7 +4691,7 @@
         </is>
       </c>
       <c r="B151" s="46" t="n">
-        <v>631894</v>
+        <v>624966</v>
       </c>
       <c r="C151" s="12" t="n">
         <v>0</v>
@@ -4699,10 +4705,10 @@
         </is>
       </c>
       <c r="G151" s="37" t="n">
-        <v>549996</v>
+        <v>524999</v>
       </c>
       <c r="H151" s="37" t="n">
-        <v>81898</v>
+        <v>99967</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1" s="39">
@@ -4712,7 +4718,7 @@
         </is>
       </c>
       <c r="B152" s="42" t="n">
-        <v>13487</v>
+        <v>0</v>
       </c>
       <c r="C152" s="4" t="n">
         <v>0</v>
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="37" t="n">
-        <v>13487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" ht="13.5" customHeight="1" s="39">
@@ -4739,7 +4745,7 @@
         </is>
       </c>
       <c r="B153" s="42" t="n">
-        <v>27951</v>
+        <v>0</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>0</v>
@@ -4756,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="37" t="n">
-        <v>27951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1" s="39">
@@ -4766,7 +4772,7 @@
         </is>
       </c>
       <c r="B154" s="42" t="n">
-        <v>95996</v>
+        <v>0</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>0</v>
@@ -4783,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="37" t="n">
-        <v>95996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1" s="39">
@@ -4793,7 +4799,7 @@
         </is>
       </c>
       <c r="B155" s="42" t="n">
-        <v>257661</v>
+        <v>0</v>
       </c>
       <c r="C155" s="12" t="n">
         <v>0</v>
@@ -4810,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="37" t="n">
-        <v>257661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" ht="13.5" customHeight="1" s="39">
@@ -4820,7 +4826,7 @@
         </is>
       </c>
       <c r="B156" s="42" t="n">
-        <v>788884</v>
+        <v>0</v>
       </c>
       <c r="C156" s="12" t="n">
         <v>0</v>
@@ -4837,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="37" t="n">
-        <v>788884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" ht="13.5" customHeight="1" s="39">
@@ -4846,7 +4852,7 @@
           <t>тяжелый арбалет (знаток)</t>
         </is>
       </c>
-      <c r="B157" s="40" t="n">
+      <c r="B157" s="55" t="n">
         <v>13920</v>
       </c>
       <c r="C157" s="4" t="n">
@@ -4873,7 +4879,7 @@
           <t>тяжелый арбалет (эксперт)</t>
         </is>
       </c>
-      <c r="B158" s="40" t="n">
+      <c r="B158" s="55" t="n">
         <v>29087</v>
       </c>
       <c r="C158" s="4" t="n">
@@ -4900,7 +4906,7 @@
           <t>тяжелый арбалет (мастер)</t>
         </is>
       </c>
-      <c r="B159" s="40" t="n">
+      <c r="B159" s="55" t="n">
         <v>96954</v>
       </c>
       <c r="C159" s="4" t="n">
@@ -4927,7 +4933,7 @@
           <t>тяжелый арбалет (магистр)</t>
         </is>
       </c>
-      <c r="B160" s="40" t="n">
+      <c r="B160" s="55" t="n">
         <v>244992</v>
       </c>
       <c r="C160" s="12" t="n">
@@ -4954,7 +4960,7 @@
           <t>тяжелый арбалет (старейшина)</t>
         </is>
       </c>
-      <c r="B161" s="40" t="n">
+      <c r="B161" s="55" t="n">
         <v>876998</v>
       </c>
       <c r="C161" s="12" t="n">
@@ -4982,7 +4988,7 @@
         </is>
       </c>
       <c r="B162" s="44" t="n">
-        <v>9499</v>
+        <v>9972</v>
       </c>
       <c r="C162" s="4" t="n">
         <v>0</v>
@@ -4996,10 +5002,10 @@
         </is>
       </c>
       <c r="G162" s="37" t="n">
-        <v>5495</v>
+        <v>4977</v>
       </c>
       <c r="H162" s="37" t="n">
-        <v>4004</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="163" ht="13.5" customHeight="1" s="39">
@@ -5009,7 +5015,7 @@
         </is>
       </c>
       <c r="B163" s="44" t="n">
-        <v>27400</v>
+        <v>27334</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>0</v>
@@ -5023,10 +5029,10 @@
         </is>
       </c>
       <c r="G163" s="37" t="n">
-        <v>27329</v>
+        <v>17999</v>
       </c>
       <c r="H163" s="37" t="n">
-        <v>71</v>
+        <v>9335</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1" s="39">
@@ -5036,7 +5042,7 @@
         </is>
       </c>
       <c r="B164" s="44" t="n">
-        <v>62688</v>
+        <v>72804</v>
       </c>
       <c r="C164" s="4" t="n">
         <v>0</v>
@@ -5050,10 +5056,10 @@
         </is>
       </c>
       <c r="G164" s="37" t="n">
-        <v>45000</v>
+        <v>89999</v>
       </c>
       <c r="H164" s="37" t="n">
-        <v>17688</v>
+        <v>-17195</v>
       </c>
     </row>
     <row r="165" ht="13.5" customHeight="1" s="39">
@@ -5063,7 +5069,7 @@
         </is>
       </c>
       <c r="B165" s="44" t="n">
-        <v>175549</v>
+        <v>174994</v>
       </c>
       <c r="C165" s="12" t="n">
         <v>0</v>
@@ -5077,10 +5083,10 @@
         </is>
       </c>
       <c r="G165" s="37" t="n">
-        <v>124995</v>
+        <v>0</v>
       </c>
       <c r="H165" s="37" t="n">
-        <v>50554</v>
+        <v>174994</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1" s="39">
@@ -5090,7 +5096,7 @@
         </is>
       </c>
       <c r="B166" s="44" t="n">
-        <v>504998</v>
+        <v>496680</v>
       </c>
       <c r="C166" s="12" t="n">
         <v>0</v>
@@ -5104,10 +5110,10 @@
         </is>
       </c>
       <c r="G166" s="37" t="n">
-        <v>410000</v>
+        <v>0</v>
       </c>
       <c r="H166" s="37" t="n">
-        <v>94998</v>
+        <v>496680</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1" s="39">
@@ -5117,7 +5123,7 @@
         </is>
       </c>
       <c r="B167" s="45" t="n">
-        <v>4973</v>
+        <v>5459</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>0</v>
@@ -5131,10 +5137,10 @@
         </is>
       </c>
       <c r="G167" s="37" t="n">
-        <v>3135</v>
+        <v>3189</v>
       </c>
       <c r="H167" s="37" t="n">
-        <v>1838</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="168" ht="13.5" customHeight="1" s="39">
@@ -5144,7 +5150,7 @@
         </is>
       </c>
       <c r="B168" s="45" t="n">
-        <v>13976</v>
+        <v>14796</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>0</v>
@@ -5158,10 +5164,10 @@
         </is>
       </c>
       <c r="G168" s="37" t="n">
-        <v>11995</v>
+        <v>10940</v>
       </c>
       <c r="H168" s="37" t="n">
-        <v>1981</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1" s="39">
@@ -5171,7 +5177,7 @@
         </is>
       </c>
       <c r="B169" s="45" t="n">
-        <v>40000</v>
+        <v>40386</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>0</v>
@@ -5185,10 +5191,10 @@
         </is>
       </c>
       <c r="G169" s="37" t="n">
-        <v>40500</v>
+        <v>37034</v>
       </c>
       <c r="H169" s="37" t="n">
-        <v>-500</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="170" ht="13.5" customHeight="1" s="39">
@@ -5198,7 +5204,7 @@
         </is>
       </c>
       <c r="B170" s="45" t="n">
-        <v>159749</v>
+        <v>157268</v>
       </c>
       <c r="C170" s="12" t="n">
         <v>0</v>
@@ -5212,10 +5218,10 @@
         </is>
       </c>
       <c r="G170" s="37" t="n">
-        <v>144969</v>
+        <v>127999</v>
       </c>
       <c r="H170" s="37" t="n">
-        <v>14780</v>
+        <v>29269</v>
       </c>
     </row>
     <row r="171" ht="13.5" customHeight="1" s="39">
@@ -5225,7 +5231,7 @@
         </is>
       </c>
       <c r="B171" s="45" t="n">
-        <v>544436</v>
+        <v>575551</v>
       </c>
       <c r="C171" s="12" t="n">
         <v>0</v>
@@ -5239,10 +5245,10 @@
         </is>
       </c>
       <c r="G171" s="37" t="n">
-        <v>472991</v>
+        <v>529984</v>
       </c>
       <c r="H171" s="37" t="n">
-        <v>71445</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1" s="39">
@@ -5252,7 +5258,7 @@
         </is>
       </c>
       <c r="B172" s="46" t="n">
-        <v>9573</v>
+        <v>10295</v>
       </c>
       <c r="C172" s="4" t="n">
         <v>0</v>
@@ -5266,10 +5272,10 @@
         </is>
       </c>
       <c r="G172" s="37" t="n">
-        <v>4948</v>
+        <v>3789</v>
       </c>
       <c r="H172" s="37" t="n">
-        <v>4625</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="173" ht="13.5" customHeight="1" s="39">
@@ -5279,7 +5285,7 @@
         </is>
       </c>
       <c r="B173" s="46" t="n">
-        <v>20893</v>
+        <v>23830</v>
       </c>
       <c r="C173" s="4" t="n">
         <v>0</v>
@@ -5293,10 +5299,10 @@
         </is>
       </c>
       <c r="G173" s="37" t="n">
-        <v>17145</v>
+        <v>16515</v>
       </c>
       <c r="H173" s="37" t="n">
-        <v>3748</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="174" ht="13.5" customHeight="1" s="39">
@@ -5306,7 +5312,7 @@
         </is>
       </c>
       <c r="B174" s="46" t="n">
-        <v>67330</v>
+        <v>61979</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>0</v>
@@ -5320,10 +5326,10 @@
         </is>
       </c>
       <c r="G174" s="37" t="n">
-        <v>49000</v>
+        <v>50987</v>
       </c>
       <c r="H174" s="37" t="n">
-        <v>18330</v>
+        <v>10992</v>
       </c>
     </row>
     <row r="175" ht="13.5" customHeight="1" s="39">
@@ -5333,7 +5339,7 @@
         </is>
       </c>
       <c r="B175" s="46" t="n">
-        <v>212427</v>
+        <v>193424</v>
       </c>
       <c r="C175" s="12" t="n">
         <v>0</v>
@@ -5347,10 +5353,10 @@
         </is>
       </c>
       <c r="G175" s="37" t="n">
-        <v>140000</v>
+        <v>160999</v>
       </c>
       <c r="H175" s="37" t="n">
-        <v>72427</v>
+        <v>32425</v>
       </c>
     </row>
     <row r="176" ht="13.5" customHeight="1" s="39">
@@ -5360,7 +5366,7 @@
         </is>
       </c>
       <c r="B176" s="46" t="n">
-        <v>638888</v>
+        <v>611499</v>
       </c>
       <c r="C176" s="12" t="n">
         <v>0</v>
@@ -5374,10 +5380,10 @@
         </is>
       </c>
       <c r="G176" s="37" t="n">
-        <v>475000</v>
+        <v>515555</v>
       </c>
       <c r="H176" s="37" t="n">
-        <v>163888</v>
+        <v>95944</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1" s="39">
@@ -5387,7 +5393,7 @@
         </is>
       </c>
       <c r="B177" s="42" t="n">
-        <v>8980</v>
+        <v>9768</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>0</v>
@@ -5401,10 +5407,10 @@
         </is>
       </c>
       <c r="G177" s="37" t="n">
-        <v>5110</v>
+        <v>5700</v>
       </c>
       <c r="H177" s="37" t="n">
-        <v>3870</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="178" ht="13.5" customHeight="1" s="39">
@@ -5414,7 +5420,7 @@
         </is>
       </c>
       <c r="B178" s="42" t="n">
-        <v>21094</v>
+        <v>22964</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>0</v>
@@ -5428,10 +5434,10 @@
         </is>
       </c>
       <c r="G178" s="37" t="n">
-        <v>17650</v>
+        <v>14988</v>
       </c>
       <c r="H178" s="37" t="n">
-        <v>3444</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="179" ht="13.5" customHeight="1" s="39">
@@ -5441,7 +5447,7 @@
         </is>
       </c>
       <c r="B179" s="42" t="n">
-        <v>60996</v>
+        <v>55300</v>
       </c>
       <c r="C179" s="4" t="n">
         <v>0</v>
@@ -5455,10 +5461,10 @@
         </is>
       </c>
       <c r="G179" s="37" t="n">
-        <v>30000</v>
+        <v>47540</v>
       </c>
       <c r="H179" s="37" t="n">
-        <v>30996</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1" s="39">
@@ -5468,7 +5474,7 @@
         </is>
       </c>
       <c r="B180" s="42" t="n">
-        <v>220949</v>
+        <v>201989</v>
       </c>
       <c r="C180" s="12" t="n">
         <v>0</v>
@@ -5482,10 +5488,10 @@
         </is>
       </c>
       <c r="G180" s="37" t="n">
-        <v>139998</v>
+        <v>177744</v>
       </c>
       <c r="H180" s="37" t="n">
-        <v>80951</v>
+        <v>24245</v>
       </c>
     </row>
     <row r="181" ht="13.5" customHeight="1" s="39">
@@ -5495,7 +5501,7 @@
         </is>
       </c>
       <c r="B181" s="42" t="n">
-        <v>581682</v>
+        <v>866665</v>
       </c>
       <c r="C181" s="12" t="n">
         <v>0</v>
@@ -5509,10 +5515,10 @@
         </is>
       </c>
       <c r="G181" s="37" t="n">
-        <v>440000</v>
+        <v>475995</v>
       </c>
       <c r="H181" s="37" t="n">
-        <v>141682</v>
+        <v>390670</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1" s="39">
@@ -5522,7 +5528,7 @@
         </is>
       </c>
       <c r="B182" s="47" t="n">
-        <v>8371</v>
+        <v>8977</v>
       </c>
       <c r="C182" s="4" t="n">
         <v>0</v>
@@ -5536,10 +5542,10 @@
         </is>
       </c>
       <c r="G182" s="37" t="n">
-        <v>5094</v>
+        <v>3895</v>
       </c>
       <c r="H182" s="37" t="n">
-        <v>3277</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1" s="39">
@@ -5549,7 +5555,7 @@
         </is>
       </c>
       <c r="B183" s="47" t="n">
-        <v>24946</v>
+        <v>20873</v>
       </c>
       <c r="C183" s="4" t="n">
         <v>0</v>
@@ -5563,10 +5569,10 @@
         </is>
       </c>
       <c r="G183" s="37" t="n">
-        <v>13900</v>
+        <v>15984</v>
       </c>
       <c r="H183" s="37" t="n">
-        <v>11046</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1" s="39">
@@ -5576,7 +5582,7 @@
         </is>
       </c>
       <c r="B184" s="47" t="n">
-        <v>7211</v>
+        <v>65965</v>
       </c>
       <c r="C184" s="4" t="n">
         <v>0</v>
@@ -5590,10 +5596,10 @@
         </is>
       </c>
       <c r="G184" s="37" t="n">
-        <v>48772</v>
+        <v>50853</v>
       </c>
       <c r="H184" s="37" t="n">
-        <v>-41561</v>
+        <v>15112</v>
       </c>
     </row>
     <row r="185" ht="12.75" customHeight="1" s="39">
@@ -5603,7 +5609,7 @@
         </is>
       </c>
       <c r="B185" s="47" t="n">
-        <v>72411</v>
+        <v>194991</v>
       </c>
       <c r="C185" s="12" t="n">
         <v>0</v>
@@ -5617,10 +5623,10 @@
         </is>
       </c>
       <c r="G185" s="37" t="n">
-        <v>159988</v>
+        <v>160546</v>
       </c>
       <c r="H185" s="37" t="n">
-        <v>-87577</v>
+        <v>34445</v>
       </c>
     </row>
     <row r="186" ht="12.75" customHeight="1" s="39">
@@ -5630,7 +5636,7 @@
         </is>
       </c>
       <c r="B186" s="47" t="n">
-        <v>197969</v>
+        <v>538868</v>
       </c>
       <c r="C186" s="12" t="n">
         <v>0</v>
@@ -5644,10 +5650,10 @@
         </is>
       </c>
       <c r="G186" s="37" t="n">
-        <v>479998</v>
+        <v>440900</v>
       </c>
       <c r="H186" s="37" t="n">
-        <v>-282029</v>
+        <v>97968</v>
       </c>
     </row>
     <row r="187" ht="12.75" customHeight="1" s="39">
@@ -5657,7 +5663,7 @@
         </is>
       </c>
       <c r="B187" s="48" t="n">
-        <v>12447</v>
+        <v>12319</v>
       </c>
       <c r="C187" s="4" t="n">
         <v>0</v>
@@ -5671,10 +5677,10 @@
         </is>
       </c>
       <c r="G187" s="37" t="n">
-        <v>7172</v>
+        <v>8378</v>
       </c>
       <c r="H187" s="37" t="n">
-        <v>5275</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="188" ht="12.75" customHeight="1" s="39">
@@ -5684,7 +5690,7 @@
         </is>
       </c>
       <c r="B188" s="48" t="n">
-        <v>26983</v>
+        <v>26699</v>
       </c>
       <c r="C188" s="4" t="n">
         <v>0</v>
@@ -5698,10 +5704,10 @@
         </is>
       </c>
       <c r="G188" s="37" t="n">
-        <v>21500</v>
+        <v>18950</v>
       </c>
       <c r="H188" s="37" t="n">
-        <v>5483</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="189" ht="12.75" customHeight="1" s="39">
@@ -5711,7 +5717,7 @@
         </is>
       </c>
       <c r="B189" s="48" t="n">
-        <v>101987</v>
+        <v>85098</v>
       </c>
       <c r="C189" s="4" t="n">
         <v>0</v>
@@ -5725,10 +5731,10 @@
         </is>
       </c>
       <c r="G189" s="37" t="n">
-        <v>62999</v>
+        <v>77469</v>
       </c>
       <c r="H189" s="37" t="n">
-        <v>38988</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1" s="39">
@@ -5738,7 +5744,7 @@
         </is>
       </c>
       <c r="B190" s="48" t="n">
-        <v>258982</v>
+        <v>239962</v>
       </c>
       <c r="C190" s="12" t="n">
         <v>0</v>
@@ -5752,10 +5758,10 @@
         </is>
       </c>
       <c r="G190" s="37" t="n">
-        <v>199000</v>
+        <v>209940</v>
       </c>
       <c r="H190" s="37" t="n">
-        <v>59982</v>
+        <v>30022</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1" s="39">
@@ -5765,7 +5771,7 @@
         </is>
       </c>
       <c r="B191" s="48" t="n">
-        <v>767895</v>
+        <v>746662</v>
       </c>
       <c r="C191" s="12" t="n">
         <v>0</v>
@@ -5779,10 +5785,10 @@
         </is>
       </c>
       <c r="G191" s="37" t="n">
-        <v>600000</v>
+        <v>614993</v>
       </c>
       <c r="H191" s="37" t="n">
-        <v>167895</v>
+        <v>131669</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1" s="39">
@@ -5792,7 +5798,7 @@
         </is>
       </c>
       <c r="B192" s="49" t="n">
-        <v>14768</v>
+        <v>15115</v>
       </c>
       <c r="C192" s="4" t="n">
         <v>0</v>
@@ -5806,10 +5812,10 @@
         </is>
       </c>
       <c r="G192" s="37" t="n">
-        <v>8418</v>
+        <v>5667</v>
       </c>
       <c r="H192" s="37" t="n">
-        <v>6350</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="193" ht="12.75" customHeight="1" s="39">
@@ -5819,7 +5825,7 @@
         </is>
       </c>
       <c r="B193" s="49" t="n">
-        <v>31996</v>
+        <v>28786</v>
       </c>
       <c r="C193" s="4" t="n">
         <v>0</v>
@@ -5833,10 +5839,10 @@
         </is>
       </c>
       <c r="G193" s="37" t="n">
-        <v>20992</v>
+        <v>19000</v>
       </c>
       <c r="H193" s="37" t="n">
-        <v>11004</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1" s="39">
@@ -5846,7 +5852,7 @@
         </is>
       </c>
       <c r="B194" s="49" t="n">
-        <v>111689</v>
+        <v>93800</v>
       </c>
       <c r="C194" s="4" t="n">
         <v>0</v>
@@ -5860,10 +5866,10 @@
         </is>
       </c>
       <c r="G194" s="37" t="n">
-        <v>70990</v>
+        <v>78839</v>
       </c>
       <c r="H194" s="37" t="n">
-        <v>40699</v>
+        <v>14961</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1" s="39">
@@ -5873,7 +5879,7 @@
         </is>
       </c>
       <c r="B195" s="49" t="n">
-        <v>284960</v>
+        <v>249978</v>
       </c>
       <c r="C195" s="12" t="n">
         <v>0</v>
@@ -5887,10 +5893,10 @@
         </is>
       </c>
       <c r="G195" s="37" t="n">
-        <v>203999</v>
+        <v>219990</v>
       </c>
       <c r="H195" s="37" t="n">
-        <v>80961</v>
+        <v>29988</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1" s="39">
@@ -5900,7 +5906,7 @@
         </is>
       </c>
       <c r="B196" s="49" t="n">
-        <v>727777</v>
+        <v>668997</v>
       </c>
       <c r="C196" s="12" t="n">
         <v>0</v>
@@ -5914,10 +5920,10 @@
         </is>
       </c>
       <c r="G196" s="37" t="n">
-        <v>559989</v>
+        <v>591979</v>
       </c>
       <c r="H196" s="37" t="n">
-        <v>167788</v>
+        <v>77018</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1" s="39">
@@ -5927,7 +5933,7 @@
         </is>
       </c>
       <c r="B197" s="50" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="C197" s="4" t="n">
         <v>0</v>
@@ -5944,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="37" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" ht="12.75" customHeight="1" s="39">
@@ -5954,7 +5960,7 @@
         </is>
       </c>
       <c r="B198" s="50" t="n">
-        <v>18993</v>
+        <v>0</v>
       </c>
       <c r="C198" s="4" t="n">
         <v>0</v>
@@ -5971,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="37" t="n">
-        <v>18993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1" s="39">
@@ -5981,7 +5987,7 @@
         </is>
       </c>
       <c r="B199" s="50" t="n">
-        <v>87776</v>
+        <v>0</v>
       </c>
       <c r="C199" s="4" t="n">
         <v>0</v>
@@ -5998,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="37" t="n">
-        <v>87776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" ht="12.75" customHeight="1" s="39">
@@ -6008,7 +6014,7 @@
         </is>
       </c>
       <c r="B200" s="50" t="n">
-        <v>156987</v>
+        <v>0</v>
       </c>
       <c r="C200" s="10" t="n">
         <v>0</v>
@@ -6025,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="37" t="n">
-        <v>156987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" ht="12.75" customHeight="1" s="39">
@@ -6035,7 +6041,7 @@
         </is>
       </c>
       <c r="B201" s="50" t="n">
-        <v>534444</v>
+        <v>0</v>
       </c>
       <c r="C201" s="10" t="n">
         <v>0</v>
@@ -6052,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="37" t="n">
-        <v>534444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" ht="12.75" customHeight="1" s="39">
@@ -6061,7 +6067,7 @@
           <t>чекан (знаток)</t>
         </is>
       </c>
-      <c r="B202" s="51" t="n">
+      <c r="B202" s="56" t="n">
         <v>15579</v>
       </c>
       <c r="C202" s="4" t="n">
@@ -6088,7 +6094,7 @@
           <t>чекан (эксперт)</t>
         </is>
       </c>
-      <c r="B203" s="51" t="n">
+      <c r="B203" s="56" t="n">
         <v>31088</v>
       </c>
       <c r="C203" s="4" t="n">
@@ -6115,7 +6121,7 @@
           <t>чекан (мастер)</t>
         </is>
       </c>
-      <c r="B204" s="51" t="n">
+      <c r="B204" s="56" t="n">
         <v>126976</v>
       </c>
       <c r="C204" s="4" t="n">
@@ -6142,7 +6148,7 @@
           <t>чекан (магистр)</t>
         </is>
       </c>
-      <c r="B205" s="51" t="n">
+      <c r="B205" s="56" t="n">
         <v>239983</v>
       </c>
       <c r="C205" s="12" t="n">
@@ -6169,7 +6175,7 @@
           <t>чекан (старейшина)</t>
         </is>
       </c>
-      <c r="B206" s="51" t="n">
+      <c r="B206" s="56" t="n">
         <v>646666</v>
       </c>
       <c r="C206" s="12" t="n">
@@ -6197,7 +6203,7 @@
         </is>
       </c>
       <c r="B207" s="47" t="n">
-        <v>14959</v>
+        <v>14880</v>
       </c>
       <c r="C207" s="4" t="n">
         <v>0</v>
@@ -6211,10 +6217,10 @@
         </is>
       </c>
       <c r="G207" s="37" t="n">
-        <v>7914</v>
+        <v>8453</v>
       </c>
       <c r="H207" s="37" t="n">
-        <v>7045</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1" s="39">
@@ -6224,7 +6230,7 @@
         </is>
       </c>
       <c r="B208" s="47" t="n">
-        <v>27969</v>
+        <v>27937</v>
       </c>
       <c r="C208" s="4" t="n">
         <v>0</v>
@@ -6238,10 +6244,10 @@
         </is>
       </c>
       <c r="G208" s="37" t="n">
-        <v>20961</v>
+        <v>18809</v>
       </c>
       <c r="H208" s="37" t="n">
-        <v>7008</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="209" ht="12.75" customHeight="1" s="39">
@@ -6251,7 +6257,7 @@
         </is>
       </c>
       <c r="B209" s="47" t="n">
-        <v>143413</v>
+        <v>99986</v>
       </c>
       <c r="C209" s="4" t="n">
         <v>0</v>
@@ -6265,10 +6271,10 @@
         </is>
       </c>
       <c r="G209" s="37" t="n">
-        <v>104995</v>
+        <v>74996</v>
       </c>
       <c r="H209" s="37" t="n">
-        <v>38418</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="210" ht="12.75" customHeight="1" s="39">
@@ -6278,7 +6284,7 @@
         </is>
       </c>
       <c r="B210" s="47" t="n">
-        <v>299999</v>
+        <v>250964</v>
       </c>
       <c r="C210" s="12" t="n">
         <v>0</v>
@@ -6292,10 +6298,10 @@
         </is>
       </c>
       <c r="G210" s="37" t="n">
-        <v>229911</v>
+        <v>223925</v>
       </c>
       <c r="H210" s="37" t="n">
-        <v>70088</v>
+        <v>27039</v>
       </c>
     </row>
     <row r="211" ht="12.75" customHeight="1" s="39">
@@ -6305,7 +6311,7 @@
         </is>
       </c>
       <c r="B211" s="47" t="n">
-        <v>753988</v>
+        <v>778000</v>
       </c>
       <c r="C211" s="12" t="n">
         <v>0</v>
@@ -6319,10 +6325,10 @@
         </is>
       </c>
       <c r="G211" s="37" t="n">
-        <v>634999</v>
+        <v>639998</v>
       </c>
       <c r="H211" s="37" t="n">
-        <v>118989</v>
+        <v>138002</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1" s="39">
@@ -6332,7 +6338,7 @@
         </is>
       </c>
       <c r="B212" s="48" t="n">
-        <v>13309</v>
+        <v>13770</v>
       </c>
       <c r="C212" s="4" t="n">
         <v>0</v>
@@ -6346,10 +6352,10 @@
         </is>
       </c>
       <c r="G212" s="37" t="n">
-        <v>6000</v>
+        <v>8948</v>
       </c>
       <c r="H212" s="37" t="n">
-        <v>7309</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="213" ht="12.75" customHeight="1" s="39">
@@ -6359,7 +6365,7 @@
         </is>
       </c>
       <c r="B213" s="48" t="n">
-        <v>43979</v>
+        <v>38958</v>
       </c>
       <c r="C213" s="4" t="n">
         <v>0</v>
@@ -6373,10 +6379,10 @@
         </is>
       </c>
       <c r="G213" s="37" t="n">
-        <v>30742</v>
+        <v>31995</v>
       </c>
       <c r="H213" s="37" t="n">
-        <v>13237</v>
+        <v>6963</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1" s="39">
@@ -6386,7 +6392,7 @@
         </is>
       </c>
       <c r="B214" s="48" t="n">
-        <v>149959</v>
+        <v>128999</v>
       </c>
       <c r="C214" s="4" t="n">
         <v>0</v>
@@ -6400,10 +6406,10 @@
         </is>
       </c>
       <c r="G214" s="37" t="n">
-        <v>104996</v>
+        <v>102222</v>
       </c>
       <c r="H214" s="37" t="n">
-        <v>44963</v>
+        <v>26777</v>
       </c>
     </row>
     <row r="215" ht="12.75" customHeight="1" s="39">
@@ -6413,7 +6419,7 @@
         </is>
       </c>
       <c r="B215" s="48" t="n">
-        <v>358888</v>
+        <v>399990</v>
       </c>
       <c r="C215" s="12" t="n">
         <v>0</v>
@@ -6427,10 +6433,10 @@
         </is>
       </c>
       <c r="G215" s="37" t="n">
-        <v>281500</v>
+        <v>298939</v>
       </c>
       <c r="H215" s="37" t="n">
-        <v>77388</v>
+        <v>101051</v>
       </c>
     </row>
     <row r="216" ht="12.75" customHeight="1" s="39">
@@ -6440,7 +6446,7 @@
         </is>
       </c>
       <c r="B216" s="48" t="n">
-        <v>966666</v>
+        <v>908883</v>
       </c>
       <c r="C216" s="12" t="n">
         <v>0</v>
@@ -6454,10 +6460,10 @@
         </is>
       </c>
       <c r="G216" s="37" t="n">
-        <v>718983</v>
+        <v>739954</v>
       </c>
       <c r="H216" s="37" t="n">
-        <v>247683</v>
+        <v>168929</v>
       </c>
     </row>
     <row r="217" ht="12.75" customHeight="1" s="39">
@@ -6467,7 +6473,7 @@
         </is>
       </c>
       <c r="B217" s="49" t="n">
-        <v>15920</v>
+        <v>14918</v>
       </c>
       <c r="C217" s="4" t="n">
         <v>0</v>
@@ -6481,10 +6487,10 @@
         </is>
       </c>
       <c r="G217" s="37" t="n">
-        <v>8557</v>
+        <v>8188</v>
       </c>
       <c r="H217" s="37" t="n">
-        <v>7363</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1" s="39">
@@ -6494,7 +6500,7 @@
         </is>
       </c>
       <c r="B218" s="49" t="n">
-        <v>43985</v>
+        <v>38972</v>
       </c>
       <c r="C218" s="4" t="n">
         <v>0</v>
@@ -6508,10 +6514,10 @@
         </is>
       </c>
       <c r="G218" s="37" t="n">
-        <v>29993</v>
+        <v>25795</v>
       </c>
       <c r="H218" s="37" t="n">
-        <v>13992</v>
+        <v>13177</v>
       </c>
     </row>
     <row r="219" ht="12.75" customHeight="1" s="39">
@@ -6521,7 +6527,7 @@
         </is>
       </c>
       <c r="B219" s="49" t="n">
-        <v>144111</v>
+        <v>130957</v>
       </c>
       <c r="C219" s="4" t="n">
         <v>0</v>
@@ -6535,10 +6541,10 @@
         </is>
       </c>
       <c r="G219" s="37" t="n">
-        <v>219991</v>
+        <v>102987</v>
       </c>
       <c r="H219" s="37" t="n">
-        <v>-75880</v>
+        <v>27970</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1" s="39">
@@ -6548,7 +6554,7 @@
         </is>
       </c>
       <c r="B220" s="49" t="n">
-        <v>430995</v>
+        <v>414440</v>
       </c>
       <c r="C220" s="12" t="n">
         <v>0</v>
@@ -6562,10 +6568,10 @@
         </is>
       </c>
       <c r="G220" s="37" t="n">
-        <v>699996</v>
+        <v>374000</v>
       </c>
       <c r="H220" s="37" t="n">
-        <v>-269001</v>
+        <v>40440</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1" s="39">
@@ -6575,7 +6581,7 @@
         </is>
       </c>
       <c r="B221" s="49" t="n">
-        <v>987777</v>
+        <v>982215</v>
       </c>
       <c r="C221" s="12" t="n">
         <v>0</v>
@@ -6589,10 +6595,10 @@
         </is>
       </c>
       <c r="G221" s="37" t="n">
-        <v>939998</v>
+        <v>799999</v>
       </c>
       <c r="H221" s="37" t="n">
-        <v>47779</v>
+        <v>182216</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1" s="39">
@@ -6602,7 +6608,7 @@
         </is>
       </c>
       <c r="B222" s="52" t="n">
-        <v>15808</v>
+        <v>13931</v>
       </c>
       <c r="C222" s="4" t="n">
         <v>0</v>
@@ -6616,10 +6622,10 @@
         </is>
       </c>
       <c r="G222" s="37" t="n">
-        <v>7496</v>
+        <v>8976</v>
       </c>
       <c r="H222" s="37" t="n">
-        <v>8312</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1" s="39">
@@ -6629,7 +6635,7 @@
         </is>
       </c>
       <c r="B223" s="52" t="n">
-        <v>38848</v>
+        <v>36801</v>
       </c>
       <c r="C223" s="4" t="n">
         <v>0</v>
@@ -6643,10 +6649,10 @@
         </is>
       </c>
       <c r="G223" s="37" t="n">
-        <v>28940</v>
+        <v>25397</v>
       </c>
       <c r="H223" s="37" t="n">
-        <v>9908</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1" s="39">
@@ -6656,7 +6662,7 @@
         </is>
       </c>
       <c r="B224" s="52" t="n">
-        <v>140987</v>
+        <v>127764</v>
       </c>
       <c r="C224" s="4" t="n">
         <v>0</v>
@@ -6670,10 +6676,10 @@
         </is>
       </c>
       <c r="G224" s="37" t="n">
-        <v>99988</v>
+        <v>105493</v>
       </c>
       <c r="H224" s="37" t="n">
-        <v>40999</v>
+        <v>22271</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1" s="39">
@@ -6683,7 +6689,7 @@
         </is>
       </c>
       <c r="B225" s="52" t="n">
-        <v>399996</v>
+        <v>399983</v>
       </c>
       <c r="C225" s="12" t="n">
         <v>0</v>
@@ -6700,7 +6706,7 @@
         <v>300000</v>
       </c>
       <c r="H225" s="37" t="n">
-        <v>99996</v>
+        <v>99983</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1" s="39">
@@ -6710,7 +6716,7 @@
         </is>
       </c>
       <c r="B226" s="52" t="n">
-        <v>985555</v>
+        <v>1051105</v>
       </c>
       <c r="C226" s="12" t="n">
         <v>0</v>
@@ -6727,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="37" t="n">
-        <v>985555</v>
+        <v>1051105</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1" s="39">
@@ -6737,7 +6743,7 @@
         </is>
       </c>
       <c r="B227" s="51" t="n">
-        <v>10092</v>
+        <v>8493</v>
       </c>
       <c r="C227" s="4" t="n">
         <v>0</v>
@@ -6751,10 +6757,10 @@
         </is>
       </c>
       <c r="G227" s="37" t="n">
-        <v>6088</v>
+        <v>6600</v>
       </c>
       <c r="H227" s="37" t="n">
-        <v>4004</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="228" ht="12.75" customHeight="1" s="39">
@@ -6764,7 +6770,7 @@
         </is>
       </c>
       <c r="B228" s="51" t="n">
-        <v>20000</v>
+        <v>19495</v>
       </c>
       <c r="C228" s="4" t="n">
         <v>0</v>
@@ -6778,10 +6784,10 @@
         </is>
       </c>
       <c r="G228" s="37" t="n">
-        <v>12978</v>
+        <v>11977</v>
       </c>
       <c r="H228" s="37" t="n">
-        <v>7022</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="229" ht="12.75" customHeight="1" s="39">
@@ -6791,7 +6797,7 @@
         </is>
       </c>
       <c r="B229" s="51" t="n">
-        <v>73111</v>
+        <v>60966</v>
       </c>
       <c r="C229" s="4" t="n">
         <v>0</v>
@@ -6805,10 +6811,10 @@
         </is>
       </c>
       <c r="G229" s="37" t="n">
-        <v>33497</v>
+        <v>49994</v>
       </c>
       <c r="H229" s="37" t="n">
-        <v>39614</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1" s="39">
@@ -6818,7 +6824,7 @@
         </is>
       </c>
       <c r="B230" s="51" t="n">
-        <v>193454</v>
+        <v>174289</v>
       </c>
       <c r="C230" s="12" t="n">
         <v>0</v>
@@ -6832,10 +6838,10 @@
         </is>
       </c>
       <c r="G230" s="37" t="n">
-        <v>125000</v>
+        <v>149993</v>
       </c>
       <c r="H230" s="37" t="n">
-        <v>68454</v>
+        <v>24296</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1" s="39">
@@ -6845,7 +6851,7 @@
         </is>
       </c>
       <c r="B231" s="51" t="n">
-        <v>669991</v>
+        <v>578000</v>
       </c>
       <c r="C231" s="12" t="n">
         <v>0</v>
@@ -6859,10 +6865,10 @@
         </is>
       </c>
       <c r="G231" s="37" t="n">
-        <v>515500</v>
+        <v>550000</v>
       </c>
       <c r="H231" s="37" t="n">
-        <v>154491</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1" s="39">
@@ -6872,7 +6878,7 @@
         </is>
       </c>
       <c r="B232" s="47" t="n">
-        <v>22995</v>
+        <v>12500</v>
       </c>
       <c r="C232" s="4" t="n">
         <v>0</v>
@@ -6886,10 +6892,10 @@
         </is>
       </c>
       <c r="G232" s="37" t="n">
-        <v>7626</v>
+        <v>7030</v>
       </c>
       <c r="H232" s="37" t="n">
-        <v>15369</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="233" ht="12.75" customHeight="1" s="39">
@@ -6899,7 +6905,7 @@
         </is>
       </c>
       <c r="B233" s="47" t="n">
-        <v>41562</v>
+        <v>34000</v>
       </c>
       <c r="C233" s="4" t="n">
         <v>0</v>
@@ -6913,10 +6919,10 @@
         </is>
       </c>
       <c r="G233" s="37" t="n">
-        <v>27999</v>
+        <v>25119</v>
       </c>
       <c r="H233" s="37" t="n">
-        <v>13563</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1" s="39">
@@ -6926,7 +6932,7 @@
         </is>
       </c>
       <c r="B234" s="47" t="n">
-        <v>109988</v>
+        <v>95994</v>
       </c>
       <c r="C234" s="4" t="n">
         <v>0</v>
@@ -6940,10 +6946,10 @@
         </is>
       </c>
       <c r="G234" s="37" t="n">
-        <v>74995</v>
+        <v>71991</v>
       </c>
       <c r="H234" s="37" t="n">
-        <v>34993</v>
+        <v>24003</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1" s="39">
@@ -6953,7 +6959,7 @@
         </is>
       </c>
       <c r="B235" s="47" t="n">
-        <v>251999</v>
+        <v>180605</v>
       </c>
       <c r="C235" s="12" t="n">
         <v>0</v>
@@ -6967,10 +6973,10 @@
         </is>
       </c>
       <c r="G235" s="37" t="n">
-        <v>194999</v>
+        <v>139999</v>
       </c>
       <c r="H235" s="37" t="n">
-        <v>57000</v>
+        <v>40606</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1" s="39">
@@ -6980,7 +6986,7 @@
         </is>
       </c>
       <c r="B236" s="47" t="n">
-        <v>728888</v>
+        <v>668994</v>
       </c>
       <c r="C236" s="12" t="n">
         <v>0</v>
@@ -6994,10 +7000,10 @@
         </is>
       </c>
       <c r="G236" s="37" t="n">
-        <v>539976</v>
+        <v>539879</v>
       </c>
       <c r="H236" s="37" t="n">
-        <v>188912</v>
+        <v>129115</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1" s="39">
@@ -7007,7 +7013,7 @@
         </is>
       </c>
       <c r="B237" s="52" t="n">
-        <v>16395</v>
+        <v>13499</v>
       </c>
       <c r="C237" s="4" t="n">
         <v>0</v>
@@ -7021,10 +7027,10 @@
         </is>
       </c>
       <c r="G237" s="37" t="n">
-        <v>7999</v>
+        <v>7690</v>
       </c>
       <c r="H237" s="37" t="n">
-        <v>8396</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1" s="39">
@@ -7034,7 +7040,7 @@
         </is>
       </c>
       <c r="B238" s="52" t="n">
-        <v>36995</v>
+        <v>32224</v>
       </c>
       <c r="C238" s="4" t="n">
         <v>0</v>
@@ -7048,10 +7054,10 @@
         </is>
       </c>
       <c r="G238" s="37" t="n">
-        <v>22993</v>
+        <v>22896</v>
       </c>
       <c r="H238" s="37" t="n">
-        <v>14002</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1" s="39">
@@ -7061,7 +7067,7 @@
         </is>
       </c>
       <c r="B239" s="52" t="n">
-        <v>107990</v>
+        <v>88998</v>
       </c>
       <c r="C239" s="4" t="n">
         <v>0</v>
@@ -7075,10 +7081,10 @@
         </is>
       </c>
       <c r="G239" s="37" t="n">
-        <v>75000</v>
+        <v>80975</v>
       </c>
       <c r="H239" s="37" t="n">
-        <v>32990</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="240" ht="12.75" customHeight="1" s="39">
@@ -7088,7 +7094,7 @@
         </is>
       </c>
       <c r="B240" s="52" t="n">
-        <v>219769</v>
+        <v>209952</v>
       </c>
       <c r="C240" s="12" t="n">
         <v>0</v>
@@ -7102,10 +7108,10 @@
         </is>
       </c>
       <c r="G240" s="37" t="n">
-        <v>180000</v>
+        <v>198744</v>
       </c>
       <c r="H240" s="37" t="n">
-        <v>39769</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1" s="39">
@@ -7115,7 +7121,7 @@
         </is>
       </c>
       <c r="B241" s="52" t="n">
-        <v>725951</v>
+        <v>599773</v>
       </c>
       <c r="C241" s="12" t="n">
         <v>0</v>
@@ -7129,10 +7135,10 @@
         </is>
       </c>
       <c r="G241" s="37" t="n">
-        <v>479948</v>
+        <v>499995</v>
       </c>
       <c r="H241" s="37" t="n">
-        <v>246003</v>
+        <v>99778</v>
       </c>
     </row>
     <row r="242" ht="12.75" customHeight="1" s="39">
@@ -7142,7 +7148,7 @@
         </is>
       </c>
       <c r="B242" s="52" t="n">
-        <v>11933</v>
+        <v>11765</v>
       </c>
       <c r="C242" s="4" t="n">
         <v>0</v>
@@ -7156,10 +7162,10 @@
         </is>
       </c>
       <c r="G242" s="37" t="n">
-        <v>6181</v>
+        <v>5000</v>
       </c>
       <c r="H242" s="37" t="n">
-        <v>5752</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1" s="39">
@@ -7169,7 +7175,7 @@
         </is>
       </c>
       <c r="B243" s="52" t="n">
-        <v>38927</v>
+        <v>38880</v>
       </c>
       <c r="C243" s="4" t="n">
         <v>0</v>
@@ -7183,10 +7189,10 @@
         </is>
       </c>
       <c r="G243" s="37" t="n">
-        <v>29982</v>
+        <v>24962</v>
       </c>
       <c r="H243" s="37" t="n">
-        <v>8945</v>
+        <v>13918</v>
       </c>
     </row>
     <row r="244" ht="12.75" customHeight="1" s="39">
@@ -7196,7 +7202,7 @@
         </is>
       </c>
       <c r="B244" s="52" t="n">
-        <v>109995</v>
+        <v>115079</v>
       </c>
       <c r="C244" s="4" t="n">
         <v>0</v>
@@ -7210,10 +7216,10 @@
         </is>
       </c>
       <c r="G244" s="37" t="n">
-        <v>86980</v>
+        <v>91912</v>
       </c>
       <c r="H244" s="37" t="n">
-        <v>23015</v>
+        <v>23167</v>
       </c>
     </row>
     <row r="245" ht="12.75" customHeight="1" s="39">
@@ -7223,7 +7229,7 @@
         </is>
       </c>
       <c r="B245" s="52" t="n">
-        <v>292098</v>
+        <v>289966</v>
       </c>
       <c r="C245" s="12" t="n">
         <v>0</v>
@@ -7237,10 +7243,10 @@
         </is>
       </c>
       <c r="G245" s="37" t="n">
-        <v>224998</v>
+        <v>244443</v>
       </c>
       <c r="H245" s="37" t="n">
-        <v>67100</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="246" ht="12.75" customHeight="1" s="39">
@@ -7250,7 +7256,7 @@
         </is>
       </c>
       <c r="B246" s="52" t="n">
-        <v>174464</v>
+        <v>737771</v>
       </c>
       <c r="C246" s="12" t="n">
         <v>0</v>
@@ -7264,10 +7270,10 @@
         </is>
       </c>
       <c r="G246" s="37" t="n">
-        <v>571000</v>
+        <v>570000</v>
       </c>
       <c r="H246" s="37" t="n">
-        <v>-396536</v>
+        <v>167771</v>
       </c>
     </row>
     <row r="247" ht="12.75" customHeight="1" s="39">
@@ -7277,7 +7283,7 @@
         </is>
       </c>
       <c r="B247" s="52" t="n">
-        <v>14674</v>
+        <v>14497</v>
       </c>
       <c r="C247" s="4" t="n">
         <v>0</v>
@@ -7291,10 +7297,10 @@
         </is>
       </c>
       <c r="G247" s="37" t="n">
-        <v>6775</v>
+        <v>10990</v>
       </c>
       <c r="H247" s="37" t="n">
-        <v>7899</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="248" ht="12.75" customHeight="1" s="39">
@@ -7304,7 +7310,7 @@
         </is>
       </c>
       <c r="B248" s="52" t="n">
-        <v>37798</v>
+        <v>34773</v>
       </c>
       <c r="C248" s="4" t="n">
         <v>0</v>
@@ -7318,10 +7324,10 @@
         </is>
       </c>
       <c r="G248" s="37" t="n">
-        <v>26447</v>
+        <v>21998</v>
       </c>
       <c r="H248" s="37" t="n">
-        <v>11351</v>
+        <v>12775</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1" s="39">
@@ -7331,7 +7337,7 @@
         </is>
       </c>
       <c r="B249" s="52" t="n">
-        <v>99998</v>
+        <v>112864</v>
       </c>
       <c r="C249" s="4" t="n">
         <v>0</v>
@@ -7345,10 +7351,10 @@
         </is>
       </c>
       <c r="G249" s="37" t="n">
-        <v>84983</v>
+        <v>84964</v>
       </c>
       <c r="H249" s="37" t="n">
-        <v>15015</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="250" ht="12.75" customHeight="1" s="39">
@@ -7358,7 +7364,7 @@
         </is>
       </c>
       <c r="B250" s="52" t="n">
-        <v>273996</v>
+        <v>273000</v>
       </c>
       <c r="C250" s="12" t="n">
         <v>0</v>
@@ -7372,10 +7378,10 @@
         </is>
       </c>
       <c r="G250" s="37" t="n">
-        <v>224957</v>
+        <v>193999</v>
       </c>
       <c r="H250" s="37" t="n">
-        <v>49039</v>
+        <v>79001</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1" s="39">
@@ -7385,7 +7391,7 @@
         </is>
       </c>
       <c r="B251" s="52" t="n">
-        <v>675554</v>
+        <v>625549</v>
       </c>
       <c r="C251" s="12" t="n">
         <v>0</v>
@@ -7399,10 +7405,10 @@
         </is>
       </c>
       <c r="G251" s="37" t="n">
-        <v>539494</v>
+        <v>511100</v>
       </c>
       <c r="H251" s="37" t="n">
-        <v>136060</v>
+        <v>114449</v>
       </c>
     </row>
     <row r="252" ht="12.75" customHeight="1" s="39">
@@ -7412,7 +7418,7 @@
         </is>
       </c>
       <c r="B252" s="52" t="n">
-        <v>12356</v>
+        <v>14972</v>
       </c>
       <c r="C252" s="4" t="n">
         <v>0</v>
@@ -7426,10 +7432,10 @@
         </is>
       </c>
       <c r="G252" s="37" t="n">
-        <v>10498</v>
+        <v>23986</v>
       </c>
       <c r="H252" s="37" t="n">
-        <v>1858</v>
+        <v>-9014</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1" s="39">
@@ -7439,7 +7445,7 @@
         </is>
       </c>
       <c r="B253" s="52" t="n">
-        <v>32985</v>
+        <v>36847</v>
       </c>
       <c r="C253" s="4" t="n">
         <v>0</v>
@@ -7453,10 +7459,10 @@
         </is>
       </c>
       <c r="G253" s="37" t="n">
-        <v>28212</v>
+        <v>23499</v>
       </c>
       <c r="H253" s="37" t="n">
-        <v>4773</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1" s="39">
@@ -7466,7 +7472,7 @@
         </is>
       </c>
       <c r="B254" s="52" t="n">
-        <v>121000</v>
+        <v>117871</v>
       </c>
       <c r="C254" s="4" t="n">
         <v>0</v>
@@ -7480,10 +7486,10 @@
         </is>
       </c>
       <c r="G254" s="37" t="n">
-        <v>84899</v>
+        <v>89549</v>
       </c>
       <c r="H254" s="37" t="n">
-        <v>36101</v>
+        <v>28322</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1" s="39">
@@ -7493,7 +7499,7 @@
         </is>
       </c>
       <c r="B255" s="52" t="n">
-        <v>286983</v>
+        <v>282995</v>
       </c>
       <c r="C255" s="12" t="n">
         <v>0</v>
@@ -7507,10 +7513,10 @@
         </is>
       </c>
       <c r="G255" s="37" t="n">
-        <v>235997</v>
+        <v>233332</v>
       </c>
       <c r="H255" s="37" t="n">
-        <v>50986</v>
+        <v>49663</v>
       </c>
     </row>
     <row r="256" ht="12.75" customHeight="1" s="39">
@@ -7520,7 +7526,7 @@
         </is>
       </c>
       <c r="B256" s="52" t="n">
-        <v>775555</v>
+        <v>677386</v>
       </c>
       <c r="C256" s="12" t="n">
         <v>0</v>
@@ -7534,10 +7540,10 @@
         </is>
       </c>
       <c r="G256" s="37" t="n">
-        <v>600000</v>
+        <v>590000</v>
       </c>
       <c r="H256" s="37" t="n">
-        <v>175555</v>
+        <v>87386</v>
       </c>
     </row>
     <row r="257" ht="12.75" customHeight="1" s="39">
@@ -7547,7 +7553,7 @@
         </is>
       </c>
       <c r="B257" s="47" t="n">
-        <v>6743</v>
+        <v>6757</v>
       </c>
       <c r="C257" s="4" t="n">
         <v>0</v>
@@ -7561,10 +7567,10 @@
         </is>
       </c>
       <c r="G257" s="37" t="n">
-        <v>2748</v>
+        <v>4135</v>
       </c>
       <c r="H257" s="37" t="n">
-        <v>3995</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="258" ht="12.75" customHeight="1" s="39">
@@ -7574,7 +7580,7 @@
         </is>
       </c>
       <c r="B258" s="47" t="n">
-        <v>21000</v>
+        <v>20597</v>
       </c>
       <c r="C258" s="4" t="n">
         <v>0</v>
@@ -7588,10 +7594,10 @@
         </is>
       </c>
       <c r="G258" s="37" t="n">
-        <v>14880</v>
+        <v>13845</v>
       </c>
       <c r="H258" s="37" t="n">
-        <v>6120</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="259" ht="12.75" customHeight="1" s="39">
@@ -7601,7 +7607,7 @@
         </is>
       </c>
       <c r="B259" s="47" t="n">
-        <v>57318</v>
+        <v>53988</v>
       </c>
       <c r="C259" s="4" t="n">
         <v>0</v>
@@ -7615,10 +7621,10 @@
         </is>
       </c>
       <c r="G259" s="37" t="n">
-        <v>41979</v>
+        <v>45294</v>
       </c>
       <c r="H259" s="37" t="n">
-        <v>15339</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="260" ht="12.75" customHeight="1" s="39">
@@ -7628,7 +7634,7 @@
         </is>
       </c>
       <c r="B260" s="47" t="n">
-        <v>181496</v>
+        <v>173779</v>
       </c>
       <c r="C260" s="12" t="n">
         <v>0</v>
@@ -7642,10 +7648,10 @@
         </is>
       </c>
       <c r="G260" s="37" t="n">
-        <v>134994</v>
+        <v>142100</v>
       </c>
       <c r="H260" s="37" t="n">
-        <v>46502</v>
+        <v>31679</v>
       </c>
     </row>
     <row r="261" ht="12.75" customHeight="1" s="39">
@@ -7655,7 +7661,7 @@
         </is>
       </c>
       <c r="B261" s="47" t="n">
-        <v>597989</v>
+        <v>575552</v>
       </c>
       <c r="C261" s="12" t="n">
         <v>0</v>
@@ -7669,10 +7675,10 @@
         </is>
       </c>
       <c r="G261" s="37" t="n">
-        <v>464498</v>
+        <v>489978</v>
       </c>
       <c r="H261" s="37" t="n">
-        <v>133491</v>
+        <v>85574</v>
       </c>
     </row>
     <row r="262" ht="12.75" customHeight="1" s="39">
@@ -7682,7 +7688,7 @@
         </is>
       </c>
       <c r="B262" s="48" t="n">
-        <v>11975</v>
+        <v>12045</v>
       </c>
       <c r="C262" s="4" t="n">
         <v>0</v>
@@ -7696,10 +7702,10 @@
         </is>
       </c>
       <c r="G262" s="37" t="n">
-        <v>6990</v>
+        <v>5594</v>
       </c>
       <c r="H262" s="37" t="n">
-        <v>4985</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="263" ht="12.75" customHeight="1" s="39">
@@ -7709,7 +7715,7 @@
         </is>
       </c>
       <c r="B263" s="48" t="n">
-        <v>32875</v>
+        <v>30999</v>
       </c>
       <c r="C263" s="4" t="n">
         <v>0</v>
@@ -7723,10 +7729,10 @@
         </is>
       </c>
       <c r="G263" s="37" t="n">
-        <v>22995</v>
+        <v>21923</v>
       </c>
       <c r="H263" s="37" t="n">
-        <v>9880</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="264" ht="12.75" customHeight="1" s="39">
@@ -7736,7 +7742,7 @@
         </is>
       </c>
       <c r="B264" s="48" t="n">
-        <v>82111</v>
+        <v>80989</v>
       </c>
       <c r="C264" s="4" t="n">
         <v>0</v>
@@ -7750,10 +7756,10 @@
         </is>
       </c>
       <c r="G264" s="37" t="n">
-        <v>58980</v>
+        <v>67636</v>
       </c>
       <c r="H264" s="37" t="n">
-        <v>23131</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="265" ht="12.75" customHeight="1" s="39">
@@ -7763,7 +7769,7 @@
         </is>
       </c>
       <c r="B265" s="48" t="n">
-        <v>237973</v>
+        <v>220988</v>
       </c>
       <c r="C265" s="12" t="n">
         <v>0</v>
@@ -7777,10 +7783,10 @@
         </is>
       </c>
       <c r="G265" s="37" t="n">
-        <v>179999</v>
+        <v>173979</v>
       </c>
       <c r="H265" s="37" t="n">
-        <v>57974</v>
+        <v>47009</v>
       </c>
     </row>
     <row r="266" ht="12.75" customHeight="1" s="39">
@@ -7790,7 +7796,7 @@
         </is>
       </c>
       <c r="B266" s="48" t="n">
-        <v>636591</v>
+        <v>616666</v>
       </c>
       <c r="C266" s="12" t="n">
         <v>0</v>
@@ -7804,10 +7810,10 @@
         </is>
       </c>
       <c r="G266" s="37" t="n">
-        <v>508964</v>
+        <v>499999</v>
       </c>
       <c r="H266" s="37" t="n">
-        <v>127627</v>
+        <v>116667</v>
       </c>
     </row>
     <row r="267" ht="12.75" customHeight="1" s="39">
@@ -7817,7 +7823,7 @@
         </is>
       </c>
       <c r="B267" s="49" t="n">
-        <v>11000</v>
+        <v>11943</v>
       </c>
       <c r="C267" s="4" t="n">
         <v>0</v>
@@ -7831,10 +7837,10 @@
         </is>
       </c>
       <c r="G267" s="37" t="n">
-        <v>6193</v>
+        <v>7388</v>
       </c>
       <c r="H267" s="37" t="n">
-        <v>4807</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="268" ht="12.75" customHeight="1" s="39">
@@ -7844,7 +7850,7 @@
         </is>
       </c>
       <c r="B268" s="49" t="n">
-        <v>29364</v>
+        <v>26909</v>
       </c>
       <c r="C268" s="4" t="n">
         <v>0</v>
@@ -7858,10 +7864,10 @@
         </is>
       </c>
       <c r="G268" s="37" t="n">
-        <v>20944</v>
+        <v>18998</v>
       </c>
       <c r="H268" s="37" t="n">
-        <v>8420</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1" s="39">
@@ -7871,7 +7877,7 @@
         </is>
       </c>
       <c r="B269" s="49" t="n">
-        <v>85333</v>
+        <v>81268</v>
       </c>
       <c r="C269" s="4" t="n">
         <v>0</v>
@@ -7885,10 +7891,10 @@
         </is>
       </c>
       <c r="G269" s="37" t="n">
-        <v>62966</v>
+        <v>62978</v>
       </c>
       <c r="H269" s="37" t="n">
-        <v>22367</v>
+        <v>18290</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1" s="39">
@@ -7898,7 +7904,7 @@
         </is>
       </c>
       <c r="B270" s="49" t="n">
-        <v>244992</v>
+        <v>234209</v>
       </c>
       <c r="C270" s="12" t="n">
         <v>0</v>
@@ -7912,10 +7918,10 @@
         </is>
       </c>
       <c r="G270" s="37" t="n">
-        <v>199961</v>
+        <v>189985</v>
       </c>
       <c r="H270" s="37" t="n">
-        <v>45031</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="271" ht="12.75" customHeight="1" s="39">
@@ -7925,7 +7931,7 @@
         </is>
       </c>
       <c r="B271" s="49" t="n">
-        <v>712222</v>
+        <v>686666</v>
       </c>
       <c r="C271" s="12" t="n">
         <v>0</v>
@@ -7939,10 +7945,10 @@
         </is>
       </c>
       <c r="G271" s="37" t="n">
-        <v>599888</v>
+        <v>521999</v>
       </c>
       <c r="H271" s="37" t="n">
-        <v>112334</v>
+        <v>164667</v>
       </c>
     </row>
     <row r="272" ht="12.75" customHeight="1" s="39">
@@ -7952,7 +7958,7 @@
         </is>
       </c>
       <c r="B272" s="52" t="n">
-        <v>10144</v>
+        <v>9365</v>
       </c>
       <c r="C272" s="4" t="n">
         <v>0</v>
@@ -7966,10 +7972,10 @@
         </is>
       </c>
       <c r="G272" s="37" t="n">
-        <v>6494</v>
+        <v>5999</v>
       </c>
       <c r="H272" s="37" t="n">
-        <v>3650</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="273" ht="12.75" customHeight="1" s="39">
@@ -7979,7 +7985,7 @@
         </is>
       </c>
       <c r="B273" s="52" t="n">
-        <v>15687</v>
+        <v>15701</v>
       </c>
       <c r="C273" s="4" t="n">
         <v>0</v>
@@ -7993,10 +7999,10 @@
         </is>
       </c>
       <c r="G273" s="37" t="n">
-        <v>12144</v>
+        <v>12490</v>
       </c>
       <c r="H273" s="37" t="n">
-        <v>3543</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="274" ht="12.75" customHeight="1" s="39">
@@ -8006,7 +8012,7 @@
         </is>
       </c>
       <c r="B274" s="52" t="n">
-        <v>73333</v>
+        <v>61883</v>
       </c>
       <c r="C274" s="4" t="n">
         <v>0</v>
@@ -8020,10 +8026,10 @@
         </is>
       </c>
       <c r="G274" s="37" t="n">
-        <v>54996</v>
+        <v>58267</v>
       </c>
       <c r="H274" s="37" t="n">
-        <v>18337</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="275" ht="12.75" customHeight="1" s="39">
@@ -8033,7 +8039,7 @@
         </is>
       </c>
       <c r="B275" s="52" t="n">
-        <v>223895</v>
+        <v>179976</v>
       </c>
       <c r="C275" s="12" t="n">
         <v>0</v>
@@ -8047,10 +8053,10 @@
         </is>
       </c>
       <c r="G275" s="37" t="n">
-        <v>159999</v>
+        <v>169997</v>
       </c>
       <c r="H275" s="37" t="n">
-        <v>63896</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="276" ht="12.75" customHeight="1" s="39">
@@ -8060,7 +8066,7 @@
         </is>
       </c>
       <c r="B276" s="52" t="n">
-        <v>223895</v>
+        <v>518888</v>
       </c>
       <c r="C276" s="12" t="n">
         <v>0</v>
@@ -8074,10 +8080,10 @@
         </is>
       </c>
       <c r="G276" s="37" t="n">
-        <v>446665</v>
+        <v>419999</v>
       </c>
       <c r="H276" s="37" t="n">
-        <v>-222770</v>
+        <v>98889</v>
       </c>
     </row>
     <row r="277" ht="12.75" customHeight="1" s="39">
@@ -8087,7 +8093,7 @@
         </is>
       </c>
       <c r="B277" s="51" t="n">
-        <v>14489</v>
+        <v>11987</v>
       </c>
       <c r="C277" s="4" t="n">
         <v>0</v>
@@ -8101,10 +8107,10 @@
         </is>
       </c>
       <c r="G277" s="37" t="n">
-        <v>7400</v>
+        <v>7499</v>
       </c>
       <c r="H277" s="37" t="n">
-        <v>7089</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="278" ht="12.75" customHeight="1" s="39">
@@ -8114,7 +8120,7 @@
         </is>
       </c>
       <c r="B278" s="51" t="n">
-        <v>29869</v>
+        <v>29513</v>
       </c>
       <c r="C278" s="4" t="n">
         <v>0</v>
@@ -8128,10 +8134,10 @@
         </is>
       </c>
       <c r="G278" s="37" t="n">
-        <v>29838</v>
+        <v>16189</v>
       </c>
       <c r="H278" s="37" t="n">
-        <v>31</v>
+        <v>13324</v>
       </c>
     </row>
     <row r="279" ht="12.75" customHeight="1" s="39">
@@ -8141,7 +8147,7 @@
         </is>
       </c>
       <c r="B279" s="51" t="n">
-        <v>105991</v>
+        <v>82999</v>
       </c>
       <c r="C279" s="4" t="n">
         <v>0</v>
@@ -8155,10 +8161,10 @@
         </is>
       </c>
       <c r="G279" s="37" t="n">
-        <v>84984</v>
+        <v>86398</v>
       </c>
       <c r="H279" s="37" t="n">
-        <v>21007</v>
+        <v>-3399</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1" s="39">
@@ -8168,7 +8174,7 @@
         </is>
       </c>
       <c r="B280" s="51" t="n">
-        <v>279993</v>
+        <v>261955</v>
       </c>
       <c r="C280" s="12" t="n">
         <v>0</v>
@@ -8182,10 +8188,10 @@
         </is>
       </c>
       <c r="G280" s="37" t="n">
-        <v>239994</v>
+        <v>254994</v>
       </c>
       <c r="H280" s="37" t="n">
-        <v>39999</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="281" ht="12.75" customHeight="1" s="39">
@@ -8195,7 +8201,7 @@
         </is>
       </c>
       <c r="B281" s="51" t="n">
-        <v>746666</v>
+        <v>705555</v>
       </c>
       <c r="C281" s="12" t="n">
         <v>0</v>
@@ -8209,10 +8215,10 @@
         </is>
       </c>
       <c r="G281" s="37" t="n">
-        <v>609995</v>
+        <v>629999</v>
       </c>
       <c r="H281" s="37" t="n">
-        <v>136671</v>
+        <v>75556</v>
       </c>
     </row>
     <row r="282" ht="12.75" customHeight="1" s="39">
@@ -8222,7 +8228,7 @@
         </is>
       </c>
       <c r="B282" s="47" t="n">
-        <v>12064</v>
+        <v>9640</v>
       </c>
       <c r="C282" s="4" t="n">
         <v>0</v>
@@ -8236,10 +8242,10 @@
         </is>
       </c>
       <c r="G282" s="37" t="n">
-        <v>6873</v>
+        <v>7799</v>
       </c>
       <c r="H282" s="37" t="n">
-        <v>5191</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1" s="39">
@@ -8249,7 +8255,7 @@
         </is>
       </c>
       <c r="B283" s="47" t="n">
-        <v>25981</v>
+        <v>27981</v>
       </c>
       <c r="C283" s="4" t="n">
         <v>0</v>
@@ -8263,10 +8269,10 @@
         </is>
       </c>
       <c r="G283" s="37" t="n">
-        <v>18988</v>
+        <v>16787</v>
       </c>
       <c r="H283" s="37" t="n">
-        <v>6993</v>
+        <v>11194</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1" s="39">
@@ -8276,7 +8282,7 @@
         </is>
       </c>
       <c r="B284" s="47" t="n">
-        <v>103998</v>
+        <v>87997</v>
       </c>
       <c r="C284" s="4" t="n">
         <v>0</v>
@@ -8290,10 +8296,10 @@
         </is>
       </c>
       <c r="G284" s="37" t="n">
-        <v>83474</v>
+        <v>86862</v>
       </c>
       <c r="H284" s="37" t="n">
-        <v>20524</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1" s="39">
@@ -8303,7 +8309,7 @@
         </is>
       </c>
       <c r="B285" s="47" t="n">
-        <v>313991</v>
+        <v>289790</v>
       </c>
       <c r="C285" s="12" t="n">
         <v>0</v>
@@ -8317,10 +8323,10 @@
         </is>
       </c>
       <c r="G285" s="37" t="n">
-        <v>243993</v>
+        <v>255533</v>
       </c>
       <c r="H285" s="37" t="n">
-        <v>69998</v>
+        <v>34257</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1" s="39">
@@ -8330,7 +8336,7 @@
         </is>
       </c>
       <c r="B286" s="47" t="n">
-        <v>833333</v>
+        <v>771111</v>
       </c>
       <c r="C286" s="12" t="n">
         <v>0</v>
@@ -8344,10 +8350,10 @@
         </is>
       </c>
       <c r="G286" s="37" t="n">
-        <v>657999</v>
+        <v>670000</v>
       </c>
       <c r="H286" s="37" t="n">
-        <v>175334</v>
+        <v>101111</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1" s="39">
@@ -8357,7 +8363,7 @@
         </is>
       </c>
       <c r="B287" s="48" t="n">
-        <v>9494</v>
+        <v>8997</v>
       </c>
       <c r="C287" s="4" t="n">
         <v>0</v>
@@ -8371,10 +8377,10 @@
         </is>
       </c>
       <c r="G287" s="37" t="n">
-        <v>5483</v>
+        <v>5537</v>
       </c>
       <c r="H287" s="37" t="n">
-        <v>4011</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1" s="39">
@@ -8384,7 +8390,7 @@
         </is>
       </c>
       <c r="B288" s="48" t="n">
-        <v>23300</v>
+        <v>23583</v>
       </c>
       <c r="C288" s="4" t="n">
         <v>0</v>
@@ -8398,10 +8404,10 @@
         </is>
       </c>
       <c r="G288" s="37" t="n">
-        <v>17991</v>
+        <v>12796</v>
       </c>
       <c r="H288" s="37" t="n">
-        <v>5309</v>
+        <v>10787</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1" s="39">
@@ -8411,7 +8417,7 @@
         </is>
       </c>
       <c r="B289" s="48" t="n">
-        <v>74427</v>
+        <v>61992</v>
       </c>
       <c r="C289" s="4" t="n">
         <v>0</v>
@@ -8425,10 +8431,10 @@
         </is>
       </c>
       <c r="G289" s="37" t="n">
-        <v>47999</v>
+        <v>52724</v>
       </c>
       <c r="H289" s="37" t="n">
-        <v>26428</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="290" ht="12.75" customHeight="1" s="39">
@@ -8438,7 +8444,7 @@
         </is>
       </c>
       <c r="B290" s="48" t="n">
-        <v>181941</v>
+        <v>176758</v>
       </c>
       <c r="C290" s="12" t="n">
         <v>0</v>
@@ -8452,10 +8458,10 @@
         </is>
       </c>
       <c r="G290" s="37" t="n">
-        <v>160966</v>
+        <v>138123</v>
       </c>
       <c r="H290" s="37" t="n">
-        <v>20975</v>
+        <v>38635</v>
       </c>
     </row>
     <row r="291" ht="12.75" customHeight="1" s="39">
@@ -8465,7 +8471,7 @@
         </is>
       </c>
       <c r="B291" s="48" t="n">
-        <v>585555</v>
+        <v>535551</v>
       </c>
       <c r="C291" s="12" t="n">
         <v>0</v>
@@ -8479,10 +8485,10 @@
         </is>
       </c>
       <c r="G291" s="37" t="n">
-        <v>451995</v>
+        <v>400000</v>
       </c>
       <c r="H291" s="37" t="n">
-        <v>133560</v>
+        <v>135551</v>
       </c>
     </row>
     <row r="292" ht="12.75" customHeight="1" s="39">
@@ -8492,7 +8498,7 @@
         </is>
       </c>
       <c r="B292" s="49" t="n">
-        <v>14000</v>
+        <v>13820</v>
       </c>
       <c r="C292" s="4" t="n">
         <v>0</v>
@@ -8506,10 +8512,10 @@
         </is>
       </c>
       <c r="G292" s="37" t="n">
-        <v>9187</v>
+        <v>11970</v>
       </c>
       <c r="H292" s="37" t="n">
-        <v>4813</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="293" ht="12.75" customHeight="1" s="39">
@@ -8519,7 +8525,7 @@
         </is>
       </c>
       <c r="B293" s="49" t="n">
-        <v>34800</v>
+        <v>34695</v>
       </c>
       <c r="C293" s="4" t="n">
         <v>0</v>
@@ -8533,10 +8539,10 @@
         </is>
       </c>
       <c r="G293" s="37" t="n">
-        <v>25999</v>
+        <v>19987</v>
       </c>
       <c r="H293" s="37" t="n">
-        <v>8801</v>
+        <v>14708</v>
       </c>
     </row>
     <row r="294" ht="12.75" customHeight="1" s="39">
@@ -8546,7 +8552,7 @@
         </is>
       </c>
       <c r="B294" s="49" t="n">
-        <v>102977</v>
+        <v>88000</v>
       </c>
       <c r="C294" s="4" t="n">
         <v>0</v>
@@ -8560,10 +8566,10 @@
         </is>
       </c>
       <c r="G294" s="37" t="n">
-        <v>62962</v>
+        <v>68963</v>
       </c>
       <c r="H294" s="37" t="n">
-        <v>40015</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1" s="39">
@@ -8573,7 +8579,7 @@
         </is>
       </c>
       <c r="B295" s="49" t="n">
-        <v>250000</v>
+        <v>273996</v>
       </c>
       <c r="C295" s="12" t="n">
         <v>0</v>
@@ -8587,10 +8593,10 @@
         </is>
       </c>
       <c r="G295" s="37" t="n">
-        <v>229899</v>
+        <v>210000</v>
       </c>
       <c r="H295" s="37" t="n">
-        <v>20101</v>
+        <v>63996</v>
       </c>
     </row>
     <row r="296" ht="12.75" customHeight="1" s="39">
@@ -8600,7 +8606,7 @@
         </is>
       </c>
       <c r="B296" s="49" t="n">
-        <v>830000</v>
+        <v>849986</v>
       </c>
       <c r="C296" s="12" t="n">
         <v>0</v>
@@ -8614,10 +8620,10 @@
         </is>
       </c>
       <c r="G296" s="37" t="n">
-        <v>903997</v>
+        <v>730873</v>
       </c>
       <c r="H296" s="37" t="n">
-        <v>-73997</v>
+        <v>119113</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1" s="39">
@@ -8627,7 +8633,7 @@
         </is>
       </c>
       <c r="B297" s="52" t="n">
-        <v>15094</v>
+        <v>13785</v>
       </c>
       <c r="C297" s="4" t="n">
         <v>0</v>
@@ -8641,10 +8647,10 @@
         </is>
       </c>
       <c r="G297" s="37" t="n">
-        <v>6586</v>
+        <v>7864</v>
       </c>
       <c r="H297" s="37" t="n">
-        <v>8508</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="298" ht="12.75" customHeight="1" s="39">
@@ -8654,7 +8660,7 @@
         </is>
       </c>
       <c r="B298" s="52" t="n">
-        <v>32846</v>
+        <v>32357</v>
       </c>
       <c r="C298" s="4" t="n">
         <v>0</v>
@@ -8668,10 +8674,10 @@
         </is>
       </c>
       <c r="G298" s="37" t="n">
-        <v>21974</v>
+        <v>19963</v>
       </c>
       <c r="H298" s="37" t="n">
-        <v>10872</v>
+        <v>12394</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1" s="39">
@@ -8681,7 +8687,7 @@
         </is>
       </c>
       <c r="B299" s="52" t="n">
-        <v>98946</v>
+        <v>94000</v>
       </c>
       <c r="C299" s="4" t="n">
         <v>0</v>
@@ -8695,10 +8701,10 @@
         </is>
       </c>
       <c r="G299" s="37" t="n">
-        <v>65545</v>
+        <v>73951</v>
       </c>
       <c r="H299" s="37" t="n">
-        <v>33401</v>
+        <v>20049</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1" s="39">
@@ -8708,7 +8714,7 @@
         </is>
       </c>
       <c r="B300" s="52" t="n">
-        <v>347534</v>
+        <v>260677</v>
       </c>
       <c r="C300" s="12" t="n">
         <v>0</v>
@@ -8722,10 +8728,10 @@
         </is>
       </c>
       <c r="G300" s="37" t="n">
-        <v>248654</v>
+        <v>170000</v>
       </c>
       <c r="H300" s="37" t="n">
-        <v>98880</v>
+        <v>90677</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1" s="39">
@@ -8735,7 +8741,7 @@
         </is>
       </c>
       <c r="B301" s="52" t="n">
-        <v>752222</v>
+        <v>757700</v>
       </c>
       <c r="C301" s="12" t="n">
         <v>0</v>
@@ -8749,10 +8755,10 @@
         </is>
       </c>
       <c r="G301" s="37" t="n">
-        <v>999000</v>
+        <v>645207</v>
       </c>
       <c r="H301" s="37" t="n">
-        <v>-246778</v>
+        <v>112493</v>
       </c>
     </row>
     <row r="302" ht="12.75" customHeight="1" s="39">
@@ -8762,7 +8768,7 @@
         </is>
       </c>
       <c r="B302" s="51" t="n">
-        <v>10999</v>
+        <v>11099</v>
       </c>
       <c r="C302" s="4" t="n">
         <v>0</v>
@@ -8776,10 +8782,10 @@
         </is>
       </c>
       <c r="G302" s="37" t="n">
-        <v>6962</v>
+        <v>6340</v>
       </c>
       <c r="H302" s="37" t="n">
-        <v>4037</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1" s="39">
@@ -8789,7 +8795,7 @@
         </is>
       </c>
       <c r="B303" s="51" t="n">
-        <v>25902</v>
+        <v>25700</v>
       </c>
       <c r="C303" s="4" t="n">
         <v>0</v>
@@ -8803,10 +8809,10 @@
         </is>
       </c>
       <c r="G303" s="37" t="n">
-        <v>19499</v>
+        <v>12631</v>
       </c>
       <c r="H303" s="37" t="n">
-        <v>6403</v>
+        <v>13069</v>
       </c>
     </row>
     <row r="304" ht="12.75" customHeight="1" s="39">
@@ -8816,7 +8822,7 @@
         </is>
       </c>
       <c r="B304" s="51" t="n">
-        <v>73096</v>
+        <v>73063</v>
       </c>
       <c r="C304" s="4" t="n">
         <v>0</v>
@@ -8830,10 +8836,10 @@
         </is>
       </c>
       <c r="G304" s="37" t="n">
-        <v>44986</v>
+        <v>52999</v>
       </c>
       <c r="H304" s="37" t="n">
-        <v>28110</v>
+        <v>20064</v>
       </c>
     </row>
     <row r="305" ht="12.75" customHeight="1" s="39">
@@ -8843,7 +8849,7 @@
         </is>
       </c>
       <c r="B305" s="51" t="n">
-        <v>209798</v>
+        <v>197102</v>
       </c>
       <c r="C305" s="12" t="n">
         <v>0</v>
@@ -8857,10 +8863,10 @@
         </is>
       </c>
       <c r="G305" s="37" t="n">
-        <v>159998</v>
+        <v>164995</v>
       </c>
       <c r="H305" s="37" t="n">
-        <v>49800</v>
+        <v>32107</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1" s="39">
@@ -8870,7 +8876,7 @@
         </is>
       </c>
       <c r="B306" s="51" t="n">
-        <v>708992</v>
+        <v>690000</v>
       </c>
       <c r="C306" s="12" t="n">
         <v>0</v>
@@ -8884,10 +8890,10 @@
         </is>
       </c>
       <c r="G306" s="37" t="n">
-        <v>599993</v>
+        <v>587998</v>
       </c>
       <c r="H306" s="37" t="n">
-        <v>108999</v>
+        <v>102002</v>
       </c>
     </row>
     <row r="307" ht="12.75" customHeight="1" s="39">
@@ -8897,7 +8903,7 @@
         </is>
       </c>
       <c r="B307" s="47" t="n">
-        <v>13976</v>
+        <v>13891</v>
       </c>
       <c r="C307" s="4" t="n">
         <v>0</v>
@@ -8911,10 +8917,10 @@
         </is>
       </c>
       <c r="G307" s="37" t="n">
-        <v>7769</v>
+        <v>6976</v>
       </c>
       <c r="H307" s="37" t="n">
-        <v>6207</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="308" ht="12.75" customHeight="1" s="39">
@@ -8924,7 +8930,7 @@
         </is>
       </c>
       <c r="B308" s="47" t="n">
-        <v>42777</v>
+        <v>32640</v>
       </c>
       <c r="C308" s="4" t="n">
         <v>0</v>
@@ -8938,10 +8944,10 @@
         </is>
       </c>
       <c r="G308" s="37" t="n">
-        <v>22943</v>
+        <v>22994</v>
       </c>
       <c r="H308" s="37" t="n">
-        <v>19834</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="309" ht="12.75" customHeight="1" s="39">
@@ -8951,7 +8957,7 @@
         </is>
       </c>
       <c r="B309" s="47" t="n">
-        <v>92994</v>
+        <v>94839</v>
       </c>
       <c r="C309" s="4" t="n">
         <v>0</v>
@@ -8965,10 +8971,10 @@
         </is>
       </c>
       <c r="G309" s="37" t="n">
-        <v>77772</v>
+        <v>74936</v>
       </c>
       <c r="H309" s="37" t="n">
-        <v>15222</v>
+        <v>19903</v>
       </c>
     </row>
     <row r="310" ht="12.75" customHeight="1" s="39">
@@ -8978,7 +8984,7 @@
         </is>
       </c>
       <c r="B310" s="47" t="n">
-        <v>246962</v>
+        <v>238985</v>
       </c>
       <c r="C310" s="12" t="n">
         <v>0</v>
@@ -8992,10 +8998,10 @@
         </is>
       </c>
       <c r="G310" s="37" t="n">
-        <v>229989</v>
+        <v>191995</v>
       </c>
       <c r="H310" s="37" t="n">
-        <v>16973</v>
+        <v>46990</v>
       </c>
     </row>
     <row r="311" ht="12.75" customHeight="1" s="39">
@@ -9005,7 +9011,7 @@
         </is>
       </c>
       <c r="B311" s="47" t="n">
-        <v>844444</v>
+        <v>834442</v>
       </c>
       <c r="C311" s="12" t="n">
         <v>0</v>
@@ -9019,10 +9025,10 @@
         </is>
       </c>
       <c r="G311" s="37" t="n">
-        <v>690028</v>
+        <v>699999</v>
       </c>
       <c r="H311" s="37" t="n">
-        <v>154416</v>
+        <v>134443</v>
       </c>
     </row>
     <row r="312" ht="12.75" customHeight="1" s="39">
@@ -9032,7 +9038,7 @@
         </is>
       </c>
       <c r="B312" s="48" t="n">
-        <v>17982</v>
+        <v>16358</v>
       </c>
       <c r="C312" s="4" t="n">
         <v>0</v>
@@ -9046,10 +9052,10 @@
         </is>
       </c>
       <c r="G312" s="37" t="n">
-        <v>9799</v>
+        <v>5999</v>
       </c>
       <c r="H312" s="37" t="n">
-        <v>8183</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="313" ht="12.75" customHeight="1" s="39">
@@ -9059,7 +9065,7 @@
         </is>
       </c>
       <c r="B313" s="48" t="n">
-        <v>37500</v>
+        <v>36315</v>
       </c>
       <c r="C313" s="4" t="n">
         <v>0</v>
@@ -9073,10 +9079,10 @@
         </is>
       </c>
       <c r="G313" s="37" t="n">
-        <v>27992</v>
+        <v>21998</v>
       </c>
       <c r="H313" s="37" t="n">
-        <v>9508</v>
+        <v>14317</v>
       </c>
     </row>
     <row r="314" ht="12.75" customHeight="1" s="39">
@@ -9086,7 +9092,7 @@
         </is>
       </c>
       <c r="B314" s="48" t="n">
-        <v>89397</v>
+        <v>87922</v>
       </c>
       <c r="C314" s="4" t="n">
         <v>0</v>
@@ -9100,10 +9106,10 @@
         </is>
       </c>
       <c r="G314" s="37" t="n">
-        <v>64999</v>
+        <v>72490</v>
       </c>
       <c r="H314" s="37" t="n">
-        <v>24398</v>
+        <v>15432</v>
       </c>
     </row>
     <row r="315" ht="12.75" customHeight="1" s="39">
@@ -9113,7 +9119,7 @@
         </is>
       </c>
       <c r="B315" s="48" t="n">
-        <v>247996</v>
+        <v>245898</v>
       </c>
       <c r="C315" s="12" t="n">
         <v>0</v>
@@ -9127,10 +9133,10 @@
         </is>
       </c>
       <c r="G315" s="37" t="n">
-        <v>219961</v>
+        <v>204888</v>
       </c>
       <c r="H315" s="37" t="n">
-        <v>28035</v>
+        <v>41010</v>
       </c>
     </row>
     <row r="316" ht="12.75" customHeight="1" s="39">
@@ -9140,7 +9146,7 @@
         </is>
       </c>
       <c r="B316" s="48" t="n">
-        <v>863333</v>
+        <v>844446</v>
       </c>
       <c r="C316" s="12" t="n">
         <v>0</v>
@@ -9154,10 +9160,10 @@
         </is>
       </c>
       <c r="G316" s="37" t="n">
-        <v>730999</v>
+        <v>719992</v>
       </c>
       <c r="H316" s="37" t="n">
-        <v>132334</v>
+        <v>124454</v>
       </c>
     </row>
     <row r="317" ht="12.75" customHeight="1" s="39">
@@ -9167,7 +9173,7 @@
         </is>
       </c>
       <c r="B317" s="49" t="n">
-        <v>7079</v>
+        <v>6994</v>
       </c>
       <c r="C317" s="4" t="n">
         <v>0</v>
@@ -9181,10 +9187,10 @@
         </is>
       </c>
       <c r="G317" s="37" t="n">
-        <v>4197</v>
+        <v>4323</v>
       </c>
       <c r="H317" s="37" t="n">
-        <v>2882</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="318" ht="12.75" customHeight="1" s="39">
@@ -9194,7 +9200,7 @@
         </is>
       </c>
       <c r="B318" s="49" t="n">
-        <v>16247</v>
+        <v>15098</v>
       </c>
       <c r="C318" s="4" t="n">
         <v>0</v>
@@ -9208,10 +9214,10 @@
         </is>
       </c>
       <c r="G318" s="37" t="n">
-        <v>10984</v>
+        <v>9492</v>
       </c>
       <c r="H318" s="37" t="n">
-        <v>5263</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="319" ht="12.75" customHeight="1" s="39">
@@ -9221,7 +9227,7 @@
         </is>
       </c>
       <c r="B319" s="49" t="n">
-        <v>58988</v>
+        <v>48872</v>
       </c>
       <c r="C319" s="4" t="n">
         <v>0</v>
@@ -9235,10 +9241,10 @@
         </is>
       </c>
       <c r="G319" s="37" t="n">
-        <v>33699</v>
+        <v>40998</v>
       </c>
       <c r="H319" s="37" t="n">
-        <v>25289</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="320" ht="12.75" customHeight="1" s="39">
@@ -9248,7 +9254,7 @@
         </is>
       </c>
       <c r="B320" s="49" t="n">
-        <v>174993</v>
+        <v>109998</v>
       </c>
       <c r="C320" s="12" t="n">
         <v>0</v>
@@ -9262,10 +9268,10 @@
         </is>
       </c>
       <c r="G320" s="37" t="n">
-        <v>119998</v>
+        <v>129991</v>
       </c>
       <c r="H320" s="37" t="n">
-        <v>54995</v>
+        <v>-19993</v>
       </c>
     </row>
     <row r="321" ht="12.75" customHeight="1" s="39">
@@ -9275,7 +9281,7 @@
         </is>
       </c>
       <c r="B321" s="49" t="n">
-        <v>549973</v>
+        <v>499654</v>
       </c>
       <c r="C321" s="12" t="n">
         <v>0</v>
@@ -9289,10 +9295,10 @@
         </is>
       </c>
       <c r="G321" s="37" t="n">
-        <v>427995</v>
+        <v>444438</v>
       </c>
       <c r="H321" s="37" t="n">
-        <v>121978</v>
+        <v>55216</v>
       </c>
     </row>
     <row r="322" ht="12.75" customHeight="1" s="39">
@@ -9302,7 +9308,7 @@
         </is>
       </c>
       <c r="B322" s="52" t="n">
-        <v>10402</v>
+        <v>9816</v>
       </c>
       <c r="C322" s="4" t="n">
         <v>0</v>
@@ -9316,10 +9322,10 @@
         </is>
       </c>
       <c r="G322" s="37" t="n">
-        <v>5707</v>
+        <v>5821</v>
       </c>
       <c r="H322" s="37" t="n">
-        <v>4695</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="323" ht="12.75" customHeight="1" s="39">
@@ -9329,7 +9335,7 @@
         </is>
       </c>
       <c r="B323" s="52" t="n">
-        <v>30100</v>
+        <v>26595</v>
       </c>
       <c r="C323" s="4" t="n">
         <v>0</v>
@@ -9343,10 +9349,10 @@
         </is>
       </c>
       <c r="G323" s="37" t="n">
-        <v>17981</v>
+        <v>19998</v>
       </c>
       <c r="H323" s="37" t="n">
-        <v>12119</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="324" ht="12.75" customHeight="1" s="39">
@@ -9356,7 +9362,7 @@
         </is>
       </c>
       <c r="B324" s="52" t="n">
-        <v>88974</v>
+        <v>83000</v>
       </c>
       <c r="C324" s="4" t="n">
         <v>0</v>
@@ -9370,10 +9376,10 @@
         </is>
       </c>
       <c r="G324" s="37" t="n">
-        <v>41110</v>
+        <v>63995</v>
       </c>
       <c r="H324" s="37" t="n">
-        <v>47864</v>
+        <v>19005</v>
       </c>
     </row>
     <row r="325" ht="12.75" customHeight="1" s="39">
@@ -9383,7 +9389,7 @@
         </is>
       </c>
       <c r="B325" s="52" t="n">
-        <v>228996</v>
+        <v>188996</v>
       </c>
       <c r="C325" s="12" t="n">
         <v>0</v>
@@ -9397,10 +9403,10 @@
         </is>
       </c>
       <c r="G325" s="37" t="n">
-        <v>120000</v>
+        <v>149000</v>
       </c>
       <c r="H325" s="37" t="n">
-        <v>108996</v>
+        <v>39996</v>
       </c>
     </row>
     <row r="326" ht="12.75" customHeight="1" s="39">
@@ -9410,7 +9416,7 @@
         </is>
       </c>
       <c r="B326" s="52" t="n">
-        <v>879900</v>
+        <v>714440</v>
       </c>
       <c r="C326" s="12" t="n">
         <v>0</v>
@@ -9424,10 +9430,10 @@
         </is>
       </c>
       <c r="G326" s="37" t="n">
-        <v>580000</v>
+        <v>568933</v>
       </c>
       <c r="H326" s="37" t="n">
-        <v>299900</v>
+        <v>145507</v>
       </c>
     </row>
     <row r="327" ht="12.75" customHeight="1" s="39">
@@ -9437,7 +9443,7 @@
         </is>
       </c>
       <c r="B327" s="51" t="n">
-        <v>11972</v>
+        <v>11906</v>
       </c>
       <c r="C327" s="4" t="n">
         <v>0</v>
@@ -9451,10 +9457,10 @@
         </is>
       </c>
       <c r="G327" s="37" t="n">
-        <v>6221</v>
+        <v>5196</v>
       </c>
       <c r="H327" s="37" t="n">
-        <v>5751</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="328" ht="12.75" customHeight="1" s="39">
@@ -9464,7 +9470,7 @@
         </is>
       </c>
       <c r="B328" s="51" t="n">
-        <v>35898</v>
+        <v>27836</v>
       </c>
       <c r="C328" s="4" t="n">
         <v>0</v>
@@ -9478,10 +9484,10 @@
         </is>
       </c>
       <c r="G328" s="37" t="n">
-        <v>19883</v>
+        <v>16988</v>
       </c>
       <c r="H328" s="37" t="n">
-        <v>16015</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="329" ht="12.75" customHeight="1" s="39">
@@ -9491,7 +9497,7 @@
         </is>
       </c>
       <c r="B329" s="51" t="n">
-        <v>96987</v>
+        <v>84000</v>
       </c>
       <c r="C329" s="4" t="n">
         <v>0</v>
@@ -9505,10 +9511,10 @@
         </is>
       </c>
       <c r="G329" s="37" t="n">
-        <v>49999</v>
+        <v>68956</v>
       </c>
       <c r="H329" s="37" t="n">
-        <v>46988</v>
+        <v>15044</v>
       </c>
     </row>
     <row r="330" ht="12.75" customHeight="1" s="39">
@@ -9518,7 +9524,7 @@
         </is>
       </c>
       <c r="B330" s="51" t="n">
-        <v>214925</v>
+        <v>201973</v>
       </c>
       <c r="C330" s="12" t="n">
         <v>0</v>
@@ -9532,10 +9538,10 @@
         </is>
       </c>
       <c r="G330" s="37" t="n">
-        <v>161000</v>
+        <v>160000</v>
       </c>
       <c r="H330" s="37" t="n">
-        <v>53925</v>
+        <v>41973</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1" s="39">
@@ -9545,7 +9551,7 @@
         </is>
       </c>
       <c r="B331" s="51" t="n">
-        <v>642179</v>
+        <v>676600</v>
       </c>
       <c r="C331" s="12" t="n">
         <v>0</v>
@@ -9559,10 +9565,10 @@
         </is>
       </c>
       <c r="G331" s="37" t="n">
-        <v>489998</v>
+        <v>522222</v>
       </c>
       <c r="H331" s="37" t="n">
-        <v>152181</v>
+        <v>154378</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1" s="39">
@@ -9572,7 +9578,7 @@
         </is>
       </c>
       <c r="B332" s="47" t="n">
-        <v>9981</v>
+        <v>10478</v>
       </c>
       <c r="C332" s="4" t="n">
         <v>0</v>
@@ -9586,10 +9592,10 @@
         </is>
       </c>
       <c r="G332" s="37" t="n">
-        <v>5468</v>
+        <v>5171</v>
       </c>
       <c r="H332" s="37" t="n">
-        <v>4513</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="333" ht="12.75" customHeight="1" s="39">
@@ -9599,7 +9605,7 @@
         </is>
       </c>
       <c r="B333" s="47" t="n">
-        <v>34947</v>
+        <v>27000</v>
       </c>
       <c r="C333" s="4" t="n">
         <v>0</v>
@@ -9613,10 +9619,10 @@
         </is>
       </c>
       <c r="G333" s="37" t="n">
-        <v>15965</v>
+        <v>34596</v>
       </c>
       <c r="H333" s="37" t="n">
-        <v>18982</v>
+        <v>-7596</v>
       </c>
     </row>
     <row r="334" ht="12.75" customHeight="1" s="39">
@@ -9626,7 +9632,7 @@
         </is>
       </c>
       <c r="B334" s="47" t="n">
-        <v>61989</v>
+        <v>51105</v>
       </c>
       <c r="C334" s="4" t="n">
         <v>0</v>
@@ -9640,10 +9646,10 @@
         </is>
       </c>
       <c r="G334" s="37" t="n">
-        <v>28000</v>
+        <v>35985</v>
       </c>
       <c r="H334" s="37" t="n">
-        <v>33989</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="335" ht="12.75" customHeight="1" s="39">
@@ -9653,7 +9659,7 @@
         </is>
       </c>
       <c r="B335" s="47" t="n">
-        <v>149958</v>
+        <v>145410</v>
       </c>
       <c r="C335" s="12" t="n">
         <v>0</v>
@@ -9667,10 +9673,10 @@
         </is>
       </c>
       <c r="G335" s="37" t="n">
-        <v>109958</v>
+        <v>124443</v>
       </c>
       <c r="H335" s="37" t="n">
-        <v>40000</v>
+        <v>20967</v>
       </c>
     </row>
     <row r="336" ht="12.75" customHeight="1" s="39">
@@ -9680,7 +9686,7 @@
         </is>
       </c>
       <c r="B336" s="47" t="n">
-        <v>557777</v>
+        <v>564797</v>
       </c>
       <c r="C336" s="12" t="n">
         <v>0</v>
@@ -9694,10 +9700,10 @@
         </is>
       </c>
       <c r="G336" s="37" t="n">
-        <v>410980</v>
+        <v>410984</v>
       </c>
       <c r="H336" s="37" t="n">
-        <v>146797</v>
+        <v>153813</v>
       </c>
     </row>
     <row r="337" ht="12.75" customHeight="1" s="39">
@@ -9707,7 +9713,7 @@
         </is>
       </c>
       <c r="B337" s="48" t="n">
-        <v>13378</v>
+        <v>13445</v>
       </c>
       <c r="C337" s="4" t="n">
         <v>0</v>
@@ -9721,10 +9727,10 @@
         </is>
       </c>
       <c r="G337" s="37" t="n">
-        <v>4500</v>
+        <v>7310</v>
       </c>
       <c r="H337" s="37" t="n">
-        <v>8878</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="338" ht="12.75" customHeight="1" s="39">
@@ -9734,7 +9740,7 @@
         </is>
       </c>
       <c r="B338" s="48" t="n">
-        <v>32345</v>
+        <v>31979</v>
       </c>
       <c r="C338" s="4" t="n">
         <v>0</v>
@@ -9748,10 +9754,10 @@
         </is>
       </c>
       <c r="G338" s="37" t="n">
-        <v>23147</v>
+        <v>19889</v>
       </c>
       <c r="H338" s="37" t="n">
-        <v>9198</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="339" ht="12.75" customHeight="1" s="39">
@@ -9761,7 +9767,7 @@
         </is>
       </c>
       <c r="B339" s="48" t="n">
-        <v>73095</v>
+        <v>68806</v>
       </c>
       <c r="C339" s="4" t="n">
         <v>0</v>
@@ -9775,10 +9781,10 @@
         </is>
       </c>
       <c r="G339" s="37" t="n">
-        <v>55985</v>
+        <v>52884</v>
       </c>
       <c r="H339" s="37" t="n">
-        <v>17110</v>
+        <v>15922</v>
       </c>
     </row>
     <row r="340" ht="12.75" customHeight="1" s="39">
@@ -9788,7 +9794,7 @@
         </is>
       </c>
       <c r="B340" s="48" t="n">
-        <v>279966</v>
+        <v>223893</v>
       </c>
       <c r="C340" s="12" t="n">
         <v>0</v>
@@ -9802,10 +9808,10 @@
         </is>
       </c>
       <c r="G340" s="37" t="n">
-        <v>184999</v>
+        <v>197000</v>
       </c>
       <c r="H340" s="37" t="n">
-        <v>94967</v>
+        <v>26893</v>
       </c>
     </row>
     <row r="341" ht="12.75" customHeight="1" s="39">
@@ -9815,7 +9821,7 @@
         </is>
       </c>
       <c r="B341" s="48" t="n">
-        <v>744438</v>
+        <v>642972</v>
       </c>
       <c r="C341" s="12" t="n">
         <v>0</v>
@@ -9829,10 +9835,10 @@
         </is>
       </c>
       <c r="G341" s="37" t="n">
-        <v>589999</v>
+        <v>599983</v>
       </c>
       <c r="H341" s="37" t="n">
-        <v>154439</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="342" ht="12.75" customHeight="1" s="39">
@@ -9842,7 +9848,7 @@
         </is>
       </c>
       <c r="B342" s="49" t="n">
-        <v>14895</v>
+        <v>14672</v>
       </c>
       <c r="C342" s="4" t="n">
         <v>0</v>
@@ -9856,10 +9862,10 @@
         </is>
       </c>
       <c r="G342" s="37" t="n">
-        <v>6385</v>
+        <v>6700</v>
       </c>
       <c r="H342" s="37" t="n">
-        <v>8510</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="343" ht="12.75" customHeight="1" s="39">
@@ -9869,7 +9875,7 @@
         </is>
       </c>
       <c r="B343" s="49" t="n">
-        <v>31302</v>
+        <v>30900</v>
       </c>
       <c r="C343" s="4" t="n">
         <v>0</v>
@@ -9883,10 +9889,10 @@
         </is>
       </c>
       <c r="G343" s="37" t="n">
-        <v>18995</v>
+        <v>19546</v>
       </c>
       <c r="H343" s="37" t="n">
-        <v>12307</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="344" ht="12.75" customHeight="1" s="39">
@@ -9896,7 +9902,7 @@
         </is>
       </c>
       <c r="B344" s="49" t="n">
-        <v>72999</v>
+        <v>71995</v>
       </c>
       <c r="C344" s="4" t="n">
         <v>0</v>
@@ -9910,10 +9916,10 @@
         </is>
       </c>
       <c r="G344" s="37" t="n">
-        <v>51954</v>
+        <v>52199</v>
       </c>
       <c r="H344" s="37" t="n">
-        <v>21045</v>
+        <v>19796</v>
       </c>
     </row>
     <row r="345" ht="12.75" customHeight="1" s="39">
@@ -9923,7 +9929,7 @@
         </is>
       </c>
       <c r="B345" s="49" t="n">
-        <v>217990</v>
+        <v>200799</v>
       </c>
       <c r="C345" s="12" t="n">
         <v>0</v>
@@ -9937,10 +9943,10 @@
         </is>
       </c>
       <c r="G345" s="37" t="n">
-        <v>171998</v>
+        <v>167996</v>
       </c>
       <c r="H345" s="37" t="n">
-        <v>45992</v>
+        <v>32803</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1" s="39">
@@ -9950,7 +9956,7 @@
         </is>
       </c>
       <c r="B346" s="49" t="n">
-        <v>732206</v>
+        <v>675554</v>
       </c>
       <c r="C346" s="12" t="n">
         <v>0</v>
@@ -9964,10 +9970,10 @@
         </is>
       </c>
       <c r="G346" s="37" t="n">
-        <v>0</v>
+        <v>561635</v>
       </c>
       <c r="H346" s="37" t="n">
-        <v>732206</v>
+        <v>113919</v>
       </c>
     </row>
     <row r="347" ht="12.75" customHeight="1" s="39">
@@ -9977,7 +9983,7 @@
         </is>
       </c>
       <c r="B347" s="52" t="n">
-        <v>4989</v>
+        <v>7373</v>
       </c>
       <c r="C347" s="4" t="n">
         <v>0</v>
@@ -9991,10 +9997,10 @@
         </is>
       </c>
       <c r="G347" s="37" t="n">
-        <v>3449</v>
+        <v>4311</v>
       </c>
       <c r="H347" s="37" t="n">
-        <v>1540</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1" s="39">
@@ -10004,7 +10010,7 @@
         </is>
       </c>
       <c r="B348" s="52" t="n">
-        <v>15000</v>
+        <v>17711</v>
       </c>
       <c r="C348" s="4" t="n">
         <v>0</v>
@@ -10018,10 +10024,10 @@
         </is>
       </c>
       <c r="G348" s="37" t="n">
-        <v>10999</v>
+        <v>11000</v>
       </c>
       <c r="H348" s="37" t="n">
-        <v>4001</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="349" ht="12.75" customHeight="1" s="39">
@@ -10031,7 +10037,7 @@
         </is>
       </c>
       <c r="B349" s="52" t="n">
-        <v>92974</v>
+        <v>69700</v>
       </c>
       <c r="C349" s="4" t="n">
         <v>0</v>
@@ -10045,10 +10051,10 @@
         </is>
       </c>
       <c r="G349" s="37" t="n">
-        <v>44945</v>
+        <v>62994</v>
       </c>
       <c r="H349" s="37" t="n">
-        <v>48029</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="350" ht="12.75" customHeight="1" s="39">
@@ -10058,7 +10064,7 @@
         </is>
       </c>
       <c r="B350" s="52" t="n">
-        <v>185975</v>
+        <v>187892</v>
       </c>
       <c r="C350" s="12" t="n">
         <v>0</v>
@@ -10072,10 +10078,10 @@
         </is>
       </c>
       <c r="G350" s="37" t="n">
-        <v>149998</v>
+        <v>157996</v>
       </c>
       <c r="H350" s="37" t="n">
-        <v>35977</v>
+        <v>29896</v>
       </c>
     </row>
     <row r="351" ht="12.75" customHeight="1" s="39">
@@ -10085,7 +10091,7 @@
         </is>
       </c>
       <c r="B351" s="52" t="n">
-        <v>579999</v>
+        <v>572488</v>
       </c>
       <c r="C351" s="12" t="n">
         <v>0</v>
@@ -10099,10 +10105,10 @@
         </is>
       </c>
       <c r="G351" s="37" t="n">
-        <v>488888</v>
+        <v>489988</v>
       </c>
       <c r="H351" s="37" t="n">
-        <v>91111</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="352" ht="12.75" customHeight="1" s="39">
@@ -10112,7 +10118,7 @@
         </is>
       </c>
       <c r="B352" s="51" t="n">
-        <v>10827</v>
+        <v>15939</v>
       </c>
       <c r="C352" s="4" t="n">
         <v>0</v>
@@ -10126,10 +10132,10 @@
         </is>
       </c>
       <c r="G352" s="37" t="n">
-        <v>6187</v>
+        <v>4488</v>
       </c>
       <c r="H352" s="37" t="n">
-        <v>4640</v>
+        <v>11451</v>
       </c>
     </row>
     <row r="353" ht="12.75" customHeight="1" s="39">
@@ -10139,7 +10145,7 @@
         </is>
       </c>
       <c r="B353" s="51" t="n">
-        <v>25988</v>
+        <v>26548</v>
       </c>
       <c r="C353" s="4" t="n">
         <v>0</v>
@@ -10153,10 +10159,10 @@
         </is>
       </c>
       <c r="G353" s="37" t="n">
-        <v>16986</v>
+        <v>14000</v>
       </c>
       <c r="H353" s="37" t="n">
-        <v>9002</v>
+        <v>12548</v>
       </c>
     </row>
     <row r="354" ht="12.75" customHeight="1" s="39">
@@ -10166,7 +10172,7 @@
         </is>
       </c>
       <c r="B354" s="51" t="n">
-        <v>86989</v>
+        <v>83609</v>
       </c>
       <c r="C354" s="4" t="n">
         <v>0</v>
@@ -10180,10 +10186,10 @@
         </is>
       </c>
       <c r="G354" s="37" t="n">
-        <v>63987</v>
+        <v>66794</v>
       </c>
       <c r="H354" s="37" t="n">
-        <v>23002</v>
+        <v>16815</v>
       </c>
     </row>
     <row r="355" ht="12.75" customHeight="1" s="39">
@@ -10193,7 +10199,7 @@
         </is>
       </c>
       <c r="B355" s="51" t="n">
-        <v>253964</v>
+        <v>249092</v>
       </c>
       <c r="C355" s="12" t="n">
         <v>0</v>
@@ -10207,10 +10213,10 @@
         </is>
       </c>
       <c r="G355" s="37" t="n">
-        <v>259994</v>
+        <v>201986</v>
       </c>
       <c r="H355" s="37" t="n">
-        <v>-6030</v>
+        <v>47106</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1" s="39">
@@ -10220,7 +10226,7 @@
         </is>
       </c>
       <c r="B356" s="51" t="n">
-        <v>686660</v>
+        <v>656896</v>
       </c>
       <c r="C356" s="12" t="n">
         <v>0</v>
@@ -10234,10 +10240,10 @@
         </is>
       </c>
       <c r="G356" s="37" t="n">
-        <v>655563</v>
+        <v>549996</v>
       </c>
       <c r="H356" s="37" t="n">
-        <v>31097</v>
+        <v>106900</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1" s="39">
@@ -10247,7 +10253,7 @@
         </is>
       </c>
       <c r="B357" s="47" t="n">
-        <v>11441</v>
+        <v>11399</v>
       </c>
       <c r="C357" s="4" t="n">
         <v>0</v>
@@ -10261,10 +10267,10 @@
         </is>
       </c>
       <c r="G357" s="37" t="n">
-        <v>5919</v>
+        <v>3799</v>
       </c>
       <c r="H357" s="37" t="n">
-        <v>5522</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1" s="39">
@@ -10274,7 +10280,7 @@
         </is>
       </c>
       <c r="B358" s="47" t="n">
-        <v>29190</v>
+        <v>29094</v>
       </c>
       <c r="C358" s="4" t="n">
         <v>0</v>
@@ -10288,10 +10294,10 @@
         </is>
       </c>
       <c r="G358" s="37" t="n">
-        <v>21738</v>
+        <v>16898</v>
       </c>
       <c r="H358" s="37" t="n">
-        <v>7452</v>
+        <v>12196</v>
       </c>
     </row>
     <row r="359" ht="12.75" customHeight="1" s="39">
@@ -10301,7 +10307,7 @@
         </is>
       </c>
       <c r="B359" s="47" t="n">
-        <v>142219</v>
+        <v>89000</v>
       </c>
       <c r="C359" s="4" t="n">
         <v>0</v>
@@ -10315,10 +10321,10 @@
         </is>
       </c>
       <c r="G359" s="37" t="n">
-        <v>64994</v>
+        <v>63994</v>
       </c>
       <c r="H359" s="37" t="n">
-        <v>77225</v>
+        <v>25006</v>
       </c>
     </row>
     <row r="360" ht="12.75" customHeight="1" s="39">
@@ -10328,7 +10334,7 @@
         </is>
       </c>
       <c r="B360" s="47" t="n">
-        <v>270991</v>
+        <v>263077</v>
       </c>
       <c r="C360" s="12" t="n">
         <v>0</v>
@@ -10342,10 +10348,10 @@
         </is>
       </c>
       <c r="G360" s="37" t="n">
-        <v>201987</v>
+        <v>212966</v>
       </c>
       <c r="H360" s="37" t="n">
-        <v>69004</v>
+        <v>50111</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1" s="39">
@@ -10355,7 +10361,7 @@
         </is>
       </c>
       <c r="B361" s="47" t="n">
-        <v>638885</v>
+        <v>737990</v>
       </c>
       <c r="C361" s="12" t="n">
         <v>0</v>
@@ -10369,10 +10375,10 @@
         </is>
       </c>
       <c r="G361" s="37" t="n">
-        <v>502994</v>
+        <v>499995</v>
       </c>
       <c r="H361" s="37" t="n">
-        <v>135891</v>
+        <v>237995</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1" s="39">
@@ -10382,7 +10388,7 @@
         </is>
       </c>
       <c r="B362" s="48" t="n">
-        <v>7138</v>
+        <v>8854</v>
       </c>
       <c r="C362" s="4" t="n">
         <v>0</v>
@@ -10396,10 +10402,10 @@
         </is>
       </c>
       <c r="G362" s="37" t="n">
-        <v>4464</v>
+        <v>3195</v>
       </c>
       <c r="H362" s="37" t="n">
-        <v>2674</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1" s="39">
@@ -10409,7 +10415,7 @@
         </is>
       </c>
       <c r="B363" s="48" t="n">
-        <v>17494</v>
+        <v>22000</v>
       </c>
       <c r="C363" s="4" t="n">
         <v>0</v>
@@ -10423,10 +10429,10 @@
         </is>
       </c>
       <c r="G363" s="37" t="n">
-        <v>14438</v>
+        <v>10298</v>
       </c>
       <c r="H363" s="37" t="n">
-        <v>3056</v>
+        <v>11702</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1" s="39">
@@ -10436,7 +10442,7 @@
         </is>
       </c>
       <c r="B364" s="48" t="n">
-        <v>70661</v>
+        <v>57789</v>
       </c>
       <c r="C364" s="4" t="n">
         <v>0</v>
@@ -10450,10 +10456,10 @@
         </is>
       </c>
       <c r="G364" s="37" t="n">
-        <v>43395</v>
+        <v>41999</v>
       </c>
       <c r="H364" s="37" t="n">
-        <v>27266</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="365" ht="12.75" customHeight="1" s="39">
@@ -10463,7 +10469,7 @@
         </is>
       </c>
       <c r="B365" s="48" t="n">
-        <v>160397</v>
+        <v>159996</v>
       </c>
       <c r="C365" s="12" t="n">
         <v>0</v>
@@ -10477,10 +10483,10 @@
         </is>
       </c>
       <c r="G365" s="37" t="n">
-        <v>115000</v>
+        <v>123800</v>
       </c>
       <c r="H365" s="37" t="n">
-        <v>45397</v>
+        <v>36196</v>
       </c>
     </row>
     <row r="366" ht="12.75" customHeight="1" s="39">
@@ -10490,7 +10496,7 @@
         </is>
       </c>
       <c r="B366" s="48" t="n">
-        <v>585555</v>
+        <v>582196</v>
       </c>
       <c r="C366" s="12" t="n">
         <v>0</v>
@@ -10504,10 +10510,10 @@
         </is>
       </c>
       <c r="G366" s="37" t="n">
-        <v>482000</v>
+        <v>449995</v>
       </c>
       <c r="H366" s="37" t="n">
-        <v>103555</v>
+        <v>132201</v>
       </c>
     </row>
     <row r="367" ht="12.75" customHeight="1" s="39">
@@ -10517,7 +10523,7 @@
         </is>
       </c>
       <c r="B367" s="49" t="n">
-        <v>14928</v>
+        <v>13995</v>
       </c>
       <c r="C367" s="4" t="n">
         <v>0</v>
@@ -10531,10 +10537,10 @@
         </is>
       </c>
       <c r="G367" s="37" t="n">
-        <v>13986</v>
+        <v>8607</v>
       </c>
       <c r="H367" s="37" t="n">
-        <v>942</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="368" ht="12.75" customHeight="1" s="39">
@@ -10544,7 +10550,7 @@
         </is>
       </c>
       <c r="B368" s="49" t="n">
-        <v>30897</v>
+        <v>34455</v>
       </c>
       <c r="C368" s="4" t="n">
         <v>0</v>
@@ -10558,10 +10564,10 @@
         </is>
       </c>
       <c r="G368" s="37" t="n">
-        <v>33333</v>
+        <v>20978</v>
       </c>
       <c r="H368" s="37" t="n">
-        <v>-2436</v>
+        <v>13477</v>
       </c>
     </row>
     <row r="369" ht="12.75" customHeight="1" s="39">
@@ -10571,7 +10577,7 @@
         </is>
       </c>
       <c r="B369" s="49" t="n">
-        <v>79997</v>
+        <v>80682</v>
       </c>
       <c r="C369" s="4" t="n">
         <v>0</v>
@@ -10585,10 +10591,10 @@
         </is>
       </c>
       <c r="G369" s="37" t="n">
-        <v>59999</v>
+        <v>59799</v>
       </c>
       <c r="H369" s="37" t="n">
-        <v>19998</v>
+        <v>20883</v>
       </c>
     </row>
     <row r="370" ht="12.75" customHeight="1" s="39">
@@ -10598,7 +10604,7 @@
         </is>
       </c>
       <c r="B370" s="49" t="n">
-        <v>247533</v>
+        <v>239689</v>
       </c>
       <c r="C370" s="12" t="n">
         <v>0</v>
@@ -10612,10 +10618,10 @@
         </is>
       </c>
       <c r="G370" s="37" t="n">
-        <v>0</v>
+        <v>178997</v>
       </c>
       <c r="H370" s="37" t="n">
-        <v>247533</v>
+        <v>60692</v>
       </c>
     </row>
     <row r="371" ht="12.75" customHeight="1" s="39">
@@ -10625,7 +10631,7 @@
         </is>
       </c>
       <c r="B371" s="49" t="n">
-        <v>947777</v>
+        <v>939918</v>
       </c>
       <c r="C371" s="12" t="n">
         <v>0</v>
@@ -10639,10 +10645,10 @@
         </is>
       </c>
       <c r="G371" s="37" t="n">
-        <v>810108</v>
+        <v>749997</v>
       </c>
       <c r="H371" s="37" t="n">
-        <v>137669</v>
+        <v>189921</v>
       </c>
     </row>
     <row r="372" ht="12.75" customHeight="1" s="39">
@@ -10652,7 +10658,7 @@
         </is>
       </c>
       <c r="B372" s="52" t="n">
-        <v>12956</v>
+        <v>12980</v>
       </c>
       <c r="C372" s="4" t="n">
         <v>0</v>
@@ -10666,10 +10672,10 @@
         </is>
       </c>
       <c r="G372" s="37" t="n">
-        <v>2995</v>
+        <v>6651</v>
       </c>
       <c r="H372" s="37" t="n">
-        <v>9961</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1" s="39">
@@ -10679,7 +10685,7 @@
         </is>
       </c>
       <c r="B373" s="52" t="n">
-        <v>27995</v>
+        <v>27420</v>
       </c>
       <c r="C373" s="4" t="n">
         <v>0</v>
@@ -10693,10 +10699,10 @@
         </is>
       </c>
       <c r="G373" s="37" t="n">
-        <v>49992</v>
+        <v>14497</v>
       </c>
       <c r="H373" s="37" t="n">
-        <v>-21997</v>
+        <v>12923</v>
       </c>
     </row>
     <row r="374" ht="12.75" customHeight="1" s="39">
@@ -10706,7 +10712,7 @@
         </is>
       </c>
       <c r="B374" s="52" t="n">
-        <v>134331</v>
+        <v>94000</v>
       </c>
       <c r="C374" s="4" t="n">
         <v>0</v>
@@ -10720,10 +10726,10 @@
         </is>
       </c>
       <c r="G374" s="37" t="n">
-        <v>0</v>
+        <v>77861</v>
       </c>
       <c r="H374" s="37" t="n">
-        <v>134331</v>
+        <v>16139</v>
       </c>
     </row>
     <row r="375" ht="12.75" customHeight="1" s="39">
@@ -10733,7 +10739,7 @@
         </is>
       </c>
       <c r="B375" s="52" t="n">
-        <v>228005</v>
+        <v>226878</v>
       </c>
       <c r="C375" s="12" t="n">
         <v>0</v>
@@ -10747,10 +10753,10 @@
         </is>
       </c>
       <c r="G375" s="37" t="n">
-        <v>300000</v>
+        <v>174524</v>
       </c>
       <c r="H375" s="37" t="n">
-        <v>-71995</v>
+        <v>52354</v>
       </c>
     </row>
     <row r="376" ht="13.5" customHeight="1" s="39">
@@ -10760,7 +10766,7 @@
         </is>
       </c>
       <c r="B376" s="52" t="n">
-        <v>654444</v>
+        <v>724443</v>
       </c>
       <c r="C376" s="12" t="n">
         <v>0</v>
@@ -10774,10 +10780,10 @@
         </is>
       </c>
       <c r="G376" s="37" t="n">
-        <v>0</v>
+        <v>599999</v>
       </c>
       <c r="H376" s="37" t="n">
-        <v>654444</v>
+        <v>124444</v>
       </c>
     </row>
     <row r="377" ht="13.5" customHeight="1" s="39">
@@ -10787,7 +10793,7 @@
         </is>
       </c>
       <c r="B377" s="51" t="n">
-        <v>81318</v>
+        <v>75998</v>
       </c>
       <c r="C377" s="12" t="n">
         <v>0</v>
@@ -10801,10 +10807,10 @@
         </is>
       </c>
       <c r="G377" s="37" t="n">
-        <v>77777</v>
+        <v>71994</v>
       </c>
       <c r="H377" s="37" t="n">
-        <v>3541</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="378" ht="13.5" customHeight="1" s="39">
@@ -10814,7 +10820,7 @@
         </is>
       </c>
       <c r="B378" s="51" t="n">
-        <v>134983</v>
+        <v>120979</v>
       </c>
       <c r="C378" s="12" t="n">
         <v>0</v>
@@ -10828,10 +10834,10 @@
         </is>
       </c>
       <c r="G378" s="37" t="n">
-        <v>108900</v>
+        <v>109972</v>
       </c>
       <c r="H378" s="37" t="n">
-        <v>26083</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="379" ht="13.5" customHeight="1" s="39">
@@ -10841,7 +10847,7 @@
         </is>
       </c>
       <c r="B379" s="51" t="n">
-        <v>213320</v>
+        <v>219060</v>
       </c>
       <c r="C379" s="12" t="n">
         <v>0</v>
@@ -10855,10 +10861,10 @@
         </is>
       </c>
       <c r="G379" s="37" t="n">
-        <v>216912</v>
+        <v>213997</v>
       </c>
       <c r="H379" s="37" t="n">
-        <v>-3592</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="380" ht="13.5" customHeight="1" s="39">
@@ -10868,7 +10874,7 @@
         </is>
       </c>
       <c r="B380" s="51" t="n">
-        <v>468999</v>
+        <v>487973</v>
       </c>
       <c r="C380" s="12" t="n">
         <v>0</v>
@@ -10882,10 +10888,10 @@
         </is>
       </c>
       <c r="G380" s="37" t="n">
-        <v>438287</v>
+        <v>419990</v>
       </c>
       <c r="H380" s="37" t="n">
-        <v>30712</v>
+        <v>67983</v>
       </c>
     </row>
     <row r="381" ht="13.5" customHeight="1" s="39">
@@ -10895,7 +10901,7 @@
         </is>
       </c>
       <c r="B381" s="51" t="n">
-        <v>990375</v>
+        <v>988094</v>
       </c>
       <c r="C381" s="12" t="n">
         <v>0</v>
@@ -10909,10 +10915,10 @@
         </is>
       </c>
       <c r="G381" s="37" t="n">
-        <v>869996</v>
+        <v>857861</v>
       </c>
       <c r="H381" s="37" t="n">
-        <v>120379</v>
+        <v>130233</v>
       </c>
     </row>
     <row r="382" ht="13.5" customHeight="1" s="39">
@@ -10922,7 +10928,7 @@
         </is>
       </c>
       <c r="B382" s="47" t="n">
-        <v>180984</v>
+        <v>180112</v>
       </c>
       <c r="C382" s="12" t="n">
         <v>0</v>
@@ -10936,10 +10942,10 @@
         </is>
       </c>
       <c r="G382" s="37" t="n">
-        <v>234995</v>
+        <v>199995</v>
       </c>
       <c r="H382" s="37" t="n">
-        <v>-54011</v>
+        <v>-19883</v>
       </c>
     </row>
     <row r="383" ht="13.5" customHeight="1" s="39">
@@ -10949,7 +10955,7 @@
         </is>
       </c>
       <c r="B383" s="47" t="n">
-        <v>217889</v>
+        <v>217799</v>
       </c>
       <c r="C383" s="12" t="n">
         <v>0</v>
@@ -10963,10 +10969,10 @@
         </is>
       </c>
       <c r="G383" s="37" t="n">
-        <v>233329</v>
+        <v>202000</v>
       </c>
       <c r="H383" s="37" t="n">
-        <v>-15440</v>
+        <v>15799</v>
       </c>
     </row>
     <row r="384" ht="13.5" customHeight="1" s="39">
@@ -10976,7 +10982,7 @@
         </is>
       </c>
       <c r="B384" s="47" t="n">
-        <v>247666</v>
+        <v>263955</v>
       </c>
       <c r="C384" s="12" t="n">
         <v>0</v>
@@ -10990,10 +10996,10 @@
         </is>
       </c>
       <c r="G384" s="37" t="n">
-        <v>298776</v>
+        <v>255990</v>
       </c>
       <c r="H384" s="37" t="n">
-        <v>-51110</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="385" ht="13.5" customHeight="1" s="39">
@@ -11003,7 +11009,7 @@
         </is>
       </c>
       <c r="B385" s="47" t="n">
-        <v>766649</v>
+        <v>765981</v>
       </c>
       <c r="C385" s="34" t="n">
         <v>0</v>
@@ -11017,10 +11023,10 @@
         </is>
       </c>
       <c r="G385" s="37" t="n">
-        <v>772951</v>
+        <v>0</v>
       </c>
       <c r="H385" s="37" t="n">
-        <v>-6302</v>
+        <v>765981</v>
       </c>
     </row>
     <row r="386" ht="13.5" customHeight="1" s="39">
@@ -11030,7 +11036,7 @@
         </is>
       </c>
       <c r="B386" s="47" t="n">
-        <v>1187840</v>
+        <v>1177829</v>
       </c>
       <c r="C386" s="34" t="n">
         <v>0</v>
@@ -11044,10 +11050,10 @@
         </is>
       </c>
       <c r="G386" s="37" t="n">
-        <v>1333318</v>
+        <v>1200000</v>
       </c>
       <c r="H386" s="37" t="n">
-        <v>-145478</v>
+        <v>-22171</v>
       </c>
     </row>
     <row r="387" ht="13.5" customHeight="1" s="39">
@@ -11162,7 +11168,7 @@
         </is>
       </c>
       <c r="B392" s="49" t="n">
-        <v>88997</v>
+        <v>79994</v>
       </c>
       <c r="C392" s="12" t="n">
         <v>0</v>
@@ -11176,10 +11182,10 @@
         </is>
       </c>
       <c r="G392" s="37" t="n">
-        <v>93985</v>
+        <v>89998</v>
       </c>
       <c r="H392" s="37" t="n">
-        <v>-4988</v>
+        <v>-10004</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" s="39">
@@ -11189,7 +11195,7 @@
         </is>
       </c>
       <c r="B393" s="49" t="n">
-        <v>109998</v>
+        <v>95000</v>
       </c>
       <c r="C393" s="12" t="n">
         <v>0</v>
@@ -11203,10 +11209,10 @@
         </is>
       </c>
       <c r="G393" s="37" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="H393" s="37" t="n">
-        <v>24998</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1" s="39">
@@ -11216,7 +11222,7 @@
         </is>
       </c>
       <c r="B394" s="49" t="n">
-        <v>261109</v>
+        <v>259978</v>
       </c>
       <c r="C394" s="12" t="n">
         <v>0</v>
@@ -11230,10 +11236,10 @@
         </is>
       </c>
       <c r="G394" s="37" t="n">
-        <v>239968</v>
+        <v>240997</v>
       </c>
       <c r="H394" s="37" t="n">
-        <v>21141</v>
+        <v>18981</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1" s="39">
@@ -11243,7 +11249,7 @@
         </is>
       </c>
       <c r="B395" s="49" t="n">
-        <v>533948</v>
+        <v>533934</v>
       </c>
       <c r="C395" s="12" t="n">
         <v>0</v>
@@ -11257,10 +11263,10 @@
         </is>
       </c>
       <c r="G395" s="37" t="n">
-        <v>491900</v>
+        <v>480966</v>
       </c>
       <c r="H395" s="37" t="n">
-        <v>42048</v>
+        <v>52968</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" s="39">
@@ -11270,7 +11276,7 @@
         </is>
       </c>
       <c r="B396" s="49" t="n">
-        <v>1174975</v>
+        <v>1289984</v>
       </c>
       <c r="C396" s="34" t="n">
         <v>0</v>
@@ -11284,10 +11290,10 @@
         </is>
       </c>
       <c r="G396" s="37" t="n">
-        <v>1099990</v>
+        <v>999000</v>
       </c>
       <c r="H396" s="37" t="n">
-        <v>74985</v>
+        <v>290984</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1" s="39">
@@ -11297,7 +11303,7 @@
         </is>
       </c>
       <c r="B397" s="51" t="n">
-        <v>74992</v>
+        <v>79755</v>
       </c>
       <c r="C397" s="34" t="n">
         <v>0</v>
@@ -11311,10 +11317,10 @@
         </is>
       </c>
       <c r="G397" s="37" t="n">
-        <v>58500</v>
+        <v>42999</v>
       </c>
       <c r="H397" s="37" t="n">
-        <v>16492</v>
+        <v>36756</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" s="39">
@@ -11324,7 +11330,7 @@
         </is>
       </c>
       <c r="B398" s="51" t="n">
-        <v>85969</v>
+        <v>82990</v>
       </c>
       <c r="C398" s="34" t="n">
         <v>0</v>
@@ -11338,10 +11344,10 @@
         </is>
       </c>
       <c r="G398" s="37" t="n">
-        <v>71849</v>
+        <v>76998</v>
       </c>
       <c r="H398" s="37" t="n">
-        <v>14120</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" s="39">
@@ -11351,7 +11357,7 @@
         </is>
       </c>
       <c r="B399" s="51" t="n">
-        <v>259997</v>
+        <v>269826</v>
       </c>
       <c r="C399" s="12" t="n">
         <v>0</v>
@@ -11365,10 +11371,10 @@
         </is>
       </c>
       <c r="G399" s="37" t="n">
-        <v>247490</v>
+        <v>248973</v>
       </c>
       <c r="H399" s="37" t="n">
-        <v>12507</v>
+        <v>20853</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" s="39">
@@ -11378,7 +11384,7 @@
         </is>
       </c>
       <c r="B400" s="51" t="n">
-        <v>699048</v>
+        <v>687865</v>
       </c>
       <c r="C400" s="12" t="n">
         <v>0</v>
@@ -11392,10 +11398,10 @@
         </is>
       </c>
       <c r="G400" s="37" t="n">
-        <v>525555</v>
+        <v>641971</v>
       </c>
       <c r="H400" s="37" t="n">
-        <v>173493</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1" s="39">
@@ -11405,7 +11411,7 @@
         </is>
       </c>
       <c r="B401" s="51" t="n">
-        <v>1148986</v>
+        <v>1149990</v>
       </c>
       <c r="C401" s="12" t="n">
         <v>0</v>
@@ -11419,10 +11425,10 @@
         </is>
       </c>
       <c r="G401" s="37" t="n">
-        <v>1099982</v>
+        <v>1250000</v>
       </c>
       <c r="H401" s="37" t="n">
-        <v>49004</v>
+        <v>-100010</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1" s="39">
@@ -11432,7 +11438,7 @@
         </is>
       </c>
       <c r="B402" s="47" t="n">
-        <v>89974</v>
+        <v>98882</v>
       </c>
       <c r="C402" s="12" t="n">
         <v>0</v>
@@ -11446,10 +11452,10 @@
         </is>
       </c>
       <c r="G402" s="37" t="n">
-        <v>105047</v>
+        <v>109697</v>
       </c>
       <c r="H402" s="37" t="n">
-        <v>-15073</v>
+        <v>-10815</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1" s="39">
@@ -11459,7 +11465,7 @@
         </is>
       </c>
       <c r="B403" s="47" t="n">
-        <v>134998</v>
+        <v>135530</v>
       </c>
       <c r="C403" s="12" t="n">
         <v>0</v>
@@ -11473,10 +11479,10 @@
         </is>
       </c>
       <c r="G403" s="37" t="n">
-        <v>119734</v>
+        <v>122890</v>
       </c>
       <c r="H403" s="37" t="n">
-        <v>15264</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" s="39">
@@ -11486,7 +11492,7 @@
         </is>
       </c>
       <c r="B404" s="47" t="n">
-        <v>270985</v>
+        <v>263992</v>
       </c>
       <c r="C404" s="12" t="n">
         <v>0</v>
@@ -11500,10 +11506,10 @@
         </is>
       </c>
       <c r="G404" s="37" t="n">
-        <v>249981</v>
+        <v>249959</v>
       </c>
       <c r="H404" s="37" t="n">
-        <v>21004</v>
+        <v>14033</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1" s="39">
@@ -11513,7 +11519,7 @@
         </is>
       </c>
       <c r="B405" s="47" t="n">
-        <v>459930</v>
+        <v>469971</v>
       </c>
       <c r="C405" s="12" t="n">
         <v>0</v>
@@ -11527,10 +11533,10 @@
         </is>
       </c>
       <c r="G405" s="37" t="n">
-        <v>448970</v>
+        <v>424986</v>
       </c>
       <c r="H405" s="37" t="n">
-        <v>10960</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1" s="39">
@@ -11540,7 +11546,7 @@
         </is>
       </c>
       <c r="B406" s="47" t="n">
-        <v>937990</v>
+        <v>931066</v>
       </c>
       <c r="C406" s="34" t="n">
         <v>0</v>
@@ -11554,10 +11560,10 @@
         </is>
       </c>
       <c r="G406" s="37" t="n">
-        <v>887999</v>
+        <v>884939</v>
       </c>
       <c r="H406" s="37" t="n">
-        <v>49991</v>
+        <v>46127</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1" s="39">
@@ -11567,7 +11573,7 @@
         </is>
       </c>
       <c r="B407" s="48" t="n">
-        <v>180969</v>
+        <v>167890</v>
       </c>
       <c r="C407" s="34" t="n">
         <v>0</v>
@@ -11581,10 +11587,10 @@
         </is>
       </c>
       <c r="G407" s="37" t="n">
-        <v>204966</v>
+        <v>202970</v>
       </c>
       <c r="H407" s="37" t="n">
-        <v>-23997</v>
+        <v>-35080</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" s="39">
@@ -11594,7 +11600,7 @@
         </is>
       </c>
       <c r="B408" s="48" t="n">
-        <v>199911</v>
+        <v>197976</v>
       </c>
       <c r="C408" s="34" t="n">
         <v>0</v>
@@ -11608,10 +11614,10 @@
         </is>
       </c>
       <c r="G408" s="37" t="n">
-        <v>209744</v>
+        <v>199982</v>
       </c>
       <c r="H408" s="37" t="n">
-        <v>-9833</v>
+        <v>-2006</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1" s="39">
@@ -11621,7 +11627,7 @@
         </is>
       </c>
       <c r="B409" s="48" t="n">
-        <v>237668</v>
+        <v>238749</v>
       </c>
       <c r="C409" s="12" t="n">
         <v>0</v>
@@ -11635,10 +11641,10 @@
         </is>
       </c>
       <c r="G409" s="37" t="n">
-        <v>227991</v>
+        <v>226974</v>
       </c>
       <c r="H409" s="37" t="n">
-        <v>9677</v>
+        <v>11775</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1" s="39">
@@ -11648,7 +11654,7 @@
         </is>
       </c>
       <c r="B410" s="48" t="n">
-        <v>666660</v>
+        <v>701685</v>
       </c>
       <c r="C410" s="12" t="n">
         <v>0</v>
@@ -11662,10 +11668,10 @@
         </is>
       </c>
       <c r="G410" s="37" t="n">
-        <v>619999</v>
+        <v>729995</v>
       </c>
       <c r="H410" s="37" t="n">
-        <v>46661</v>
+        <v>-28310</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1" s="39">
@@ -11675,7 +11681,7 @@
         </is>
       </c>
       <c r="B411" s="48" t="n">
-        <v>1049981</v>
+        <v>949996</v>
       </c>
       <c r="C411" s="12" t="n">
         <v>0</v>
@@ -11689,10 +11695,10 @@
         </is>
       </c>
       <c r="G411" s="37" t="n">
-        <v>996471</v>
+        <v>969999</v>
       </c>
       <c r="H411" s="37" t="n">
-        <v>53510</v>
+        <v>-20003</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1" s="39">
@@ -11702,7 +11708,7 @@
         </is>
       </c>
       <c r="B412" s="41" t="n">
-        <v>99946</v>
+        <v>91574</v>
       </c>
       <c r="C412" s="12" t="n">
         <v>0</v>
@@ -11716,10 +11722,10 @@
         </is>
       </c>
       <c r="G412" s="37" t="n">
-        <v>124966</v>
+        <v>119240</v>
       </c>
       <c r="H412" s="37" t="n">
-        <v>-25020</v>
+        <v>-27666</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1" s="39">
@@ -11729,7 +11735,7 @@
         </is>
       </c>
       <c r="B413" s="41" t="n">
-        <v>173402</v>
+        <v>172992</v>
       </c>
       <c r="C413" s="12" t="n">
         <v>0</v>
@@ -11743,10 +11749,10 @@
         </is>
       </c>
       <c r="G413" s="37" t="n">
-        <v>145000</v>
+        <v>154995</v>
       </c>
       <c r="H413" s="37" t="n">
-        <v>28402</v>
+        <v>17997</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" s="39">
@@ -11756,7 +11762,7 @@
         </is>
       </c>
       <c r="B414" s="41" t="n">
-        <v>365596</v>
+        <v>386879</v>
       </c>
       <c r="C414" s="12" t="n">
         <v>0</v>
@@ -11770,10 +11776,10 @@
         </is>
       </c>
       <c r="G414" s="37" t="n">
-        <v>359000</v>
+        <v>364949</v>
       </c>
       <c r="H414" s="37" t="n">
-        <v>6596</v>
+        <v>21930</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" s="39">
@@ -11783,7 +11789,7 @@
         </is>
       </c>
       <c r="B415" s="41" t="n">
-        <v>585432</v>
+        <v>629975</v>
       </c>
       <c r="C415" s="12" t="n">
         <v>0</v>
@@ -11797,10 +11803,10 @@
         </is>
       </c>
       <c r="G415" s="37" t="n">
-        <v>749990</v>
+        <v>599998</v>
       </c>
       <c r="H415" s="37" t="n">
-        <v>-164558</v>
+        <v>29977</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" s="39">
@@ -11810,7 +11816,7 @@
         </is>
       </c>
       <c r="B416" s="41" t="n">
-        <v>1499997</v>
+        <v>1489990</v>
       </c>
       <c r="C416" s="34" t="n">
         <v>0</v>
@@ -11824,10 +11830,10 @@
         </is>
       </c>
       <c r="G416" s="37" t="n">
-        <v>0</v>
+        <v>1486999</v>
       </c>
       <c r="H416" s="37" t="n">
-        <v>1499997</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1" s="39">
@@ -11851,10 +11857,10 @@
         </is>
       </c>
       <c r="G417" s="37" t="n">
-        <v>128197</v>
+        <v>124876</v>
       </c>
       <c r="H417" s="37" t="n">
-        <v>-29198</v>
+        <v>-25877</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" s="39">
@@ -11878,10 +11884,10 @@
         </is>
       </c>
       <c r="G418" s="37" t="n">
-        <v>229996</v>
+        <v>210000</v>
       </c>
       <c r="H418" s="37" t="n">
-        <v>-51000</v>
+        <v>-31004</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1" s="39">
@@ -11905,10 +11911,10 @@
         </is>
       </c>
       <c r="G419" s="37" t="n">
-        <v>354780</v>
+        <v>377777</v>
       </c>
       <c r="H419" s="37" t="n">
-        <v>60107</v>
+        <v>37110</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1" s="39">
@@ -11932,10 +11938,10 @@
         </is>
       </c>
       <c r="G420" s="37" t="n">
-        <v>678989</v>
+        <v>520993</v>
       </c>
       <c r="H420" s="37" t="n">
-        <v>71010</v>
+        <v>229006</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" s="39">
@@ -11959,10 +11965,10 @@
         </is>
       </c>
       <c r="G421" s="37" t="n">
-        <v>1555555</v>
+        <v>1899996</v>
       </c>
       <c r="H421" s="37" t="n">
-        <v>222209</v>
+        <v>-122232</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" s="39">
@@ -11972,7 +11978,7 @@
         </is>
       </c>
       <c r="B422" s="41" t="n">
-        <v>88695</v>
+        <v>78638</v>
       </c>
       <c r="C422" s="12" t="n">
         <v>0</v>
@@ -11986,10 +11992,10 @@
         </is>
       </c>
       <c r="G422" s="37" t="n">
-        <v>79971</v>
+        <v>85985</v>
       </c>
       <c r="H422" s="37" t="n">
-        <v>8724</v>
+        <v>-7347</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" s="39">
@@ -11999,7 +12005,7 @@
         </is>
       </c>
       <c r="B423" s="41" t="n">
-        <v>149981</v>
+        <v>143961</v>
       </c>
       <c r="C423" s="12" t="n">
         <v>0</v>
@@ -12013,10 +12019,10 @@
         </is>
       </c>
       <c r="G423" s="37" t="n">
-        <v>99997</v>
+        <v>89999</v>
       </c>
       <c r="H423" s="37" t="n">
-        <v>49984</v>
+        <v>53962</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" s="39">
@@ -12026,7 +12032,7 @@
         </is>
       </c>
       <c r="B424" s="41" t="n">
-        <v>300423</v>
+        <v>300213</v>
       </c>
       <c r="C424" s="12" t="n">
         <v>0</v>
@@ -12040,10 +12046,10 @@
         </is>
       </c>
       <c r="G424" s="37" t="n">
-        <v>247999</v>
+        <v>274998</v>
       </c>
       <c r="H424" s="37" t="n">
-        <v>52424</v>
+        <v>25215</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" s="39">
@@ -12053,7 +12059,7 @@
         </is>
       </c>
       <c r="B425" s="41" t="n">
-        <v>509500</v>
+        <v>519496</v>
       </c>
       <c r="C425" s="12" t="n">
         <v>0</v>
@@ -12067,10 +12073,10 @@
         </is>
       </c>
       <c r="G425" s="37" t="n">
-        <v>529998</v>
+        <v>488886</v>
       </c>
       <c r="H425" s="37" t="n">
-        <v>-20498</v>
+        <v>30610</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1" s="39">
@@ -12080,7 +12086,7 @@
         </is>
       </c>
       <c r="B426" s="41" t="n">
-        <v>1072998</v>
+        <v>1159994</v>
       </c>
       <c r="C426" s="34" t="n">
         <v>0</v>
@@ -12094,10 +12100,10 @@
         </is>
       </c>
       <c r="G426" s="37" t="n">
-        <v>1099982</v>
+        <v>1099995</v>
       </c>
       <c r="H426" s="37" t="n">
-        <v>-26984</v>
+        <v>59999</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1" s="39">
@@ -12107,7 +12113,7 @@
         </is>
       </c>
       <c r="B427" s="41" t="n">
-        <v>78895</v>
+        <v>88884</v>
       </c>
       <c r="C427" s="34" t="n">
         <v>0</v>
@@ -12121,10 +12127,10 @@
         </is>
       </c>
       <c r="G427" s="37" t="n">
-        <v>84989</v>
+        <v>86130</v>
       </c>
       <c r="H427" s="37" t="n">
-        <v>-6094</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" s="39">
@@ -12134,7 +12140,7 @@
         </is>
       </c>
       <c r="B428" s="41" t="n">
-        <v>151660</v>
+        <v>163655</v>
       </c>
       <c r="C428" s="34" t="n">
         <v>0</v>
@@ -12148,10 +12154,10 @@
         </is>
       </c>
       <c r="G428" s="37" t="n">
-        <v>150110</v>
+        <v>146980</v>
       </c>
       <c r="H428" s="37" t="n">
-        <v>1550</v>
+        <v>16675</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" s="39">
@@ -12161,7 +12167,7 @@
         </is>
       </c>
       <c r="B429" s="41" t="n">
-        <v>306983</v>
+        <v>312966</v>
       </c>
       <c r="C429" s="12" t="n">
         <v>0</v>
@@ -12175,10 +12181,10 @@
         </is>
       </c>
       <c r="G429" s="37" t="n">
-        <v>0</v>
+        <v>319988</v>
       </c>
       <c r="H429" s="37" t="n">
-        <v>306983</v>
+        <v>-7022</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" s="39">
@@ -12188,7 +12194,7 @@
         </is>
       </c>
       <c r="B430" s="41" t="n">
-        <v>672996</v>
+        <v>670994</v>
       </c>
       <c r="C430" s="12" t="n">
         <v>0</v>
@@ -12202,10 +12208,10 @@
         </is>
       </c>
       <c r="G430" s="37" t="n">
-        <v>666666</v>
+        <v>699995</v>
       </c>
       <c r="H430" s="37" t="n">
-        <v>6330</v>
+        <v>-29001</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" s="39">
@@ -12215,7 +12221,7 @@
         </is>
       </c>
       <c r="B431" s="41" t="n">
-        <v>1409998</v>
+        <v>1419997</v>
       </c>
       <c r="C431" s="12" t="n">
         <v>0</v>
@@ -12229,10 +12235,10 @@
         </is>
       </c>
       <c r="G431" s="37" t="n">
-        <v>1830000</v>
+        <v>1330000</v>
       </c>
       <c r="H431" s="37" t="n">
-        <v>-420002</v>
+        <v>89997</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" s="39">
@@ -12242,7 +12248,7 @@
         </is>
       </c>
       <c r="B432" s="41" t="n">
-        <v>65935</v>
+        <v>66833</v>
       </c>
       <c r="C432" s="37" t="n">
         <v>0</v>
@@ -12256,10 +12262,10 @@
         </is>
       </c>
       <c r="G432" s="37" t="n">
-        <v>95196</v>
+        <v>90090</v>
       </c>
       <c r="H432" s="37" t="n">
-        <v>-29261</v>
+        <v>-23257</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" s="39">
@@ -12269,7 +12275,7 @@
         </is>
       </c>
       <c r="B433" s="41" t="n">
-        <v>139953</v>
+        <v>134000</v>
       </c>
       <c r="D433" s="37" t="n">
         <v>5</v>
@@ -12280,10 +12286,10 @@
         </is>
       </c>
       <c r="G433" s="37" t="n">
-        <v>113974</v>
+        <v>113999</v>
       </c>
       <c r="H433" s="37" t="n">
-        <v>25979</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1" s="39">
@@ -12293,7 +12299,7 @@
         </is>
       </c>
       <c r="B434" s="41" t="n">
-        <v>271990</v>
+        <v>276668</v>
       </c>
       <c r="C434" s="37" t="n">
         <v>0</v>
@@ -12307,10 +12313,10 @@
         </is>
       </c>
       <c r="G434" s="37" t="n">
-        <v>250000</v>
+        <v>263981</v>
       </c>
       <c r="H434" s="37" t="n">
-        <v>21990</v>
+        <v>12687</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1" s="39">
@@ -12320,7 +12326,7 @@
         </is>
       </c>
       <c r="B435" s="41" t="n">
-        <v>506968</v>
+        <v>409000</v>
       </c>
       <c r="C435" s="37" t="n">
         <v>0</v>
@@ -12334,10 +12340,10 @@
         </is>
       </c>
       <c r="G435" s="37" t="n">
-        <v>490930</v>
+        <v>475981</v>
       </c>
       <c r="H435" s="37" t="n">
-        <v>16038</v>
+        <v>-66981</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1" s="39">
@@ -12347,7 +12353,7 @@
         </is>
       </c>
       <c r="B436" s="41" t="n">
-        <v>1255555</v>
+        <v>1259982</v>
       </c>
       <c r="C436" s="37" t="n">
         <v>0</v>
@@ -12361,10 +12367,10 @@
         </is>
       </c>
       <c r="G436" s="37" t="n">
-        <v>0</v>
+        <v>1198995</v>
       </c>
       <c r="H436" s="37" t="n">
-        <v>1255555</v>
+        <v>60987</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1" s="39">
@@ -12374,7 +12380,7 @@
         </is>
       </c>
       <c r="B437" s="41" t="n">
-        <v>87877</v>
+        <v>78863</v>
       </c>
       <c r="C437" s="34" t="n">
         <v>0</v>
@@ -12388,10 +12394,10 @@
         </is>
       </c>
       <c r="G437" s="37" t="n">
-        <v>79499</v>
+        <v>83978</v>
       </c>
       <c r="H437" s="37" t="n">
-        <v>8378</v>
+        <v>-5115</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1" s="39">
@@ -12401,7 +12407,7 @@
         </is>
       </c>
       <c r="B438" s="41" t="n">
-        <v>129895</v>
+        <v>103200</v>
       </c>
       <c r="C438" s="34" t="n">
         <v>0</v>
@@ -12415,10 +12421,10 @@
         </is>
       </c>
       <c r="G438" s="37" t="n">
-        <v>107985</v>
+        <v>109016</v>
       </c>
       <c r="H438" s="37" t="n">
-        <v>21910</v>
+        <v>-5816</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1" s="39">
@@ -12428,7 +12434,7 @@
         </is>
       </c>
       <c r="B439" s="41" t="n">
-        <v>278750</v>
+        <v>232237</v>
       </c>
       <c r="C439" s="12" t="n">
         <v>0</v>
@@ -12442,10 +12448,10 @@
         </is>
       </c>
       <c r="G439" s="37" t="n">
-        <v>253000</v>
+        <v>250910</v>
       </c>
       <c r="H439" s="37" t="n">
-        <v>25750</v>
+        <v>-18673</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1" s="39">
@@ -12455,7 +12461,7 @@
         </is>
       </c>
       <c r="B440" s="41" t="n">
-        <v>459069</v>
+        <v>447977</v>
       </c>
       <c r="C440" s="12" t="n">
         <v>0</v>
@@ -12469,10 +12475,10 @@
         </is>
       </c>
       <c r="G440" s="37" t="n">
-        <v>422997</v>
+        <v>442000</v>
       </c>
       <c r="H440" s="37" t="n">
-        <v>36072</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1" s="39">
@@ -12482,7 +12488,7 @@
         </is>
       </c>
       <c r="B441" s="41" t="n">
-        <v>1349000</v>
+        <v>1359988</v>
       </c>
       <c r="C441" s="12" t="n">
         <v>0</v>
@@ -12496,10 +12502,10 @@
         </is>
       </c>
       <c r="G441" s="37" t="n">
-        <v>1249999</v>
+        <v>1290000</v>
       </c>
       <c r="H441" s="37" t="n">
-        <v>99001</v>
+        <v>69988</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1" s="39">
@@ -12509,7 +12515,7 @@
         </is>
       </c>
       <c r="B442" s="41" t="n">
-        <v>79991</v>
+        <v>81992</v>
       </c>
       <c r="C442" s="12" t="n">
         <v>0</v>
@@ -12523,10 +12529,10 @@
         </is>
       </c>
       <c r="G442" s="37" t="n">
-        <v>89995</v>
+        <v>89878</v>
       </c>
       <c r="H442" s="37" t="n">
-        <v>-10004</v>
+        <v>-7886</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1" s="39">
@@ -12536,7 +12542,7 @@
         </is>
       </c>
       <c r="B443" s="41" t="n">
-        <v>149980</v>
+        <v>144436</v>
       </c>
       <c r="C443" s="12" t="n">
         <v>0</v>
@@ -12550,10 +12556,10 @@
         </is>
       </c>
       <c r="G443" s="37" t="n">
-        <v>139988</v>
+        <v>124996</v>
       </c>
       <c r="H443" s="37" t="n">
-        <v>9992</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1" s="39">
@@ -12563,7 +12569,7 @@
         </is>
       </c>
       <c r="B444" s="41" t="n">
-        <v>319951</v>
+        <v>279996</v>
       </c>
       <c r="C444" s="12" t="n">
         <v>0</v>
@@ -12577,10 +12583,10 @@
         </is>
       </c>
       <c r="G444" s="37" t="n">
-        <v>279999</v>
+        <v>287999</v>
       </c>
       <c r="H444" s="37" t="n">
-        <v>39952</v>
+        <v>-8003</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1" s="39">
@@ -12590,7 +12596,7 @@
         </is>
       </c>
       <c r="B445" s="41" t="n">
-        <v>649943</v>
+        <v>587866</v>
       </c>
       <c r="C445" s="12" t="n">
         <v>0</v>
@@ -12604,10 +12610,10 @@
         </is>
       </c>
       <c r="G445" s="37" t="n">
-        <v>869995</v>
+        <v>589995</v>
       </c>
       <c r="H445" s="37" t="n">
-        <v>-220052</v>
+        <v>-2129</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1" s="39">
@@ -12617,7 +12623,7 @@
         </is>
       </c>
       <c r="B446" s="41" t="n">
-        <v>1349959</v>
+        <v>1299970</v>
       </c>
       <c r="C446" s="34" t="n">
         <v>0</v>
@@ -12631,10 +12637,10 @@
         </is>
       </c>
       <c r="G446" s="37" t="n">
-        <v>1799997</v>
+        <v>1399997</v>
       </c>
       <c r="H446" s="37" t="n">
-        <v>-450038</v>
+        <v>-100027</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1" s="39">
@@ -12644,7 +12650,7 @@
         </is>
       </c>
       <c r="B447" s="48" t="n">
-        <v>3599</v>
+        <v>3653</v>
       </c>
       <c r="C447" s="34" t="n">
         <v>0</v>
@@ -12658,10 +12664,10 @@
         </is>
       </c>
       <c r="G447" s="37" t="n">
-        <v>3333</v>
+        <v>4419</v>
       </c>
       <c r="H447" s="37" t="n">
-        <v>266</v>
+        <v>-766</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1" s="39">
@@ -12671,7 +12677,7 @@
         </is>
       </c>
       <c r="B448" s="48" t="n">
-        <v>15982</v>
+        <v>15068</v>
       </c>
       <c r="C448" s="34" t="n">
         <v>0</v>
@@ -12685,10 +12691,10 @@
         </is>
       </c>
       <c r="G448" s="37" t="n">
-        <v>9125</v>
+        <v>9495</v>
       </c>
       <c r="H448" s="37" t="n">
-        <v>6857</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1" s="39">
@@ -12698,7 +12704,7 @@
         </is>
       </c>
       <c r="B449" s="48" t="n">
-        <v>52567</v>
+        <v>53266</v>
       </c>
       <c r="C449" s="12" t="n">
         <v>0</v>
@@ -12712,10 +12718,10 @@
         </is>
       </c>
       <c r="G449" s="37" t="n">
-        <v>37984</v>
+        <v>41979</v>
       </c>
       <c r="H449" s="37" t="n">
-        <v>14583</v>
+        <v>11287</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1" s="39">
@@ -12725,7 +12731,7 @@
         </is>
       </c>
       <c r="B450" s="48" t="n">
-        <v>145866</v>
+        <v>138198</v>
       </c>
       <c r="C450" s="12" t="n">
         <v>0</v>
@@ -12739,10 +12745,10 @@
         </is>
       </c>
       <c r="G450" s="37" t="n">
-        <v>129973</v>
+        <v>134908</v>
       </c>
       <c r="H450" s="37" t="n">
-        <v>15893</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1" s="39">
@@ -12752,7 +12758,7 @@
         </is>
       </c>
       <c r="B451" s="48" t="n">
-        <v>346972</v>
+        <v>349996</v>
       </c>
       <c r="C451" s="12" t="n">
         <v>0</v>
@@ -12766,10 +12772,10 @@
         </is>
       </c>
       <c r="G451" s="37" t="n">
-        <v>299987</v>
+        <v>308889</v>
       </c>
       <c r="H451" s="37" t="n">
-        <v>46985</v>
+        <v>41107</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" s="39">
@@ -12779,7 +12785,7 @@
         </is>
       </c>
       <c r="B452" s="49" t="n">
-        <v>2987</v>
+        <v>2778</v>
       </c>
       <c r="C452" s="12" t="n">
         <v>0</v>
@@ -12793,10 +12799,10 @@
         </is>
       </c>
       <c r="G452" s="37" t="n">
-        <v>1737</v>
+        <v>2323</v>
       </c>
       <c r="H452" s="37" t="n">
-        <v>1250</v>
+        <v>455</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" s="39">
@@ -12806,7 +12812,7 @@
         </is>
       </c>
       <c r="B453" s="49" t="n">
-        <v>7583</v>
+        <v>7446</v>
       </c>
       <c r="C453" s="12" t="n">
         <v>0</v>
@@ -12820,10 +12826,10 @@
         </is>
       </c>
       <c r="G453" s="37" t="n">
-        <v>4496</v>
+        <v>5800</v>
       </c>
       <c r="H453" s="37" t="n">
-        <v>3087</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1" s="39">
@@ -12833,7 +12839,7 @@
         </is>
       </c>
       <c r="B454" s="49" t="n">
-        <v>31892</v>
+        <v>27880</v>
       </c>
       <c r="C454" s="12" t="n">
         <v>0</v>
@@ -12847,10 +12853,10 @@
         </is>
       </c>
       <c r="G454" s="37" t="n">
-        <v>23892</v>
+        <v>23789</v>
       </c>
       <c r="H454" s="37" t="n">
-        <v>8000</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" s="39">
@@ -12860,7 +12866,7 @@
         </is>
       </c>
       <c r="B455" s="49" t="n">
-        <v>76983</v>
+        <v>73198</v>
       </c>
       <c r="C455" s="12" t="n">
         <v>0</v>
@@ -12874,10 +12880,10 @@
         </is>
       </c>
       <c r="G455" s="37" t="n">
-        <v>59690</v>
+        <v>64924</v>
       </c>
       <c r="H455" s="37" t="n">
-        <v>17293</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" s="39">
@@ -12887,7 +12893,7 @@
         </is>
       </c>
       <c r="B456" s="49" t="n">
-        <v>181926</v>
+        <v>169993</v>
       </c>
       <c r="C456" s="12" t="n">
         <v>0</v>
@@ -12901,10 +12907,10 @@
         </is>
       </c>
       <c r="G456" s="37" t="n">
-        <v>139999</v>
+        <v>136997</v>
       </c>
       <c r="H456" s="37" t="n">
-        <v>41927</v>
+        <v>32996</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1" s="39">
@@ -12914,7 +12920,7 @@
         </is>
       </c>
       <c r="B457" s="41" t="n">
-        <v>40964</v>
+        <v>39659</v>
       </c>
       <c r="C457" s="12" t="n">
         <v>0</v>
@@ -12928,10 +12934,10 @@
         </is>
       </c>
       <c r="G457" s="37" t="n">
-        <v>32547</v>
+        <v>33916</v>
       </c>
       <c r="H457" s="37" t="n">
-        <v>8417</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1" s="39">
@@ -12941,7 +12947,7 @@
         </is>
       </c>
       <c r="B458" s="41" t="n">
-        <v>50645</v>
+        <v>51877</v>
       </c>
       <c r="C458" s="12" t="n">
         <v>0</v>
@@ -12955,10 +12961,10 @@
         </is>
       </c>
       <c r="G458" s="37" t="n">
-        <v>35000</v>
+        <v>40994</v>
       </c>
       <c r="H458" s="37" t="n">
-        <v>15645</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="459" ht="12.75" customHeight="1" s="39">
@@ -12968,7 +12974,7 @@
         </is>
       </c>
       <c r="B459" s="41" t="n">
-        <v>85953</v>
+        <v>84689</v>
       </c>
       <c r="C459" s="12" t="n">
         <v>0</v>
@@ -12982,10 +12988,10 @@
         </is>
       </c>
       <c r="G459" s="37" t="n">
-        <v>73956</v>
+        <v>68976</v>
       </c>
       <c r="H459" s="37" t="n">
-        <v>11997</v>
+        <v>15713</v>
       </c>
     </row>
     <row r="460" ht="12.75" customHeight="1" s="39">
@@ -12995,7 +13001,7 @@
         </is>
       </c>
       <c r="B460" s="41" t="n">
-        <v>189984</v>
+        <v>180964</v>
       </c>
       <c r="C460" s="12" t="n">
         <v>0</v>
@@ -13009,10 +13015,10 @@
         </is>
       </c>
       <c r="G460" s="37" t="n">
-        <v>169993</v>
+        <v>161968</v>
       </c>
       <c r="H460" s="37" t="n">
-        <v>19991</v>
+        <v>18996</v>
       </c>
     </row>
     <row r="461" ht="12.75" customHeight="1" s="39">
@@ -13022,7 +13028,7 @@
         </is>
       </c>
       <c r="B461" s="41" t="n">
-        <v>358881</v>
+        <v>364680</v>
       </c>
       <c r="C461" s="12" t="n">
         <v>0</v>
@@ -13036,10 +13042,10 @@
         </is>
       </c>
       <c r="G461" s="37" t="n">
-        <v>310948</v>
+        <v>312076</v>
       </c>
       <c r="H461" s="37" t="n">
-        <v>47933</v>
+        <v>52604</v>
       </c>
     </row>
     <row r="462" ht="12.75" customHeight="1" s="39">
@@ -14695,7 +14701,7 @@
           <t>шлем жранителя (знаток)</t>
         </is>
       </c>
-      <c r="B1001" s="41" t="n">
+      <c r="B1001" s="54" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -14705,7 +14711,7 @@
           <t>шлем жранителя (эксперт)</t>
         </is>
       </c>
-      <c r="B1002" s="41" t="n">
+      <c r="B1002" s="54" t="n">
         <v>5967</v>
       </c>
     </row>
@@ -14715,7 +14721,7 @@
           <t>шлем жранителя (мастер)</t>
         </is>
       </c>
-      <c r="B1003" s="41" t="n">
+      <c r="B1003" s="54" t="n">
         <v>21409</v>
       </c>
     </row>
@@ -14725,7 +14731,7 @@
           <t>шлем жранителя (магистр)</t>
         </is>
       </c>
-      <c r="B1004" s="41" t="n">
+      <c r="B1004" s="54" t="n">
         <v>49989</v>
       </c>
     </row>
@@ -14735,7 +14741,7 @@
           <t>шлем жранителя (старейшина)</t>
         </is>
       </c>
-      <c r="B1005" s="41" t="n">
+      <c r="B1005" s="54" t="n">
         <v>123989</v>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B2" s="40" t="n">
-        <v>2132</v>
+        <v>2172</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>1553</v>
+        <v>1666</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>579</v>
+        <v>506</v>
       </c>
       <c r="I2" s="3" t="n"/>
     </row>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B3" s="40" t="n">
-        <v>6113</v>
+        <v>6264</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>3242</v>
+        <v>3375</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2871</v>
+        <v>2889</v>
       </c>
       <c r="I3" s="3" t="n"/>
     </row>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>16670</v>
+        <v>18694</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>13430</v>
+        <v>13400</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>3240</v>
+        <v>5294</v>
       </c>
       <c r="I4" s="3" t="n"/>
     </row>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B5" s="40" t="n">
-        <v>44593</v>
+        <v>45582</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0</v>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>34999</v>
+        <v>35989</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>9594</v>
+        <v>9593</v>
       </c>
       <c r="I5" s="3" t="n"/>
     </row>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>134294</v>
+        <v>133998</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="G6" s="3" t="n">
-        <v>118862</v>
+        <v>150960</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>15432</v>
+        <v>-16962</v>
       </c>
       <c r="I6" s="3" t="n"/>
     </row>
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>2290</v>
+        <v>2260</v>
       </c>
       <c r="G7" s="37" t="n">
-        <v>1201</v>
+        <v>1096</v>
       </c>
       <c r="H7" s="37" t="n">
-        <v>1089</v>
+        <v>1164</v>
       </c>
       <c r="I7" s="3" t="n"/>
     </row>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>6059</v>
+        <v>6100</v>
       </c>
       <c r="G8" s="37" t="n">
-        <v>3295</v>
+        <v>3536</v>
       </c>
       <c r="H8" s="37" t="n">
-        <v>2764</v>
+        <v>2564</v>
       </c>
       <c r="I8" s="3" t="n"/>
     </row>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="B9" s="41" t="n">
-        <v>19611</v>
+        <v>19446</v>
       </c>
       <c r="G9" s="37" t="n">
-        <v>12990</v>
+        <v>15761</v>
       </c>
       <c r="H9" s="37" t="n">
-        <v>6621</v>
+        <v>3685</v>
       </c>
       <c r="I9" s="3" t="n"/>
     </row>
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="B10" s="41" t="n">
-        <v>46649</v>
+        <v>46669</v>
       </c>
       <c r="G10" s="37" t="n">
-        <v>36992</v>
+        <v>26000</v>
       </c>
       <c r="H10" s="37" t="n">
-        <v>9657</v>
+        <v>20669</v>
       </c>
       <c r="I10" s="3" t="n"/>
     </row>
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B11" s="41" t="n">
-        <v>123891</v>
+        <v>123000</v>
       </c>
       <c r="G11" s="37" t="n">
-        <v>100995</v>
+        <v>99989</v>
       </c>
       <c r="H11" s="37" t="n">
-        <v>22896</v>
+        <v>23011</v>
       </c>
       <c r="I11" s="3" t="n"/>
     </row>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B12" s="42" t="n">
-        <v>2043</v>
+        <v>2195</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>883</v>
+        <v>1030</v>
       </c>
       <c r="I12" s="3" t="n"/>
     </row>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B13" s="42" t="n">
-        <v>5489</v>
+        <v>4993</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>3965</v>
+        <v>3457</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1524</v>
+        <v>1536</v>
       </c>
       <c r="I13" s="3" t="n"/>
     </row>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B14" s="42" t="n">
-        <v>18953</v>
+        <v>18961</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="G14" s="3" t="n">
-        <v>14230</v>
+        <v>14991</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>4723</v>
+        <v>3970</v>
       </c>
       <c r="I14" s="3" t="n"/>
     </row>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B15" s="42" t="n">
-        <v>46346</v>
+        <v>45380</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="G15" s="3" t="n">
-        <v>39944</v>
+        <v>37900</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>6402</v>
+        <v>7480</v>
       </c>
       <c r="I15" s="3" t="n"/>
     </row>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="B16" s="42" t="n">
-        <v>129061</v>
+        <v>127000</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="G16" s="3" t="n">
-        <v>110000</v>
+        <v>93988</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>19061</v>
+        <v>33012</v>
       </c>
       <c r="I16" s="3" t="n"/>
     </row>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B17" s="43" t="n">
-        <v>3279</v>
+        <v>2698</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="G17" s="3" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="H17" s="10" t="n">
-        <v>1079</v>
+        <v>1198</v>
       </c>
       <c r="I17" s="3" t="n"/>
     </row>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B18" s="43" t="n">
-        <v>8444</v>
+        <v>8485</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="G18" s="3" t="n">
-        <v>5414</v>
+        <v>5589</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>3030</v>
+        <v>2896</v>
       </c>
       <c r="I18" s="3" t="n"/>
     </row>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B19" s="43" t="n">
-        <v>30909</v>
+        <v>30669</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="G19" s="3" t="n">
-        <v>25983</v>
+        <v>24937</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>4926</v>
+        <v>5732</v>
       </c>
       <c r="I19" s="3" t="n"/>
     </row>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B20" s="43" t="n">
-        <v>79916</v>
+        <v>76791</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="G20" s="3" t="n">
-        <v>63000</v>
+        <v>63989</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>16916</v>
+        <v>12802</v>
       </c>
       <c r="I20" s="3" t="n"/>
     </row>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B21" s="43" t="n">
-        <v>179966</v>
+        <v>178874</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="G21" s="3" t="n">
-        <v>135000</v>
+        <v>134898</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>44966</v>
+        <v>43976</v>
       </c>
       <c r="I21" s="3" t="n"/>
     </row>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>3377</v>
+        <v>2698</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="G22" s="3" t="n">
-        <v>2191</v>
+        <v>1977</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>1186</v>
+        <v>721</v>
       </c>
       <c r="I22" s="3" t="n"/>
     </row>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>8521</v>
+        <v>7471</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>4949</v>
+        <v>4956</v>
       </c>
       <c r="H23" s="10" t="n">
-        <v>3572</v>
+        <v>2515</v>
       </c>
       <c r="I23" s="3" t="n"/>
     </row>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>26850</v>
+        <v>26835</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         </is>
       </c>
       <c r="G24" s="3" t="n">
-        <v>22946</v>
+        <v>23491</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>3904</v>
+        <v>3344</v>
       </c>
       <c r="I24" s="3" t="n"/>
     </row>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>83936</v>
+        <v>82967</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="G25" s="3" t="n">
-        <v>64984</v>
+        <v>69988</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>18952</v>
+        <v>12979</v>
       </c>
       <c r="I25" s="3" t="n"/>
     </row>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>186949</v>
+        <v>184783</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="G26" s="3" t="n">
-        <v>159970</v>
+        <v>168985</v>
       </c>
       <c r="H26" s="10" t="n">
-        <v>26979</v>
+        <v>15798</v>
       </c>
       <c r="I26" s="3" t="n"/>
     </row>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B27" s="44" t="n">
-        <v>3300</v>
+        <v>3827</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         </is>
       </c>
       <c r="G27" s="3" t="n">
-        <v>2195</v>
+        <v>1969</v>
       </c>
       <c r="H27" s="10" t="n">
-        <v>1105</v>
+        <v>1858</v>
       </c>
       <c r="I27" s="3" t="n"/>
     </row>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B28" s="44" t="n">
-        <v>7727</v>
+        <v>8454</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="G28" s="3" t="n">
-        <v>5252</v>
+        <v>5480</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>2475</v>
+        <v>2974</v>
       </c>
       <c r="I28" s="3" t="n"/>
     </row>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B29" s="44" t="n">
-        <v>29396</v>
+        <v>29495</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>24967</v>
+        <v>25059</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>4429</v>
+        <v>4436</v>
       </c>
       <c r="I29" s="3" t="n"/>
     </row>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B30" s="44" t="n">
-        <v>82476</v>
+        <v>81979</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="G30" s="3" t="n">
-        <v>69998</v>
+        <v>69988</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>12478</v>
+        <v>11991</v>
       </c>
       <c r="I30" s="3" t="n"/>
     </row>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="B31" s="44" t="n">
-        <v>203344</v>
+        <v>203093</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="G31" s="3" t="n">
-        <v>144437</v>
+        <v>164985</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>58907</v>
+        <v>38108</v>
       </c>
       <c r="I31" s="3" t="n"/>
     </row>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B32" s="45" t="n">
-        <v>3428</v>
+        <v>2894</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="G32" s="3" t="n">
-        <v>3999</v>
+        <v>1497</v>
       </c>
       <c r="H32" s="10" t="n">
-        <v>-571</v>
+        <v>1397</v>
       </c>
       <c r="I32" s="3" t="n"/>
     </row>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="B33" s="45" t="n">
-        <v>8049</v>
+        <v>7696</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="G33" s="3" t="n">
-        <v>4434</v>
+        <v>4798</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>3615</v>
+        <v>2898</v>
       </c>
       <c r="I33" s="3" t="n"/>
     </row>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="B34" s="45" t="n">
-        <v>27177</v>
+        <v>25966</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>20958</v>
+        <v>17997</v>
       </c>
       <c r="H34" s="10" t="n">
-        <v>6219</v>
+        <v>7969</v>
       </c>
       <c r="I34" s="3" t="n"/>
     </row>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B35" s="45" t="n">
-        <v>68979</v>
+        <v>65758</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>59930</v>
+        <v>51394</v>
       </c>
       <c r="H35" s="10" t="n">
-        <v>9049</v>
+        <v>14364</v>
       </c>
       <c r="I35" s="3" t="n"/>
     </row>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B36" s="45" t="n">
-        <v>188598</v>
+        <v>166999</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="G36" s="3" t="n">
-        <v>124980</v>
+        <v>120000</v>
       </c>
       <c r="H36" s="10" t="n">
-        <v>63618</v>
+        <v>46999</v>
       </c>
       <c r="I36" s="3" t="n"/>
     </row>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B37" s="46" t="n">
-        <v>4439</v>
+        <v>3655</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>1980</v>
+        <v>1435</v>
       </c>
       <c r="H37" s="10" t="n">
-        <v>2459</v>
+        <v>2220</v>
       </c>
       <c r="I37" s="3" t="n"/>
     </row>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="B38" s="46" t="n">
-        <v>7962</v>
+        <v>7621</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="G38" s="3" t="n">
-        <v>4798</v>
+        <v>4914</v>
       </c>
       <c r="H38" s="10" t="n">
-        <v>3164</v>
+        <v>2707</v>
       </c>
       <c r="I38" s="3" t="n"/>
     </row>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B39" s="46" t="n">
-        <v>26193</v>
+        <v>24896</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="G39" s="3" t="n">
-        <v>20942</v>
+        <v>19994</v>
       </c>
       <c r="H39" s="10" t="n">
-        <v>5251</v>
+        <v>4902</v>
       </c>
       <c r="I39" s="3" t="n"/>
     </row>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B40" s="46" t="n">
-        <v>62938</v>
+        <v>59933</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>0</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="G40" s="3" t="n">
-        <v>51984</v>
+        <v>46993</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>10954</v>
+        <v>12940</v>
       </c>
       <c r="I40" s="3" t="n"/>
     </row>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="B41" s="46" t="n">
-        <v>171940</v>
+        <v>165000</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="G41" s="3" t="n">
-        <v>156992</v>
+        <v>159966</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>14948</v>
+        <v>5034</v>
       </c>
       <c r="I41" s="3" t="n"/>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B42" s="42" t="n">
-        <v>3957</v>
+        <v>2835</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="G42" s="3" t="n">
-        <v>1825</v>
+        <v>1649</v>
       </c>
       <c r="H42" s="10" t="n">
-        <v>2132</v>
+        <v>1186</v>
       </c>
       <c r="I42" s="3" t="n"/>
     </row>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="B43" s="42" t="n">
-        <v>7700</v>
+        <v>8345</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="G43" s="3" t="n">
-        <v>4495</v>
+        <v>5455</v>
       </c>
       <c r="H43" s="10" t="n">
-        <v>3205</v>
+        <v>2890</v>
       </c>
       <c r="I43" s="3" t="n"/>
     </row>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="B44" s="42" t="n">
-        <v>26274</v>
+        <v>26247</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="G44" s="3" t="n">
-        <v>21471</v>
+        <v>20395</v>
       </c>
       <c r="H44" s="10" t="n">
-        <v>4803</v>
+        <v>5852</v>
       </c>
       <c r="I44" s="3" t="n"/>
     </row>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B45" s="42" t="n">
-        <v>61937</v>
+        <v>60762</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>52914</v>
+        <v>45993</v>
       </c>
       <c r="H45" s="10" t="n">
-        <v>9023</v>
+        <v>14769</v>
       </c>
       <c r="I45" s="3" t="n"/>
     </row>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="B46" s="42" t="n">
-        <v>158872</v>
+        <v>156997</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="G46" s="3" t="n">
-        <v>122000</v>
+        <v>133998</v>
       </c>
       <c r="H46" s="10" t="n">
-        <v>36872</v>
+        <v>22999</v>
       </c>
       <c r="I46" s="3" t="n"/>
     </row>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B47" s="40" t="n">
-        <v>10374</v>
+        <v>5996</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>4192</v>
+        <v>3584</v>
       </c>
       <c r="H47" s="10" t="n">
-        <v>6182</v>
+        <v>2412</v>
       </c>
       <c r="I47" s="3" t="n"/>
     </row>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B48" s="40" t="n">
-        <v>15970</v>
+        <v>13996</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="G48" s="3" t="n">
-        <v>9374</v>
+        <v>9972</v>
       </c>
       <c r="H48" s="10" t="n">
-        <v>6596</v>
+        <v>4024</v>
       </c>
       <c r="I48" s="3" t="n"/>
     </row>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="B49" s="40" t="n">
-        <v>42905</v>
+        <v>39951</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="G49" s="3" t="n">
-        <v>32992</v>
+        <v>33382</v>
       </c>
       <c r="H49" s="10" t="n">
-        <v>9913</v>
+        <v>6569</v>
       </c>
       <c r="I49" s="3" t="n"/>
     </row>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B50" s="40" t="n">
-        <v>92909</v>
+        <v>89994</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="G50" s="3" t="n">
-        <v>74998</v>
+        <v>73900</v>
       </c>
       <c r="H50" s="10" t="n">
-        <v>17911</v>
+        <v>16094</v>
       </c>
       <c r="I50" s="3" t="n"/>
     </row>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B51" s="40" t="n">
-        <v>299999</v>
+        <v>287000</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="G51" s="3" t="n">
-        <v>264955</v>
+        <v>229555</v>
       </c>
       <c r="H51" s="10" t="n">
-        <v>35044</v>
+        <v>57445</v>
       </c>
       <c r="I51" s="3" t="n"/>
     </row>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B52" s="44" t="n">
-        <v>8193</v>
+        <v>6299</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="G52" s="3" t="n">
-        <v>4647</v>
+        <v>2990</v>
       </c>
       <c r="H52" s="10" t="n">
-        <v>3546</v>
+        <v>3309</v>
       </c>
       <c r="I52" s="3" t="n"/>
     </row>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B53" s="44" t="n">
-        <v>14406</v>
+        <v>14672</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="G53" s="3" t="n">
-        <v>8195</v>
+        <v>9494</v>
       </c>
       <c r="H53" s="10" t="n">
-        <v>6211</v>
+        <v>5178</v>
       </c>
       <c r="I53" s="3" t="n"/>
     </row>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="B54" s="44" t="n">
-        <v>42309</v>
+        <v>37989</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>0</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="G54" s="3" t="n">
-        <v>34138</v>
+        <v>33900</v>
       </c>
       <c r="H54" s="10" t="n">
-        <v>8171</v>
+        <v>4089</v>
       </c>
       <c r="I54" s="3" t="n"/>
     </row>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="B55" s="44" t="n">
-        <v>90968</v>
+        <v>87960</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="G55" s="3" t="n">
-        <v>76896</v>
+        <v>69000</v>
       </c>
       <c r="H55" s="10" t="n">
-        <v>14072</v>
+        <v>18960</v>
       </c>
       <c r="I55" s="3" t="n"/>
     </row>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="B56" s="44" t="n">
-        <v>288076</v>
+        <v>267000</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="G56" s="3" t="n">
-        <v>248971</v>
+        <v>233998</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>39105</v>
+        <v>33002</v>
       </c>
       <c r="I56" s="3" t="n"/>
     </row>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B57" s="45" t="n">
-        <v>15502</v>
+        <v>7034</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="G57" s="3" t="n">
-        <v>3800</v>
+        <v>2987</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>11702</v>
+        <v>4047</v>
       </c>
       <c r="I57" s="3" t="n"/>
     </row>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B58" s="45" t="n">
-        <v>14809</v>
+        <v>14611</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="G58" s="37" t="n">
-        <v>8174</v>
+        <v>8250</v>
       </c>
       <c r="H58" s="37" t="n">
-        <v>6635</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" s="39">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B59" s="45" t="n">
-        <v>42788</v>
+        <v>40946</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="G59" s="37" t="n">
-        <v>34874</v>
+        <v>33278</v>
       </c>
       <c r="H59" s="37" t="n">
-        <v>7914</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" s="39">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="B60" s="45" t="n">
-        <v>92486</v>
+        <v>89990</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="G60" s="37" t="n">
-        <v>73994</v>
+        <v>72953</v>
       </c>
       <c r="H60" s="37" t="n">
-        <v>18492</v>
+        <v>17037</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" s="39">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="B61" s="45" t="n">
-        <v>299504</v>
+        <v>286999</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="G61" s="37" t="n">
-        <v>254995</v>
+        <v>240980</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>44509</v>
+        <v>46019</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" s="39">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="B62" s="46" t="n">
-        <v>6162</v>
+        <v>5808</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="G62" s="37" t="n">
-        <v>4541</v>
+        <v>4169</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>1621</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" s="39">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B63" s="46" t="n">
-        <v>15995</v>
+        <v>21630</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="G63" s="37" t="n">
-        <v>11104</v>
+        <v>14984</v>
       </c>
       <c r="H63" s="37" t="n">
-        <v>4891</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" s="39">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B64" s="46" t="n">
-        <v>62905</v>
+        <v>65983</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>0</v>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="G64" s="37" t="n">
-        <v>49997</v>
+        <v>49965</v>
       </c>
       <c r="H64" s="37" t="n">
-        <v>12908</v>
+        <v>16018</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" s="39">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="B65" s="46" t="n">
-        <v>166903</v>
+        <v>165942</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="G65" s="37" t="n">
-        <v>126972</v>
+        <v>134945</v>
       </c>
       <c r="H65" s="37" t="n">
-        <v>39931</v>
+        <v>30997</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" s="39">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B66" s="46" t="n">
-        <v>499997</v>
+        <v>380996</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="G66" s="37" t="n">
-        <v>305550</v>
+        <v>315000</v>
       </c>
       <c r="H66" s="37" t="n">
-        <v>194447</v>
+        <v>65996</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" s="39">
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="B67" s="42" t="n">
-        <v>6934</v>
+        <v>6595</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="G67" s="37" t="n">
-        <v>4450</v>
+        <v>3997</v>
       </c>
       <c r="H67" s="37" t="n">
-        <v>2484</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" s="39">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B68" s="42" t="n">
-        <v>16998</v>
+        <v>16554</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="G68" s="37" t="n">
-        <v>8998</v>
+        <v>9740</v>
       </c>
       <c r="H68" s="37" t="n">
-        <v>8000</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" s="39">
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="B69" s="42" t="n">
-        <v>59906</v>
+        <v>61978</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="G69" s="37" t="n">
-        <v>45743</v>
+        <v>45299</v>
       </c>
       <c r="H69" s="37" t="n">
-        <v>14163</v>
+        <v>16679</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" s="39">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="B70" s="42" t="n">
-        <v>165961</v>
+        <v>163983</v>
       </c>
       <c r="C70" s="12" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         </is>
       </c>
       <c r="G70" s="37" t="n">
-        <v>95000</v>
+        <v>130994</v>
       </c>
       <c r="H70" s="37" t="n">
-        <v>70961</v>
+        <v>32989</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" s="39">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B71" s="42" t="n">
-        <v>368888</v>
+        <v>359999</v>
       </c>
       <c r="C71" s="12" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         </is>
       </c>
       <c r="G71" s="37" t="n">
-        <v>278994</v>
+        <v>281975</v>
       </c>
       <c r="H71" s="37" t="n">
-        <v>89894</v>
+        <v>78024</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" s="39">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="B72" s="40" t="n">
-        <v>8917</v>
+        <v>6175</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="G72" s="37" t="n">
-        <v>6992</v>
+        <v>6000</v>
       </c>
       <c r="H72" s="37" t="n">
-        <v>1925</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" s="39">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="B73" s="40" t="n">
-        <v>15965</v>
+        <v>16331</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="G73" s="37" t="n">
-        <v>11088</v>
+        <v>9991</v>
       </c>
       <c r="H73" s="37" t="n">
-        <v>4877</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" s="39">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B74" s="40" t="n">
-        <v>59617</v>
+        <v>62760</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>0</v>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="G74" s="37" t="n">
-        <v>49892</v>
+        <v>48760</v>
       </c>
       <c r="H74" s="37" t="n">
-        <v>9725</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" s="39">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="B75" s="40" t="n">
-        <v>149987</v>
+        <v>151938</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>0</v>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="G75" s="37" t="n">
-        <v>121922</v>
+        <v>119968</v>
       </c>
       <c r="H75" s="37" t="n">
-        <v>28065</v>
+        <v>31970</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" s="39">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="B76" s="40" t="n">
-        <v>425554</v>
+        <v>389995</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="G76" s="37" t="n">
-        <v>399091</v>
+        <v>398981</v>
       </c>
       <c r="H76" s="37" t="n">
-        <v>26463</v>
+        <v>-8986</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" s="39">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B77" s="44" t="n">
-        <v>4704</v>
+        <v>4637</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>0</v>
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="G77" s="37" t="n">
-        <v>2161</v>
+        <v>2461</v>
       </c>
       <c r="H77" s="37" t="n">
-        <v>2543</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" s="39">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="B78" s="44" t="n">
-        <v>15039</v>
+        <v>14854</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="G78" s="37" t="n">
-        <v>8869</v>
+        <v>9353</v>
       </c>
       <c r="H78" s="37" t="n">
-        <v>6170</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" s="39">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B79" s="44" t="n">
-        <v>44798</v>
+        <v>42964</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="G79" s="37" t="n">
-        <v>34493</v>
+        <v>37690</v>
       </c>
       <c r="H79" s="37" t="n">
-        <v>10305</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1" s="39">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="B80" s="44" t="n">
-        <v>121493</v>
+        <v>117993</v>
       </c>
       <c r="C80" s="12" t="n">
         <v>0</v>
@@ -2788,10 +2788,10 @@
         </is>
       </c>
       <c r="G80" s="37" t="n">
-        <v>99664</v>
+        <v>98100</v>
       </c>
       <c r="H80" s="37" t="n">
-        <v>21829</v>
+        <v>19893</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1" s="39">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="B81" s="44" t="n">
-        <v>313333</v>
+        <v>303997</v>
       </c>
       <c r="C81" s="12" t="n">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="G81" s="37" t="n">
-        <v>265980</v>
+        <v>244986</v>
       </c>
       <c r="H81" s="37" t="n">
-        <v>47353</v>
+        <v>59011</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1" s="39">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="B82" s="45" t="n">
-        <v>4738</v>
+        <v>3993</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         </is>
       </c>
       <c r="G82" s="37" t="n">
-        <v>2005</v>
+        <v>2785</v>
       </c>
       <c r="H82" s="37" t="n">
-        <v>2733</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1" s="39">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="B83" s="45" t="n">
-        <v>16085</v>
+        <v>14844</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="G83" s="37" t="n">
-        <v>8888</v>
+        <v>9921</v>
       </c>
       <c r="H83" s="37" t="n">
-        <v>7197</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1" s="39">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B84" s="45" t="n">
-        <v>48971</v>
+        <v>46984</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>0</v>
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="G84" s="37" t="n">
-        <v>39999</v>
+        <v>35993</v>
       </c>
       <c r="H84" s="37" t="n">
-        <v>8972</v>
+        <v>10991</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1" s="39">
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="B85" s="45" t="n">
-        <v>117060</v>
+        <v>118838</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="G85" s="37" t="n">
-        <v>94991</v>
+        <v>93976</v>
       </c>
       <c r="H85" s="37" t="n">
-        <v>22069</v>
+        <v>24862</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1" s="39">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="B86" s="45" t="n">
-        <v>321000</v>
+        <v>300000</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="G86" s="37" t="n">
-        <v>259965</v>
+        <v>240000</v>
       </c>
       <c r="H86" s="37" t="n">
-        <v>61035</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" s="39">
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="B87" s="46" t="n">
-        <v>5049</v>
+        <v>4797</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>0</v>
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="G87" s="37" t="n">
-        <v>1997</v>
+        <v>2791</v>
       </c>
       <c r="H87" s="37" t="n">
-        <v>3052</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" s="39">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="B88" s="46" t="n">
-        <v>16903</v>
+        <v>14923</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="G88" s="37" t="n">
-        <v>10975</v>
+        <v>8844</v>
       </c>
       <c r="H88" s="37" t="n">
-        <v>5928</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1" s="39">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="B89" s="46" t="n">
-        <v>48859</v>
+        <v>47319</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="G89" s="37" t="n">
-        <v>33327</v>
+        <v>38791</v>
       </c>
       <c r="H89" s="37" t="n">
-        <v>15532</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1" s="39">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B90" s="46" t="n">
-        <v>126405</v>
+        <v>122103</v>
       </c>
       <c r="C90" s="12" t="n">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="G90" s="37" t="n">
-        <v>94986</v>
+        <v>90970</v>
       </c>
       <c r="H90" s="37" t="n">
-        <v>31419</v>
+        <v>31133</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1" s="39">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="B91" s="46" t="n">
-        <v>320875</v>
+        <v>313998</v>
       </c>
       <c r="C91" s="12" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="G91" s="37" t="n">
-        <v>247988</v>
+        <v>238992</v>
       </c>
       <c r="H91" s="37" t="n">
-        <v>72887</v>
+        <v>75006</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1" s="39">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="B92" s="45" t="n">
-        <v>2988</v>
+        <v>2971</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>0</v>
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="G92" s="37" t="n">
-        <v>2888</v>
+        <v>2847</v>
       </c>
       <c r="H92" s="37" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1" s="39">
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="B93" s="45" t="n">
-        <v>7300</v>
+        <v>7991</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="G93" s="37" t="n">
-        <v>5492</v>
+        <v>5406</v>
       </c>
       <c r="H93" s="37" t="n">
-        <v>1808</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1" s="39">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B94" s="45" t="n">
-        <v>21719</v>
+        <v>22899</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>0</v>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="G94" s="37" t="n">
-        <v>17858</v>
+        <v>17832</v>
       </c>
       <c r="H94" s="37" t="n">
-        <v>3861</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1" s="39">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="B95" s="45" t="n">
-        <v>48925</v>
+        <v>48955</v>
       </c>
       <c r="C95" s="12" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="G95" s="37" t="n">
-        <v>41957</v>
+        <v>39982</v>
       </c>
       <c r="H95" s="37" t="n">
-        <v>6968</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1" s="39">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="B96" s="45" t="n">
-        <v>193000</v>
+        <v>183996</v>
       </c>
       <c r="C96" s="12" t="n">
         <v>0</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="G96" s="37" t="n">
-        <v>147758</v>
+        <v>129997</v>
       </c>
       <c r="H96" s="37" t="n">
-        <v>45242</v>
+        <v>53999</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1" s="39">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B97" s="46" t="n">
-        <v>4152</v>
+        <v>3976</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         </is>
       </c>
       <c r="G97" s="37" t="n">
-        <v>2296</v>
+        <v>2390</v>
       </c>
       <c r="H97" s="37" t="n">
-        <v>1856</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" s="39">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B98" s="46" t="n">
-        <v>7763</v>
+        <v>7880</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="G98" s="37" t="n">
-        <v>3775</v>
+        <v>4269</v>
       </c>
       <c r="H98" s="37" t="n">
-        <v>3988</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1" s="39">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="B99" s="46" t="n">
-        <v>20969</v>
+        <v>21448</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="G99" s="37" t="n">
-        <v>16472</v>
+        <v>17297</v>
       </c>
       <c r="H99" s="37" t="n">
-        <v>4497</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1" s="39">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="B100" s="46" t="n">
-        <v>49932</v>
+        <v>49924</v>
       </c>
       <c r="C100" s="12" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="G100" s="37" t="n">
-        <v>34995</v>
+        <v>40944</v>
       </c>
       <c r="H100" s="37" t="n">
-        <v>14937</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1" s="39">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="B101" s="46" t="n">
-        <v>153903</v>
+        <v>144079</v>
       </c>
       <c r="C101" s="12" t="n">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="G101" s="37" t="n">
-        <v>98884</v>
+        <v>110962</v>
       </c>
       <c r="H101" s="37" t="n">
-        <v>55019</v>
+        <v>33117</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1" s="39">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B102" s="42" t="n">
-        <v>3383</v>
+        <v>3233</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>0</v>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="G102" s="37" t="n">
-        <v>1389</v>
+        <v>1499</v>
       </c>
       <c r="H102" s="37" t="n">
-        <v>1994</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1" s="39">
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="B103" s="42" t="n">
-        <v>7465</v>
+        <v>7478</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="G103" s="37" t="n">
-        <v>3798</v>
+        <v>4096</v>
       </c>
       <c r="H103" s="37" t="n">
-        <v>3667</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1" s="39">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B104" s="42" t="n">
-        <v>20960</v>
+        <v>20930</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="G104" s="37" t="n">
-        <v>16956</v>
+        <v>16540</v>
       </c>
       <c r="H104" s="37" t="n">
-        <v>4004</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1" s="39">
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="B105" s="42" t="n">
-        <v>51951</v>
+        <v>49995</v>
       </c>
       <c r="C105" s="12" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="G105" s="37" t="n">
-        <v>40888</v>
+        <v>40946</v>
       </c>
       <c r="H105" s="37" t="n">
-        <v>11063</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1" s="39">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="B106" s="42" t="n">
-        <v>137908</v>
+        <v>137884</v>
       </c>
       <c r="C106" s="12" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         </is>
       </c>
       <c r="G106" s="37" t="n">
-        <v>102445</v>
+        <v>106986</v>
       </c>
       <c r="H106" s="37" t="n">
-        <v>35463</v>
+        <v>30898</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1" s="39">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="B107" s="40" t="n">
-        <v>4688</v>
+        <v>4635</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="G107" s="37" t="n">
-        <v>2469</v>
+        <v>2976</v>
       </c>
       <c r="H107" s="37" t="n">
-        <v>2219</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1" s="39">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B108" s="40" t="n">
-        <v>7795</v>
+        <v>8887</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>0</v>
@@ -3544,10 +3544,10 @@
         </is>
       </c>
       <c r="G108" s="37" t="n">
-        <v>4776</v>
+        <v>5180</v>
       </c>
       <c r="H108" s="37" t="n">
-        <v>3019</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1" s="39">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="B109" s="40" t="n">
-        <v>29698</v>
+        <v>31035</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>0</v>
@@ -3571,10 +3571,10 @@
         </is>
       </c>
       <c r="G109" s="37" t="n">
-        <v>23986</v>
+        <v>24973</v>
       </c>
       <c r="H109" s="37" t="n">
-        <v>5712</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1" s="39">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="B110" s="40" t="n">
-        <v>76349</v>
+        <v>76177</v>
       </c>
       <c r="C110" s="12" t="n">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="G110" s="37" t="n">
-        <v>53996</v>
+        <v>63957</v>
       </c>
       <c r="H110" s="37" t="n">
-        <v>22353</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1" s="39">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="B111" s="40" t="n">
-        <v>241700</v>
+        <v>210970</v>
       </c>
       <c r="C111" s="12" t="n">
         <v>0</v>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="G111" s="37" t="n">
-        <v>159999</v>
+        <v>199984</v>
       </c>
       <c r="H111" s="37" t="n">
-        <v>81701</v>
+        <v>10986</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1" s="39">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="B112" s="44" t="n">
-        <v>3932</v>
+        <v>3885</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="G112" s="37" t="n">
-        <v>2035</v>
+        <v>2659</v>
       </c>
       <c r="H112" s="37" t="n">
-        <v>1897</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1" s="39">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="B113" s="44" t="n">
-        <v>7795</v>
+        <v>8997</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>0</v>
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="G113" s="37" t="n">
-        <v>4492</v>
+        <v>5584</v>
       </c>
       <c r="H113" s="37" t="n">
-        <v>3303</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1" s="39">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B114" s="44" t="n">
-        <v>34637</v>
+        <v>35079</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="G114" s="37" t="n">
-        <v>23072</v>
+        <v>25850</v>
       </c>
       <c r="H114" s="37" t="n">
-        <v>11565</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="115" ht="13.5" customHeight="1" s="39">
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="B115" s="44" t="n">
-        <v>77270</v>
+        <v>67000</v>
       </c>
       <c r="C115" s="12" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="G115" s="37" t="n">
-        <v>53939</v>
+        <v>54996</v>
       </c>
       <c r="H115" s="37" t="n">
-        <v>23331</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1" s="39">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="B116" s="44" t="n">
-        <v>202218</v>
+        <v>198998</v>
       </c>
       <c r="C116" s="12" t="n">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         </is>
       </c>
       <c r="G116" s="37" t="n">
-        <v>164992</v>
+        <v>169929</v>
       </c>
       <c r="H116" s="37" t="n">
-        <v>37226</v>
+        <v>29069</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1" s="39">
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="B117" s="45" t="n">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         </is>
       </c>
       <c r="G117" s="37" t="n">
-        <v>2096</v>
+        <v>2461</v>
       </c>
       <c r="H117" s="37" t="n">
-        <v>1497</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1" s="39">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="B118" s="45" t="n">
-        <v>8640</v>
+        <v>8874</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         </is>
       </c>
       <c r="G118" s="37" t="n">
-        <v>5385</v>
+        <v>4987</v>
       </c>
       <c r="H118" s="37" t="n">
-        <v>3255</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1" s="39">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="B119" s="45" t="n">
-        <v>33804</v>
+        <v>33840</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>0</v>
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="G119" s="37" t="n">
-        <v>26990</v>
+        <v>25989</v>
       </c>
       <c r="H119" s="37" t="n">
-        <v>6814</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1" s="39">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="B120" s="45" t="n">
-        <v>81593</v>
+        <v>79982</v>
       </c>
       <c r="C120" s="12" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="G120" s="37" t="n">
-        <v>65000</v>
+        <v>65993</v>
       </c>
       <c r="H120" s="37" t="n">
-        <v>16593</v>
+        <v>13989</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1" s="39">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="B121" s="45" t="n">
-        <v>178947</v>
+        <v>172000</v>
       </c>
       <c r="C121" s="12" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="G121" s="37" t="n">
-        <v>151098</v>
+        <v>150090</v>
       </c>
       <c r="H121" s="37" t="n">
-        <v>27849</v>
+        <v>21910</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1" s="39">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="B122" s="46" t="n">
-        <v>1852</v>
+        <v>1832</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>0</v>
@@ -3922,10 +3922,10 @@
         </is>
       </c>
       <c r="G122" s="37" t="n">
-        <v>1134</v>
+        <v>899</v>
       </c>
       <c r="H122" s="37" t="n">
-        <v>718</v>
+        <v>933</v>
       </c>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="39">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B123" s="46" t="n">
-        <v>5159</v>
+        <v>5119</v>
       </c>
       <c r="C123" s="4" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="G123" s="37" t="n">
-        <v>2693</v>
+        <v>3162</v>
       </c>
       <c r="H123" s="37" t="n">
-        <v>2466</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="124" ht="13.5" customHeight="1" s="39">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B124" s="46" t="n">
-        <v>17700</v>
+        <v>17793</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="G124" s="37" t="n">
-        <v>11981</v>
+        <v>14297</v>
       </c>
       <c r="H124" s="37" t="n">
-        <v>5719</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1" s="39">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="B125" s="46" t="n">
-        <v>44731</v>
+        <v>44754</v>
       </c>
       <c r="C125" s="12" t="n">
         <v>0</v>
@@ -4003,10 +4003,10 @@
         </is>
       </c>
       <c r="G125" s="37" t="n">
-        <v>37157</v>
+        <v>38579</v>
       </c>
       <c r="H125" s="37" t="n">
-        <v>7574</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1" s="39">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="B126" s="46" t="n">
-        <v>129072</v>
+        <v>133000</v>
       </c>
       <c r="C126" s="12" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="G126" s="37" t="n">
-        <v>99000</v>
+        <v>99989</v>
       </c>
       <c r="H126" s="37" t="n">
-        <v>30072</v>
+        <v>33011</v>
       </c>
     </row>
     <row r="127" ht="13.5" customHeight="1" s="39">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="B127" s="42" t="n">
-        <v>2327</v>
+        <v>2148</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>0</v>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="G127" s="37" t="n">
-        <v>1115</v>
+        <v>1198</v>
       </c>
       <c r="H127" s="37" t="n">
-        <v>1212</v>
+        <v>950</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1" s="39">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="B128" s="42" t="n">
-        <v>4989</v>
+        <v>6099</v>
       </c>
       <c r="C128" s="4" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="G128" s="37" t="n">
-        <v>2917</v>
+        <v>2997</v>
       </c>
       <c r="H128" s="37" t="n">
-        <v>2072</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="129" ht="13.5" customHeight="1" s="39">
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B129" s="42" t="n">
-        <v>17370</v>
+        <v>17788</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         </is>
       </c>
       <c r="G129" s="37" t="n">
-        <v>12964</v>
+        <v>14379</v>
       </c>
       <c r="H129" s="37" t="n">
-        <v>4406</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1" s="39">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B130" s="42" t="n">
-        <v>48426</v>
+        <v>47000</v>
       </c>
       <c r="C130" s="12" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="G130" s="37" t="n">
-        <v>39965</v>
+        <v>34000</v>
       </c>
       <c r="H130" s="37" t="n">
-        <v>8461</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="131" ht="13.5" customHeight="1" s="39">
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="B131" s="42" t="n">
-        <v>159000</v>
+        <v>161000</v>
       </c>
       <c r="C131" s="12" t="n">
         <v>0</v>
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="G131" s="37" t="n">
-        <v>122999</v>
+        <v>149995</v>
       </c>
       <c r="H131" s="37" t="n">
-        <v>36001</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1" s="39">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="B132" s="40" t="n">
-        <v>2297</v>
+        <v>2177</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="G132" s="37" t="n">
-        <v>1159</v>
+        <v>1198</v>
       </c>
       <c r="H132" s="37" t="n">
-        <v>1138</v>
+        <v>979</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1" s="39">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B133" s="40" t="n">
-        <v>5483</v>
+        <v>5973</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="G133" s="37" t="n">
-        <v>2751</v>
+        <v>2998</v>
       </c>
       <c r="H133" s="37" t="n">
-        <v>2732</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1" s="39">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B134" s="40" t="n">
-        <v>20012</v>
+        <v>20284</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>0</v>
@@ -4246,10 +4246,10 @@
         </is>
       </c>
       <c r="G134" s="37" t="n">
-        <v>13875</v>
+        <v>14000</v>
       </c>
       <c r="H134" s="37" t="n">
-        <v>6137</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1" s="39">
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="B135" s="40" t="n">
-        <v>50482</v>
+        <v>50882</v>
       </c>
       <c r="C135" s="12" t="n">
         <v>0</v>
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="G135" s="37" t="n">
-        <v>36991</v>
+        <v>38957</v>
       </c>
       <c r="H135" s="37" t="n">
-        <v>13491</v>
+        <v>11925</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1" s="39">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="B136" s="40" t="n">
-        <v>132959</v>
+        <v>131083</v>
       </c>
       <c r="C136" s="12" t="n">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         </is>
       </c>
       <c r="G136" s="37" t="n">
-        <v>96300</v>
+        <v>100000</v>
       </c>
       <c r="H136" s="37" t="n">
-        <v>36659</v>
+        <v>31083</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1" s="39">
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="B137" s="44" t="n">
-        <v>9087</v>
+        <v>8927</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         </is>
       </c>
       <c r="G137" s="37" t="n">
-        <v>4569</v>
+        <v>5000</v>
       </c>
       <c r="H137" s="37" t="n">
-        <v>4518</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1" s="39">
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="B138" s="44" t="n">
-        <v>22972</v>
+        <v>22300</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         </is>
       </c>
       <c r="G138" s="37" t="n">
-        <v>14976</v>
+        <v>12999</v>
       </c>
       <c r="H138" s="37" t="n">
-        <v>7996</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="139" ht="13.5" customHeight="1" s="39">
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="B139" s="44" t="n">
-        <v>73242</v>
+        <v>67824</v>
       </c>
       <c r="C139" s="4" t="n">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="G139" s="37" t="n">
-        <v>56999</v>
+        <v>56893</v>
       </c>
       <c r="H139" s="37" t="n">
-        <v>16243</v>
+        <v>10931</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1" s="39">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="B140" s="44" t="n">
-        <v>197975</v>
+        <v>197946</v>
       </c>
       <c r="C140" s="12" t="n">
         <v>0</v>
@@ -4408,10 +4408,10 @@
         </is>
       </c>
       <c r="G140" s="37" t="n">
-        <v>170998</v>
+        <v>168978</v>
       </c>
       <c r="H140" s="37" t="n">
-        <v>26977</v>
+        <v>28968</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1" s="39">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="B141" s="44" t="n">
-        <v>609898</v>
+        <v>611196</v>
       </c>
       <c r="C141" s="12" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="G141" s="37" t="n">
-        <v>510000</v>
+        <v>509978</v>
       </c>
       <c r="H141" s="37" t="n">
-        <v>99898</v>
+        <v>101218</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1" s="39">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="B142" s="45" t="n">
-        <v>9388</v>
+        <v>9150</v>
       </c>
       <c r="C142" s="4" t="n">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="G142" s="37" t="n">
-        <v>4658</v>
+        <v>4177</v>
       </c>
       <c r="H142" s="37" t="n">
-        <v>4730</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="143" ht="13.5" customHeight="1" s="39">
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="B143" s="45" t="n">
-        <v>20999</v>
+        <v>21869</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         </is>
       </c>
       <c r="G143" s="37" t="n">
-        <v>14986</v>
+        <v>12940</v>
       </c>
       <c r="H143" s="37" t="n">
-        <v>6013</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1" s="39">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B144" s="45" t="n">
-        <v>72970</v>
+        <v>70570</v>
       </c>
       <c r="C144" s="4" t="n">
         <v>0</v>
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="G144" s="37" t="n">
-        <v>58209</v>
+        <v>57900</v>
       </c>
       <c r="H144" s="37" t="n">
-        <v>14761</v>
+        <v>12670</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1" s="39">
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="B145" s="45" t="n">
-        <v>195178</v>
+        <v>195181</v>
       </c>
       <c r="C145" s="12" t="n">
         <v>0</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="G145" s="37" t="n">
-        <v>175000</v>
+        <v>160992</v>
       </c>
       <c r="H145" s="37" t="n">
-        <v>20178</v>
+        <v>34189</v>
       </c>
     </row>
     <row r="146" ht="13.5" customHeight="1" s="39">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B146" s="45" t="n">
-        <v>659945</v>
+        <v>616983</v>
       </c>
       <c r="C146" s="12" t="n">
         <v>0</v>
@@ -4570,10 +4570,10 @@
         </is>
       </c>
       <c r="G146" s="37" t="n">
-        <v>499997</v>
+        <v>496981</v>
       </c>
       <c r="H146" s="37" t="n">
-        <v>159948</v>
+        <v>120002</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1" s="39">
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="B147" s="46" t="n">
-        <v>7152</v>
+        <v>7103</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>0</v>
@@ -4597,10 +4597,10 @@
         </is>
       </c>
       <c r="G147" s="37" t="n">
-        <v>3699</v>
+        <v>4097</v>
       </c>
       <c r="H147" s="37" t="n">
-        <v>3453</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="148" ht="13.5" customHeight="1" s="39">
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="B148" s="46" t="n">
-        <v>19479</v>
+        <v>19985</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>0</v>
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="G148" s="37" t="n">
-        <v>10975</v>
+        <v>13000</v>
       </c>
       <c r="H148" s="37" t="n">
-        <v>8504</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="149" ht="13.5" customHeight="1" s="39">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="B149" s="46" t="n">
-        <v>65697</v>
+        <v>61553</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>0</v>
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="G149" s="37" t="n">
-        <v>44799</v>
+        <v>51134</v>
       </c>
       <c r="H149" s="37" t="n">
-        <v>20898</v>
+        <v>10419</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1" s="39">
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="B150" s="46" t="n">
-        <v>195881</v>
+        <v>194452</v>
       </c>
       <c r="C150" s="12" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         </is>
       </c>
       <c r="G150" s="37" t="n">
-        <v>164999</v>
+        <v>164992</v>
       </c>
       <c r="H150" s="37" t="n">
-        <v>30882</v>
+        <v>29460</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1" s="39">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="B151" s="46" t="n">
-        <v>624966</v>
+        <v>637907</v>
       </c>
       <c r="C151" s="12" t="n">
         <v>0</v>
@@ -4705,10 +4705,10 @@
         </is>
       </c>
       <c r="G151" s="37" t="n">
-        <v>524999</v>
+        <v>549984</v>
       </c>
       <c r="H151" s="37" t="n">
-        <v>99967</v>
+        <v>87923</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1" s="39">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="B162" s="44" t="n">
-        <v>9972</v>
+        <v>9952</v>
       </c>
       <c r="C162" s="4" t="n">
         <v>0</v>
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="G162" s="37" t="n">
-        <v>4977</v>
+        <v>4998</v>
       </c>
       <c r="H162" s="37" t="n">
-        <v>4995</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="163" ht="13.5" customHeight="1" s="39">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B163" s="44" t="n">
-        <v>27334</v>
+        <v>27988</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>0</v>
@@ -5029,10 +5029,10 @@
         </is>
       </c>
       <c r="G163" s="37" t="n">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="H163" s="37" t="n">
-        <v>9335</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1" s="39">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B164" s="44" t="n">
-        <v>72804</v>
+        <v>69971</v>
       </c>
       <c r="C164" s="4" t="n">
         <v>0</v>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="G164" s="37" t="n">
-        <v>89999</v>
+        <v>48000</v>
       </c>
       <c r="H164" s="37" t="n">
-        <v>-17195</v>
+        <v>21971</v>
       </c>
     </row>
     <row r="165" ht="13.5" customHeight="1" s="39">
@@ -5069,7 +5069,7 @@
         </is>
       </c>
       <c r="B165" s="44" t="n">
-        <v>174994</v>
+        <v>162106</v>
       </c>
       <c r="C165" s="12" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="G165" s="37" t="n">
-        <v>0</v>
+        <v>129111</v>
       </c>
       <c r="H165" s="37" t="n">
-        <v>174994</v>
+        <v>32995</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1" s="39">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B166" s="44" t="n">
-        <v>496680</v>
+        <v>493969</v>
       </c>
       <c r="C166" s="12" t="n">
         <v>0</v>
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="G166" s="37" t="n">
-        <v>0</v>
+        <v>419969</v>
       </c>
       <c r="H166" s="37" t="n">
-        <v>496680</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1" s="39">
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="B167" s="45" t="n">
-        <v>5459</v>
+        <v>5495</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="G167" s="37" t="n">
-        <v>3189</v>
+        <v>4195</v>
       </c>
       <c r="H167" s="37" t="n">
-        <v>2270</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="168" ht="13.5" customHeight="1" s="39">
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="B168" s="45" t="n">
-        <v>14796</v>
+        <v>14933</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         </is>
       </c>
       <c r="G168" s="37" t="n">
-        <v>10940</v>
+        <v>10925</v>
       </c>
       <c r="H168" s="37" t="n">
-        <v>3856</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1" s="39">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B169" s="45" t="n">
-        <v>40386</v>
+        <v>39991</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>0</v>
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="G169" s="37" t="n">
-        <v>37034</v>
+        <v>36935</v>
       </c>
       <c r="H169" s="37" t="n">
-        <v>3352</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="170" ht="13.5" customHeight="1" s="39">
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="B170" s="45" t="n">
-        <v>157268</v>
+        <v>154991</v>
       </c>
       <c r="C170" s="12" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="G170" s="37" t="n">
-        <v>127999</v>
+        <v>125994</v>
       </c>
       <c r="H170" s="37" t="n">
-        <v>29269</v>
+        <v>28997</v>
       </c>
     </row>
     <row r="171" ht="13.5" customHeight="1" s="39">
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="B171" s="45" t="n">
-        <v>575551</v>
+        <v>565117</v>
       </c>
       <c r="C171" s="12" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         </is>
       </c>
       <c r="G171" s="37" t="n">
-        <v>529984</v>
+        <v>500000</v>
       </c>
       <c r="H171" s="37" t="n">
-        <v>45567</v>
+        <v>65117</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1" s="39">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="B172" s="46" t="n">
-        <v>10295</v>
+        <v>10409</v>
       </c>
       <c r="C172" s="4" t="n">
         <v>0</v>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="G172" s="37" t="n">
-        <v>3789</v>
+        <v>4999</v>
       </c>
       <c r="H172" s="37" t="n">
-        <v>6506</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="173" ht="13.5" customHeight="1" s="39">
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="B173" s="46" t="n">
-        <v>23830</v>
+        <v>23180</v>
       </c>
       <c r="C173" s="4" t="n">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         </is>
       </c>
       <c r="G173" s="37" t="n">
-        <v>16515</v>
+        <v>14731</v>
       </c>
       <c r="H173" s="37" t="n">
-        <v>7315</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="174" ht="13.5" customHeight="1" s="39">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B174" s="46" t="n">
-        <v>61979</v>
+        <v>57985</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>0</v>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="G174" s="37" t="n">
-        <v>50987</v>
+        <v>46983</v>
       </c>
       <c r="H174" s="37" t="n">
-        <v>10992</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="175" ht="13.5" customHeight="1" s="39">
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="B175" s="46" t="n">
-        <v>193424</v>
+        <v>193427</v>
       </c>
       <c r="C175" s="12" t="n">
         <v>0</v>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="G175" s="37" t="n">
-        <v>160999</v>
+        <v>154995</v>
       </c>
       <c r="H175" s="37" t="n">
-        <v>32425</v>
+        <v>38432</v>
       </c>
     </row>
     <row r="176" ht="13.5" customHeight="1" s="39">
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="B176" s="46" t="n">
-        <v>611499</v>
+        <v>611412</v>
       </c>
       <c r="C176" s="12" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="G176" s="37" t="n">
-        <v>515555</v>
+        <v>500000</v>
       </c>
       <c r="H176" s="37" t="n">
-        <v>95944</v>
+        <v>111412</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1" s="39">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="B177" s="42" t="n">
-        <v>9768</v>
+        <v>9773</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>0</v>
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="G177" s="37" t="n">
-        <v>5700</v>
+        <v>6475</v>
       </c>
       <c r="H177" s="37" t="n">
-        <v>4068</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="178" ht="13.5" customHeight="1" s="39">
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="B178" s="42" t="n">
-        <v>22964</v>
+        <v>22281</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="G178" s="37" t="n">
-        <v>14988</v>
+        <v>13967</v>
       </c>
       <c r="H178" s="37" t="n">
-        <v>7976</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="179" ht="13.5" customHeight="1" s="39">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B179" s="42" t="n">
-        <v>55300</v>
+        <v>54962</v>
       </c>
       <c r="C179" s="4" t="n">
         <v>0</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="G179" s="37" t="n">
-        <v>47540</v>
+        <v>47025</v>
       </c>
       <c r="H179" s="37" t="n">
-        <v>7760</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1" s="39">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="B180" s="42" t="n">
-        <v>201989</v>
+        <v>182495</v>
       </c>
       <c r="C180" s="12" t="n">
         <v>0</v>
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="G180" s="37" t="n">
-        <v>177744</v>
+        <v>163473</v>
       </c>
       <c r="H180" s="37" t="n">
-        <v>24245</v>
+        <v>19022</v>
       </c>
     </row>
     <row r="181" ht="13.5" customHeight="1" s="39">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="B181" s="42" t="n">
-        <v>866665</v>
+        <v>610198</v>
       </c>
       <c r="C181" s="12" t="n">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="G181" s="37" t="n">
-        <v>475995</v>
+        <v>475991</v>
       </c>
       <c r="H181" s="37" t="n">
-        <v>390670</v>
+        <v>134207</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1" s="39">
@@ -5528,7 +5528,7 @@
         </is>
       </c>
       <c r="B182" s="47" t="n">
-        <v>8977</v>
+        <v>9576</v>
       </c>
       <c r="C182" s="4" t="n">
         <v>0</v>
@@ -5542,10 +5542,10 @@
         </is>
       </c>
       <c r="G182" s="37" t="n">
-        <v>3895</v>
+        <v>5150</v>
       </c>
       <c r="H182" s="37" t="n">
-        <v>5082</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1" s="39">
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="B183" s="47" t="n">
-        <v>20873</v>
+        <v>20846</v>
       </c>
       <c r="C183" s="4" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         </is>
       </c>
       <c r="G183" s="37" t="n">
-        <v>15984</v>
+        <v>11985</v>
       </c>
       <c r="H183" s="37" t="n">
-        <v>4889</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1" s="39">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B184" s="47" t="n">
-        <v>65965</v>
+        <v>68750</v>
       </c>
       <c r="C184" s="4" t="n">
         <v>0</v>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="G184" s="37" t="n">
-        <v>50853</v>
+        <v>50860</v>
       </c>
       <c r="H184" s="37" t="n">
-        <v>15112</v>
+        <v>17890</v>
       </c>
     </row>
     <row r="185" ht="12.75" customHeight="1" s="39">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="B185" s="47" t="n">
-        <v>194991</v>
+        <v>192995</v>
       </c>
       <c r="C185" s="12" t="n">
         <v>0</v>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="G185" s="37" t="n">
-        <v>160546</v>
+        <v>159996</v>
       </c>
       <c r="H185" s="37" t="n">
-        <v>34445</v>
+        <v>32999</v>
       </c>
     </row>
     <row r="186" ht="12.75" customHeight="1" s="39">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="B186" s="47" t="n">
-        <v>538868</v>
+        <v>498456</v>
       </c>
       <c r="C186" s="12" t="n">
         <v>0</v>
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="G186" s="37" t="n">
-        <v>440900</v>
+        <v>456768</v>
       </c>
       <c r="H186" s="37" t="n">
-        <v>97968</v>
+        <v>41688</v>
       </c>
     </row>
     <row r="187" ht="12.75" customHeight="1" s="39">
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="B187" s="48" t="n">
-        <v>12319</v>
+        <v>12445</v>
       </c>
       <c r="C187" s="4" t="n">
         <v>0</v>
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="G187" s="37" t="n">
-        <v>8378</v>
+        <v>2500</v>
       </c>
       <c r="H187" s="37" t="n">
-        <v>3941</v>
+        <v>9945</v>
       </c>
     </row>
     <row r="188" ht="12.75" customHeight="1" s="39">
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="B188" s="48" t="n">
-        <v>26699</v>
+        <v>27738</v>
       </c>
       <c r="C188" s="4" t="n">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="G188" s="37" t="n">
-        <v>18950</v>
+        <v>16000</v>
       </c>
       <c r="H188" s="37" t="n">
-        <v>7749</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="189" ht="12.75" customHeight="1" s="39">
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="B189" s="48" t="n">
-        <v>85098</v>
+        <v>83127</v>
       </c>
       <c r="C189" s="4" t="n">
         <v>0</v>
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="G189" s="37" t="n">
-        <v>77469</v>
+        <v>77728</v>
       </c>
       <c r="H189" s="37" t="n">
-        <v>7629</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1" s="39">
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="B190" s="48" t="n">
-        <v>239962</v>
+        <v>239945</v>
       </c>
       <c r="C190" s="12" t="n">
         <v>0</v>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="G190" s="37" t="n">
-        <v>209940</v>
+        <v>180000</v>
       </c>
       <c r="H190" s="37" t="n">
-        <v>30022</v>
+        <v>59945</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1" s="39">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="B191" s="48" t="n">
-        <v>746662</v>
+        <v>756374</v>
       </c>
       <c r="C191" s="12" t="n">
         <v>0</v>
@@ -5785,10 +5785,10 @@
         </is>
       </c>
       <c r="G191" s="37" t="n">
-        <v>614993</v>
+        <v>599995</v>
       </c>
       <c r="H191" s="37" t="n">
-        <v>131669</v>
+        <v>156379</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1" s="39">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="B192" s="49" t="n">
-        <v>15115</v>
+        <v>15117</v>
       </c>
       <c r="C192" s="4" t="n">
         <v>0</v>
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="G192" s="37" t="n">
-        <v>5667</v>
+        <v>7970</v>
       </c>
       <c r="H192" s="37" t="n">
-        <v>9448</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="193" ht="12.75" customHeight="1" s="39">
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="B193" s="49" t="n">
-        <v>28786</v>
+        <v>28720</v>
       </c>
       <c r="C193" s="4" t="n">
         <v>0</v>
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="G193" s="37" t="n">
-        <v>19000</v>
+        <v>18490</v>
       </c>
       <c r="H193" s="37" t="n">
-        <v>9786</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1" s="39">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B194" s="49" t="n">
-        <v>93800</v>
+        <v>97864</v>
       </c>
       <c r="C194" s="4" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         </is>
       </c>
       <c r="G194" s="37" t="n">
-        <v>78839</v>
+        <v>78469</v>
       </c>
       <c r="H194" s="37" t="n">
-        <v>14961</v>
+        <v>19395</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1" s="39">
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="B195" s="49" t="n">
-        <v>249978</v>
+        <v>250886</v>
       </c>
       <c r="C195" s="12" t="n">
         <v>0</v>
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="G195" s="37" t="n">
-        <v>219990</v>
+        <v>234998</v>
       </c>
       <c r="H195" s="37" t="n">
-        <v>29988</v>
+        <v>15888</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1" s="39">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B196" s="49" t="n">
-        <v>668997</v>
+        <v>665999</v>
       </c>
       <c r="C196" s="12" t="n">
         <v>0</v>
@@ -5920,10 +5920,10 @@
         </is>
       </c>
       <c r="G196" s="37" t="n">
-        <v>591979</v>
+        <v>599998</v>
       </c>
       <c r="H196" s="37" t="n">
-        <v>77018</v>
+        <v>66001</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1" s="39">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="B207" s="47" t="n">
-        <v>14880</v>
+        <v>13485</v>
       </c>
       <c r="C207" s="4" t="n">
         <v>0</v>
@@ -6217,10 +6217,10 @@
         </is>
       </c>
       <c r="G207" s="37" t="n">
-        <v>8453</v>
+        <v>7797</v>
       </c>
       <c r="H207" s="37" t="n">
-        <v>6427</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1" s="39">
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="B208" s="47" t="n">
-        <v>27937</v>
+        <v>26975</v>
       </c>
       <c r="C208" s="4" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         </is>
       </c>
       <c r="G208" s="37" t="n">
-        <v>18809</v>
+        <v>17990</v>
       </c>
       <c r="H208" s="37" t="n">
-        <v>9128</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="209" ht="12.75" customHeight="1" s="39">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="B209" s="47" t="n">
-        <v>99986</v>
+        <v>97882</v>
       </c>
       <c r="C209" s="4" t="n">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         </is>
       </c>
       <c r="G209" s="37" t="n">
-        <v>74996</v>
+        <v>72993</v>
       </c>
       <c r="H209" s="37" t="n">
-        <v>24990</v>
+        <v>24889</v>
       </c>
     </row>
     <row r="210" ht="12.75" customHeight="1" s="39">
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="B210" s="47" t="n">
-        <v>250964</v>
+        <v>240992</v>
       </c>
       <c r="C210" s="12" t="n">
         <v>0</v>
@@ -6298,10 +6298,10 @@
         </is>
       </c>
       <c r="G210" s="37" t="n">
-        <v>223925</v>
+        <v>199997</v>
       </c>
       <c r="H210" s="37" t="n">
-        <v>27039</v>
+        <v>40995</v>
       </c>
     </row>
     <row r="211" ht="12.75" customHeight="1" s="39">
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="B211" s="47" t="n">
-        <v>778000</v>
+        <v>854994</v>
       </c>
       <c r="C211" s="12" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="G211" s="37" t="n">
-        <v>639998</v>
+        <v>644944</v>
       </c>
       <c r="H211" s="37" t="n">
-        <v>138002</v>
+        <v>210050</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1" s="39">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="B212" s="48" t="n">
-        <v>13770</v>
+        <v>13993</v>
       </c>
       <c r="C212" s="4" t="n">
         <v>0</v>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="G212" s="37" t="n">
-        <v>8948</v>
+        <v>7772</v>
       </c>
       <c r="H212" s="37" t="n">
-        <v>4822</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="213" ht="12.75" customHeight="1" s="39">
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="B213" s="48" t="n">
-        <v>38958</v>
+        <v>34888</v>
       </c>
       <c r="C213" s="4" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         </is>
       </c>
       <c r="G213" s="37" t="n">
-        <v>31995</v>
+        <v>25996</v>
       </c>
       <c r="H213" s="37" t="n">
-        <v>6963</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1" s="39">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B214" s="48" t="n">
-        <v>128999</v>
+        <v>128987</v>
       </c>
       <c r="C214" s="4" t="n">
         <v>0</v>
@@ -6406,10 +6406,10 @@
         </is>
       </c>
       <c r="G214" s="37" t="n">
-        <v>102222</v>
+        <v>101115</v>
       </c>
       <c r="H214" s="37" t="n">
-        <v>26777</v>
+        <v>27872</v>
       </c>
     </row>
     <row r="215" ht="12.75" customHeight="1" s="39">
@@ -6419,7 +6419,7 @@
         </is>
       </c>
       <c r="B215" s="48" t="n">
-        <v>399990</v>
+        <v>337997</v>
       </c>
       <c r="C215" s="12" t="n">
         <v>0</v>
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="G215" s="37" t="n">
-        <v>298939</v>
+        <v>309960</v>
       </c>
       <c r="H215" s="37" t="n">
-        <v>101051</v>
+        <v>28037</v>
       </c>
     </row>
     <row r="216" ht="12.75" customHeight="1" s="39">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="B216" s="48" t="n">
-        <v>908883</v>
+        <v>906489</v>
       </c>
       <c r="C216" s="12" t="n">
         <v>0</v>
@@ -6460,10 +6460,10 @@
         </is>
       </c>
       <c r="G216" s="37" t="n">
-        <v>739954</v>
+        <v>738500</v>
       </c>
       <c r="H216" s="37" t="n">
-        <v>168929</v>
+        <v>167989</v>
       </c>
     </row>
     <row r="217" ht="12.75" customHeight="1" s="39">
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="B217" s="49" t="n">
-        <v>14918</v>
+        <v>14783</v>
       </c>
       <c r="C217" s="4" t="n">
         <v>0</v>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="G217" s="37" t="n">
-        <v>8188</v>
+        <v>7999</v>
       </c>
       <c r="H217" s="37" t="n">
-        <v>6730</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1" s="39">
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="B218" s="49" t="n">
-        <v>38972</v>
+        <v>34470</v>
       </c>
       <c r="C218" s="4" t="n">
         <v>0</v>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="G218" s="37" t="n">
-        <v>25795</v>
+        <v>25489</v>
       </c>
       <c r="H218" s="37" t="n">
-        <v>13177</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="219" ht="12.75" customHeight="1" s="39">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="B219" s="49" t="n">
-        <v>130957</v>
+        <v>122987</v>
       </c>
       <c r="C219" s="4" t="n">
         <v>0</v>
@@ -6541,10 +6541,10 @@
         </is>
       </c>
       <c r="G219" s="37" t="n">
-        <v>102987</v>
+        <v>106943</v>
       </c>
       <c r="H219" s="37" t="n">
-        <v>27970</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1" s="39">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="B220" s="49" t="n">
-        <v>414440</v>
+        <v>414432</v>
       </c>
       <c r="C220" s="12" t="n">
         <v>0</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="G220" s="37" t="n">
-        <v>374000</v>
+        <v>379980</v>
       </c>
       <c r="H220" s="37" t="n">
-        <v>40440</v>
+        <v>34452</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1" s="39">
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="B221" s="49" t="n">
-        <v>982215</v>
+        <v>977773</v>
       </c>
       <c r="C221" s="12" t="n">
         <v>0</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="G221" s="37" t="n">
-        <v>799999</v>
+        <v>799995</v>
       </c>
       <c r="H221" s="37" t="n">
-        <v>182216</v>
+        <v>177778</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1" s="39">
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="B222" s="52" t="n">
-        <v>13931</v>
+        <v>13988</v>
       </c>
       <c r="C222" s="4" t="n">
         <v>0</v>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="G222" s="37" t="n">
-        <v>8976</v>
+        <v>9692</v>
       </c>
       <c r="H222" s="37" t="n">
-        <v>4955</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1" s="39">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="B223" s="52" t="n">
-        <v>36801</v>
+        <v>30825</v>
       </c>
       <c r="C223" s="4" t="n">
         <v>0</v>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="G223" s="37" t="n">
-        <v>25397</v>
+        <v>25231</v>
       </c>
       <c r="H223" s="37" t="n">
-        <v>11404</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1" s="39">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B224" s="52" t="n">
-        <v>127764</v>
+        <v>118983</v>
       </c>
       <c r="C224" s="4" t="n">
         <v>0</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="G224" s="37" t="n">
-        <v>105493</v>
+        <v>101961</v>
       </c>
       <c r="H224" s="37" t="n">
-        <v>22271</v>
+        <v>17022</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1" s="39">
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="B225" s="52" t="n">
-        <v>399983</v>
+        <v>386653</v>
       </c>
       <c r="C225" s="12" t="n">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="G225" s="37" t="n">
-        <v>300000</v>
+        <v>331977</v>
       </c>
       <c r="H225" s="37" t="n">
-        <v>99983</v>
+        <v>54676</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1" s="39">
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="B226" s="52" t="n">
-        <v>1051105</v>
+        <v>1020984</v>
       </c>
       <c r="C226" s="12" t="n">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         </is>
       </c>
       <c r="G226" s="37" t="n">
-        <v>0</v>
+        <v>799999</v>
       </c>
       <c r="H226" s="37" t="n">
-        <v>1051105</v>
+        <v>220985</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1" s="39">
@@ -6743,7 +6743,7 @@
         </is>
       </c>
       <c r="B227" s="51" t="n">
-        <v>8493</v>
+        <v>8005</v>
       </c>
       <c r="C227" s="4" t="n">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         </is>
       </c>
       <c r="G227" s="37" t="n">
-        <v>6600</v>
+        <v>6782</v>
       </c>
       <c r="H227" s="37" t="n">
-        <v>1893</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="228" ht="12.75" customHeight="1" s="39">
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="B228" s="51" t="n">
-        <v>19495</v>
+        <v>18998</v>
       </c>
       <c r="C228" s="4" t="n">
         <v>0</v>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="G228" s="37" t="n">
-        <v>11977</v>
+        <v>11894</v>
       </c>
       <c r="H228" s="37" t="n">
-        <v>7518</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="229" ht="12.75" customHeight="1" s="39">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="B229" s="51" t="n">
-        <v>60966</v>
+        <v>56999</v>
       </c>
       <c r="C229" s="4" t="n">
         <v>0</v>
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="G229" s="37" t="n">
-        <v>49994</v>
+        <v>44991</v>
       </c>
       <c r="H229" s="37" t="n">
-        <v>10972</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1" s="39">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="B230" s="51" t="n">
-        <v>174289</v>
+        <v>168995</v>
       </c>
       <c r="C230" s="12" t="n">
         <v>0</v>
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="G230" s="37" t="n">
-        <v>149993</v>
+        <v>149977</v>
       </c>
       <c r="H230" s="37" t="n">
-        <v>24296</v>
+        <v>19018</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1" s="39">
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="B231" s="51" t="n">
-        <v>578000</v>
+        <v>507947</v>
       </c>
       <c r="C231" s="12" t="n">
         <v>0</v>
@@ -6865,10 +6865,10 @@
         </is>
       </c>
       <c r="G231" s="37" t="n">
-        <v>550000</v>
+        <v>567990</v>
       </c>
       <c r="H231" s="37" t="n">
-        <v>28000</v>
+        <v>-60043</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1" s="39">
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="B232" s="47" t="n">
-        <v>12500</v>
+        <v>11083</v>
       </c>
       <c r="C232" s="4" t="n">
         <v>0</v>
@@ -6892,10 +6892,10 @@
         </is>
       </c>
       <c r="G232" s="37" t="n">
-        <v>7030</v>
+        <v>6998</v>
       </c>
       <c r="H232" s="37" t="n">
-        <v>5470</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="233" ht="12.75" customHeight="1" s="39">
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="B233" s="47" t="n">
-        <v>34000</v>
+        <v>24986</v>
       </c>
       <c r="C233" s="4" t="n">
         <v>0</v>
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="G233" s="37" t="n">
-        <v>25119</v>
+        <v>16996</v>
       </c>
       <c r="H233" s="37" t="n">
-        <v>8881</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1" s="39">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B234" s="47" t="n">
-        <v>95994</v>
+        <v>91958</v>
       </c>
       <c r="C234" s="4" t="n">
         <v>0</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="G234" s="37" t="n">
-        <v>71991</v>
+        <v>69980</v>
       </c>
       <c r="H234" s="37" t="n">
-        <v>24003</v>
+        <v>21978</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1" s="39">
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="B235" s="47" t="n">
-        <v>180605</v>
+        <v>185645</v>
       </c>
       <c r="C235" s="12" t="n">
         <v>0</v>
@@ -6973,10 +6973,10 @@
         </is>
       </c>
       <c r="G235" s="37" t="n">
-        <v>139999</v>
+        <v>127999</v>
       </c>
       <c r="H235" s="37" t="n">
-        <v>40606</v>
+        <v>57646</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1" s="39">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="B236" s="47" t="n">
-        <v>668994</v>
+        <v>686982</v>
       </c>
       <c r="C236" s="12" t="n">
         <v>0</v>
@@ -7000,10 +7000,10 @@
         </is>
       </c>
       <c r="G236" s="37" t="n">
-        <v>539879</v>
+        <v>529999</v>
       </c>
       <c r="H236" s="37" t="n">
-        <v>129115</v>
+        <v>156983</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1" s="39">
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="B237" s="52" t="n">
-        <v>13499</v>
+        <v>13393</v>
       </c>
       <c r="C237" s="4" t="n">
         <v>0</v>
@@ -7027,10 +7027,10 @@
         </is>
       </c>
       <c r="G237" s="37" t="n">
-        <v>7690</v>
+        <v>6495</v>
       </c>
       <c r="H237" s="37" t="n">
-        <v>5809</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1" s="39">
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="B238" s="52" t="n">
-        <v>32224</v>
+        <v>32563</v>
       </c>
       <c r="C238" s="4" t="n">
         <v>0</v>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="G238" s="37" t="n">
-        <v>22896</v>
+        <v>19993</v>
       </c>
       <c r="H238" s="37" t="n">
-        <v>9328</v>
+        <v>12570</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1" s="39">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="B239" s="52" t="n">
-        <v>88998</v>
+        <v>88989</v>
       </c>
       <c r="C239" s="4" t="n">
         <v>0</v>
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="G239" s="37" t="n">
-        <v>80975</v>
+        <v>66886</v>
       </c>
       <c r="H239" s="37" t="n">
-        <v>8023</v>
+        <v>22103</v>
       </c>
     </row>
     <row r="240" ht="12.75" customHeight="1" s="39">
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="B240" s="52" t="n">
-        <v>209952</v>
+        <v>201989</v>
       </c>
       <c r="C240" s="12" t="n">
         <v>0</v>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="G240" s="37" t="n">
-        <v>198744</v>
+        <v>164986</v>
       </c>
       <c r="H240" s="37" t="n">
-        <v>11208</v>
+        <v>37003</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1" s="39">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="B241" s="52" t="n">
-        <v>599773</v>
+        <v>572213</v>
       </c>
       <c r="C241" s="12" t="n">
         <v>0</v>
@@ -7135,10 +7135,10 @@
         </is>
       </c>
       <c r="G241" s="37" t="n">
-        <v>499995</v>
+        <v>440000</v>
       </c>
       <c r="H241" s="37" t="n">
-        <v>99778</v>
+        <v>132213</v>
       </c>
     </row>
     <row r="242" ht="12.75" customHeight="1" s="39">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B242" s="52" t="n">
-        <v>11765</v>
+        <v>13954</v>
       </c>
       <c r="C242" s="4" t="n">
         <v>0</v>
@@ -7162,10 +7162,10 @@
         </is>
       </c>
       <c r="G242" s="37" t="n">
-        <v>5000</v>
+        <v>8184</v>
       </c>
       <c r="H242" s="37" t="n">
-        <v>6765</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1" s="39">
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="B243" s="52" t="n">
-        <v>38880</v>
+        <v>44803</v>
       </c>
       <c r="C243" s="4" t="n">
         <v>0</v>
@@ -7189,10 +7189,10 @@
         </is>
       </c>
       <c r="G243" s="37" t="n">
-        <v>24962</v>
+        <v>29976</v>
       </c>
       <c r="H243" s="37" t="n">
-        <v>13918</v>
+        <v>14827</v>
       </c>
     </row>
     <row r="244" ht="12.75" customHeight="1" s="39">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B244" s="52" t="n">
-        <v>115079</v>
+        <v>115972</v>
       </c>
       <c r="C244" s="4" t="n">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="G244" s="37" t="n">
-        <v>91912</v>
+        <v>92998</v>
       </c>
       <c r="H244" s="37" t="n">
-        <v>23167</v>
+        <v>22974</v>
       </c>
     </row>
     <row r="245" ht="12.75" customHeight="1" s="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B245" s="52" t="n">
-        <v>289966</v>
+        <v>289964</v>
       </c>
       <c r="C245" s="12" t="n">
         <v>0</v>
@@ -7243,10 +7243,10 @@
         </is>
       </c>
       <c r="G245" s="37" t="n">
-        <v>244443</v>
+        <v>259922</v>
       </c>
       <c r="H245" s="37" t="n">
-        <v>45523</v>
+        <v>30042</v>
       </c>
     </row>
     <row r="246" ht="12.75" customHeight="1" s="39">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="B246" s="52" t="n">
-        <v>737771</v>
+        <v>737747</v>
       </c>
       <c r="C246" s="12" t="n">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="G246" s="37" t="n">
-        <v>570000</v>
+        <v>610000</v>
       </c>
       <c r="H246" s="37" t="n">
-        <v>167771</v>
+        <v>127747</v>
       </c>
     </row>
     <row r="247" ht="12.75" customHeight="1" s="39">
@@ -7283,7 +7283,7 @@
         </is>
       </c>
       <c r="B247" s="52" t="n">
-        <v>14497</v>
+        <v>15499</v>
       </c>
       <c r="C247" s="4" t="n">
         <v>0</v>
@@ -7297,10 +7297,10 @@
         </is>
       </c>
       <c r="G247" s="37" t="n">
-        <v>10990</v>
+        <v>4999</v>
       </c>
       <c r="H247" s="37" t="n">
-        <v>3507</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="248" ht="12.75" customHeight="1" s="39">
@@ -7310,7 +7310,7 @@
         </is>
       </c>
       <c r="B248" s="52" t="n">
-        <v>34773</v>
+        <v>37633</v>
       </c>
       <c r="C248" s="4" t="n">
         <v>0</v>
@@ -7324,10 +7324,10 @@
         </is>
       </c>
       <c r="G248" s="37" t="n">
-        <v>21998</v>
+        <v>23684</v>
       </c>
       <c r="H248" s="37" t="n">
-        <v>12775</v>
+        <v>13949</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1" s="39">
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="B249" s="52" t="n">
-        <v>112864</v>
+        <v>109864</v>
       </c>
       <c r="C249" s="4" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
         </is>
       </c>
       <c r="G249" s="37" t="n">
-        <v>84964</v>
+        <v>86965</v>
       </c>
       <c r="H249" s="37" t="n">
-        <v>27900</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="250" ht="12.75" customHeight="1" s="39">
@@ -7364,7 +7364,7 @@
         </is>
       </c>
       <c r="B250" s="52" t="n">
-        <v>273000</v>
+        <v>272999</v>
       </c>
       <c r="C250" s="12" t="n">
         <v>0</v>
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="G250" s="37" t="n">
-        <v>193999</v>
+        <v>219992</v>
       </c>
       <c r="H250" s="37" t="n">
-        <v>79001</v>
+        <v>53007</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1" s="39">
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="B251" s="52" t="n">
-        <v>625549</v>
+        <v>601531</v>
       </c>
       <c r="C251" s="12" t="n">
         <v>0</v>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="G251" s="37" t="n">
-        <v>511100</v>
+        <v>510100</v>
       </c>
       <c r="H251" s="37" t="n">
-        <v>114449</v>
+        <v>91431</v>
       </c>
     </row>
     <row r="252" ht="12.75" customHeight="1" s="39">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="B252" s="52" t="n">
-        <v>14972</v>
+        <v>13998</v>
       </c>
       <c r="C252" s="4" t="n">
         <v>0</v>
@@ -7432,10 +7432,10 @@
         </is>
       </c>
       <c r="G252" s="37" t="n">
-        <v>23986</v>
+        <v>22500</v>
       </c>
       <c r="H252" s="37" t="n">
-        <v>-9014</v>
+        <v>-8502</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1" s="39">
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="B253" s="52" t="n">
-        <v>36847</v>
+        <v>33869</v>
       </c>
       <c r="C253" s="4" t="n">
         <v>0</v>
@@ -7459,10 +7459,10 @@
         </is>
       </c>
       <c r="G253" s="37" t="n">
-        <v>23499</v>
+        <v>19993</v>
       </c>
       <c r="H253" s="37" t="n">
-        <v>13348</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1" s="39">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B254" s="52" t="n">
-        <v>117871</v>
+        <v>114909</v>
       </c>
       <c r="C254" s="4" t="n">
         <v>0</v>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="G254" s="37" t="n">
-        <v>89549</v>
+        <v>89970</v>
       </c>
       <c r="H254" s="37" t="n">
-        <v>28322</v>
+        <v>24939</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1" s="39">
@@ -7513,10 +7513,10 @@
         </is>
       </c>
       <c r="G255" s="37" t="n">
-        <v>233332</v>
+        <v>229990</v>
       </c>
       <c r="H255" s="37" t="n">
-        <v>49663</v>
+        <v>53005</v>
       </c>
     </row>
     <row r="256" ht="12.75" customHeight="1" s="39">
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="B256" s="52" t="n">
-        <v>677386</v>
+        <v>698908</v>
       </c>
       <c r="C256" s="12" t="n">
         <v>0</v>
@@ -7540,10 +7540,10 @@
         </is>
       </c>
       <c r="G256" s="37" t="n">
-        <v>590000</v>
+        <v>588873</v>
       </c>
       <c r="H256" s="37" t="n">
-        <v>87386</v>
+        <v>110035</v>
       </c>
     </row>
     <row r="257" ht="12.75" customHeight="1" s="39">
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="B257" s="47" t="n">
-        <v>6757</v>
+        <v>5358</v>
       </c>
       <c r="C257" s="4" t="n">
         <v>0</v>
@@ -7567,10 +7567,10 @@
         </is>
       </c>
       <c r="G257" s="37" t="n">
-        <v>4135</v>
+        <v>3991</v>
       </c>
       <c r="H257" s="37" t="n">
-        <v>2622</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="258" ht="12.75" customHeight="1" s="39">
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="B258" s="47" t="n">
-        <v>20597</v>
+        <v>16696</v>
       </c>
       <c r="C258" s="4" t="n">
         <v>0</v>
@@ -7594,10 +7594,10 @@
         </is>
       </c>
       <c r="G258" s="37" t="n">
-        <v>13845</v>
+        <v>13061</v>
       </c>
       <c r="H258" s="37" t="n">
-        <v>6752</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="259" ht="12.75" customHeight="1" s="39">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="B259" s="47" t="n">
-        <v>53988</v>
+        <v>47752</v>
       </c>
       <c r="C259" s="4" t="n">
         <v>0</v>
@@ -7621,10 +7621,10 @@
         </is>
       </c>
       <c r="G259" s="37" t="n">
-        <v>45294</v>
+        <v>44893</v>
       </c>
       <c r="H259" s="37" t="n">
-        <v>8694</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="260" ht="12.75" customHeight="1" s="39">
@@ -7634,7 +7634,7 @@
         </is>
       </c>
       <c r="B260" s="47" t="n">
-        <v>173779</v>
+        <v>173495</v>
       </c>
       <c r="C260" s="12" t="n">
         <v>0</v>
@@ -7648,10 +7648,10 @@
         </is>
       </c>
       <c r="G260" s="37" t="n">
-        <v>142100</v>
+        <v>135968</v>
       </c>
       <c r="H260" s="37" t="n">
-        <v>31679</v>
+        <v>37527</v>
       </c>
     </row>
     <row r="261" ht="12.75" customHeight="1" s="39">
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="B261" s="47" t="n">
-        <v>575552</v>
+        <v>572298</v>
       </c>
       <c r="C261" s="12" t="n">
         <v>0</v>
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="G261" s="37" t="n">
-        <v>489978</v>
+        <v>455551</v>
       </c>
       <c r="H261" s="37" t="n">
-        <v>85574</v>
+        <v>116747</v>
       </c>
     </row>
     <row r="262" ht="12.75" customHeight="1" s="39">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="B262" s="48" t="n">
-        <v>12045</v>
+        <v>9997</v>
       </c>
       <c r="C262" s="4" t="n">
         <v>0</v>
@@ -7702,10 +7702,10 @@
         </is>
       </c>
       <c r="G262" s="37" t="n">
-        <v>5594</v>
+        <v>4991</v>
       </c>
       <c r="H262" s="37" t="n">
-        <v>6451</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="263" ht="12.75" customHeight="1" s="39">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="B263" s="48" t="n">
-        <v>30999</v>
+        <v>27485</v>
       </c>
       <c r="C263" s="4" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         </is>
       </c>
       <c r="G263" s="37" t="n">
-        <v>21923</v>
+        <v>16981</v>
       </c>
       <c r="H263" s="37" t="n">
-        <v>9076</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="264" ht="12.75" customHeight="1" s="39">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B264" s="48" t="n">
-        <v>80989</v>
+        <v>75998</v>
       </c>
       <c r="C264" s="4" t="n">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         </is>
       </c>
       <c r="G264" s="37" t="n">
-        <v>67636</v>
+        <v>67708</v>
       </c>
       <c r="H264" s="37" t="n">
-        <v>13353</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="265" ht="12.75" customHeight="1" s="39">
@@ -7769,7 +7769,7 @@
         </is>
       </c>
       <c r="B265" s="48" t="n">
-        <v>220988</v>
+        <v>218979</v>
       </c>
       <c r="C265" s="12" t="n">
         <v>0</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="G265" s="37" t="n">
-        <v>173979</v>
+        <v>169996</v>
       </c>
       <c r="H265" s="37" t="n">
-        <v>47009</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="266" ht="12.75" customHeight="1" s="39">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="B266" s="48" t="n">
-        <v>616666</v>
+        <v>811993</v>
       </c>
       <c r="C266" s="12" t="n">
         <v>0</v>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="G266" s="37" t="n">
-        <v>499999</v>
+        <v>513959</v>
       </c>
       <c r="H266" s="37" t="n">
-        <v>116667</v>
+        <v>298034</v>
       </c>
     </row>
     <row r="267" ht="12.75" customHeight="1" s="39">
@@ -7823,7 +7823,7 @@
         </is>
       </c>
       <c r="B267" s="49" t="n">
-        <v>11943</v>
+        <v>9893</v>
       </c>
       <c r="C267" s="4" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="G267" s="37" t="n">
-        <v>7388</v>
+        <v>7146</v>
       </c>
       <c r="H267" s="37" t="n">
-        <v>4555</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="268" ht="12.75" customHeight="1" s="39">
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="B268" s="49" t="n">
-        <v>26909</v>
+        <v>26468</v>
       </c>
       <c r="C268" s="4" t="n">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         </is>
       </c>
       <c r="G268" s="37" t="n">
-        <v>18998</v>
+        <v>16895</v>
       </c>
       <c r="H268" s="37" t="n">
-        <v>7911</v>
+        <v>9573</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1" s="39">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="B269" s="49" t="n">
-        <v>81268</v>
+        <v>74888</v>
       </c>
       <c r="C269" s="4" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         </is>
       </c>
       <c r="G269" s="37" t="n">
-        <v>62978</v>
+        <v>60901</v>
       </c>
       <c r="H269" s="37" t="n">
-        <v>18290</v>
+        <v>13987</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1" s="39">
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="B270" s="49" t="n">
-        <v>234209</v>
+        <v>225938</v>
       </c>
       <c r="C270" s="12" t="n">
         <v>0</v>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="G270" s="37" t="n">
-        <v>189985</v>
+        <v>189978</v>
       </c>
       <c r="H270" s="37" t="n">
-        <v>44224</v>
+        <v>35960</v>
       </c>
     </row>
     <row r="271" ht="12.75" customHeight="1" s="39">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="B271" s="49" t="n">
-        <v>686666</v>
+        <v>655947</v>
       </c>
       <c r="C271" s="12" t="n">
         <v>0</v>
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="G271" s="37" t="n">
-        <v>521999</v>
+        <v>521988</v>
       </c>
       <c r="H271" s="37" t="n">
-        <v>164667</v>
+        <v>133959</v>
       </c>
     </row>
     <row r="272" ht="12.75" customHeight="1" s="39">
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="B272" s="52" t="n">
-        <v>9365</v>
+        <v>6724</v>
       </c>
       <c r="C272" s="4" t="n">
         <v>0</v>
@@ -7972,10 +7972,10 @@
         </is>
       </c>
       <c r="G272" s="37" t="n">
-        <v>5999</v>
+        <v>5989</v>
       </c>
       <c r="H272" s="37" t="n">
-        <v>3366</v>
+        <v>735</v>
       </c>
     </row>
     <row r="273" ht="12.75" customHeight="1" s="39">
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="B273" s="52" t="n">
-        <v>15701</v>
+        <v>14994</v>
       </c>
       <c r="C273" s="4" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         </is>
       </c>
       <c r="G273" s="37" t="n">
-        <v>12490</v>
+        <v>11988</v>
       </c>
       <c r="H273" s="37" t="n">
-        <v>3211</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="274" ht="12.75" customHeight="1" s="39">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="B274" s="52" t="n">
-        <v>61883</v>
+        <v>55971</v>
       </c>
       <c r="C274" s="4" t="n">
         <v>0</v>
@@ -8026,10 +8026,10 @@
         </is>
       </c>
       <c r="G274" s="37" t="n">
-        <v>58267</v>
+        <v>58129</v>
       </c>
       <c r="H274" s="37" t="n">
-        <v>3616</v>
+        <v>-2158</v>
       </c>
     </row>
     <row r="275" ht="12.75" customHeight="1" s="39">
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="B275" s="52" t="n">
-        <v>179976</v>
+        <v>163990</v>
       </c>
       <c r="C275" s="12" t="n">
         <v>0</v>
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="G275" s="37" t="n">
-        <v>169997</v>
+        <v>159999</v>
       </c>
       <c r="H275" s="37" t="n">
-        <v>9979</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="276" ht="12.75" customHeight="1" s="39">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="B276" s="52" t="n">
-        <v>518888</v>
+        <v>485774</v>
       </c>
       <c r="C276" s="12" t="n">
         <v>0</v>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="G276" s="37" t="n">
-        <v>419999</v>
+        <v>419982</v>
       </c>
       <c r="H276" s="37" t="n">
-        <v>98889</v>
+        <v>65792</v>
       </c>
     </row>
     <row r="277" ht="12.75" customHeight="1" s="39">
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="B277" s="51" t="n">
-        <v>11987</v>
+        <v>10197</v>
       </c>
       <c r="C277" s="4" t="n">
         <v>0</v>
@@ -8107,10 +8107,10 @@
         </is>
       </c>
       <c r="G277" s="37" t="n">
-        <v>7499</v>
+        <v>7766</v>
       </c>
       <c r="H277" s="37" t="n">
-        <v>4488</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="278" ht="12.75" customHeight="1" s="39">
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="B278" s="51" t="n">
-        <v>29513</v>
+        <v>27000</v>
       </c>
       <c r="C278" s="4" t="n">
         <v>0</v>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="G278" s="37" t="n">
-        <v>16189</v>
+        <v>15000</v>
       </c>
       <c r="H278" s="37" t="n">
-        <v>13324</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="279" ht="12.75" customHeight="1" s="39">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="B279" s="51" t="n">
-        <v>82999</v>
+        <v>78695</v>
       </c>
       <c r="C279" s="4" t="n">
         <v>0</v>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="G279" s="37" t="n">
-        <v>86398</v>
+        <v>84900</v>
       </c>
       <c r="H279" s="37" t="n">
-        <v>-3399</v>
+        <v>-6205</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1" s="39">
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="B280" s="51" t="n">
-        <v>261955</v>
+        <v>245998</v>
       </c>
       <c r="C280" s="12" t="n">
         <v>0</v>
@@ -8188,10 +8188,10 @@
         </is>
       </c>
       <c r="G280" s="37" t="n">
-        <v>254994</v>
+        <v>247997</v>
       </c>
       <c r="H280" s="37" t="n">
-        <v>6961</v>
+        <v>-1999</v>
       </c>
     </row>
     <row r="281" ht="12.75" customHeight="1" s="39">
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="B281" s="51" t="n">
-        <v>705555</v>
+        <v>687198</v>
       </c>
       <c r="C281" s="12" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="G281" s="37" t="n">
-        <v>629999</v>
+        <v>629998</v>
       </c>
       <c r="H281" s="37" t="n">
-        <v>75556</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="282" ht="12.75" customHeight="1" s="39">
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="B282" s="47" t="n">
-        <v>9640</v>
+        <v>8749</v>
       </c>
       <c r="C282" s="4" t="n">
         <v>0</v>
@@ -8242,10 +8242,10 @@
         </is>
       </c>
       <c r="G282" s="37" t="n">
-        <v>7799</v>
+        <v>6500</v>
       </c>
       <c r="H282" s="37" t="n">
-        <v>1841</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1" s="39">
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="B283" s="47" t="n">
-        <v>27981</v>
+        <v>22981</v>
       </c>
       <c r="C283" s="4" t="n">
         <v>0</v>
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="G283" s="37" t="n">
-        <v>16787</v>
+        <v>16000</v>
       </c>
       <c r="H283" s="37" t="n">
-        <v>11194</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1" s="39">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="B284" s="47" t="n">
-        <v>87997</v>
+        <v>77870</v>
       </c>
       <c r="C284" s="4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         </is>
       </c>
       <c r="G284" s="37" t="n">
-        <v>86862</v>
+        <v>86784</v>
       </c>
       <c r="H284" s="37" t="n">
-        <v>1135</v>
+        <v>-8914</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1" s="39">
@@ -8309,7 +8309,7 @@
         </is>
       </c>
       <c r="B285" s="47" t="n">
-        <v>289790</v>
+        <v>269984</v>
       </c>
       <c r="C285" s="12" t="n">
         <v>0</v>
@@ -8323,10 +8323,10 @@
         </is>
       </c>
       <c r="G285" s="37" t="n">
-        <v>255533</v>
+        <v>232990</v>
       </c>
       <c r="H285" s="37" t="n">
-        <v>34257</v>
+        <v>36994</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1" s="39">
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="B286" s="47" t="n">
-        <v>771111</v>
+        <v>753489</v>
       </c>
       <c r="C286" s="12" t="n">
         <v>0</v>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="G286" s="37" t="n">
-        <v>670000</v>
+        <v>669996</v>
       </c>
       <c r="H286" s="37" t="n">
-        <v>101111</v>
+        <v>83493</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1" s="39">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="B287" s="48" t="n">
-        <v>8997</v>
+        <v>9598</v>
       </c>
       <c r="C287" s="4" t="n">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         </is>
       </c>
       <c r="G287" s="37" t="n">
-        <v>5537</v>
+        <v>6590</v>
       </c>
       <c r="H287" s="37" t="n">
-        <v>3460</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1" s="39">
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="B288" s="48" t="n">
-        <v>23583</v>
+        <v>22670</v>
       </c>
       <c r="C288" s="4" t="n">
         <v>0</v>
@@ -8404,10 +8404,10 @@
         </is>
       </c>
       <c r="G288" s="37" t="n">
-        <v>12796</v>
+        <v>13963</v>
       </c>
       <c r="H288" s="37" t="n">
-        <v>10787</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1" s="39">
@@ -8417,7 +8417,7 @@
         </is>
       </c>
       <c r="B289" s="48" t="n">
-        <v>61992</v>
+        <v>61969</v>
       </c>
       <c r="C289" s="4" t="n">
         <v>0</v>
@@ -8431,10 +8431,10 @@
         </is>
       </c>
       <c r="G289" s="37" t="n">
-        <v>52724</v>
+        <v>52288</v>
       </c>
       <c r="H289" s="37" t="n">
-        <v>9268</v>
+        <v>9681</v>
       </c>
     </row>
     <row r="290" ht="12.75" customHeight="1" s="39">
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="B290" s="48" t="n">
-        <v>176758</v>
+        <v>174988</v>
       </c>
       <c r="C290" s="12" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         </is>
       </c>
       <c r="G290" s="37" t="n">
-        <v>138123</v>
+        <v>149986</v>
       </c>
       <c r="H290" s="37" t="n">
-        <v>38635</v>
+        <v>25002</v>
       </c>
     </row>
     <row r="291" ht="12.75" customHeight="1" s="39">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="B291" s="48" t="n">
-        <v>535551</v>
+        <v>519646</v>
       </c>
       <c r="C291" s="12" t="n">
         <v>0</v>
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="G291" s="37" t="n">
-        <v>400000</v>
+        <v>444880</v>
       </c>
       <c r="H291" s="37" t="n">
-        <v>135551</v>
+        <v>74766</v>
       </c>
     </row>
     <row r="292" ht="12.75" customHeight="1" s="39">
@@ -8498,7 +8498,7 @@
         </is>
       </c>
       <c r="B292" s="49" t="n">
-        <v>13820</v>
+        <v>13719</v>
       </c>
       <c r="C292" s="4" t="n">
         <v>0</v>
@@ -8512,10 +8512,10 @@
         </is>
       </c>
       <c r="G292" s="37" t="n">
-        <v>11970</v>
+        <v>15000</v>
       </c>
       <c r="H292" s="37" t="n">
-        <v>1850</v>
+        <v>-1281</v>
       </c>
     </row>
     <row r="293" ht="12.75" customHeight="1" s="39">
@@ -8525,7 +8525,7 @@
         </is>
       </c>
       <c r="B293" s="49" t="n">
-        <v>34695</v>
+        <v>32830</v>
       </c>
       <c r="C293" s="4" t="n">
         <v>0</v>
@@ -8539,10 +8539,10 @@
         </is>
       </c>
       <c r="G293" s="37" t="n">
-        <v>19987</v>
+        <v>21931</v>
       </c>
       <c r="H293" s="37" t="n">
-        <v>14708</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="294" ht="12.75" customHeight="1" s="39">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="B294" s="49" t="n">
-        <v>88000</v>
+        <v>82960</v>
       </c>
       <c r="C294" s="4" t="n">
         <v>0</v>
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="G294" s="37" t="n">
-        <v>68963</v>
+        <v>68892</v>
       </c>
       <c r="H294" s="37" t="n">
-        <v>19037</v>
+        <v>14068</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1" s="39">
@@ -8579,7 +8579,7 @@
         </is>
       </c>
       <c r="B295" s="49" t="n">
-        <v>273996</v>
+        <v>275340</v>
       </c>
       <c r="C295" s="12" t="n">
         <v>0</v>
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="G295" s="37" t="n">
-        <v>210000</v>
+        <v>209993</v>
       </c>
       <c r="H295" s="37" t="n">
-        <v>63996</v>
+        <v>65347</v>
       </c>
     </row>
     <row r="296" ht="12.75" customHeight="1" s="39">
@@ -8606,7 +8606,7 @@
         </is>
       </c>
       <c r="B296" s="49" t="n">
-        <v>849986</v>
+        <v>854999</v>
       </c>
       <c r="C296" s="12" t="n">
         <v>0</v>
@@ -8620,10 +8620,10 @@
         </is>
       </c>
       <c r="G296" s="37" t="n">
-        <v>730873</v>
+        <v>698999</v>
       </c>
       <c r="H296" s="37" t="n">
-        <v>119113</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1" s="39">
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="B297" s="52" t="n">
-        <v>13785</v>
+        <v>12946</v>
       </c>
       <c r="C297" s="4" t="n">
         <v>0</v>
@@ -8647,10 +8647,10 @@
         </is>
       </c>
       <c r="G297" s="37" t="n">
-        <v>7864</v>
+        <v>6657</v>
       </c>
       <c r="H297" s="37" t="n">
-        <v>5921</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="298" ht="12.75" customHeight="1" s="39">
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="B298" s="52" t="n">
-        <v>32357</v>
+        <v>31575</v>
       </c>
       <c r="C298" s="4" t="n">
         <v>0</v>
@@ -8674,10 +8674,10 @@
         </is>
       </c>
       <c r="G298" s="37" t="n">
-        <v>19963</v>
+        <v>19999</v>
       </c>
       <c r="H298" s="37" t="n">
-        <v>12394</v>
+        <v>11576</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1" s="39">
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="B299" s="52" t="n">
-        <v>94000</v>
+        <v>89991</v>
       </c>
       <c r="C299" s="4" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         </is>
       </c>
       <c r="G299" s="37" t="n">
-        <v>73951</v>
+        <v>72979</v>
       </c>
       <c r="H299" s="37" t="n">
-        <v>20049</v>
+        <v>17012</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1" s="39">
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="B300" s="52" t="n">
-        <v>260677</v>
+        <v>260665</v>
       </c>
       <c r="C300" s="12" t="n">
         <v>0</v>
@@ -8728,10 +8728,10 @@
         </is>
       </c>
       <c r="G300" s="37" t="n">
-        <v>170000</v>
+        <v>211110</v>
       </c>
       <c r="H300" s="37" t="n">
-        <v>90677</v>
+        <v>49555</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1" s="39">
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="B301" s="52" t="n">
-        <v>757700</v>
+        <v>716990</v>
       </c>
       <c r="C301" s="12" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         </is>
       </c>
       <c r="G301" s="37" t="n">
-        <v>645207</v>
+        <v>610000</v>
       </c>
       <c r="H301" s="37" t="n">
-        <v>112493</v>
+        <v>106990</v>
       </c>
     </row>
     <row r="302" ht="12.75" customHeight="1" s="39">
@@ -8768,7 +8768,7 @@
         </is>
       </c>
       <c r="B302" s="51" t="n">
-        <v>11099</v>
+        <v>11100</v>
       </c>
       <c r="C302" s="4" t="n">
         <v>0</v>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="G302" s="37" t="n">
-        <v>6340</v>
+        <v>5400</v>
       </c>
       <c r="H302" s="37" t="n">
-        <v>4759</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1" s="39">
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="B303" s="51" t="n">
-        <v>25700</v>
+        <v>25489</v>
       </c>
       <c r="C303" s="4" t="n">
         <v>0</v>
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="G303" s="37" t="n">
-        <v>12631</v>
+        <v>15545</v>
       </c>
       <c r="H303" s="37" t="n">
-        <v>13069</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="304" ht="12.75" customHeight="1" s="39">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="B304" s="51" t="n">
-        <v>73063</v>
+        <v>68471</v>
       </c>
       <c r="C304" s="4" t="n">
         <v>0</v>
@@ -8836,10 +8836,10 @@
         </is>
       </c>
       <c r="G304" s="37" t="n">
-        <v>52999</v>
+        <v>54967</v>
       </c>
       <c r="H304" s="37" t="n">
-        <v>20064</v>
+        <v>13504</v>
       </c>
     </row>
     <row r="305" ht="12.75" customHeight="1" s="39">
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="B305" s="51" t="n">
-        <v>197102</v>
+        <v>189996</v>
       </c>
       <c r="C305" s="12" t="n">
         <v>0</v>
@@ -8863,10 +8863,10 @@
         </is>
       </c>
       <c r="G305" s="37" t="n">
-        <v>164995</v>
+        <v>164987</v>
       </c>
       <c r="H305" s="37" t="n">
-        <v>32107</v>
+        <v>25009</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1" s="39">
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="B306" s="51" t="n">
-        <v>690000</v>
+        <v>689951</v>
       </c>
       <c r="C306" s="12" t="n">
         <v>0</v>
@@ -8890,10 +8890,10 @@
         </is>
       </c>
       <c r="G306" s="37" t="n">
-        <v>587998</v>
+        <v>583999</v>
       </c>
       <c r="H306" s="37" t="n">
-        <v>102002</v>
+        <v>105952</v>
       </c>
     </row>
     <row r="307" ht="12.75" customHeight="1" s="39">
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="B307" s="47" t="n">
-        <v>13891</v>
+        <v>13900</v>
       </c>
       <c r="C307" s="4" t="n">
         <v>0</v>
@@ -8917,10 +8917,10 @@
         </is>
       </c>
       <c r="G307" s="37" t="n">
-        <v>6976</v>
+        <v>8891</v>
       </c>
       <c r="H307" s="37" t="n">
-        <v>6915</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="308" ht="12.75" customHeight="1" s="39">
@@ -8930,7 +8930,7 @@
         </is>
       </c>
       <c r="B308" s="47" t="n">
-        <v>32640</v>
+        <v>33679</v>
       </c>
       <c r="C308" s="4" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         </is>
       </c>
       <c r="G308" s="37" t="n">
-        <v>22994</v>
+        <v>22901</v>
       </c>
       <c r="H308" s="37" t="n">
-        <v>9646</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="309" ht="12.75" customHeight="1" s="39">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="B309" s="47" t="n">
-        <v>94839</v>
+        <v>94762</v>
       </c>
       <c r="C309" s="4" t="n">
         <v>0</v>
@@ -8971,10 +8971,10 @@
         </is>
       </c>
       <c r="G309" s="37" t="n">
-        <v>74936</v>
+        <v>74793</v>
       </c>
       <c r="H309" s="37" t="n">
-        <v>19903</v>
+        <v>19969</v>
       </c>
     </row>
     <row r="310" ht="12.75" customHeight="1" s="39">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="B310" s="47" t="n">
-        <v>238985</v>
+        <v>231991</v>
       </c>
       <c r="C310" s="12" t="n">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="G310" s="37" t="n">
-        <v>191995</v>
+        <v>189999</v>
       </c>
       <c r="H310" s="37" t="n">
-        <v>46990</v>
+        <v>41992</v>
       </c>
     </row>
     <row r="311" ht="12.75" customHeight="1" s="39">
@@ -9011,7 +9011,7 @@
         </is>
       </c>
       <c r="B311" s="47" t="n">
-        <v>834442</v>
+        <v>808693</v>
       </c>
       <c r="C311" s="12" t="n">
         <v>0</v>
@@ -9025,10 +9025,10 @@
         </is>
       </c>
       <c r="G311" s="37" t="n">
-        <v>699999</v>
+        <v>705998</v>
       </c>
       <c r="H311" s="37" t="n">
-        <v>134443</v>
+        <v>102695</v>
       </c>
     </row>
     <row r="312" ht="12.75" customHeight="1" s="39">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="B312" s="48" t="n">
-        <v>16358</v>
+        <v>14440</v>
       </c>
       <c r="C312" s="4" t="n">
         <v>0</v>
@@ -9052,10 +9052,10 @@
         </is>
       </c>
       <c r="G312" s="37" t="n">
-        <v>5999</v>
+        <v>9687</v>
       </c>
       <c r="H312" s="37" t="n">
-        <v>10359</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="313" ht="12.75" customHeight="1" s="39">
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="B313" s="48" t="n">
-        <v>36315</v>
+        <v>35960</v>
       </c>
       <c r="C313" s="4" t="n">
         <v>0</v>
@@ -9079,10 +9079,10 @@
         </is>
       </c>
       <c r="G313" s="37" t="n">
-        <v>21998</v>
+        <v>18000</v>
       </c>
       <c r="H313" s="37" t="n">
-        <v>14317</v>
+        <v>17960</v>
       </c>
     </row>
     <row r="314" ht="12.75" customHeight="1" s="39">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="B314" s="48" t="n">
-        <v>87922</v>
+        <v>89968</v>
       </c>
       <c r="C314" s="4" t="n">
         <v>0</v>
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="G314" s="37" t="n">
-        <v>72490</v>
+        <v>72326</v>
       </c>
       <c r="H314" s="37" t="n">
-        <v>15432</v>
+        <v>17642</v>
       </c>
     </row>
     <row r="315" ht="12.75" customHeight="1" s="39">
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="B315" s="48" t="n">
-        <v>245898</v>
+        <v>224437</v>
       </c>
       <c r="C315" s="12" t="n">
         <v>0</v>
@@ -9133,10 +9133,10 @@
         </is>
       </c>
       <c r="G315" s="37" t="n">
-        <v>204888</v>
+        <v>191990</v>
       </c>
       <c r="H315" s="37" t="n">
-        <v>41010</v>
+        <v>32447</v>
       </c>
     </row>
     <row r="316" ht="12.75" customHeight="1" s="39">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="B316" s="48" t="n">
-        <v>844446</v>
+        <v>803390</v>
       </c>
       <c r="C316" s="12" t="n">
         <v>0</v>
@@ -9160,10 +9160,10 @@
         </is>
       </c>
       <c r="G316" s="37" t="n">
-        <v>719992</v>
+        <v>719990</v>
       </c>
       <c r="H316" s="37" t="n">
-        <v>124454</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="317" ht="12.75" customHeight="1" s="39">
@@ -9173,7 +9173,7 @@
         </is>
       </c>
       <c r="B317" s="49" t="n">
-        <v>6994</v>
+        <v>6476</v>
       </c>
       <c r="C317" s="4" t="n">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         </is>
       </c>
       <c r="G317" s="37" t="n">
-        <v>4323</v>
+        <v>3899</v>
       </c>
       <c r="H317" s="37" t="n">
-        <v>2671</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="318" ht="12.75" customHeight="1" s="39">
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="B318" s="49" t="n">
-        <v>15098</v>
+        <v>12890</v>
       </c>
       <c r="C318" s="4" t="n">
         <v>0</v>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="G318" s="37" t="n">
-        <v>9492</v>
+        <v>9967</v>
       </c>
       <c r="H318" s="37" t="n">
-        <v>5606</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="319" ht="12.75" customHeight="1" s="39">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="B319" s="49" t="n">
-        <v>48872</v>
+        <v>44853</v>
       </c>
       <c r="C319" s="4" t="n">
         <v>0</v>
@@ -9241,10 +9241,10 @@
         </is>
       </c>
       <c r="G319" s="37" t="n">
-        <v>40998</v>
+        <v>40896</v>
       </c>
       <c r="H319" s="37" t="n">
-        <v>7874</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="320" ht="12.75" customHeight="1" s="39">
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="B320" s="49" t="n">
-        <v>109998</v>
+        <v>109984</v>
       </c>
       <c r="C320" s="12" t="n">
         <v>0</v>
@@ -9268,10 +9268,10 @@
         </is>
       </c>
       <c r="G320" s="37" t="n">
-        <v>129991</v>
+        <v>117899</v>
       </c>
       <c r="H320" s="37" t="n">
-        <v>-19993</v>
+        <v>-7915</v>
       </c>
     </row>
     <row r="321" ht="12.75" customHeight="1" s="39">
@@ -9281,7 +9281,7 @@
         </is>
       </c>
       <c r="B321" s="49" t="n">
-        <v>499654</v>
+        <v>495917</v>
       </c>
       <c r="C321" s="12" t="n">
         <v>0</v>
@@ -9295,10 +9295,10 @@
         </is>
       </c>
       <c r="G321" s="37" t="n">
-        <v>444438</v>
+        <v>444435</v>
       </c>
       <c r="H321" s="37" t="n">
-        <v>55216</v>
+        <v>51482</v>
       </c>
     </row>
     <row r="322" ht="12.75" customHeight="1" s="39">
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="B322" s="52" t="n">
-        <v>9816</v>
+        <v>9713</v>
       </c>
       <c r="C322" s="4" t="n">
         <v>0</v>
@@ -9322,10 +9322,10 @@
         </is>
       </c>
       <c r="G322" s="37" t="n">
-        <v>5821</v>
+        <v>5400</v>
       </c>
       <c r="H322" s="37" t="n">
-        <v>3995</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="323" ht="12.75" customHeight="1" s="39">
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="B323" s="52" t="n">
-        <v>26595</v>
+        <v>22671</v>
       </c>
       <c r="C323" s="4" t="n">
         <v>0</v>
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="G323" s="37" t="n">
-        <v>19998</v>
+        <v>13999</v>
       </c>
       <c r="H323" s="37" t="n">
-        <v>6597</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="324" ht="12.75" customHeight="1" s="39">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="B324" s="52" t="n">
-        <v>83000</v>
+        <v>64940</v>
       </c>
       <c r="C324" s="4" t="n">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="G324" s="37" t="n">
-        <v>63995</v>
+        <v>64274</v>
       </c>
       <c r="H324" s="37" t="n">
-        <v>19005</v>
+        <v>666</v>
       </c>
     </row>
     <row r="325" ht="12.75" customHeight="1" s="39">
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="B325" s="52" t="n">
-        <v>188996</v>
+        <v>201360</v>
       </c>
       <c r="C325" s="12" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         </is>
       </c>
       <c r="G325" s="37" t="n">
-        <v>149000</v>
+        <v>149997</v>
       </c>
       <c r="H325" s="37" t="n">
-        <v>39996</v>
+        <v>51363</v>
       </c>
     </row>
     <row r="326" ht="12.75" customHeight="1" s="39">
@@ -9416,7 +9416,7 @@
         </is>
       </c>
       <c r="B326" s="52" t="n">
-        <v>714440</v>
+        <v>672977</v>
       </c>
       <c r="C326" s="12" t="n">
         <v>0</v>
@@ -9430,10 +9430,10 @@
         </is>
       </c>
       <c r="G326" s="37" t="n">
-        <v>568933</v>
+        <v>499996</v>
       </c>
       <c r="H326" s="37" t="n">
-        <v>145507</v>
+        <v>172981</v>
       </c>
     </row>
     <row r="327" ht="12.75" customHeight="1" s="39">
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="B327" s="51" t="n">
-        <v>11906</v>
+        <v>11412</v>
       </c>
       <c r="C327" s="4" t="n">
         <v>0</v>
@@ -9457,10 +9457,10 @@
         </is>
       </c>
       <c r="G327" s="37" t="n">
-        <v>5196</v>
+        <v>5496</v>
       </c>
       <c r="H327" s="37" t="n">
-        <v>6710</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="328" ht="12.75" customHeight="1" s="39">
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="B328" s="51" t="n">
-        <v>27836</v>
+        <v>19886</v>
       </c>
       <c r="C328" s="4" t="n">
         <v>0</v>
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="G328" s="37" t="n">
-        <v>16988</v>
+        <v>12471</v>
       </c>
       <c r="H328" s="37" t="n">
-        <v>10848</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="329" ht="12.75" customHeight="1" s="39">
@@ -9497,7 +9497,7 @@
         </is>
       </c>
       <c r="B329" s="51" t="n">
-        <v>84000</v>
+        <v>67765</v>
       </c>
       <c r="C329" s="4" t="n">
         <v>0</v>
@@ -9511,10 +9511,10 @@
         </is>
       </c>
       <c r="G329" s="37" t="n">
-        <v>68956</v>
+        <v>64880</v>
       </c>
       <c r="H329" s="37" t="n">
-        <v>15044</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="330" ht="12.75" customHeight="1" s="39">
@@ -9524,7 +9524,7 @@
         </is>
       </c>
       <c r="B330" s="51" t="n">
-        <v>201973</v>
+        <v>198977</v>
       </c>
       <c r="C330" s="12" t="n">
         <v>0</v>
@@ -9538,10 +9538,10 @@
         </is>
       </c>
       <c r="G330" s="37" t="n">
-        <v>160000</v>
+        <v>155969</v>
       </c>
       <c r="H330" s="37" t="n">
-        <v>41973</v>
+        <v>43008</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1" s="39">
@@ -9551,7 +9551,7 @@
         </is>
       </c>
       <c r="B331" s="51" t="n">
-        <v>676600</v>
+        <v>624999</v>
       </c>
       <c r="C331" s="12" t="n">
         <v>0</v>
@@ -9565,10 +9565,10 @@
         </is>
       </c>
       <c r="G331" s="37" t="n">
-        <v>522222</v>
+        <v>519996</v>
       </c>
       <c r="H331" s="37" t="n">
-        <v>154378</v>
+        <v>105003</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1" s="39">
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="B332" s="47" t="n">
-        <v>10478</v>
+        <v>10482</v>
       </c>
       <c r="C332" s="4" t="n">
         <v>0</v>
@@ -9592,10 +9592,10 @@
         </is>
       </c>
       <c r="G332" s="37" t="n">
-        <v>5171</v>
+        <v>5967</v>
       </c>
       <c r="H332" s="37" t="n">
-        <v>5307</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="333" ht="12.75" customHeight="1" s="39">
@@ -9605,7 +9605,7 @@
         </is>
       </c>
       <c r="B333" s="47" t="n">
-        <v>27000</v>
+        <v>28292</v>
       </c>
       <c r="C333" s="4" t="n">
         <v>0</v>
@@ -9619,10 +9619,10 @@
         </is>
       </c>
       <c r="G333" s="37" t="n">
-        <v>34596</v>
+        <v>14980</v>
       </c>
       <c r="H333" s="37" t="n">
-        <v>-7596</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="334" ht="12.75" customHeight="1" s="39">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B334" s="47" t="n">
-        <v>51105</v>
+        <v>48983</v>
       </c>
       <c r="C334" s="4" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="G334" s="37" t="n">
-        <v>35985</v>
+        <v>37980</v>
       </c>
       <c r="H334" s="37" t="n">
-        <v>15120</v>
+        <v>11003</v>
       </c>
     </row>
     <row r="335" ht="12.75" customHeight="1" s="39">
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="B335" s="47" t="n">
-        <v>145410</v>
+        <v>145412</v>
       </c>
       <c r="C335" s="12" t="n">
         <v>0</v>
@@ -9673,10 +9673,10 @@
         </is>
       </c>
       <c r="G335" s="37" t="n">
-        <v>124443</v>
+        <v>114999</v>
       </c>
       <c r="H335" s="37" t="n">
-        <v>20967</v>
+        <v>30413</v>
       </c>
     </row>
     <row r="336" ht="12.75" customHeight="1" s="39">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="B336" s="47" t="n">
-        <v>564797</v>
+        <v>554998</v>
       </c>
       <c r="C336" s="12" t="n">
         <v>0</v>
@@ -9700,10 +9700,10 @@
         </is>
       </c>
       <c r="G336" s="37" t="n">
-        <v>410984</v>
+        <v>444409</v>
       </c>
       <c r="H336" s="37" t="n">
-        <v>153813</v>
+        <v>110589</v>
       </c>
     </row>
     <row r="337" ht="12.75" customHeight="1" s="39">
@@ -9713,7 +9713,7 @@
         </is>
       </c>
       <c r="B337" s="48" t="n">
-        <v>13445</v>
+        <v>13470</v>
       </c>
       <c r="C337" s="4" t="n">
         <v>0</v>
@@ -9727,10 +9727,10 @@
         </is>
       </c>
       <c r="G337" s="37" t="n">
-        <v>7310</v>
+        <v>8300</v>
       </c>
       <c r="H337" s="37" t="n">
-        <v>6135</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="338" ht="12.75" customHeight="1" s="39">
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="B338" s="48" t="n">
-        <v>31979</v>
+        <v>31781</v>
       </c>
       <c r="C338" s="4" t="n">
         <v>0</v>
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="G338" s="37" t="n">
-        <v>19889</v>
+        <v>18994</v>
       </c>
       <c r="H338" s="37" t="n">
-        <v>12090</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="339" ht="12.75" customHeight="1" s="39">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="B339" s="48" t="n">
-        <v>68806</v>
+        <v>64959</v>
       </c>
       <c r="C339" s="4" t="n">
         <v>0</v>
@@ -9781,10 +9781,10 @@
         </is>
       </c>
       <c r="G339" s="37" t="n">
-        <v>52884</v>
+        <v>52800</v>
       </c>
       <c r="H339" s="37" t="n">
-        <v>15922</v>
+        <v>12159</v>
       </c>
     </row>
     <row r="340" ht="12.75" customHeight="1" s="39">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="B340" s="48" t="n">
-        <v>223893</v>
+        <v>219986</v>
       </c>
       <c r="C340" s="12" t="n">
         <v>0</v>
@@ -9808,10 +9808,10 @@
         </is>
       </c>
       <c r="G340" s="37" t="n">
-        <v>197000</v>
+        <v>174997</v>
       </c>
       <c r="H340" s="37" t="n">
-        <v>26893</v>
+        <v>44989</v>
       </c>
     </row>
     <row r="341" ht="12.75" customHeight="1" s="39">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="B341" s="48" t="n">
-        <v>642972</v>
+        <v>642869</v>
       </c>
       <c r="C341" s="12" t="n">
         <v>0</v>
@@ -9835,10 +9835,10 @@
         </is>
       </c>
       <c r="G341" s="37" t="n">
-        <v>599983</v>
+        <v>519994</v>
       </c>
       <c r="H341" s="37" t="n">
-        <v>42989</v>
+        <v>122875</v>
       </c>
     </row>
     <row r="342" ht="12.75" customHeight="1" s="39">
@@ -9848,7 +9848,7 @@
         </is>
       </c>
       <c r="B342" s="49" t="n">
-        <v>14672</v>
+        <v>14650</v>
       </c>
       <c r="C342" s="4" t="n">
         <v>0</v>
@@ -9862,10 +9862,10 @@
         </is>
       </c>
       <c r="G342" s="37" t="n">
-        <v>6700</v>
+        <v>8328</v>
       </c>
       <c r="H342" s="37" t="n">
-        <v>7972</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="343" ht="12.75" customHeight="1" s="39">
@@ -9875,7 +9875,7 @@
         </is>
       </c>
       <c r="B343" s="49" t="n">
-        <v>30900</v>
+        <v>29075</v>
       </c>
       <c r="C343" s="4" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         </is>
       </c>
       <c r="G343" s="37" t="n">
-        <v>19546</v>
+        <v>16244</v>
       </c>
       <c r="H343" s="37" t="n">
-        <v>11354</v>
+        <v>12831</v>
       </c>
     </row>
     <row r="344" ht="12.75" customHeight="1" s="39">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="B344" s="49" t="n">
-        <v>71995</v>
+        <v>66689</v>
       </c>
       <c r="C344" s="4" t="n">
         <v>0</v>
@@ -9916,10 +9916,10 @@
         </is>
       </c>
       <c r="G344" s="37" t="n">
-        <v>52199</v>
+        <v>55920</v>
       </c>
       <c r="H344" s="37" t="n">
-        <v>19796</v>
+        <v>10769</v>
       </c>
     </row>
     <row r="345" ht="12.75" customHeight="1" s="39">
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="B345" s="49" t="n">
-        <v>200799</v>
+        <v>199996</v>
       </c>
       <c r="C345" s="12" t="n">
         <v>0</v>
@@ -9943,10 +9943,10 @@
         </is>
       </c>
       <c r="G345" s="37" t="n">
-        <v>167996</v>
+        <v>167967</v>
       </c>
       <c r="H345" s="37" t="n">
-        <v>32803</v>
+        <v>32029</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1" s="39">
@@ -9956,7 +9956,7 @@
         </is>
       </c>
       <c r="B346" s="49" t="n">
-        <v>675554</v>
+        <v>662895</v>
       </c>
       <c r="C346" s="12" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         </is>
       </c>
       <c r="G346" s="37" t="n">
-        <v>561635</v>
+        <v>499997</v>
       </c>
       <c r="H346" s="37" t="n">
-        <v>113919</v>
+        <v>162898</v>
       </c>
     </row>
     <row r="347" ht="12.75" customHeight="1" s="39">
@@ -9983,7 +9983,7 @@
         </is>
       </c>
       <c r="B347" s="52" t="n">
-        <v>7373</v>
+        <v>7368</v>
       </c>
       <c r="C347" s="4" t="n">
         <v>0</v>
@@ -9997,10 +9997,10 @@
         </is>
       </c>
       <c r="G347" s="37" t="n">
-        <v>4311</v>
+        <v>4496</v>
       </c>
       <c r="H347" s="37" t="n">
-        <v>3062</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1" s="39">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="B348" s="52" t="n">
-        <v>17711</v>
+        <v>17165</v>
       </c>
       <c r="C348" s="4" t="n">
         <v>0</v>
@@ -10024,10 +10024,10 @@
         </is>
       </c>
       <c r="G348" s="37" t="n">
-        <v>11000</v>
+        <v>10878</v>
       </c>
       <c r="H348" s="37" t="n">
-        <v>6711</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="349" ht="12.75" customHeight="1" s="39">
@@ -10037,7 +10037,7 @@
         </is>
       </c>
       <c r="B349" s="52" t="n">
-        <v>69700</v>
+        <v>66889</v>
       </c>
       <c r="C349" s="4" t="n">
         <v>0</v>
@@ -10051,10 +10051,10 @@
         </is>
       </c>
       <c r="G349" s="37" t="n">
-        <v>62994</v>
+        <v>51000</v>
       </c>
       <c r="H349" s="37" t="n">
-        <v>6706</v>
+        <v>15889</v>
       </c>
     </row>
     <row r="350" ht="12.75" customHeight="1" s="39">
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="G350" s="37" t="n">
-        <v>157996</v>
+        <v>160944</v>
       </c>
       <c r="H350" s="37" t="n">
-        <v>29896</v>
+        <v>26948</v>
       </c>
     </row>
     <row r="351" ht="12.75" customHeight="1" s="39">
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="B351" s="52" t="n">
-        <v>572488</v>
+        <v>606587</v>
       </c>
       <c r="C351" s="12" t="n">
         <v>0</v>
@@ -10105,10 +10105,10 @@
         </is>
       </c>
       <c r="G351" s="37" t="n">
-        <v>489988</v>
+        <v>489998</v>
       </c>
       <c r="H351" s="37" t="n">
-        <v>82500</v>
+        <v>116589</v>
       </c>
     </row>
     <row r="352" ht="12.75" customHeight="1" s="39">
@@ -10118,7 +10118,7 @@
         </is>
       </c>
       <c r="B352" s="51" t="n">
-        <v>15939</v>
+        <v>14798</v>
       </c>
       <c r="C352" s="4" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         </is>
       </c>
       <c r="G352" s="37" t="n">
-        <v>4488</v>
+        <v>5499</v>
       </c>
       <c r="H352" s="37" t="n">
-        <v>11451</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="353" ht="12.75" customHeight="1" s="39">
@@ -10145,7 +10145,7 @@
         </is>
       </c>
       <c r="B353" s="51" t="n">
-        <v>26548</v>
+        <v>26468</v>
       </c>
       <c r="C353" s="4" t="n">
         <v>0</v>
@@ -10159,10 +10159,10 @@
         </is>
       </c>
       <c r="G353" s="37" t="n">
-        <v>14000</v>
+        <v>12985</v>
       </c>
       <c r="H353" s="37" t="n">
-        <v>12548</v>
+        <v>13483</v>
       </c>
     </row>
     <row r="354" ht="12.75" customHeight="1" s="39">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="B354" s="51" t="n">
-        <v>83609</v>
+        <v>81971</v>
       </c>
       <c r="C354" s="4" t="n">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="G354" s="37" t="n">
-        <v>66794</v>
+        <v>63968</v>
       </c>
       <c r="H354" s="37" t="n">
-        <v>16815</v>
+        <v>18003</v>
       </c>
     </row>
     <row r="355" ht="12.75" customHeight="1" s="39">
@@ -10199,7 +10199,7 @@
         </is>
       </c>
       <c r="B355" s="51" t="n">
-        <v>249092</v>
+        <v>247995</v>
       </c>
       <c r="C355" s="12" t="n">
         <v>0</v>
@@ -10213,10 +10213,10 @@
         </is>
       </c>
       <c r="G355" s="37" t="n">
-        <v>201986</v>
+        <v>201979</v>
       </c>
       <c r="H355" s="37" t="n">
-        <v>47106</v>
+        <v>46016</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1" s="39">
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="B356" s="51" t="n">
-        <v>656896</v>
+        <v>667998</v>
       </c>
       <c r="C356" s="12" t="n">
         <v>0</v>
@@ -10240,10 +10240,10 @@
         </is>
       </c>
       <c r="G356" s="37" t="n">
-        <v>549996</v>
+        <v>549955</v>
       </c>
       <c r="H356" s="37" t="n">
-        <v>106900</v>
+        <v>118043</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1" s="39">
@@ -10253,7 +10253,7 @@
         </is>
       </c>
       <c r="B357" s="47" t="n">
-        <v>11399</v>
+        <v>11294</v>
       </c>
       <c r="C357" s="4" t="n">
         <v>0</v>
@@ -10267,10 +10267,10 @@
         </is>
       </c>
       <c r="G357" s="37" t="n">
-        <v>3799</v>
+        <v>6745</v>
       </c>
       <c r="H357" s="37" t="n">
-        <v>7600</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1" s="39">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="B358" s="47" t="n">
-        <v>29094</v>
+        <v>29267</v>
       </c>
       <c r="C358" s="4" t="n">
         <v>0</v>
@@ -10294,10 +10294,10 @@
         </is>
       </c>
       <c r="G358" s="37" t="n">
-        <v>16898</v>
+        <v>17960</v>
       </c>
       <c r="H358" s="37" t="n">
-        <v>12196</v>
+        <v>11307</v>
       </c>
     </row>
     <row r="359" ht="12.75" customHeight="1" s="39">
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="B359" s="47" t="n">
-        <v>89000</v>
+        <v>78994</v>
       </c>
       <c r="C359" s="4" t="n">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         </is>
       </c>
       <c r="G359" s="37" t="n">
-        <v>63994</v>
+        <v>65973</v>
       </c>
       <c r="H359" s="37" t="n">
-        <v>25006</v>
+        <v>13021</v>
       </c>
     </row>
     <row r="360" ht="12.75" customHeight="1" s="39">
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="B360" s="47" t="n">
-        <v>263077</v>
+        <v>263071</v>
       </c>
       <c r="C360" s="12" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         </is>
       </c>
       <c r="G360" s="37" t="n">
-        <v>212966</v>
+        <v>209983</v>
       </c>
       <c r="H360" s="37" t="n">
-        <v>50111</v>
+        <v>53088</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1" s="39">
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="B361" s="47" t="n">
-        <v>737990</v>
+        <v>655507</v>
       </c>
       <c r="C361" s="12" t="n">
         <v>0</v>
@@ -10375,10 +10375,10 @@
         </is>
       </c>
       <c r="G361" s="37" t="n">
-        <v>499995</v>
+        <v>514993</v>
       </c>
       <c r="H361" s="37" t="n">
-        <v>237995</v>
+        <v>140514</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1" s="39">
@@ -10388,7 +10388,7 @@
         </is>
       </c>
       <c r="B362" s="48" t="n">
-        <v>8854</v>
+        <v>8575</v>
       </c>
       <c r="C362" s="4" t="n">
         <v>0</v>
@@ -10402,10 +10402,10 @@
         </is>
       </c>
       <c r="G362" s="37" t="n">
-        <v>3195</v>
+        <v>5374</v>
       </c>
       <c r="H362" s="37" t="n">
-        <v>5659</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1" s="39">
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="B363" s="48" t="n">
-        <v>22000</v>
+        <v>17773</v>
       </c>
       <c r="C363" s="4" t="n">
         <v>0</v>
@@ -10429,10 +10429,10 @@
         </is>
       </c>
       <c r="G363" s="37" t="n">
-        <v>10298</v>
+        <v>9497</v>
       </c>
       <c r="H363" s="37" t="n">
-        <v>11702</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1" s="39">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B364" s="48" t="n">
-        <v>57789</v>
+        <v>49000</v>
       </c>
       <c r="C364" s="4" t="n">
         <v>0</v>
@@ -10456,10 +10456,10 @@
         </is>
       </c>
       <c r="G364" s="37" t="n">
-        <v>41999</v>
+        <v>43259</v>
       </c>
       <c r="H364" s="37" t="n">
-        <v>15790</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="365" ht="12.75" customHeight="1" s="39">
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="B365" s="48" t="n">
-        <v>159996</v>
+        <v>139980</v>
       </c>
       <c r="C365" s="12" t="n">
         <v>0</v>
@@ -10483,10 +10483,10 @@
         </is>
       </c>
       <c r="G365" s="37" t="n">
-        <v>123800</v>
+        <v>111</v>
       </c>
       <c r="H365" s="37" t="n">
-        <v>36196</v>
+        <v>139869</v>
       </c>
     </row>
     <row r="366" ht="12.75" customHeight="1" s="39">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="B366" s="48" t="n">
-        <v>582196</v>
+        <v>565978</v>
       </c>
       <c r="C366" s="12" t="n">
         <v>0</v>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="G366" s="37" t="n">
-        <v>449995</v>
+        <v>444999</v>
       </c>
       <c r="H366" s="37" t="n">
-        <v>132201</v>
+        <v>120979</v>
       </c>
     </row>
     <row r="367" ht="12.75" customHeight="1" s="39">
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="B367" s="49" t="n">
-        <v>13995</v>
+        <v>10000</v>
       </c>
       <c r="C367" s="4" t="n">
         <v>0</v>
@@ -10537,10 +10537,10 @@
         </is>
       </c>
       <c r="G367" s="37" t="n">
-        <v>8607</v>
+        <v>5999</v>
       </c>
       <c r="H367" s="37" t="n">
-        <v>5388</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="368" ht="12.75" customHeight="1" s="39">
@@ -10550,7 +10550,7 @@
         </is>
       </c>
       <c r="B368" s="49" t="n">
-        <v>34455</v>
+        <v>31959</v>
       </c>
       <c r="C368" s="4" t="n">
         <v>0</v>
@@ -10564,10 +10564,10 @@
         </is>
       </c>
       <c r="G368" s="37" t="n">
-        <v>20978</v>
+        <v>19400</v>
       </c>
       <c r="H368" s="37" t="n">
-        <v>13477</v>
+        <v>12559</v>
       </c>
     </row>
     <row r="369" ht="12.75" customHeight="1" s="39">
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="B369" s="49" t="n">
-        <v>80682</v>
+        <v>69979</v>
       </c>
       <c r="C369" s="4" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         </is>
       </c>
       <c r="G369" s="37" t="n">
-        <v>59799</v>
+        <v>58481</v>
       </c>
       <c r="H369" s="37" t="n">
-        <v>20883</v>
+        <v>11498</v>
       </c>
     </row>
     <row r="370" ht="12.75" customHeight="1" s="39">
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="B370" s="49" t="n">
-        <v>239689</v>
+        <v>209992</v>
       </c>
       <c r="C370" s="12" t="n">
         <v>0</v>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="G370" s="37" t="n">
-        <v>178997</v>
+        <v>159997</v>
       </c>
       <c r="H370" s="37" t="n">
-        <v>60692</v>
+        <v>49995</v>
       </c>
     </row>
     <row r="371" ht="12.75" customHeight="1" s="39">
@@ -10631,7 +10631,7 @@
         </is>
       </c>
       <c r="B371" s="49" t="n">
-        <v>939918</v>
+        <v>899986</v>
       </c>
       <c r="C371" s="12" t="n">
         <v>0</v>
@@ -10645,10 +10645,10 @@
         </is>
       </c>
       <c r="G371" s="37" t="n">
-        <v>749997</v>
+        <v>700000</v>
       </c>
       <c r="H371" s="37" t="n">
-        <v>189921</v>
+        <v>199986</v>
       </c>
     </row>
     <row r="372" ht="12.75" customHeight="1" s="39">
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="B372" s="52" t="n">
-        <v>12980</v>
+        <v>11597</v>
       </c>
       <c r="C372" s="4" t="n">
         <v>0</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="G372" s="37" t="n">
-        <v>6651</v>
+        <v>5960</v>
       </c>
       <c r="H372" s="37" t="n">
-        <v>6329</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1" s="39">
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="B373" s="52" t="n">
-        <v>27420</v>
+        <v>25981</v>
       </c>
       <c r="C373" s="4" t="n">
         <v>0</v>
@@ -10699,10 +10699,10 @@
         </is>
       </c>
       <c r="G373" s="37" t="n">
-        <v>14497</v>
+        <v>13899</v>
       </c>
       <c r="H373" s="37" t="n">
-        <v>12923</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="374" ht="12.75" customHeight="1" s="39">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B374" s="52" t="n">
-        <v>94000</v>
+        <v>73982</v>
       </c>
       <c r="C374" s="4" t="n">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         </is>
       </c>
       <c r="G374" s="37" t="n">
-        <v>77861</v>
+        <v>58993</v>
       </c>
       <c r="H374" s="37" t="n">
-        <v>16139</v>
+        <v>14989</v>
       </c>
     </row>
     <row r="375" ht="12.75" customHeight="1" s="39">
@@ -10739,7 +10739,7 @@
         </is>
       </c>
       <c r="B375" s="52" t="n">
-        <v>226878</v>
+        <v>199873</v>
       </c>
       <c r="C375" s="12" t="n">
         <v>0</v>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="G375" s="37" t="n">
-        <v>174524</v>
+        <v>154333</v>
       </c>
       <c r="H375" s="37" t="n">
-        <v>52354</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="376" ht="13.5" customHeight="1" s="39">
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="B376" s="52" t="n">
-        <v>724443</v>
+        <v>724345</v>
       </c>
       <c r="C376" s="12" t="n">
         <v>0</v>
@@ -10780,10 +10780,10 @@
         </is>
       </c>
       <c r="G376" s="37" t="n">
-        <v>599999</v>
+        <v>599992</v>
       </c>
       <c r="H376" s="37" t="n">
-        <v>124444</v>
+        <v>124353</v>
       </c>
     </row>
     <row r="377" ht="13.5" customHeight="1" s="39">
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="B377" s="51" t="n">
-        <v>75998</v>
+        <v>62995</v>
       </c>
       <c r="C377" s="12" t="n">
         <v>0</v>
@@ -10807,10 +10807,10 @@
         </is>
       </c>
       <c r="G377" s="37" t="n">
-        <v>71994</v>
+        <v>66937</v>
       </c>
       <c r="H377" s="37" t="n">
-        <v>4004</v>
+        <v>-3942</v>
       </c>
     </row>
     <row r="378" ht="13.5" customHeight="1" s="39">
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="B378" s="51" t="n">
-        <v>120979</v>
+        <v>120000</v>
       </c>
       <c r="C378" s="12" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         </is>
       </c>
       <c r="G378" s="37" t="n">
-        <v>109972</v>
+        <v>113987</v>
       </c>
       <c r="H378" s="37" t="n">
-        <v>11007</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="379" ht="13.5" customHeight="1" s="39">
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="B379" s="51" t="n">
-        <v>219060</v>
+        <v>244998</v>
       </c>
       <c r="C379" s="12" t="n">
         <v>0</v>
@@ -10861,10 +10861,10 @@
         </is>
       </c>
       <c r="G379" s="37" t="n">
-        <v>213997</v>
+        <v>219960</v>
       </c>
       <c r="H379" s="37" t="n">
-        <v>5063</v>
+        <v>25038</v>
       </c>
     </row>
     <row r="380" ht="13.5" customHeight="1" s="39">
@@ -10874,7 +10874,7 @@
         </is>
       </c>
       <c r="B380" s="51" t="n">
-        <v>487973</v>
+        <v>494963</v>
       </c>
       <c r="C380" s="12" t="n">
         <v>0</v>
@@ -10888,10 +10888,10 @@
         </is>
       </c>
       <c r="G380" s="37" t="n">
-        <v>419990</v>
+        <v>436998</v>
       </c>
       <c r="H380" s="37" t="n">
-        <v>67983</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="381" ht="13.5" customHeight="1" s="39">
@@ -10901,7 +10901,7 @@
         </is>
       </c>
       <c r="B381" s="51" t="n">
-        <v>988094</v>
+        <v>1014978</v>
       </c>
       <c r="C381" s="12" t="n">
         <v>0</v>
@@ -10915,10 +10915,10 @@
         </is>
       </c>
       <c r="G381" s="37" t="n">
-        <v>857861</v>
+        <v>929988</v>
       </c>
       <c r="H381" s="37" t="n">
-        <v>130233</v>
+        <v>84990</v>
       </c>
     </row>
     <row r="382" ht="13.5" customHeight="1" s="39">
@@ -10928,7 +10928,7 @@
         </is>
       </c>
       <c r="B382" s="47" t="n">
-        <v>180112</v>
+        <v>180108</v>
       </c>
       <c r="C382" s="12" t="n">
         <v>0</v>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="G382" s="37" t="n">
-        <v>199995</v>
+        <v>214888</v>
       </c>
       <c r="H382" s="37" t="n">
-        <v>-19883</v>
+        <v>-34780</v>
       </c>
     </row>
     <row r="383" ht="13.5" customHeight="1" s="39">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="B383" s="47" t="n">
-        <v>217799</v>
+        <v>218961</v>
       </c>
       <c r="C383" s="12" t="n">
         <v>0</v>
@@ -10969,10 +10969,10 @@
         </is>
       </c>
       <c r="G383" s="37" t="n">
-        <v>202000</v>
+        <v>218955</v>
       </c>
       <c r="H383" s="37" t="n">
-        <v>15799</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" ht="13.5" customHeight="1" s="39">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B384" s="47" t="n">
-        <v>263955</v>
+        <v>228958</v>
       </c>
       <c r="C384" s="12" t="n">
         <v>0</v>
@@ -10996,10 +10996,10 @@
         </is>
       </c>
       <c r="G384" s="37" t="n">
-        <v>255990</v>
+        <v>241054</v>
       </c>
       <c r="H384" s="37" t="n">
-        <v>7965</v>
+        <v>-12096</v>
       </c>
     </row>
     <row r="385" ht="13.5" customHeight="1" s="39">
@@ -11009,7 +11009,7 @@
         </is>
       </c>
       <c r="B385" s="47" t="n">
-        <v>765981</v>
+        <v>765974</v>
       </c>
       <c r="C385" s="34" t="n">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="H385" s="37" t="n">
-        <v>765981</v>
+        <v>765974</v>
       </c>
     </row>
     <row r="386" ht="13.5" customHeight="1" s="39">
@@ -11036,7 +11036,7 @@
         </is>
       </c>
       <c r="B386" s="47" t="n">
-        <v>1177829</v>
+        <v>1099979</v>
       </c>
       <c r="C386" s="34" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         </is>
       </c>
       <c r="G386" s="37" t="n">
-        <v>1200000</v>
+        <v>1199997</v>
       </c>
       <c r="H386" s="37" t="n">
-        <v>-22171</v>
+        <v>-100018</v>
       </c>
     </row>
     <row r="387" ht="13.5" customHeight="1" s="39">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="B392" s="49" t="n">
-        <v>79994</v>
+        <v>74888</v>
       </c>
       <c r="C392" s="12" t="n">
         <v>0</v>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="G392" s="37" t="n">
-        <v>89998</v>
+        <v>80000</v>
       </c>
       <c r="H392" s="37" t="n">
-        <v>-10004</v>
+        <v>-5112</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" s="39">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="B393" s="49" t="n">
-        <v>95000</v>
+        <v>94968</v>
       </c>
       <c r="C393" s="12" t="n">
         <v>0</v>
@@ -11209,10 +11209,10 @@
         </is>
       </c>
       <c r="G393" s="37" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="H393" s="37" t="n">
-        <v>20000</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1" s="39">
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="B394" s="49" t="n">
-        <v>259978</v>
+        <v>224987</v>
       </c>
       <c r="C394" s="12" t="n">
         <v>0</v>
@@ -11236,10 +11236,10 @@
         </is>
       </c>
       <c r="G394" s="37" t="n">
-        <v>240997</v>
+        <v>234989</v>
       </c>
       <c r="H394" s="37" t="n">
-        <v>18981</v>
+        <v>-10002</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1" s="39">
@@ -11249,7 +11249,7 @@
         </is>
       </c>
       <c r="B395" s="49" t="n">
-        <v>533934</v>
+        <v>535000</v>
       </c>
       <c r="C395" s="12" t="n">
         <v>0</v>
@@ -11263,10 +11263,10 @@
         </is>
       </c>
       <c r="G395" s="37" t="n">
-        <v>480966</v>
+        <v>499951</v>
       </c>
       <c r="H395" s="37" t="n">
-        <v>52968</v>
+        <v>35049</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" s="39">
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="B396" s="49" t="n">
-        <v>1289984</v>
+        <v>1249995</v>
       </c>
       <c r="C396" s="34" t="n">
         <v>0</v>
@@ -11290,10 +11290,10 @@
         </is>
       </c>
       <c r="G396" s="37" t="n">
-        <v>999000</v>
+        <v>1200000</v>
       </c>
       <c r="H396" s="37" t="n">
-        <v>290984</v>
+        <v>49995</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1" s="39">
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="B397" s="51" t="n">
-        <v>79755</v>
+        <v>79900</v>
       </c>
       <c r="C397" s="34" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         </is>
       </c>
       <c r="G397" s="37" t="n">
-        <v>42999</v>
+        <v>63322</v>
       </c>
       <c r="H397" s="37" t="n">
-        <v>36756</v>
+        <v>16578</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" s="39">
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="B398" s="51" t="n">
-        <v>82990</v>
+        <v>86489</v>
       </c>
       <c r="C398" s="34" t="n">
         <v>0</v>
@@ -11344,10 +11344,10 @@
         </is>
       </c>
       <c r="G398" s="37" t="n">
-        <v>76998</v>
+        <v>63888</v>
       </c>
       <c r="H398" s="37" t="n">
-        <v>5992</v>
+        <v>22601</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" s="39">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="B399" s="51" t="n">
-        <v>269826</v>
+        <v>262975</v>
       </c>
       <c r="C399" s="12" t="n">
         <v>0</v>
@@ -11371,10 +11371,10 @@
         </is>
       </c>
       <c r="G399" s="37" t="n">
-        <v>248973</v>
+        <v>235989</v>
       </c>
       <c r="H399" s="37" t="n">
-        <v>20853</v>
+        <v>26986</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" s="39">
@@ -11384,7 +11384,7 @@
         </is>
       </c>
       <c r="B400" s="51" t="n">
-        <v>687865</v>
+        <v>687520</v>
       </c>
       <c r="C400" s="12" t="n">
         <v>0</v>
@@ -11398,10 +11398,10 @@
         </is>
       </c>
       <c r="G400" s="37" t="n">
-        <v>641971</v>
+        <v>550000</v>
       </c>
       <c r="H400" s="37" t="n">
-        <v>45894</v>
+        <v>137520</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1" s="39">
@@ -11411,7 +11411,7 @@
         </is>
       </c>
       <c r="B401" s="51" t="n">
-        <v>1149990</v>
+        <v>1049992</v>
       </c>
       <c r="C401" s="12" t="n">
         <v>0</v>
@@ -11425,10 +11425,10 @@
         </is>
       </c>
       <c r="G401" s="37" t="n">
-        <v>1250000</v>
+        <v>1100956</v>
       </c>
       <c r="H401" s="37" t="n">
-        <v>-100010</v>
+        <v>-50964</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1" s="39">
@@ -11438,7 +11438,7 @@
         </is>
       </c>
       <c r="B402" s="47" t="n">
-        <v>98882</v>
+        <v>98878</v>
       </c>
       <c r="C402" s="12" t="n">
         <v>0</v>
@@ -11452,10 +11452,10 @@
         </is>
       </c>
       <c r="G402" s="37" t="n">
-        <v>109697</v>
+        <v>100000</v>
       </c>
       <c r="H402" s="37" t="n">
-        <v>-10815</v>
+        <v>-1122</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1" s="39">
@@ -11465,7 +11465,7 @@
         </is>
       </c>
       <c r="B403" s="47" t="n">
-        <v>135530</v>
+        <v>135981</v>
       </c>
       <c r="C403" s="12" t="n">
         <v>0</v>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="G403" s="37" t="n">
-        <v>122890</v>
+        <v>120000</v>
       </c>
       <c r="H403" s="37" t="n">
-        <v>12640</v>
+        <v>15981</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" s="39">
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="B404" s="47" t="n">
-        <v>263992</v>
+        <v>263983</v>
       </c>
       <c r="C404" s="12" t="n">
         <v>0</v>
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="G404" s="37" t="n">
-        <v>249959</v>
+        <v>0</v>
       </c>
       <c r="H404" s="37" t="n">
-        <v>14033</v>
+        <v>263983</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1" s="39">
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="B405" s="47" t="n">
-        <v>469971</v>
+        <v>469964</v>
       </c>
       <c r="C405" s="12" t="n">
         <v>0</v>
@@ -11533,10 +11533,10 @@
         </is>
       </c>
       <c r="G405" s="37" t="n">
-        <v>424986</v>
+        <v>499998</v>
       </c>
       <c r="H405" s="37" t="n">
-        <v>44985</v>
+        <v>-30034</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1" s="39">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="B406" s="47" t="n">
-        <v>931066</v>
+        <v>799998</v>
       </c>
       <c r="C406" s="34" t="n">
         <v>0</v>
@@ -11560,10 +11560,10 @@
         </is>
       </c>
       <c r="G406" s="37" t="n">
-        <v>884939</v>
+        <v>1119900</v>
       </c>
       <c r="H406" s="37" t="n">
-        <v>46127</v>
+        <v>-319902</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1" s="39">
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="B407" s="48" t="n">
-        <v>167890</v>
+        <v>159999</v>
       </c>
       <c r="C407" s="34" t="n">
         <v>0</v>
@@ -11587,10 +11587,10 @@
         </is>
       </c>
       <c r="G407" s="37" t="n">
-        <v>202970</v>
+        <v>202000</v>
       </c>
       <c r="H407" s="37" t="n">
-        <v>-35080</v>
+        <v>-42001</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" s="39">
@@ -11600,7 +11600,7 @@
         </is>
       </c>
       <c r="B408" s="48" t="n">
-        <v>197976</v>
+        <v>184992</v>
       </c>
       <c r="C408" s="34" t="n">
         <v>0</v>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="G408" s="37" t="n">
-        <v>199982</v>
+        <v>195000</v>
       </c>
       <c r="H408" s="37" t="n">
-        <v>-2006</v>
+        <v>-10008</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1" s="39">
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="B409" s="48" t="n">
-        <v>238749</v>
+        <v>237996</v>
       </c>
       <c r="C409" s="12" t="n">
         <v>0</v>
@@ -11641,10 +11641,10 @@
         </is>
       </c>
       <c r="G409" s="37" t="n">
-        <v>226974</v>
+        <v>226938</v>
       </c>
       <c r="H409" s="37" t="n">
-        <v>11775</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1" s="39">
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="B410" s="48" t="n">
-        <v>701685</v>
+        <v>701673</v>
       </c>
       <c r="C410" s="12" t="n">
         <v>0</v>
@@ -11668,10 +11668,10 @@
         </is>
       </c>
       <c r="G410" s="37" t="n">
-        <v>729995</v>
+        <v>679990</v>
       </c>
       <c r="H410" s="37" t="n">
-        <v>-28310</v>
+        <v>21683</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1" s="39">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="B411" s="48" t="n">
-        <v>949996</v>
+        <v>1079972</v>
       </c>
       <c r="C411" s="12" t="n">
         <v>0</v>
@@ -11695,10 +11695,10 @@
         </is>
       </c>
       <c r="G411" s="37" t="n">
-        <v>969999</v>
+        <v>1099999</v>
       </c>
       <c r="H411" s="37" t="n">
-        <v>-20003</v>
+        <v>-20027</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1" s="39">
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="B412" s="41" t="n">
-        <v>91574</v>
+        <v>100577</v>
       </c>
       <c r="C412" s="12" t="n">
         <v>0</v>
@@ -11722,10 +11722,10 @@
         </is>
       </c>
       <c r="G412" s="37" t="n">
-        <v>119240</v>
+        <v>100000</v>
       </c>
       <c r="H412" s="37" t="n">
-        <v>-27666</v>
+        <v>577</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1" s="39">
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="B413" s="41" t="n">
-        <v>172992</v>
+        <v>169000</v>
       </c>
       <c r="C413" s="12" t="n">
         <v>0</v>
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="G413" s="37" t="n">
-        <v>154995</v>
+        <v>159039</v>
       </c>
       <c r="H413" s="37" t="n">
-        <v>17997</v>
+        <v>9961</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" s="39">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="B414" s="41" t="n">
-        <v>386879</v>
+        <v>393366</v>
       </c>
       <c r="C414" s="12" t="n">
         <v>0</v>
@@ -11776,10 +11776,10 @@
         </is>
       </c>
       <c r="G414" s="37" t="n">
-        <v>364949</v>
+        <v>365995</v>
       </c>
       <c r="H414" s="37" t="n">
-        <v>21930</v>
+        <v>27371</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" s="39">
@@ -11789,7 +11789,7 @@
         </is>
       </c>
       <c r="B415" s="41" t="n">
-        <v>629975</v>
+        <v>629956</v>
       </c>
       <c r="C415" s="12" t="n">
         <v>0</v>
@@ -11803,10 +11803,10 @@
         </is>
       </c>
       <c r="G415" s="37" t="n">
-        <v>599998</v>
+        <v>599994</v>
       </c>
       <c r="H415" s="37" t="n">
-        <v>29977</v>
+        <v>29962</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" s="39">
@@ -11816,7 +11816,7 @@
         </is>
       </c>
       <c r="B416" s="41" t="n">
-        <v>1489990</v>
+        <v>1489981</v>
       </c>
       <c r="C416" s="34" t="n">
         <v>0</v>
@@ -11830,10 +11830,10 @@
         </is>
       </c>
       <c r="G416" s="37" t="n">
-        <v>1486999</v>
+        <v>1486992</v>
       </c>
       <c r="H416" s="37" t="n">
-        <v>2991</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1" s="39">
@@ -11857,10 +11857,10 @@
         </is>
       </c>
       <c r="G417" s="37" t="n">
-        <v>124876</v>
+        <v>117993</v>
       </c>
       <c r="H417" s="37" t="n">
-        <v>-25877</v>
+        <v>-18994</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" s="39">
@@ -11911,10 +11911,10 @@
         </is>
       </c>
       <c r="G419" s="37" t="n">
-        <v>377777</v>
+        <v>377730</v>
       </c>
       <c r="H419" s="37" t="n">
-        <v>37110</v>
+        <v>37157</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1" s="39">
@@ -11938,10 +11938,10 @@
         </is>
       </c>
       <c r="G420" s="37" t="n">
-        <v>520993</v>
+        <v>700000</v>
       </c>
       <c r="H420" s="37" t="n">
-        <v>229006</v>
+        <v>49999</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" s="39">
@@ -11965,10 +11965,10 @@
         </is>
       </c>
       <c r="G421" s="37" t="n">
-        <v>1899996</v>
+        <v>2799982</v>
       </c>
       <c r="H421" s="37" t="n">
-        <v>-122232</v>
+        <v>-1022218</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" s="39">
@@ -11978,7 +11978,7 @@
         </is>
       </c>
       <c r="B422" s="41" t="n">
-        <v>78638</v>
+        <v>77999</v>
       </c>
       <c r="C422" s="12" t="n">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         </is>
       </c>
       <c r="G422" s="37" t="n">
-        <v>85985</v>
+        <v>87992</v>
       </c>
       <c r="H422" s="37" t="n">
-        <v>-7347</v>
+        <v>-9993</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" s="39">
@@ -12005,7 +12005,7 @@
         </is>
       </c>
       <c r="B423" s="41" t="n">
-        <v>143961</v>
+        <v>143932</v>
       </c>
       <c r="C423" s="12" t="n">
         <v>0</v>
@@ -12019,10 +12019,10 @@
         </is>
       </c>
       <c r="G423" s="37" t="n">
-        <v>89999</v>
+        <v>119087</v>
       </c>
       <c r="H423" s="37" t="n">
-        <v>53962</v>
+        <v>24845</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" s="39">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B424" s="41" t="n">
-        <v>300213</v>
+        <v>299955</v>
       </c>
       <c r="C424" s="12" t="n">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="G424" s="37" t="n">
-        <v>274998</v>
+        <v>269990</v>
       </c>
       <c r="H424" s="37" t="n">
-        <v>25215</v>
+        <v>29965</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" s="39">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="B425" s="41" t="n">
-        <v>519496</v>
+        <v>519992</v>
       </c>
       <c r="C425" s="12" t="n">
         <v>0</v>
@@ -12073,10 +12073,10 @@
         </is>
       </c>
       <c r="G425" s="37" t="n">
-        <v>488886</v>
+        <v>460999</v>
       </c>
       <c r="H425" s="37" t="n">
-        <v>30610</v>
+        <v>58993</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1" s="39">
@@ -12086,7 +12086,7 @@
         </is>
       </c>
       <c r="B426" s="41" t="n">
-        <v>1159994</v>
+        <v>1159981</v>
       </c>
       <c r="C426" s="34" t="n">
         <v>0</v>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="G426" s="37" t="n">
-        <v>1099995</v>
+        <v>1098986</v>
       </c>
       <c r="H426" s="37" t="n">
-        <v>59999</v>
+        <v>60995</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1" s="39">
@@ -12113,7 +12113,7 @@
         </is>
       </c>
       <c r="B427" s="41" t="n">
-        <v>88884</v>
+        <v>69989</v>
       </c>
       <c r="C427" s="34" t="n">
         <v>0</v>
@@ -12127,10 +12127,10 @@
         </is>
       </c>
       <c r="G427" s="37" t="n">
-        <v>86130</v>
+        <v>80990</v>
       </c>
       <c r="H427" s="37" t="n">
-        <v>2754</v>
+        <v>-11001</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" s="39">
@@ -12140,7 +12140,7 @@
         </is>
       </c>
       <c r="B428" s="41" t="n">
-        <v>163655</v>
+        <v>149996</v>
       </c>
       <c r="C428" s="34" t="n">
         <v>0</v>
@@ -12154,10 +12154,10 @@
         </is>
       </c>
       <c r="G428" s="37" t="n">
-        <v>146980</v>
+        <v>132550</v>
       </c>
       <c r="H428" s="37" t="n">
-        <v>16675</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" s="39">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="B429" s="41" t="n">
-        <v>312966</v>
+        <v>318757</v>
       </c>
       <c r="C429" s="12" t="n">
         <v>0</v>
@@ -12181,10 +12181,10 @@
         </is>
       </c>
       <c r="G429" s="37" t="n">
-        <v>319988</v>
+        <v>298977</v>
       </c>
       <c r="H429" s="37" t="n">
-        <v>-7022</v>
+        <v>19780</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" s="39">
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="B430" s="41" t="n">
-        <v>670994</v>
+        <v>631973</v>
       </c>
       <c r="C430" s="12" t="n">
         <v>0</v>
@@ -12208,10 +12208,10 @@
         </is>
       </c>
       <c r="G430" s="37" t="n">
-        <v>699995</v>
+        <v>599953</v>
       </c>
       <c r="H430" s="37" t="n">
-        <v>-29001</v>
+        <v>32020</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" s="39">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="B431" s="41" t="n">
-        <v>1419997</v>
+        <v>1332323</v>
       </c>
       <c r="C431" s="12" t="n">
         <v>0</v>
@@ -12235,10 +12235,10 @@
         </is>
       </c>
       <c r="G431" s="37" t="n">
-        <v>1330000</v>
+        <v>1299980</v>
       </c>
       <c r="H431" s="37" t="n">
-        <v>89997</v>
+        <v>32343</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" s="39">
@@ -12248,7 +12248,7 @@
         </is>
       </c>
       <c r="B432" s="41" t="n">
-        <v>66833</v>
+        <v>66827</v>
       </c>
       <c r="C432" s="37" t="n">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         </is>
       </c>
       <c r="G432" s="37" t="n">
-        <v>90090</v>
+        <v>93164</v>
       </c>
       <c r="H432" s="37" t="n">
-        <v>-23257</v>
+        <v>-26337</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" s="39">
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="B433" s="41" t="n">
-        <v>134000</v>
+        <v>128986</v>
       </c>
       <c r="D433" s="37" t="n">
         <v>5</v>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="G433" s="37" t="n">
-        <v>113999</v>
+        <v>100000</v>
       </c>
       <c r="H433" s="37" t="n">
-        <v>20001</v>
+        <v>28986</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1" s="39">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="B434" s="41" t="n">
-        <v>276668</v>
+        <v>266596</v>
       </c>
       <c r="C434" s="37" t="n">
         <v>0</v>
@@ -12313,10 +12313,10 @@
         </is>
       </c>
       <c r="G434" s="37" t="n">
-        <v>263981</v>
+        <v>249997</v>
       </c>
       <c r="H434" s="37" t="n">
-        <v>12687</v>
+        <v>16599</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1" s="39">
@@ -12326,7 +12326,7 @@
         </is>
       </c>
       <c r="B435" s="41" t="n">
-        <v>409000</v>
+        <v>407774</v>
       </c>
       <c r="C435" s="37" t="n">
         <v>0</v>
@@ -12340,10 +12340,10 @@
         </is>
       </c>
       <c r="G435" s="37" t="n">
-        <v>475981</v>
+        <v>479933</v>
       </c>
       <c r="H435" s="37" t="n">
-        <v>-66981</v>
+        <v>-72159</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1" s="39">
@@ -12353,7 +12353,7 @@
         </is>
       </c>
       <c r="B436" s="41" t="n">
-        <v>1259982</v>
+        <v>1280000</v>
       </c>
       <c r="C436" s="37" t="n">
         <v>0</v>
@@ -12367,10 +12367,10 @@
         </is>
       </c>
       <c r="G436" s="37" t="n">
-        <v>1198995</v>
+        <v>1198994</v>
       </c>
       <c r="H436" s="37" t="n">
-        <v>60987</v>
+        <v>81006</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1" s="39">
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="B437" s="41" t="n">
-        <v>78863</v>
+        <v>79979</v>
       </c>
       <c r="C437" s="34" t="n">
         <v>0</v>
@@ -12394,10 +12394,10 @@
         </is>
       </c>
       <c r="G437" s="37" t="n">
-        <v>83978</v>
+        <v>86203</v>
       </c>
       <c r="H437" s="37" t="n">
-        <v>-5115</v>
+        <v>-6224</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1" s="39">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="B438" s="41" t="n">
-        <v>103200</v>
+        <v>102189</v>
       </c>
       <c r="C438" s="34" t="n">
         <v>0</v>
@@ -12421,10 +12421,10 @@
         </is>
       </c>
       <c r="G438" s="37" t="n">
-        <v>109016</v>
+        <v>109222</v>
       </c>
       <c r="H438" s="37" t="n">
-        <v>-5816</v>
+        <v>-7033</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1" s="39">
@@ -12434,7 +12434,7 @@
         </is>
       </c>
       <c r="B439" s="41" t="n">
-        <v>232237</v>
+        <v>253966</v>
       </c>
       <c r="C439" s="12" t="n">
         <v>0</v>
@@ -12448,10 +12448,10 @@
         </is>
       </c>
       <c r="G439" s="37" t="n">
-        <v>250910</v>
+        <v>279984</v>
       </c>
       <c r="H439" s="37" t="n">
-        <v>-18673</v>
+        <v>-26018</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1" s="39">
@@ -12461,7 +12461,7 @@
         </is>
       </c>
       <c r="B440" s="41" t="n">
-        <v>447977</v>
+        <v>444977</v>
       </c>
       <c r="C440" s="12" t="n">
         <v>0</v>
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="G440" s="37" t="n">
-        <v>442000</v>
+        <v>450639</v>
       </c>
       <c r="H440" s="37" t="n">
-        <v>5977</v>
+        <v>-5662</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1" s="39">
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="B441" s="41" t="n">
-        <v>1359988</v>
+        <v>1300920</v>
       </c>
       <c r="C441" s="12" t="n">
         <v>0</v>
@@ -12502,10 +12502,10 @@
         </is>
       </c>
       <c r="G441" s="37" t="n">
-        <v>1290000</v>
+        <v>1289999</v>
       </c>
       <c r="H441" s="37" t="n">
-        <v>69988</v>
+        <v>10921</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1" s="39">
@@ -12515,7 +12515,7 @@
         </is>
       </c>
       <c r="B442" s="41" t="n">
-        <v>81992</v>
+        <v>69997</v>
       </c>
       <c r="C442" s="12" t="n">
         <v>0</v>
@@ -12529,10 +12529,10 @@
         </is>
       </c>
       <c r="G442" s="37" t="n">
-        <v>89878</v>
+        <v>89711</v>
       </c>
       <c r="H442" s="37" t="n">
-        <v>-7886</v>
+        <v>-19714</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1" s="39">
@@ -12542,7 +12542,7 @@
         </is>
       </c>
       <c r="B443" s="41" t="n">
-        <v>144436</v>
+        <v>144979</v>
       </c>
       <c r="C443" s="12" t="n">
         <v>0</v>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="G443" s="37" t="n">
-        <v>124996</v>
+        <v>120955</v>
       </c>
       <c r="H443" s="37" t="n">
-        <v>19440</v>
+        <v>24024</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1" s="39">
@@ -12569,7 +12569,7 @@
         </is>
       </c>
       <c r="B444" s="41" t="n">
-        <v>279996</v>
+        <v>308886</v>
       </c>
       <c r="C444" s="12" t="n">
         <v>0</v>
@@ -12583,10 +12583,10 @@
         </is>
       </c>
       <c r="G444" s="37" t="n">
-        <v>287999</v>
+        <v>280000</v>
       </c>
       <c r="H444" s="37" t="n">
-        <v>-8003</v>
+        <v>28886</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1" s="39">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="B445" s="41" t="n">
-        <v>587866</v>
+        <v>554462</v>
       </c>
       <c r="C445" s="12" t="n">
         <v>0</v>
@@ -12610,10 +12610,10 @@
         </is>
       </c>
       <c r="G445" s="37" t="n">
-        <v>589995</v>
+        <v>500000</v>
       </c>
       <c r="H445" s="37" t="n">
-        <v>-2129</v>
+        <v>54462</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1" s="39">
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="B446" s="41" t="n">
-        <v>1299970</v>
+        <v>1428990</v>
       </c>
       <c r="C446" s="34" t="n">
         <v>0</v>
@@ -12637,10 +12637,10 @@
         </is>
       </c>
       <c r="G446" s="37" t="n">
-        <v>1399997</v>
+        <v>1399996</v>
       </c>
       <c r="H446" s="37" t="n">
-        <v>-100027</v>
+        <v>28994</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1" s="39">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="B447" s="48" t="n">
-        <v>3653</v>
+        <v>3974</v>
       </c>
       <c r="C447" s="34" t="n">
         <v>0</v>
@@ -12664,10 +12664,10 @@
         </is>
       </c>
       <c r="G447" s="37" t="n">
-        <v>4419</v>
+        <v>4388</v>
       </c>
       <c r="H447" s="37" t="n">
-        <v>-766</v>
+        <v>-414</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1" s="39">
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="B448" s="48" t="n">
-        <v>15068</v>
+        <v>15063</v>
       </c>
       <c r="C448" s="34" t="n">
         <v>0</v>
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="G448" s="37" t="n">
-        <v>9495</v>
+        <v>10968</v>
       </c>
       <c r="H448" s="37" t="n">
-        <v>5573</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1" s="39">
@@ -12704,7 +12704,7 @@
         </is>
       </c>
       <c r="B449" s="48" t="n">
-        <v>53266</v>
+        <v>53103</v>
       </c>
       <c r="C449" s="12" t="n">
         <v>0</v>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="G449" s="37" t="n">
-        <v>41979</v>
+        <v>44819</v>
       </c>
       <c r="H449" s="37" t="n">
-        <v>11287</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1" s="39">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="B450" s="48" t="n">
-        <v>138198</v>
+        <v>142918</v>
       </c>
       <c r="C450" s="12" t="n">
         <v>0</v>
@@ -12745,10 +12745,10 @@
         </is>
       </c>
       <c r="G450" s="37" t="n">
-        <v>134908</v>
+        <v>125928</v>
       </c>
       <c r="H450" s="37" t="n">
-        <v>3290</v>
+        <v>16990</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1" s="39">
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="B451" s="48" t="n">
-        <v>349996</v>
+        <v>341999</v>
       </c>
       <c r="C451" s="12" t="n">
         <v>0</v>
@@ -12772,10 +12772,10 @@
         </is>
       </c>
       <c r="G451" s="37" t="n">
-        <v>308889</v>
+        <v>294987</v>
       </c>
       <c r="H451" s="37" t="n">
-        <v>41107</v>
+        <v>47012</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" s="39">
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="B452" s="49" t="n">
-        <v>2778</v>
+        <v>2980</v>
       </c>
       <c r="C452" s="12" t="n">
         <v>0</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="G452" s="37" t="n">
-        <v>2323</v>
+        <v>2588</v>
       </c>
       <c r="H452" s="37" t="n">
-        <v>455</v>
+        <v>392</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" s="39">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="B453" s="49" t="n">
-        <v>7446</v>
+        <v>6999</v>
       </c>
       <c r="C453" s="12" t="n">
         <v>0</v>
@@ -12826,10 +12826,10 @@
         </is>
       </c>
       <c r="G453" s="37" t="n">
-        <v>5800</v>
+        <v>4455</v>
       </c>
       <c r="H453" s="37" t="n">
-        <v>1646</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1" s="39">
@@ -12839,7 +12839,7 @@
         </is>
       </c>
       <c r="B454" s="49" t="n">
-        <v>27880</v>
+        <v>27367</v>
       </c>
       <c r="C454" s="12" t="n">
         <v>0</v>
@@ -12853,10 +12853,10 @@
         </is>
       </c>
       <c r="G454" s="37" t="n">
-        <v>23789</v>
+        <v>23675</v>
       </c>
       <c r="H454" s="37" t="n">
-        <v>4091</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" s="39">
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="B455" s="49" t="n">
-        <v>73198</v>
+        <v>76473</v>
       </c>
       <c r="C455" s="12" t="n">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         </is>
       </c>
       <c r="G455" s="37" t="n">
-        <v>64924</v>
+        <v>59979</v>
       </c>
       <c r="H455" s="37" t="n">
-        <v>8274</v>
+        <v>16494</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" s="39">
@@ -12893,7 +12893,7 @@
         </is>
       </c>
       <c r="B456" s="49" t="n">
-        <v>169993</v>
+        <v>171996</v>
       </c>
       <c r="C456" s="12" t="n">
         <v>0</v>
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="G456" s="37" t="n">
-        <v>136997</v>
+        <v>125000</v>
       </c>
       <c r="H456" s="37" t="n">
-        <v>32996</v>
+        <v>46996</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1" s="39">
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="B457" s="41" t="n">
-        <v>39659</v>
+        <v>41397</v>
       </c>
       <c r="C457" s="12" t="n">
         <v>0</v>
@@ -12934,10 +12934,10 @@
         </is>
       </c>
       <c r="G457" s="37" t="n">
-        <v>33916</v>
+        <v>34496</v>
       </c>
       <c r="H457" s="37" t="n">
-        <v>5743</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1" s="39">
@@ -12947,7 +12947,7 @@
         </is>
       </c>
       <c r="B458" s="41" t="n">
-        <v>51877</v>
+        <v>48862</v>
       </c>
       <c r="C458" s="12" t="n">
         <v>0</v>
@@ -12961,10 +12961,10 @@
         </is>
       </c>
       <c r="G458" s="37" t="n">
-        <v>40994</v>
+        <v>40924</v>
       </c>
       <c r="H458" s="37" t="n">
-        <v>10883</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="459" ht="12.75" customHeight="1" s="39">
@@ -12974,7 +12974,7 @@
         </is>
       </c>
       <c r="B459" s="41" t="n">
-        <v>84689</v>
+        <v>85953</v>
       </c>
       <c r="C459" s="12" t="n">
         <v>0</v>
@@ -12988,10 +12988,10 @@
         </is>
       </c>
       <c r="G459" s="37" t="n">
-        <v>68976</v>
+        <v>69996</v>
       </c>
       <c r="H459" s="37" t="n">
-        <v>15713</v>
+        <v>15957</v>
       </c>
     </row>
     <row r="460" ht="12.75" customHeight="1" s="39">
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="B460" s="41" t="n">
-        <v>180964</v>
+        <v>185645</v>
       </c>
       <c r="C460" s="12" t="n">
         <v>0</v>
@@ -13015,10 +13015,10 @@
         </is>
       </c>
       <c r="G460" s="37" t="n">
-        <v>161968</v>
+        <v>169971</v>
       </c>
       <c r="H460" s="37" t="n">
-        <v>18996</v>
+        <v>15674</v>
       </c>
     </row>
     <row r="461" ht="12.75" customHeight="1" s="39">
@@ -13028,7 +13028,7 @@
         </is>
       </c>
       <c r="B461" s="41" t="n">
-        <v>364680</v>
+        <v>364066</v>
       </c>
       <c r="C461" s="12" t="n">
         <v>0</v>
@@ -13042,10 +13042,10 @@
         </is>
       </c>
       <c r="G461" s="37" t="n">
-        <v>312076</v>
+        <v>304977</v>
       </c>
       <c r="H461" s="37" t="n">
-        <v>52604</v>
+        <v>59089</v>
       </c>
     </row>
     <row r="462" ht="12.75" customHeight="1" s="39">
